--- a/src/main/resources/input_excel_file/booking/CICO.xlsx
+++ b/src/main/resources/input_excel_file/booking/CICO.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Booking_By_Bag_Player1" sheetId="1" r:id="rId1"/>
-    <sheet name="Check_In_Bag_Player2" sheetId="4" r:id="rId2"/>
-    <sheet name="Check_In_Bag_Player3" sheetId="5" r:id="rId3"/>
+    <sheet name="Fee_Of_Bag_Player1" sheetId="4" r:id="rId2"/>
+    <sheet name="Fee_Of_Bag_Bill_Player1" sheetId="5" r:id="rId3"/>
     <sheet name="Check_In_Bag_Player4" sheetId="6" r:id="rId4"/>
     <sheet name="Undo_Check_In" sheetId="3" r:id="rId5"/>
     <sheet name="Check_In_Ekyc" sheetId="2" r:id="rId6"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="148">
   <si>
     <t>tc_id</t>
   </si>
@@ -74,9 +74,18 @@
     <t>assert_guest_style</t>
   </si>
   <si>
+    <t>assert_agency_id</t>
+  </si>
+  <si>
+    <t>assert_check_in_time</t>
+  </si>
+  <si>
     <t>assert_flight_id</t>
   </si>
   <si>
+    <t>assert_buggy_id</t>
+  </si>
+  <si>
     <t>assert_init_type</t>
   </si>
   <si>
@@ -86,7 +95,7 @@
     <t>assert_size_list_service_items</t>
   </si>
   <si>
-    <t>BB_001</t>
+    <t>VST_BY_BAG_001</t>
   </si>
   <si>
     <t>VST_Kiểm tra thông tin booking của bag</t>
@@ -98,13 +107,19 @@
     <t>booking_by_bag_request.json</t>
   </si>
   <si>
-    <t>CHI-LINH</t>
-  </si>
-  <si>
-    <t>CHI-LINH-123</t>
-  </si>
-  <si>
-    <t>23/10/2025</t>
+    <t>{{CTX:PARTNER_UID}}</t>
+  </si>
+  <si>
+    <t>{{CTX:COURSE_UID}}</t>
+  </si>
+  <si>
+    <t>{{CTX:BAG_0}}</t>
+  </si>
+  <si>
+    <t>{{TODAY}}</t>
+  </si>
+  <si>
+    <t>2.0</t>
   </si>
   <si>
     <t>booking_by_bag_expect.json</t>
@@ -122,6 +137,123 @@
     <t>BOOKING</t>
   </si>
   <si>
+    <t>AG_BY_BAG_001</t>
+  </si>
+  <si>
+    <t>AG_Kiểm tra thông tin booking của bag</t>
+  </si>
+  <si>
+    <t>TRADITIONAL</t>
+  </si>
+  <si>
+    <t>5D</t>
+  </si>
+  <si>
+    <t>assert_total_bill.total</t>
+  </si>
+  <si>
+    <t>assert_agency_paid_all</t>
+  </si>
+  <si>
+    <t>assert_total_bill.agency_pay</t>
+  </si>
+  <si>
+    <t>assert_agency_player_pay</t>
+  </si>
+  <si>
+    <t>assert_agency_paid_discount</t>
+  </si>
+  <si>
+    <t>assert_mush_pay_info.mush_pay</t>
+  </si>
+  <si>
+    <t>assert_rounds[0].green_fee</t>
+  </si>
+  <si>
+    <t>assert_rounds[0].caddie_fee</t>
+  </si>
+  <si>
+    <t>assert_rounds[0].voucher_green_fee_amount</t>
+  </si>
+  <si>
+    <t>assert_rounds[0].voucher_caddie_fee_amount</t>
+  </si>
+  <si>
+    <t>assert_total_golf_fee.green_fee</t>
+  </si>
+  <si>
+    <t>assert_total_golf_fee.caddie_fee</t>
+  </si>
+  <si>
+    <t>assert_total_golf_fee.total</t>
+  </si>
+  <si>
+    <t>assert_total_item_fee</t>
+  </si>
+  <si>
+    <t>assert_total_service_fee.golf_fee</t>
+  </si>
+  <si>
+    <t>assert_total_service_fee.rental</t>
+  </si>
+  <si>
+    <t>assert_total_service_fee.tee_driving</t>
+  </si>
+  <si>
+    <t>assert_total_service_fee.pro_shop</t>
+  </si>
+  <si>
+    <t>assert_total_service_fee.restaurant</t>
+  </si>
+  <si>
+    <t>assert_total_service_fee.kiosk</t>
+  </si>
+  <si>
+    <t>assert_total_service_fee.mini_bar</t>
+  </si>
+  <si>
+    <t>assert_total_service_fee.other_fee</t>
+  </si>
+  <si>
+    <t>assert_total_service_fee.total</t>
+  </si>
+  <si>
+    <t>VST_FEE_OF_BAG_001</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra thông tin phí của bag khi add 2 item proshop</t>
+  </si>
+  <si>
+    <t>fee_of_bag_request.json</t>
+  </si>
+  <si>
+    <t>fee_of_bag_expect.json</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>AG_FEE_OF_BAG_001</t>
+  </si>
+  <si>
+    <t>AG_Kiểm tra thông tin phí của bag khi add 2 item proshop</t>
+  </si>
+  <si>
+    <t>is_calc_detail_tax_and_fee</t>
+  </si>
+  <si>
+    <t>VST_FEE_OF_BAG_BILL_001</t>
+  </si>
+  <si>
+    <t>fee_of_bag_bill_request.json</t>
+  </si>
+  <si>
+    <t>fee_of_bag_bill_expect.json</t>
+  </si>
+  <si>
+    <t>AG_FEE_OF_BAG_BILL_001</t>
+  </si>
+  <si>
     <t>cms_user</t>
   </si>
   <si>
@@ -209,16 +341,13 @@
     <t>is_change_voucher</t>
   </si>
   <si>
-    <t>assert_check_in_time</t>
-  </si>
-  <si>
     <t>assert_bag_status</t>
   </si>
   <si>
     <t>assert_bag</t>
   </si>
   <si>
-    <t>CI_PLAYER2_001</t>
+    <t>CI_PLAYER4_001</t>
   </si>
   <si>
     <t>VST_Kiểm tra check in bag</t>
@@ -230,28 +359,28 @@
     <t>{{CTX:USER_NAME}}</t>
   </si>
   <si>
-    <t>{{CTX:BOOKING_UID_1}}</t>
-  </si>
-  <si>
-    <t>{{CTX:HOLE_1}}</t>
-  </si>
-  <si>
-    <t>{{CTX:GUEST_STYLE_1}}</t>
-  </si>
-  <si>
-    <t>{{CTX:GUEST_STYLE_NAME_1}}</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_DATE_1}}</t>
-  </si>
-  <si>
-    <t>{{CTX:COURSE_TYPE_1}}</t>
-  </si>
-  <si>
-    <t>{{CTX:TEE_TYPE_1}}</t>
-  </si>
-  <si>
-    <t>{{CTX:CUSTOMER_NAME_1}}</t>
+    <t>{{CTX:BOOKING_UID_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:HOLE_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:GUEST_STYLE_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:GUEST_STYLE_NAME_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_DATE_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:COURSE_TYPE_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:TEE_TYPE_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:CUSTOMER_NAME_3}}</t>
   </si>
   <si>
     <t>CMS</t>
@@ -266,40 +395,37 @@
     <t>[]</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>check_in_bag_expect.json</t>
   </si>
   <si>
     <t>WAITING</t>
   </si>
   <si>
-    <t>CI_PLAYER2_002</t>
+    <t>CI_PLAYER4_002</t>
   </si>
   <si>
     <t>MB_Kiểm tra check in bag</t>
   </si>
   <si>
-    <t>{{CTX:MEMBER_UID_OF_GUEST_1}}</t>
-  </si>
-  <si>
-    <t>{{CTX:MEMBER_CARD_UID_1}}</t>
-  </si>
-  <si>
-    <t>CI_PLAYER2_003</t>
+    <t>{{CTX:MEMBER_UID_OF_GUEST_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:MEMBER_CARD_UID_3}}</t>
+  </si>
+  <si>
+    <t>CI_PLAYER4_003</t>
   </si>
   <si>
     <t>MBG_Kiểm tra check in bag</t>
   </si>
   <si>
-    <t>CI_PLAYER2_004</t>
+    <t>CI_PLAYER4_004</t>
   </si>
   <si>
     <t>NG_Kiểm tra check in bag</t>
   </si>
   <si>
-    <t>CI_PLAYER2_005</t>
+    <t>CI_PLAYER4_005</t>
   </si>
   <si>
     <t>AG_Kiểm tra check in bag</t>
@@ -311,96 +437,6 @@
     <t>true</t>
   </si>
   <si>
-    <t>CI_PLAYER3_001</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_UID_2}}</t>
-  </si>
-  <si>
-    <t>{{CTX:HOLE_2}}</t>
-  </si>
-  <si>
-    <t>{{CTX:GUEST_STYLE_2}}</t>
-  </si>
-  <si>
-    <t>{{CTX:GUEST_STYLE_NAME_2}}</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_DATE_2}}</t>
-  </si>
-  <si>
-    <t>{{CTX:COURSE_TYPE_2}}</t>
-  </si>
-  <si>
-    <t>{{CTX:TEE_TYPE_2}}</t>
-  </si>
-  <si>
-    <t>{{CTX:CUSTOMER_NAME_2}}</t>
-  </si>
-  <si>
-    <t>CI_PLAYER3_002</t>
-  </si>
-  <si>
-    <t>{{CTX:MEMBER_UID_OF_GUEST_2}}</t>
-  </si>
-  <si>
-    <t>{{CTX:MEMBER_CARD_UID_2}}</t>
-  </si>
-  <si>
-    <t>CI_PLAYER3_003</t>
-  </si>
-  <si>
-    <t>CI_PLAYER3_004</t>
-  </si>
-  <si>
-    <t>CI_PLAYER3_005</t>
-  </si>
-  <si>
-    <t>CI_PLAYER4_001</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_UID_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:HOLE_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:GUEST_STYLE_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:GUEST_STYLE_NAME_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_DATE_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:COURSE_TYPE_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:TEE_TYPE_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:CUSTOMER_NAME_3}}</t>
-  </si>
-  <si>
-    <t>CI_PLAYER4_002</t>
-  </si>
-  <si>
-    <t>{{CTX:MEMBER_UID_OF_GUEST_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:MEMBER_CARD_UID_3}}</t>
-  </si>
-  <si>
-    <t>CI_PLAYER4_003</t>
-  </si>
-  <si>
-    <t>CI_PLAYER4_004</t>
-  </si>
-  <si>
-    <t>CI_PLAYER4_005</t>
-  </si>
-  <si>
     <t>UCI_001</t>
   </si>
   <si>
@@ -432,15 +468,6 @@
   </si>
   <si>
     <t>{{CHECKSUM}}</t>
-  </si>
-  <si>
-    <t>{{CTX:PARTNER_UID}}</t>
-  </si>
-  <si>
-    <t>{{CTX:COURSE_UID}}</t>
-  </si>
-  <si>
-    <t>{{TODAY}}</t>
   </si>
   <si>
     <t>check_in_ekyc_expect.json</t>
@@ -644,7 +671,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,6 +699,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,7 +1048,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1033,16 +1072,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1051,89 +1090,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1194,16 +1233,40 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1742,13 +1805,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
@@ -1756,22 +1819,23 @@
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="11" customWidth="1"/>
     <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.8571428571429" style="1" customWidth="1"/>
     <col min="13" max="13" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.8666666666667" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.1238095238095" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.14285714285714" style="1"/>
+    <col min="14" max="14" width="20.3238095238095" style="1" customWidth="1"/>
+    <col min="15" max="16" width="24.8666666666667" style="1" customWidth="1"/>
+    <col min="17" max="18" width="16.1238095238095" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:17">
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1784,16 +1848,16 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="22" t="s">
@@ -1823,57 +1887,137 @@
       <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:17">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="23">
-        <v>300</v>
-      </c>
-      <c r="H2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="23">
-        <v>2</v>
+      <c r="E2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K2" s="7">
         <v>200</v>
       </c>
       <c r="L2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="7">
+        <v>1</v>
+      </c>
+      <c r="T2" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="I3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="7">
+      <c r="J3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="7">
+        <v>200</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="7">
+        <v>378</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="7">
         <v>1</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="T3" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1886,13 +2030,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN6"/>
+  <dimension ref="A1:AJ10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
@@ -1900,37 +2044,34 @@
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.4285714285714" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.8380952380952" style="11" customWidth="1"/>
-    <col min="14" max="15" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.8380952380952" style="11" customWidth="1"/>
-    <col min="17" max="18" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="19" max="19" width="21.1428571428571" style="11" customWidth="1"/>
-    <col min="20" max="21" width="24.7142857142857" style="1" customWidth="1"/>
-    <col min="22" max="27" width="12.7714285714286" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7714285714286" style="11" customWidth="1"/>
-    <col min="29" max="30" width="12.7714285714286" style="1" customWidth="1"/>
-    <col min="31" max="33" width="12.7714285714286" style="11" customWidth="1"/>
-    <col min="34" max="34" width="12.7714285714286" style="1" customWidth="1"/>
-    <col min="35" max="35" width="12.7714285714286" style="11" customWidth="1"/>
-    <col min="36" max="36" width="31.4285714285714" style="1" customWidth="1"/>
-    <col min="37" max="37" width="15.2857142857143" style="1" customWidth="1"/>
-    <col min="38" max="38" width="20.8571428571429" style="1" customWidth="1"/>
-    <col min="39" max="39" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.7142857142857" style="1" customWidth="1"/>
-    <col min="41" max="41" width="9.14285714285714" style="1"/>
-    <col min="42" max="42" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="43" max="43" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="44" max="44" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.14285714285714" style="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="11" customWidth="1"/>
+    <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.6857142857143" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.047619047619" style="1" customWidth="1"/>
+    <col min="15" max="15" width="29.2380952380952" style="11" customWidth="1"/>
+    <col min="16" max="17" width="29.2380952380952" style="1" customWidth="1"/>
+    <col min="18" max="19" width="24.8666666666667" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.7047619047619" style="1" customWidth="1"/>
+    <col min="21" max="21" width="41.8380952380952" style="1" customWidth="1"/>
+    <col min="22" max="22" width="42.6857142857143" style="1" customWidth="1"/>
+    <col min="23" max="23" width="30.5809523809524" style="1" customWidth="1"/>
+    <col min="24" max="24" width="30.4190476190476" style="1" customWidth="1"/>
+    <col min="25" max="25" width="25.3714285714286" style="1" customWidth="1"/>
+    <col min="26" max="27" width="32.4285714285714" style="1" customWidth="1"/>
+    <col min="28" max="28" width="31.2571428571429" style="1" customWidth="1"/>
+    <col min="29" max="30" width="28.2380952380952" style="1" customWidth="1"/>
+    <col min="31" max="31" width="32.0952380952381" style="1" customWidth="1"/>
+    <col min="32" max="32" width="28.2380952380952" style="1" customWidth="1"/>
+    <col min="33" max="35" width="27.047619047619" style="1" customWidth="1"/>
+    <col min="36" max="36" width="23.352380952381" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:40">
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:36">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1943,631 +2084,352 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="I1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="M1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="N1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="O1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="P1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Q1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="R1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="T1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="U1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="V1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="W1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="X1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="Y1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="Z1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AB1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AC1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AD1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AE1" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AF1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="AI1" s="19" t="s">
+      <c r="AG1" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="AJ1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AH1" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AI1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AJ1" s="25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" customHeight="1" spans="1:40">
-      <c r="A2" s="12" t="s">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:36">
+      <c r="A2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="K2" s="7">
+        <v>200</v>
+      </c>
+      <c r="L2" s="21">
+        <v>2400000</v>
+      </c>
+      <c r="M2" s="28">
+        <v>0</v>
+      </c>
+      <c r="N2" s="28">
+        <v>0</v>
+      </c>
+      <c r="O2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="14">
+      <c r="P2" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="21">
+        <v>2400000</v>
+      </c>
+      <c r="R2" s="21">
+        <v>1</v>
+      </c>
+      <c r="S2" s="30">
+        <v>1000000</v>
+      </c>
+      <c r="T2" s="30">
+        <v>600000</v>
+      </c>
+      <c r="U2" s="30">
+        <v>0</v>
+      </c>
+      <c r="V2" s="30">
+        <v>0</v>
+      </c>
+      <c r="W2" s="30">
+        <v>1000000</v>
+      </c>
+      <c r="X2" s="30">
+        <v>600000</v>
+      </c>
+      <c r="Y2" s="30">
+        <v>1600000</v>
+      </c>
+      <c r="Z2" s="30">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="30">
+        <v>800000</v>
+      </c>
+      <c r="AB2" s="30">
+        <v>1600000</v>
+      </c>
+      <c r="AC2" s="30">
+        <v>600000</v>
+      </c>
+      <c r="AD2" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="30">
+        <v>200000</v>
+      </c>
+      <c r="AF2" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="30">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="30">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:36">
+      <c r="A3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="7">
         <v>200</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" s="14">
-        <v>0</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14">
-        <v>0</v>
-      </c>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI2" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ2" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK2" s="14">
-        <v>200</v>
-      </c>
-      <c r="AL2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM2" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN2" s="14">
-        <f>G2</f>
-        <v>200</v>
+      <c r="L3" s="21">
+        <v>2400000</v>
+      </c>
+      <c r="M3" s="28">
+        <v>2000000</v>
+      </c>
+      <c r="N3" s="28">
+        <v>2000000</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>400000</v>
+      </c>
+      <c r="R3" s="21">
+        <v>1</v>
+      </c>
+      <c r="S3" s="30">
+        <v>1000000</v>
+      </c>
+      <c r="T3" s="30">
+        <v>600000</v>
+      </c>
+      <c r="U3" s="30">
+        <v>0</v>
+      </c>
+      <c r="V3" s="30">
+        <v>0</v>
+      </c>
+      <c r="W3" s="30">
+        <v>1000000</v>
+      </c>
+      <c r="X3" s="30">
+        <v>600000</v>
+      </c>
+      <c r="Y3" s="30">
+        <v>1600000</v>
+      </c>
+      <c r="Z3" s="30">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="30">
+        <v>800000</v>
+      </c>
+      <c r="AB3" s="30">
+        <v>1600000</v>
+      </c>
+      <c r="AC3" s="30">
+        <v>600000</v>
+      </c>
+      <c r="AD3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="30">
+        <v>200000</v>
+      </c>
+      <c r="AF3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="30">
+        <v>2400000</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" customHeight="1" spans="1:40">
-      <c r="A3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="14">
-        <f>G2+1</f>
-        <v>201</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" s="14">
-        <v>0</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="V3" s="14">
-        <v>0</v>
-      </c>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI3" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK3" s="14">
-        <v>200</v>
-      </c>
-      <c r="AL3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM3" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN3" s="14">
-        <f>G3</f>
-        <v>201</v>
-      </c>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="9:15">
+      <c r="I4" s="11"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="11"/>
     </row>
-    <row r="4" s="10" customFormat="1" customHeight="1" spans="1:40">
-      <c r="A4" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="14">
-        <f>G3+1</f>
-        <v>202</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" s="14">
-        <v>0</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14">
-        <v>0</v>
-      </c>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI4" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ4" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK4" s="14">
-        <v>200</v>
-      </c>
-      <c r="AL4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN4" s="14">
-        <f>G4</f>
-        <v>202</v>
-      </c>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="9:15">
+      <c r="I5" s="11"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="11"/>
     </row>
-    <row r="5" s="10" customFormat="1" customHeight="1" spans="1:40">
-      <c r="A5" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="14">
-        <f>G4+1</f>
-        <v>203</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" s="14">
-        <v>0</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14">
-        <v>0</v>
-      </c>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI5" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ5" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK5" s="14">
-        <v>200</v>
-      </c>
-      <c r="AL5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM5" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN5" s="14">
-        <f>G5</f>
-        <v>203</v>
-      </c>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="9:15">
+      <c r="I6" s="11"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="11"/>
     </row>
-    <row r="6" s="10" customFormat="1" customHeight="1" spans="1:40">
-      <c r="A6" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="14">
-        <f>G5+1</f>
-        <v>204</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" s="14">
-        <v>0</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14">
-        <v>378</v>
-      </c>
-      <c r="W6" s="14">
-        <v>1600000</v>
-      </c>
-      <c r="X6" s="14">
-        <v>400000</v>
-      </c>
-      <c r="Y6" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF6" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG6" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH6" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI6" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ6" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK6" s="14">
-        <v>200</v>
-      </c>
-      <c r="AL6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM6" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN6" s="14">
-        <f>G6</f>
-        <v>204</v>
-      </c>
+    <row r="10" customHeight="1" spans="12:12">
+      <c r="L10" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2578,13 +2440,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN6"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
@@ -2592,37 +2454,23 @@
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.4285714285714" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.8380952380952" style="11" customWidth="1"/>
-    <col min="14" max="15" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.8380952380952" style="11" customWidth="1"/>
-    <col min="17" max="18" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="19" max="19" width="21.1428571428571" style="11" customWidth="1"/>
-    <col min="20" max="21" width="24.7142857142857" style="1" customWidth="1"/>
-    <col min="22" max="27" width="12.7714285714286" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7714285714286" style="11" customWidth="1"/>
-    <col min="29" max="30" width="12.7714285714286" style="1" customWidth="1"/>
-    <col min="31" max="33" width="12.7714285714286" style="11" customWidth="1"/>
-    <col min="34" max="34" width="12.7714285714286" style="1" customWidth="1"/>
-    <col min="35" max="35" width="12.7714285714286" style="11" customWidth="1"/>
-    <col min="36" max="36" width="31.4285714285714" style="1" customWidth="1"/>
-    <col min="37" max="37" width="15.2857142857143" style="1" customWidth="1"/>
-    <col min="38" max="38" width="20.8571428571429" style="1" customWidth="1"/>
-    <col min="39" max="39" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.7142857142857" style="1" customWidth="1"/>
-    <col min="41" max="41" width="9.14285714285714" style="1"/>
-    <col min="42" max="42" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="43" max="43" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="44" max="44" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.14285714285714" style="1"/>
+    <col min="9" max="9" width="31.9238095238095" style="11" customWidth="1"/>
+    <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.6857142857143" style="1" customWidth="1"/>
+    <col min="13" max="13" width="29.2380952380952" style="11" customWidth="1"/>
+    <col min="14" max="15" width="29.2380952380952" style="1" customWidth="1"/>
+    <col min="16" max="17" width="24.8666666666667" style="1" customWidth="1"/>
+    <col min="18" max="18" width="25.7047619047619" style="1" customWidth="1"/>
+    <col min="19" max="19" width="41.8380952380952" style="1" customWidth="1"/>
+    <col min="20" max="20" width="42.6857142857143" style="1" customWidth="1"/>
+    <col min="21" max="21" width="32.4285714285714" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:40">
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2635,631 +2483,212 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="I1" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="M1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="N1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="O1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="P1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="R1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="S1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="T1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB1" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC1" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE1" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG1" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI1" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN1" s="9" t="s">
-        <v>60</v>
+      <c r="U1" s="25" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:40">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A2" s="4" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="7">
-        <v>300</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7">
-        <v>0</v>
-      </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI2" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK2" s="7">
+        <v>70</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="7">
         <v>200</v>
       </c>
-      <c r="AL2" s="21" t="s">
+      <c r="L2" s="28">
+        <v>0</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="28">
+        <v>0</v>
+      </c>
+      <c r="O2" s="21">
+        <v>2400000</v>
+      </c>
+      <c r="P2" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="30">
+        <v>1000000</v>
+      </c>
+      <c r="R2" s="30">
+        <v>600000</v>
+      </c>
+      <c r="S2" s="30">
+        <v>0</v>
+      </c>
+      <c r="T2" s="30">
+        <v>0</v>
+      </c>
+      <c r="U2" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:21">
+      <c r="A3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AM2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN2" s="7">
-        <f>G2</f>
-        <v>300</v>
+      <c r="I3" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="7">
+        <v>200</v>
+      </c>
+      <c r="L3" s="28">
+        <v>2000000</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="28">
+        <v>0</v>
+      </c>
+      <c r="O3" s="21">
+        <v>400000</v>
+      </c>
+      <c r="P3" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="30">
+        <v>1000000</v>
+      </c>
+      <c r="R3" s="30">
+        <v>600000</v>
+      </c>
+      <c r="S3" s="30">
+        <v>0</v>
+      </c>
+      <c r="T3" s="30">
+        <v>0</v>
+      </c>
+      <c r="U3" s="30">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:40">
-      <c r="A3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="7">
-        <f>G2+1</f>
-        <v>301</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="V3" s="7">
-        <v>0</v>
-      </c>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK3" s="7">
-        <v>200</v>
-      </c>
-      <c r="AL3" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN3" s="7">
-        <f>G3</f>
-        <v>301</v>
-      </c>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="9:13">
+      <c r="I4" s="11"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="11"/>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:40">
-      <c r="A4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="7">
-        <f>G3+1</f>
-        <v>302</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7">
-        <v>0</v>
-      </c>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI4" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK4" s="7">
-        <v>200</v>
-      </c>
-      <c r="AL4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN4" s="7">
-        <f>G4</f>
-        <v>302</v>
-      </c>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="9:13">
+      <c r="I5" s="11"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="11"/>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:40">
-      <c r="A5" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="7">
-        <f>G4+1</f>
-        <v>303</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI5" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK5" s="7">
-        <v>200</v>
-      </c>
-      <c r="AL5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN5" s="7">
-        <f>G5</f>
-        <v>303</v>
-      </c>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="9:13">
+      <c r="I6" s="11"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="11"/>
     </row>
-    <row r="6" customHeight="1" spans="1:40">
-      <c r="A6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="7">
-        <f>G5+1</f>
-        <v>304</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7">
-        <v>378</v>
-      </c>
-      <c r="W6" s="7">
-        <v>1600000</v>
-      </c>
-      <c r="X6" s="7">
-        <v>400000</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF6" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG6" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI6" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK6" s="7">
-        <v>200</v>
-      </c>
-      <c r="AL6" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN6" s="7">
-        <f>G6</f>
-        <v>304</v>
-      </c>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="9:13">
+      <c r="I10" s="11"/>
+      <c r="M10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3328,97 +2757,97 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="V1" s="15" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="W1" s="15" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="Y1" s="15" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="AA1" s="15" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="AB1" s="16" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="AC1" s="15" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="AE1" s="17" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="AF1" s="16" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="AG1" s="16" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="AI1" s="19" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="AJ1" s="8" t="s">
         <v>9</v>
@@ -3427,30 +2856,30 @@
         <v>10</v>
       </c>
       <c r="AL1" s="9" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="AM1" s="9" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AN1" s="9" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" s="10" customFormat="1" customHeight="1" spans="1:40">
       <c r="A2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>108</v>
@@ -3483,16 +2912,16 @@
         <v>0</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
@@ -3511,22 +2940,22 @@
       <c r="AF2" s="18"/>
       <c r="AG2" s="18"/>
       <c r="AH2" s="14" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AI2" s="18" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AJ2" s="12" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="AK2" s="14">
         <v>200</v>
       </c>
       <c r="AL2" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AM2" s="14" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="AN2" s="14">
         <f>G2</f>
@@ -3535,19 +2964,19 @@
     </row>
     <row r="3" s="10" customFormat="1" customHeight="1" spans="1:40">
       <c r="A3" s="12" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>108</v>
@@ -3581,22 +3010,22 @@
         <v>0</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="V3" s="14">
         <v>0</v>
@@ -3613,22 +3042,22 @@
       <c r="AF3" s="18"/>
       <c r="AG3" s="18"/>
       <c r="AH3" s="14" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AI3" s="18" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AJ3" s="12" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="AK3" s="14">
         <v>200</v>
       </c>
       <c r="AL3" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AM3" s="14" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="AN3" s="14">
         <f>G3</f>
@@ -3637,19 +3066,19 @@
     </row>
     <row r="4" s="10" customFormat="1" customHeight="1" spans="1:40">
       <c r="A4" s="12" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>108</v>
@@ -3683,19 +3112,19 @@
         <v>0</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="T4" s="14" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="U4" s="14"/>
       <c r="V4" s="14">
@@ -3713,22 +3142,22 @@
       <c r="AF4" s="18"/>
       <c r="AG4" s="18"/>
       <c r="AH4" s="14" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AI4" s="18" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AJ4" s="12" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="AK4" s="14">
         <v>200</v>
       </c>
       <c r="AL4" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AM4" s="14" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="AN4" s="14">
         <f>G4</f>
@@ -3737,19 +3166,19 @@
     </row>
     <row r="5" s="10" customFormat="1" customHeight="1" spans="1:40">
       <c r="A5" s="12" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>108</v>
@@ -3783,16 +3212,16 @@
         <v>0</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
@@ -3811,22 +3240,22 @@
       <c r="AF5" s="18"/>
       <c r="AG5" s="18"/>
       <c r="AH5" s="14" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AI5" s="18" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AJ5" s="12" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="AK5" s="14">
         <v>200</v>
       </c>
       <c r="AL5" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AM5" s="14" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="AN5" s="14">
         <f>G5</f>
@@ -3835,19 +3264,19 @@
     </row>
     <row r="6" s="10" customFormat="1" customHeight="1" spans="1:40">
       <c r="A6" s="12" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>108</v>
@@ -3881,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
@@ -3913,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="18" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="AC6" s="14">
         <v>0</v>
@@ -3922,31 +3351,31 @@
         <v>0</v>
       </c>
       <c r="AE6" s="18" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AF6" s="18" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AG6" s="18" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AH6" s="14" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AI6" s="18" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AJ6" s="12" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="AK6" s="14">
         <v>200</v>
       </c>
       <c r="AL6" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AM6" s="14" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="AN6" s="14">
         <f>G6</f>
@@ -3999,7 +3428,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>6</v>
@@ -4013,25 +3442,25 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="H2" s="7">
         <v>200</v>
@@ -4086,7 +3515,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -4095,7 +3524,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>7</v>
@@ -4107,51 +3536,51 @@
         <v>10</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="K2" s="7">
         <v>200</v>
       </c>
-      <c r="L2" s="24" t="s">
-        <v>137</v>
+      <c r="L2" s="32" t="s">
+        <v>146</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input_excel_file/booking/CICO.xlsx
+++ b/src/main/resources/input_excel_file/booking/CICO.xlsx
@@ -4,16 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Booking_By_Bag_Player1" sheetId="1" r:id="rId1"/>
-    <sheet name="Fee_Of_Bag_Player1" sheetId="4" r:id="rId2"/>
-    <sheet name="Fee_Of_Bag_Bill_Player1" sheetId="5" r:id="rId3"/>
-    <sheet name="Check_In_Bag_Player4" sheetId="6" r:id="rId4"/>
-    <sheet name="Undo_Check_In" sheetId="3" r:id="rId5"/>
-    <sheet name="Check_In_Ekyc" sheetId="2" r:id="rId6"/>
-    <sheet name="Config fee" sheetId="7" r:id="rId7"/>
+    <sheet name="Booking_By_Bag_Player2" sheetId="8" r:id="rId2"/>
+    <sheet name="Booking_By_Bag_Player3" sheetId="9" r:id="rId3"/>
+    <sheet name="Booking_By_Bag_Player4" sheetId="10" r:id="rId4"/>
+    <sheet name="Fee_Of_Bag_Player1" sheetId="4" r:id="rId5"/>
+    <sheet name="Fee_Of_Bag_Player2" sheetId="11" r:id="rId6"/>
+    <sheet name="Fee_Of_Bag_Player3" sheetId="12" r:id="rId7"/>
+    <sheet name="Fee_Of_Bag_Player4" sheetId="13" r:id="rId8"/>
+    <sheet name="Fee_Of_Bag_Bill_Player1" sheetId="5" r:id="rId9"/>
+    <sheet name="Fee_Of_Bag_Bill_Player2" sheetId="14" r:id="rId10"/>
+    <sheet name="Fee_Of_Bag_Bill_Player3" sheetId="15" r:id="rId11"/>
+    <sheet name="Fee_Of_Bag_Bill_Player4" sheetId="16" r:id="rId12"/>
+    <sheet name="Add_Sub_Bag" sheetId="6" r:id="rId13"/>
+    <sheet name="Undo_Check_In" sheetId="3" r:id="rId14"/>
+    <sheet name="Check_In_Ekyc" sheetId="2" r:id="rId15"/>
+    <sheet name="Config fee" sheetId="7" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="129">
   <si>
     <t>tc_id</t>
   </si>
@@ -149,6 +158,15 @@
     <t>5D</t>
   </si>
   <si>
+    <t>{{CTX:BAG_1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:BAG_2}}</t>
+  </si>
+  <si>
+    <t>{{CTX:BAG_3}}</t>
+  </si>
+  <si>
     <t>assert_total_bill.total</t>
   </si>
   <si>
@@ -167,6 +185,9 @@
     <t>assert_mush_pay_info.mush_pay</t>
   </si>
   <si>
+    <t>assert_mush_pay_info_0_VND</t>
+  </si>
+  <si>
     <t>assert_rounds[0].green_fee</t>
   </si>
   <si>
@@ -188,6 +209,9 @@
     <t>assert_total_golf_fee.total</t>
   </si>
   <si>
+    <t>assert_size_list_round_of_sub_bag</t>
+  </si>
+  <si>
     <t>assert_total_item_fee</t>
   </si>
   <si>
@@ -239,6 +263,33 @@
     <t>AG_Kiểm tra thông tin phí của bag khi add 2 item proshop</t>
   </si>
   <si>
+    <t>VST_FEE_OF_BAG_002</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra thông tin phí của bag khi add 1 item proshop</t>
+  </si>
+  <si>
+    <t>VST_BAG_MAIN_1SUB_001</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra thông tin phí của bag khi add 1 item proshop + add main sub</t>
+  </si>
+  <si>
+    <t>AG_FEE_OF_BAG_002</t>
+  </si>
+  <si>
+    <t>AG_Kiểm tra thông tin phí của bag khi không add thêm item</t>
+  </si>
+  <si>
+    <t>fee_of_bag_mustpay_0_VND_expect.json</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>VST_BAG_SUB_001</t>
+  </si>
+  <si>
     <t>is_calc_detail_tax_and_fee</t>
   </si>
   <si>
@@ -254,214 +305,115 @@
     <t>AG_FEE_OF_BAG_BILL_001</t>
   </si>
   <si>
-    <t>cms_user</t>
+    <t>VST_FEE_OF_BAG_BILL_002</t>
+  </si>
+  <si>
+    <t>AG_FEE_OF_BAG_BILL_002</t>
+  </si>
+  <si>
+    <t>fee_of_bag_bill_mustpay_0_VND_expect.json</t>
+  </si>
+  <si>
+    <t>{{CTX:BAG_4}}</t>
   </si>
   <si>
     <t>booking_uid</t>
   </si>
   <si>
-    <t>hole</t>
-  </si>
-  <si>
-    <t>guest_style</t>
-  </si>
-  <si>
-    <t>guest_style_name</t>
-  </si>
-  <si>
-    <t>course_type</t>
-  </si>
-  <si>
-    <t>tee_type</t>
-  </si>
-  <si>
-    <t>customer_name</t>
-  </si>
-  <si>
-    <t>customer_nationality_id</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>sale_name</t>
-  </si>
-  <si>
-    <t>sale_account</t>
-  </si>
-  <si>
-    <t>member_uid_of_guest</t>
-  </si>
-  <si>
-    <t>member_card_uid</t>
-  </si>
-  <si>
-    <t>agency_id</t>
-  </si>
-  <si>
-    <t>fee_info.golf_fee</t>
-  </si>
-  <si>
-    <t>fee_info.buggy_fee</t>
-  </si>
-  <si>
-    <t>fee_info.odd_car_fee</t>
-  </si>
-  <si>
-    <t>fee_info.caddie_fee</t>
-  </si>
-  <si>
-    <t>fee_info.private_car_fee</t>
-  </si>
-  <si>
-    <t>fee_info.has_price_spread</t>
-  </si>
-  <si>
-    <t>fee_info.package_add_on_fee</t>
-  </si>
-  <si>
-    <t>fee_info.add_on_fee</t>
-  </si>
-  <si>
-    <t>is_private_buggy</t>
-  </si>
-  <si>
-    <t>agency_paid_all</t>
-  </si>
-  <si>
-    <t>agency_player_pay</t>
-  </si>
-  <si>
-    <t>voucher_apply</t>
-  </si>
-  <si>
-    <t>is_change_voucher</t>
-  </si>
-  <si>
-    <t>assert_bag_status</t>
-  </si>
-  <si>
-    <t>assert_bag</t>
-  </si>
-  <si>
-    <t>CI_PLAYER4_001</t>
+    <t>sub_bags[0].booking_uid</t>
+  </si>
+  <si>
+    <t>sub_bags[0].transfer_payment</t>
+  </si>
+  <si>
+    <t>sub_bags[1].booking_uid</t>
+  </si>
+  <si>
+    <t>sub_bags[1].transfer_payment</t>
+  </si>
+  <si>
+    <t>sub_bags[2].booking_uid</t>
+  </si>
+  <si>
+    <t>sub_bags[2].transfer_payment</t>
+  </si>
+  <si>
+    <t>assert_size_sub_bags</t>
+  </si>
+  <si>
+    <t>ADD_1SUB_BAG_001</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra add 1 sub</t>
+  </si>
+  <si>
+    <t>add_1sub_bag_request.json</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_UID_0}}</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_UID_1}}</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>add_sub_bag_expect.json</t>
+  </si>
+  <si>
+    <t>ADD_3SUB_BAG_001</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra add 3 sub</t>
+  </si>
+  <si>
+    <t>add_2sub_bag_request.json</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_UID_2}}</t>
+  </si>
+  <si>
+    <t>ADD_2SUB_BAG_001</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra add 2 sub</t>
+  </si>
+  <si>
+    <t>add_3sub_bag_request.json</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_UID_3}}</t>
+  </si>
+  <si>
+    <t>UCI_001</t>
   </si>
   <si>
     <t>VST_Kiểm tra check in bag</t>
   </si>
   <si>
-    <t>check_in_bag_request.json</t>
-  </si>
-  <si>
-    <t>{{CTX:USER_NAME}}</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_UID_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:HOLE_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:GUEST_STYLE_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:GUEST_STYLE_NAME_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_DATE_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:COURSE_TYPE_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:TEE_TYPE_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:CUSTOMER_NAME_3}}</t>
-  </si>
-  <si>
-    <t>CMS</t>
-  </si>
-  <si>
-    <t>MALE</t>
-  </si>
-  <si>
-    <t>{{CTX:FULL_NAME}}</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>check_in_bag_expect.json</t>
-  </si>
-  <si>
-    <t>WAITING</t>
-  </si>
-  <si>
-    <t>CI_PLAYER4_002</t>
+    <t>undo_check_in_bag_request.json</t>
+  </si>
+  <si>
+    <t>{{CTX:BAG}}</t>
+  </si>
+  <si>
+    <t>undo_check_in_bag_expect.json</t>
+  </si>
+  <si>
+    <t>check_sum</t>
+  </si>
+  <si>
+    <t>assert_code</t>
+  </si>
+  <si>
+    <t>assert_desc</t>
+  </si>
+  <si>
+    <t>CI_EKYC_001</t>
   </si>
   <si>
     <t>MB_Kiểm tra check in bag</t>
-  </si>
-  <si>
-    <t>{{CTX:MEMBER_UID_OF_GUEST_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:MEMBER_CARD_UID_3}}</t>
-  </si>
-  <si>
-    <t>CI_PLAYER4_003</t>
-  </si>
-  <si>
-    <t>MBG_Kiểm tra check in bag</t>
-  </si>
-  <si>
-    <t>CI_PLAYER4_004</t>
-  </si>
-  <si>
-    <t>NG_Kiểm tra check in bag</t>
-  </si>
-  <si>
-    <t>CI_PLAYER4_005</t>
-  </si>
-  <si>
-    <t>AG_Kiểm tra check in bag</t>
-  </si>
-  <si>
-    <t>check_in_bag_agency_request.json</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>UCI_001</t>
-  </si>
-  <si>
-    <t>undo_check_in_bag_request.json</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_UID_0}}</t>
-  </si>
-  <si>
-    <t>{{CTX:BAG}}</t>
-  </si>
-  <si>
-    <t>undo_check_in_bag_expect.json</t>
-  </si>
-  <si>
-    <t>check_sum</t>
-  </si>
-  <si>
-    <t>assert_code</t>
-  </si>
-  <si>
-    <t>assert_desc</t>
-  </si>
-  <si>
-    <t>CI_EKYC_001</t>
   </si>
   <si>
     <t>check_in_ekyc_request.json</t>
@@ -671,7 +623,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -698,19 +650,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,7 +994,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1072,16 +1018,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1090,89 +1036,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1203,42 +1149,27 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1251,22 +1182,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1808,7 +1736,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
@@ -1821,7 +1749,7 @@
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="11" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="15" customWidth="1"/>
     <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.8571428571429" style="1" customWidth="1"/>
@@ -1848,19 +1776,19 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="8" t="s">
@@ -1910,10 +1838,10 @@
       <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -1922,7 +1850,7 @@
       <c r="H2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="21" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -1931,7 +1859,7 @@
       <c r="K2" s="7">
         <v>200</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="14" t="s">
         <v>30</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -1956,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="T2" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:20">
@@ -1972,10 +1900,10 @@
       <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -1984,7 +1912,7 @@
       <c r="H3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="21" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -1993,7 +1921,7 @@
       <c r="K3" s="7">
         <v>200</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="14" t="s">
         <v>36</v>
       </c>
       <c r="M3" s="7" t="s">
@@ -2018,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2027,13 +1955,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -2046,32 +1974,21 @@
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="11" customWidth="1"/>
+    <col min="9" max="9" width="31.9238095238095" style="15" customWidth="1"/>
     <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.8571428571429" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.6857142857143" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.047619047619" style="1" customWidth="1"/>
-    <col min="15" max="15" width="29.2380952380952" style="11" customWidth="1"/>
-    <col min="16" max="17" width="29.2380952380952" style="1" customWidth="1"/>
-    <col min="18" max="19" width="24.8666666666667" style="1" customWidth="1"/>
-    <col min="20" max="20" width="25.7047619047619" style="1" customWidth="1"/>
-    <col min="21" max="21" width="41.8380952380952" style="1" customWidth="1"/>
-    <col min="22" max="22" width="42.6857142857143" style="1" customWidth="1"/>
-    <col min="23" max="23" width="30.5809523809524" style="1" customWidth="1"/>
-    <col min="24" max="24" width="30.4190476190476" style="1" customWidth="1"/>
-    <col min="25" max="25" width="25.3714285714286" style="1" customWidth="1"/>
-    <col min="26" max="27" width="32.4285714285714" style="1" customWidth="1"/>
-    <col min="28" max="28" width="31.2571428571429" style="1" customWidth="1"/>
-    <col min="29" max="30" width="28.2380952380952" style="1" customWidth="1"/>
-    <col min="31" max="31" width="32.0952380952381" style="1" customWidth="1"/>
-    <col min="32" max="32" width="28.2380952380952" style="1" customWidth="1"/>
-    <col min="33" max="35" width="27.047619047619" style="1" customWidth="1"/>
-    <col min="36" max="36" width="23.352380952381" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.14285714285714" style="1"/>
+    <col min="12" max="12" width="23.6857142857143" style="1" customWidth="1"/>
+    <col min="13" max="13" width="29.2380952380952" style="15" customWidth="1"/>
+    <col min="14" max="15" width="29.2380952380952" style="1" customWidth="1"/>
+    <col min="16" max="18" width="24.8666666666667" style="1" customWidth="1"/>
+    <col min="19" max="19" width="25.7047619047619" style="1" customWidth="1"/>
+    <col min="20" max="20" width="41.8380952380952" style="1" customWidth="1"/>
+    <col min="21" max="21" width="42.6857142857143" style="1" customWidth="1"/>
+    <col min="22" max="22" width="32.4285714285714" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:36">
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2084,20 +2001,20 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>8</v>
+      <c r="I1" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>9</v>
@@ -2105,331 +2022,381 @@
       <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="23" t="s">
+      <c r="L1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="26" t="s">
+      <c r="M1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="U1" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="W1" s="25" t="s">
+      <c r="R1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="S1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="T1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="U1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB1" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC1" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD1" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE1" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF1" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG1" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH1" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI1" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ1" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:36">
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A2" s="4" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>28</v>
+      <c r="I2" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="K2" s="7">
         <v>200</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="14">
         <v>2400000</v>
       </c>
-      <c r="M2" s="28">
-        <v>0</v>
-      </c>
-      <c r="N2" s="28">
-        <v>0</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="21">
-        <v>2400000</v>
-      </c>
-      <c r="R2" s="21">
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14">
         <v>1</v>
       </c>
-      <c r="S2" s="30">
+      <c r="R2" s="14">
         <v>1000000</v>
       </c>
-      <c r="T2" s="30">
+      <c r="S2" s="14">
         <v>600000</v>
       </c>
-      <c r="U2" s="30">
-        <v>0</v>
-      </c>
-      <c r="V2" s="30">
-        <v>0</v>
-      </c>
-      <c r="W2" s="30">
-        <v>1000000</v>
-      </c>
-      <c r="X2" s="30">
-        <v>600000</v>
-      </c>
-      <c r="Y2" s="30">
-        <v>1600000</v>
-      </c>
-      <c r="Z2" s="30">
+      <c r="T2" s="14">
+        <v>0</v>
+      </c>
+      <c r="U2" s="14">
+        <v>0</v>
+      </c>
+      <c r="V2" s="14">
         <v>4</v>
       </c>
-      <c r="AA2" s="30">
-        <v>800000</v>
-      </c>
-      <c r="AB2" s="30">
-        <v>1600000</v>
-      </c>
-      <c r="AC2" s="30">
-        <v>600000</v>
-      </c>
-      <c r="AD2" s="30">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="30">
-        <v>200000</v>
-      </c>
-      <c r="AF2" s="30">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="30">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="30">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="30">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="30">
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:36">
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="4" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="27" t="s">
-        <v>28</v>
+      <c r="I3" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="K3" s="7">
         <v>200</v>
       </c>
-      <c r="L3" s="21">
-        <v>2400000</v>
-      </c>
-      <c r="M3" s="28">
+      <c r="L3" s="5">
         <v>2000000</v>
       </c>
-      <c r="N3" s="28">
+      <c r="M3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="14">
+        <v>400000</v>
+      </c>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14">
+        <v>1</v>
+      </c>
+      <c r="R3" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="S3" s="14">
+        <v>600000</v>
+      </c>
+      <c r="T3" s="14">
+        <v>0</v>
+      </c>
+      <c r="U3" s="14">
+        <v>0</v>
+      </c>
+      <c r="V3" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="A4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="7">
+        <v>200</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <v>2100000</v>
+      </c>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14">
+        <v>1</v>
+      </c>
+      <c r="R4" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="S4" s="14">
+        <v>600000</v>
+      </c>
+      <c r="T4" s="14">
+        <v>0</v>
+      </c>
+      <c r="U4" s="14">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="A5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="7">
+        <v>200</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>1</v>
+      </c>
+      <c r="R5" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="S5" s="14">
+        <v>600000</v>
+      </c>
+      <c r="T5" s="14">
+        <v>0</v>
+      </c>
+      <c r="U5" s="14">
+        <v>0</v>
+      </c>
+      <c r="V5" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="A6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="7">
+        <v>200</v>
+      </c>
+      <c r="L6" s="5">
         <v>2000000</v>
       </c>
-      <c r="O3" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="21">
-        <v>400000</v>
-      </c>
-      <c r="R3" s="21">
+      <c r="M6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="14">
         <v>1</v>
       </c>
-      <c r="S3" s="30">
+      <c r="R6" s="14">
         <v>1000000</v>
       </c>
-      <c r="T3" s="30">
+      <c r="S6" s="14">
         <v>600000</v>
       </c>
-      <c r="U3" s="30">
-        <v>0</v>
-      </c>
-      <c r="V3" s="30">
-        <v>0</v>
-      </c>
-      <c r="W3" s="30">
-        <v>1000000</v>
-      </c>
-      <c r="X3" s="30">
-        <v>600000</v>
-      </c>
-      <c r="Y3" s="30">
-        <v>1600000</v>
-      </c>
-      <c r="Z3" s="30">
-        <v>4</v>
-      </c>
-      <c r="AA3" s="30">
-        <v>800000</v>
-      </c>
-      <c r="AB3" s="30">
-        <v>1600000</v>
-      </c>
-      <c r="AC3" s="30">
-        <v>600000</v>
-      </c>
-      <c r="AD3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="30">
-        <v>200000</v>
-      </c>
-      <c r="AF3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="30">
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="9:15">
-      <c r="I4" s="11"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="11"/>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="9:15">
-      <c r="I5" s="11"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="9:15">
-      <c r="I6" s="11"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="10" customHeight="1" spans="12:12">
-      <c r="L10" s="31"/>
+      <c r="T6" s="14">
+        <v>0</v>
+      </c>
+      <c r="U6" s="14">
+        <v>0</v>
+      </c>
+      <c r="V6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="9:13">
+      <c r="I7" s="15"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="9:13">
+      <c r="I11" s="15"/>
+      <c r="M11" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2437,13 +2404,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -2456,21 +2423,21 @@
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.9238095238095" style="11" customWidth="1"/>
+    <col min="9" max="9" width="31.9238095238095" style="15" customWidth="1"/>
     <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
     <col min="12" max="12" width="23.6857142857143" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29.2380952380952" style="11" customWidth="1"/>
+    <col min="13" max="13" width="29.2380952380952" style="15" customWidth="1"/>
     <col min="14" max="15" width="29.2380952380952" style="1" customWidth="1"/>
-    <col min="16" max="17" width="24.8666666666667" style="1" customWidth="1"/>
-    <col min="18" max="18" width="25.7047619047619" style="1" customWidth="1"/>
-    <col min="19" max="19" width="41.8380952380952" style="1" customWidth="1"/>
-    <col min="20" max="20" width="42.6857142857143" style="1" customWidth="1"/>
-    <col min="21" max="21" width="32.4285714285714" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.14285714285714" style="1"/>
+    <col min="16" max="18" width="24.8666666666667" style="1" customWidth="1"/>
+    <col min="19" max="19" width="25.7047619047619" style="1" customWidth="1"/>
+    <col min="20" max="20" width="41.8380952380952" style="1" customWidth="1"/>
+    <col min="21" max="21" width="42.6857142857143" style="1" customWidth="1"/>
+    <col min="22" max="22" width="32.4285714285714" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:21">
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2483,20 +2450,20 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>68</v>
+      <c r="I1" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>9</v>
@@ -2504,191 +2471,311 @@
       <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="23" t="s">
+      <c r="L1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="26" t="s">
+      <c r="M1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="25" t="s">
+      <c r="R1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A2" s="4" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>65</v>
+      <c r="I2" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="K2" s="7">
         <v>200</v>
       </c>
-      <c r="L2" s="28">
-        <v>0</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="28">
-        <v>0</v>
-      </c>
-      <c r="O2" s="21">
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="14">
         <v>2400000</v>
       </c>
-      <c r="P2" s="21">
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14">
         <v>1</v>
       </c>
-      <c r="Q2" s="30">
+      <c r="R2" s="14">
         <v>1000000</v>
       </c>
-      <c r="R2" s="30">
+      <c r="S2" s="14">
         <v>600000</v>
       </c>
-      <c r="S2" s="30">
-        <v>0</v>
-      </c>
-      <c r="T2" s="30">
-        <v>0</v>
-      </c>
-      <c r="U2" s="30">
+      <c r="T2" s="14">
+        <v>0</v>
+      </c>
+      <c r="U2" s="14">
+        <v>0</v>
+      </c>
+      <c r="V2" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:21">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="27" t="s">
-        <v>65</v>
+      <c r="I3" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="K3" s="7">
         <v>200</v>
       </c>
-      <c r="L3" s="28">
+      <c r="L3" s="5">
         <v>2000000</v>
       </c>
-      <c r="M3" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" s="28">
-        <v>0</v>
-      </c>
-      <c r="O3" s="21">
+      <c r="M3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="14">
         <v>400000</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14">
         <v>1</v>
       </c>
-      <c r="Q3" s="30">
+      <c r="R3" s="14">
         <v>1000000</v>
       </c>
-      <c r="R3" s="30">
+      <c r="S3" s="14">
         <v>600000</v>
       </c>
-      <c r="S3" s="30">
-        <v>0</v>
-      </c>
-      <c r="T3" s="30">
-        <v>0</v>
-      </c>
-      <c r="U3" s="30">
+      <c r="T3" s="14">
+        <v>0</v>
+      </c>
+      <c r="U3" s="14">
+        <v>0</v>
+      </c>
+      <c r="V3" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="9:13">
-      <c r="I4" s="11"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="9:13">
-      <c r="I5" s="11"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="11"/>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="A4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="7">
+        <v>200</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <v>2100000</v>
+      </c>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14">
+        <v>1</v>
+      </c>
+      <c r="R4" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="S4" s="14">
+        <v>600000</v>
+      </c>
+      <c r="T4" s="14">
+        <v>0</v>
+      </c>
+      <c r="U4" s="14">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="A5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="7">
+        <v>200</v>
+      </c>
+      <c r="L5" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>1</v>
+      </c>
+      <c r="R5" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="S5" s="14">
+        <v>600000</v>
+      </c>
+      <c r="T5" s="14">
+        <v>0</v>
+      </c>
+      <c r="U5" s="14">
+        <v>0</v>
+      </c>
+      <c r="V5" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="9:13">
-      <c r="I6" s="11"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="11"/>
+      <c r="I6" s="15"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="9:13">
-      <c r="I10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="I10" s="15"/>
+      <c r="M10" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2696,16 +2783,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN6"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
@@ -2713,37 +2800,23 @@
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5714285714286" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.4285714285714" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.8380952380952" style="11" customWidth="1"/>
-    <col min="14" max="15" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.8380952380952" style="11" customWidth="1"/>
-    <col min="17" max="18" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="19" max="19" width="21.1428571428571" style="11" customWidth="1"/>
-    <col min="20" max="21" width="24.7142857142857" style="1" customWidth="1"/>
-    <col min="22" max="27" width="12.7714285714286" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7714285714286" style="11" customWidth="1"/>
-    <col min="29" max="30" width="12.7714285714286" style="1" customWidth="1"/>
-    <col min="31" max="33" width="12.7714285714286" style="11" customWidth="1"/>
-    <col min="34" max="34" width="12.7714285714286" style="1" customWidth="1"/>
-    <col min="35" max="35" width="12.7714285714286" style="11" customWidth="1"/>
-    <col min="36" max="36" width="31.4285714285714" style="1" customWidth="1"/>
-    <col min="37" max="37" width="15.2857142857143" style="1" customWidth="1"/>
-    <col min="38" max="38" width="20.8571428571429" style="1" customWidth="1"/>
-    <col min="39" max="39" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.7142857142857" style="1" customWidth="1"/>
-    <col min="41" max="41" width="9.14285714285714" style="1"/>
-    <col min="42" max="42" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="43" max="43" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="44" max="44" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.14285714285714" style="1"/>
+    <col min="9" max="9" width="31.9238095238095" style="15" customWidth="1"/>
+    <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.6857142857143" style="1" customWidth="1"/>
+    <col min="13" max="13" width="29.2380952380952" style="15" customWidth="1"/>
+    <col min="14" max="15" width="29.2380952380952" style="1" customWidth="1"/>
+    <col min="16" max="18" width="24.8666666666667" style="1" customWidth="1"/>
+    <col min="19" max="19" width="25.7047619047619" style="1" customWidth="1"/>
+    <col min="20" max="20" width="41.8380952380952" style="1" customWidth="1"/>
+    <col min="21" max="21" width="42.6857142857143" style="1" customWidth="1"/>
+    <col min="22" max="22" width="32.4285714285714" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:40">
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2756,631 +2829,332 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="A2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="7">
+        <v>200</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14">
+        <v>1</v>
+      </c>
+      <c r="R2" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="S2" s="14">
+        <v>600000</v>
+      </c>
+      <c r="T2" s="14">
+        <v>0</v>
+      </c>
+      <c r="U2" s="14">
+        <v>0</v>
+      </c>
+      <c r="V2" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="A3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="7">
+        <v>200</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="14">
+        <v>400000</v>
+      </c>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14">
+        <v>1</v>
+      </c>
+      <c r="R3" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="S3" s="14">
+        <v>600000</v>
+      </c>
+      <c r="T3" s="14">
+        <v>0</v>
+      </c>
+      <c r="U3" s="14">
+        <v>0</v>
+      </c>
+      <c r="V3" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="A4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="7">
+        <v>200</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <v>2100000</v>
+      </c>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14">
+        <v>1</v>
+      </c>
+      <c r="R4" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="S4" s="14">
+        <v>600000</v>
+      </c>
+      <c r="T4" s="14">
+        <v>0</v>
+      </c>
+      <c r="U4" s="14">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
+      <c r="A5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="7">
+        <v>200</v>
+      </c>
+      <c r="L5" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB1" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC1" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE1" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG1" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI1" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN1" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" s="10" customFormat="1" customHeight="1" spans="1:40">
-      <c r="A2" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="14">
-        <v>400</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="O2" s="14">
-        <v>0</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14">
-        <v>0</v>
-      </c>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI2" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ2" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK2" s="14">
-        <v>200</v>
-      </c>
-      <c r="AL2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN2" s="14">
-        <f>G2</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" s="10" customFormat="1" customHeight="1" spans="1:40">
-      <c r="A3" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="14">
-        <f>G2+1</f>
-        <v>401</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="O3" s="14">
-        <v>0</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="V3" s="14">
-        <v>0</v>
-      </c>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI3" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ3" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK3" s="14">
-        <v>200</v>
-      </c>
-      <c r="AL3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM3" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN3" s="14">
-        <f>G3</f>
-        <v>401</v>
-      </c>
-    </row>
-    <row r="4" s="10" customFormat="1" customHeight="1" spans="1:40">
-      <c r="A4" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="14">
-        <f>G3+1</f>
-        <v>402</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="O4" s="14">
-        <v>0</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14">
-        <v>0</v>
-      </c>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI4" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ4" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK4" s="14">
-        <v>200</v>
-      </c>
-      <c r="AL4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM4" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN4" s="14">
-        <f>G4</f>
-        <v>402</v>
-      </c>
-    </row>
-    <row r="5" s="10" customFormat="1" customHeight="1" spans="1:40">
-      <c r="A5" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="14">
-        <f>G4+1</f>
-        <v>403</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="O5" s="14">
-        <v>0</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
+      <c r="Q5" s="14">
+        <v>1</v>
+      </c>
+      <c r="R5" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="S5" s="14">
+        <v>600000</v>
+      </c>
+      <c r="T5" s="14">
+        <v>0</v>
+      </c>
+      <c r="U5" s="14">
+        <v>0</v>
+      </c>
       <c r="V5" s="14">
-        <v>0</v>
-      </c>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI5" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ5" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK5" s="14">
-        <v>200</v>
-      </c>
-      <c r="AL5" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM5" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN5" s="14">
-        <f>G5</f>
-        <v>403</v>
-      </c>
-    </row>
-    <row r="6" s="10" customFormat="1" customHeight="1" spans="1:40">
-      <c r="A6" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="14">
-        <f>G5+1</f>
-        <v>404</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="O6" s="14">
-        <v>0</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14">
-        <v>378</v>
-      </c>
-      <c r="W6" s="14">
-        <v>1600000</v>
-      </c>
-      <c r="X6" s="14">
-        <v>400000</v>
-      </c>
-      <c r="Y6" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF6" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG6" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH6" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI6" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ6" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK6" s="14">
-        <v>200</v>
-      </c>
-      <c r="AL6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM6" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN6" s="14">
-        <f>G6</f>
-        <v>404</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="9:13">
+      <c r="I6" s="15"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="9:13">
+      <c r="I10" s="15"/>
+      <c r="M10" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3388,7 +3162,205 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.2" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.8857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.9714285714286" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.0380952380952" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.0285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.3238095238095" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" s="10" customFormat="1" ht="166" customHeight="1" spans="1:14">
+      <c r="A2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="14">
+        <v>200</v>
+      </c>
+      <c r="N2" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="166" customHeight="1" spans="1:14">
+      <c r="A3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" s="14">
+        <v>200</v>
+      </c>
+      <c r="N3" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="166" customHeight="1" spans="1:14">
+      <c r="A4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" s="14">
+        <v>200</v>
+      </c>
+      <c r="N4" s="14">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H2"/>
@@ -3428,7 +3400,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>6</v>
@@ -3442,25 +3414,25 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H2" s="7">
         <v>200</v>
@@ -3472,7 +3444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M2"/>
@@ -3515,7 +3487,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -3524,7 +3496,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>7</v>
@@ -3536,15 +3508,15 @@
         <v>10</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>123</v>
@@ -3553,10 +3525,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>24</v>
@@ -3565,22 +3537,22 @@
         <v>25</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="K2" s="7">
         <v>200</v>
       </c>
-      <c r="L2" s="32" t="s">
-        <v>146</v>
+      <c r="L2" s="26" t="s">
+        <v>127</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3589,7 +3561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -3603,4 +3575,3889 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="15" customWidth="1"/>
+    <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.3238095238095" style="1" customWidth="1"/>
+    <col min="15" max="16" width="24.8666666666667" style="1" customWidth="1"/>
+    <col min="17" max="18" width="16.1238095238095" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:20">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="7">
+        <v>200</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="7">
+        <v>1</v>
+      </c>
+      <c r="T2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="7">
+        <v>200</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="7">
+        <v>378</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="7">
+        <v>1</v>
+      </c>
+      <c r="T3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="15" customWidth="1"/>
+    <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.3238095238095" style="1" customWidth="1"/>
+    <col min="15" max="16" width="24.8666666666667" style="1" customWidth="1"/>
+    <col min="17" max="18" width="16.1238095238095" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:20">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="7">
+        <v>200</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="7">
+        <v>1</v>
+      </c>
+      <c r="T2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="7">
+        <v>200</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="7">
+        <v>378</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="7">
+        <v>1</v>
+      </c>
+      <c r="T3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="15" customWidth="1"/>
+    <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.3238095238095" style="1" customWidth="1"/>
+    <col min="15" max="16" width="24.8666666666667" style="1" customWidth="1"/>
+    <col min="17" max="18" width="16.1238095238095" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:20">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="7">
+        <v>200</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="7">
+        <v>1</v>
+      </c>
+      <c r="T2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="7">
+        <v>200</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="7">
+        <v>378</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="7">
+        <v>1</v>
+      </c>
+      <c r="T3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AL11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="22.352380952381" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="15" customWidth="1"/>
+    <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.6857142857143" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.047619047619" style="1" customWidth="1"/>
+    <col min="15" max="15" width="29.2380952380952" style="15" customWidth="1"/>
+    <col min="16" max="17" width="29.2380952380952" style="1" customWidth="1"/>
+    <col min="18" max="18" width="28.0571428571429" style="1" customWidth="1"/>
+    <col min="19" max="20" width="24.8666666666667" style="1" customWidth="1"/>
+    <col min="21" max="21" width="25.7047619047619" style="1" customWidth="1"/>
+    <col min="22" max="22" width="41.8380952380952" style="1" customWidth="1"/>
+    <col min="23" max="23" width="42.6857142857143" style="1" customWidth="1"/>
+    <col min="24" max="24" width="30.5809523809524" style="1" customWidth="1"/>
+    <col min="25" max="25" width="30.4190476190476" style="1" customWidth="1"/>
+    <col min="26" max="26" width="25.3714285714286" style="1" customWidth="1"/>
+    <col min="27" max="29" width="32.4285714285714" style="1" customWidth="1"/>
+    <col min="30" max="30" width="31.2571428571429" style="1" customWidth="1"/>
+    <col min="31" max="32" width="28.2380952380952" style="1" customWidth="1"/>
+    <col min="33" max="33" width="32.0952380952381" style="1" customWidth="1"/>
+    <col min="34" max="34" width="28.2380952380952" style="1" customWidth="1"/>
+    <col min="35" max="37" width="27.047619047619" style="1" customWidth="1"/>
+    <col min="38" max="38" width="23.352380952381" style="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:38">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
+      <c r="A2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="7">
+        <v>200</v>
+      </c>
+      <c r="L2" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14">
+        <v>1</v>
+      </c>
+      <c r="T2" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U2" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V2" s="14">
+        <v>0</v>
+      </c>
+      <c r="W2" s="14">
+        <v>0</v>
+      </c>
+      <c r="X2" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y2" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z2" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="14">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>800000</v>
+      </c>
+      <c r="AD2" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AF2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AH2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="14">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
+      <c r="A3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="7">
+        <v>200</v>
+      </c>
+      <c r="L3" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="M3" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="N3" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>400000</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14">
+        <v>1</v>
+      </c>
+      <c r="T3" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U3" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V3" s="14">
+        <v>0</v>
+      </c>
+      <c r="W3" s="14">
+        <v>0</v>
+      </c>
+      <c r="X3" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z3" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="14">
+        <v>800000</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AE3" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AF3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AH3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="14">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
+      <c r="A4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="7">
+        <v>200</v>
+      </c>
+      <c r="L4" s="14">
+        <v>2100000</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>2100000</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14">
+        <v>1</v>
+      </c>
+      <c r="T4" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U4" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V4" s="14">
+        <v>0</v>
+      </c>
+      <c r="W4" s="14">
+        <v>0</v>
+      </c>
+      <c r="X4" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z4" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="14">
+        <v>500000</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AE4" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AF4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AH4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="14">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
+      <c r="A5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="7">
+        <v>200</v>
+      </c>
+      <c r="L5" s="14">
+        <v>4200000</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>4200000</v>
+      </c>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14">
+        <v>1</v>
+      </c>
+      <c r="T5" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U5" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V5" s="14">
+        <v>0</v>
+      </c>
+      <c r="W5" s="14">
+        <v>0</v>
+      </c>
+      <c r="X5" s="14">
+        <v>2000000</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>3200000</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AE5" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AH5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="14">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
+      <c r="A6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="7">
+        <v>200</v>
+      </c>
+      <c r="L6" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="M6" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="N6" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="S6" s="14">
+        <v>1</v>
+      </c>
+      <c r="T6" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U6" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V6" s="14">
+        <v>0</v>
+      </c>
+      <c r="W6" s="14">
+        <v>0</v>
+      </c>
+      <c r="X6" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AE6" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="14">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="9:15">
+      <c r="I7" s="15"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="12:12">
+      <c r="L11" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AL11"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="15" customWidth="1"/>
+    <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.6857142857143" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.047619047619" style="1" customWidth="1"/>
+    <col min="15" max="15" width="29.2380952380952" style="15" customWidth="1"/>
+    <col min="16" max="17" width="29.2380952380952" style="1" customWidth="1"/>
+    <col min="18" max="20" width="24.8666666666667" style="1" customWidth="1"/>
+    <col min="21" max="21" width="25.7047619047619" style="1" customWidth="1"/>
+    <col min="22" max="22" width="41.8380952380952" style="1" customWidth="1"/>
+    <col min="23" max="23" width="42.6857142857143" style="1" customWidth="1"/>
+    <col min="24" max="24" width="30.5809523809524" style="1" customWidth="1"/>
+    <col min="25" max="25" width="30.4190476190476" style="1" customWidth="1"/>
+    <col min="26" max="26" width="25.3714285714286" style="1" customWidth="1"/>
+    <col min="27" max="29" width="32.4285714285714" style="1" customWidth="1"/>
+    <col min="30" max="30" width="31.2571428571429" style="1" customWidth="1"/>
+    <col min="31" max="32" width="28.2380952380952" style="1" customWidth="1"/>
+    <col min="33" max="33" width="32.0952380952381" style="1" customWidth="1"/>
+    <col min="34" max="34" width="28.2380952380952" style="1" customWidth="1"/>
+    <col min="35" max="37" width="27.047619047619" style="1" customWidth="1"/>
+    <col min="38" max="38" width="23.352380952381" style="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:38">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:38">
+      <c r="A2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="7">
+        <v>200</v>
+      </c>
+      <c r="L2" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14">
+        <v>1</v>
+      </c>
+      <c r="T2" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U2" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V2" s="14">
+        <v>0</v>
+      </c>
+      <c r="W2" s="14">
+        <v>0</v>
+      </c>
+      <c r="X2" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y2" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z2" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="14">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>800000</v>
+      </c>
+      <c r="AD2" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AF2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AH2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="14">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:38">
+      <c r="A3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="7">
+        <v>200</v>
+      </c>
+      <c r="L3" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="M3" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="N3" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>400000</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14">
+        <v>1</v>
+      </c>
+      <c r="T3" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U3" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V3" s="14">
+        <v>0</v>
+      </c>
+      <c r="W3" s="14">
+        <v>0</v>
+      </c>
+      <c r="X3" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z3" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="14">
+        <v>800000</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AE3" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AF3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AH3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="14">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:38">
+      <c r="A4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="7">
+        <v>200</v>
+      </c>
+      <c r="L4" s="14">
+        <v>2100000</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>2100000</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14">
+        <v>1</v>
+      </c>
+      <c r="T4" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U4" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V4" s="14">
+        <v>0</v>
+      </c>
+      <c r="W4" s="14">
+        <v>0</v>
+      </c>
+      <c r="X4" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z4" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="14">
+        <v>500000</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AE4" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AF4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AH4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="14">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:38">
+      <c r="A5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="7">
+        <v>200</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>0</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" s="14">
+        <v>1</v>
+      </c>
+      <c r="T5" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U5" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V5" s="14">
+        <v>0</v>
+      </c>
+      <c r="W5" s="14">
+        <v>0</v>
+      </c>
+      <c r="X5" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>500000</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AE5" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AH5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="14">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:38">
+      <c r="A6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="7">
+        <v>200</v>
+      </c>
+      <c r="L6" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="M6" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="N6" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>0</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="S6" s="14">
+        <v>1</v>
+      </c>
+      <c r="T6" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U6" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V6" s="14">
+        <v>0</v>
+      </c>
+      <c r="W6" s="14">
+        <v>0</v>
+      </c>
+      <c r="X6" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AE6" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="14">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="9:15">
+      <c r="I7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="12:12">
+      <c r="L11" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AL9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="15" customWidth="1"/>
+    <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.6857142857143" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.047619047619" style="1" customWidth="1"/>
+    <col min="15" max="15" width="29.2380952380952" style="15" customWidth="1"/>
+    <col min="16" max="17" width="29.2380952380952" style="1" customWidth="1"/>
+    <col min="18" max="20" width="24.8666666666667" style="1" customWidth="1"/>
+    <col min="21" max="21" width="25.7047619047619" style="1" customWidth="1"/>
+    <col min="22" max="22" width="41.8380952380952" style="1" customWidth="1"/>
+    <col min="23" max="23" width="42.6857142857143" style="1" customWidth="1"/>
+    <col min="24" max="24" width="30.5809523809524" style="1" customWidth="1"/>
+    <col min="25" max="25" width="30.4190476190476" style="1" customWidth="1"/>
+    <col min="26" max="26" width="25.3714285714286" style="1" customWidth="1"/>
+    <col min="27" max="29" width="32.4285714285714" style="1" customWidth="1"/>
+    <col min="30" max="30" width="31.2571428571429" style="1" customWidth="1"/>
+    <col min="31" max="32" width="28.2380952380952" style="1" customWidth="1"/>
+    <col min="33" max="33" width="32.0952380952381" style="1" customWidth="1"/>
+    <col min="34" max="34" width="28.2380952380952" style="1" customWidth="1"/>
+    <col min="35" max="37" width="27.047619047619" style="1" customWidth="1"/>
+    <col min="38" max="38" width="23.352380952381" style="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:38">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:38">
+      <c r="A2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="7">
+        <v>200</v>
+      </c>
+      <c r="L2" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14">
+        <v>1</v>
+      </c>
+      <c r="T2" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U2" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V2" s="14">
+        <v>0</v>
+      </c>
+      <c r="W2" s="14">
+        <v>0</v>
+      </c>
+      <c r="X2" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y2" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z2" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="14">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>800000</v>
+      </c>
+      <c r="AD2" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AF2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AH2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="14">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:38">
+      <c r="A3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="7">
+        <v>200</v>
+      </c>
+      <c r="L3" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="M3" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="N3" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>400000</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14">
+        <v>1</v>
+      </c>
+      <c r="T3" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U3" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V3" s="14">
+        <v>0</v>
+      </c>
+      <c r="W3" s="14">
+        <v>0</v>
+      </c>
+      <c r="X3" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z3" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="14">
+        <v>800000</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AE3" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AF3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AH3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="14">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:38">
+      <c r="A4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="7">
+        <v>200</v>
+      </c>
+      <c r="L4" s="14">
+        <v>2100000</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>2100000</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14">
+        <v>1</v>
+      </c>
+      <c r="T4" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U4" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V4" s="14">
+        <v>0</v>
+      </c>
+      <c r="W4" s="14">
+        <v>0</v>
+      </c>
+      <c r="X4" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z4" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="14">
+        <v>500000</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AE4" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AF4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AH4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="14">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:38">
+      <c r="A5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="7">
+        <v>200</v>
+      </c>
+      <c r="L5" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="M5" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" s="14">
+        <v>1</v>
+      </c>
+      <c r="T5" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U5" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V5" s="14">
+        <v>0</v>
+      </c>
+      <c r="W5" s="14">
+        <v>0</v>
+      </c>
+      <c r="X5" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AE5" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="14">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="12:12">
+      <c r="L9" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AL10"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="25.0380952380952" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="15" customWidth="1"/>
+    <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.6857142857143" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.047619047619" style="1" customWidth="1"/>
+    <col min="15" max="15" width="29.2380952380952" style="15" customWidth="1"/>
+    <col min="16" max="17" width="29.2380952380952" style="1" customWidth="1"/>
+    <col min="18" max="20" width="24.8666666666667" style="1" customWidth="1"/>
+    <col min="21" max="21" width="25.7047619047619" style="1" customWidth="1"/>
+    <col min="22" max="22" width="41.8380952380952" style="1" customWidth="1"/>
+    <col min="23" max="23" width="42.6857142857143" style="1" customWidth="1"/>
+    <col min="24" max="24" width="30.5809523809524" style="1" customWidth="1"/>
+    <col min="25" max="25" width="30.4190476190476" style="1" customWidth="1"/>
+    <col min="26" max="26" width="25.3714285714286" style="1" customWidth="1"/>
+    <col min="27" max="29" width="32.4285714285714" style="1" customWidth="1"/>
+    <col min="30" max="30" width="31.2571428571429" style="1" customWidth="1"/>
+    <col min="31" max="32" width="28.2380952380952" style="1" customWidth="1"/>
+    <col min="33" max="33" width="32.0952380952381" style="1" customWidth="1"/>
+    <col min="34" max="34" width="28.2380952380952" style="1" customWidth="1"/>
+    <col min="35" max="37" width="27.047619047619" style="1" customWidth="1"/>
+    <col min="38" max="38" width="23.352380952381" style="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:38">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:38">
+      <c r="A2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="7">
+        <v>200</v>
+      </c>
+      <c r="L2" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14">
+        <v>1</v>
+      </c>
+      <c r="T2" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U2" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V2" s="14">
+        <v>0</v>
+      </c>
+      <c r="W2" s="14">
+        <v>0</v>
+      </c>
+      <c r="X2" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y2" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z2" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="14">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>800000</v>
+      </c>
+      <c r="AD2" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AF2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AH2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="14">
+        <f>AD2+AE2+AF2+AG2+AH2+AI2+AJ2+AK2</f>
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:38">
+      <c r="A3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="7">
+        <v>200</v>
+      </c>
+      <c r="L3" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="M3" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="N3" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>400000</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14">
+        <v>1</v>
+      </c>
+      <c r="T3" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U3" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V3" s="14">
+        <v>0</v>
+      </c>
+      <c r="W3" s="14">
+        <v>0</v>
+      </c>
+      <c r="X3" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z3" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="14">
+        <v>800000</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AE3" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AF3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AH3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="14">
+        <f>AD3+AE3+AF3+AG3+AH3+AI3+AJ3+AK3</f>
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:38">
+      <c r="A4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="7">
+        <v>200</v>
+      </c>
+      <c r="L4" s="14">
+        <v>2100000</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>2100000</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14">
+        <v>1</v>
+      </c>
+      <c r="T4" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U4" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V4" s="14">
+        <v>0</v>
+      </c>
+      <c r="W4" s="14">
+        <v>0</v>
+      </c>
+      <c r="X4" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z4" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="14">
+        <v>500000</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AE4" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AF4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AH4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="14">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:38">
+      <c r="A5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="7">
+        <v>200</v>
+      </c>
+      <c r="L5" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="M5" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" s="14">
+        <v>1</v>
+      </c>
+      <c r="T5" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U5" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V5" s="14">
+        <v>0</v>
+      </c>
+      <c r="W5" s="14">
+        <v>0</v>
+      </c>
+      <c r="X5" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AE5" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="14">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="9:15">
+      <c r="I6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="12:12">
+      <c r="L10" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:W11"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="19.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.9333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7904761904762" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.9238095238095" style="15" customWidth="1"/>
+    <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.6857142857143" style="1" customWidth="1"/>
+    <col min="13" max="13" width="29.2380952380952" style="15" customWidth="1"/>
+    <col min="14" max="15" width="29.2380952380952" style="1" customWidth="1"/>
+    <col min="16" max="18" width="24.8666666666667" style="1" customWidth="1"/>
+    <col min="19" max="19" width="25.7047619047619" style="1" customWidth="1"/>
+    <col min="20" max="20" width="41.8380952380952" style="1" customWidth="1"/>
+    <col min="21" max="21" width="42.6857142857143" style="1" customWidth="1"/>
+    <col min="22" max="23" width="32.4285714285714" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:23">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:23">
+      <c r="A2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="7">
+        <v>200</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14">
+        <v>1</v>
+      </c>
+      <c r="R2" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="S2" s="14">
+        <v>600000</v>
+      </c>
+      <c r="T2" s="14">
+        <v>0</v>
+      </c>
+      <c r="U2" s="14">
+        <v>0</v>
+      </c>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:23">
+      <c r="A3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="7">
+        <v>200</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="14">
+        <v>400000</v>
+      </c>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14">
+        <v>1</v>
+      </c>
+      <c r="R3" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="S3" s="14">
+        <v>600000</v>
+      </c>
+      <c r="T3" s="14">
+        <v>0</v>
+      </c>
+      <c r="U3" s="14">
+        <v>0</v>
+      </c>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:23">
+      <c r="A4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="7">
+        <v>200</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <v>2100000</v>
+      </c>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14">
+        <v>1</v>
+      </c>
+      <c r="R4" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="S4" s="14">
+        <v>600000</v>
+      </c>
+      <c r="T4" s="14">
+        <v>0</v>
+      </c>
+      <c r="U4" s="14">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:23">
+      <c r="A5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="7">
+        <v>200</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <v>4200000</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14">
+        <v>1</v>
+      </c>
+      <c r="R5" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="S5" s="14">
+        <v>600000</v>
+      </c>
+      <c r="T5" s="14">
+        <v>0</v>
+      </c>
+      <c r="U5" s="14">
+        <v>0</v>
+      </c>
+      <c r="V5" s="14">
+        <v>1</v>
+      </c>
+      <c r="W5" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:23">
+      <c r="A6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="7">
+        <v>200</v>
+      </c>
+      <c r="L6" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>1</v>
+      </c>
+      <c r="R6" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="S6" s="14">
+        <v>600000</v>
+      </c>
+      <c r="T6" s="14">
+        <v>0</v>
+      </c>
+      <c r="U6" s="14">
+        <v>0</v>
+      </c>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="9:13">
+      <c r="I7" s="15"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="9:13">
+      <c r="I11" s="15"/>
+      <c r="M11" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/input_excel_file/booking/CICO.xlsx
+++ b/src/main/resources/input_excel_file/booking/CICO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="4" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="11460" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Booking_By_Bag_Player1" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="Fee_Of_Bag_Bill_Player3" sheetId="15" r:id="rId11"/>
     <sheet name="Fee_Of_Bag_Bill_Player4" sheetId="16" r:id="rId12"/>
     <sheet name="Add_Sub_Bag" sheetId="6" r:id="rId13"/>
-    <sheet name="Undo_Check_In" sheetId="3" r:id="rId14"/>
-    <sheet name="Check_In_Ekyc" sheetId="2" r:id="rId15"/>
+    <sheet name="Detail_Agency_Pay" sheetId="3" r:id="rId14"/>
+    <sheet name="Update_Agency_Pay" sheetId="17" r:id="rId15"/>
     <sheet name="Config fee" sheetId="7" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -41,8 +41,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tranp</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>tranp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Lấy trên context
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="169">
   <si>
     <t>tc_id</t>
   </si>
@@ -386,49 +419,169 @@
     <t>{{CTX:BOOKING_UID_3}}</t>
   </si>
   <si>
-    <t>UCI_001</t>
-  </si>
-  <si>
-    <t>VST_Kiểm tra check in bag</t>
-  </si>
-  <si>
-    <t>undo_check_in_bag_request.json</t>
-  </si>
-  <si>
-    <t>{{CTX:BAG}}</t>
-  </si>
-  <si>
-    <t>undo_check_in_bag_expect.json</t>
-  </si>
-  <si>
-    <t>check_sum</t>
-  </si>
-  <si>
-    <t>assert_code</t>
-  </si>
-  <si>
-    <t>assert_desc</t>
-  </si>
-  <si>
-    <t>CI_EKYC_001</t>
-  </si>
-  <si>
-    <t>MB_Kiểm tra check in bag</t>
-  </si>
-  <si>
-    <t>check_in_ekyc_request.json</t>
-  </si>
-  <si>
-    <t>{{CHECKSUM}}</t>
-  </si>
-  <si>
-    <t>check_in_ekyc_expect.json</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>Success</t>
+    <t>bill_code</t>
+  </si>
+  <si>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>agency_id</t>
+  </si>
+  <si>
+    <t>guest_style</t>
+  </si>
+  <si>
+    <t>tee_time</t>
+  </si>
+  <si>
+    <t>assert_size_agency_pre_paid</t>
+  </si>
+  <si>
+    <t>assert_size_agency_paid_v2</t>
+  </si>
+  <si>
+    <t>DETAIL_AGENCY_PAY_001</t>
+  </si>
+  <si>
+    <t>AG_Kiểm tra lấy thông tin agency pay</t>
+  </si>
+  <si>
+    <t>detail_agency_pay_request.json</t>
+  </si>
+  <si>
+    <t>{{CTX:BILL_CODE_0}}</t>
+  </si>
+  <si>
+    <t>{{CTX:HOLE_0}}</t>
+  </si>
+  <si>
+    <t>{{CTX:AGENCY_ID_0}}</t>
+  </si>
+  <si>
+    <t>{{CTX:GUEST_STYLE_0}}</t>
+  </si>
+  <si>
+    <t>{{CTX:TEE_TIME_0}}</t>
+  </si>
+  <si>
+    <t>detail_agency_pay_expect.json</t>
+  </si>
+  <si>
+    <t>cms_user</t>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>guest_style_name</t>
+  </si>
+  <si>
+    <t>course_type</t>
+  </si>
+  <si>
+    <t>tee_type</t>
+  </si>
+  <si>
+    <t>agency_paid_all</t>
+  </si>
+  <si>
+    <t>caddie_code</t>
+  </si>
+  <si>
+    <t>agency_player_pay</t>
+  </si>
+  <si>
+    <t>fee_info.golf_fee</t>
+  </si>
+  <si>
+    <t>fee_info.buggy_fee</t>
+  </si>
+  <si>
+    <t>fee_info.odd_car_fee</t>
+  </si>
+  <si>
+    <t>fee_info.caddie_fee</t>
+  </si>
+  <si>
+    <t>fee_info.private_car_fee</t>
+  </si>
+  <si>
+    <t>fee_info.has_price_spread</t>
+  </si>
+  <si>
+    <t>fee_info.package_add_on_fee</t>
+  </si>
+  <si>
+    <t>fee_info.add_on_fee</t>
+  </si>
+  <si>
+    <t>fee_info.has_pay_round_second</t>
+  </si>
+  <si>
+    <t>is_private_buggy</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER1_001</t>
+  </si>
+  <si>
+    <t>AG_Kiểm tra update agency pay: Golf fee + 1/2 Buggy Fee + Phí chênh lệch</t>
+  </si>
+  <si>
+    <t>update_agency_pay_request.json</t>
+  </si>
+  <si>
+    <t>{{CTX:USER_NAME}}</t>
+  </si>
+  <si>
+    <t>{{CTX:CUSTOMER_NAME_0}}</t>
+  </si>
+  <si>
+    <t>{{CTX:AGENCY_ID_}}</t>
+  </si>
+  <si>
+    <t>{{CTX:HOLE_}}</t>
+  </si>
+  <si>
+    <t>{{CTX:GUEST_STYLE_NAME_}}</t>
+  </si>
+  <si>
+    <t>{{CTX:COURSE_TYPE_0}}</t>
+  </si>
+  <si>
+    <t>{{CTX:TEE_TYPE_0}}</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>update_agency_pay_expect.json</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER1_002</t>
+  </si>
+  <si>
+    <t>AG_Kiểm tra update agency pay: Golf fee + 1/2 Buggy Fee + Phí chênh lệch + Buggy Private Fee</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER1_003</t>
+  </si>
+  <si>
+    <t>AG_Kiểm tra update agency pay: Golf fee + 1/2 Buggy Fee + Phí chênh lệch + Buggy Odd Fee</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER1_004</t>
+  </si>
+  <si>
+    <t>AG_Kiểm tra update agency pay: Golf fee + 1/2 Buggy Fee + Phí chênh lệch + Booking Caddie fee</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER1_005</t>
+  </si>
+  <si>
+    <t>AG_Kiểm tra update agency pay: Pay full player fee</t>
   </si>
 </sst>
 </file>
@@ -441,7 +594,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,6 +775,17 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -650,7 +814,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,7 +1011,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -859,6 +1023,32 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -994,7 +1184,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1006,34 +1196,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1118,16 +1308,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1137,16 +1333,61 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1158,18 +1399,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1182,12 +1411,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1195,9 +1418,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1749,7 +1969,7 @@
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="15" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="2" customWidth="1"/>
     <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.8571428571429" style="1" customWidth="1"/>
@@ -1764,188 +1984,188 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:20">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="10">
         <v>200</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="7">
-        <v>0</v>
-      </c>
-      <c r="O2" s="7" t="s">
+      <c r="N2" s="10">
+        <v>0</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="10">
         <v>1</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="10">
         <v>200</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="10">
         <v>378</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="10">
         <v>1</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1974,11 +2194,11 @@
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.9238095238095" style="15" customWidth="1"/>
+    <col min="9" max="9" width="31.9238095238095" style="2" customWidth="1"/>
     <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
     <col min="12" max="12" width="23.6857142857143" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29.2380952380952" style="15" customWidth="1"/>
+    <col min="13" max="13" width="29.2380952380952" style="2" customWidth="1"/>
     <col min="14" max="15" width="29.2380952380952" style="1" customWidth="1"/>
     <col min="16" max="18" width="24.8666666666667" style="1" customWidth="1"/>
     <col min="19" max="19" width="25.7047619047619" style="1" customWidth="1"/>
@@ -1989,414 +2209,414 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:22">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="33" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="10">
         <v>200</v>
       </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="14">
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="19">
         <v>2400000</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19">
         <v>1</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="19">
         <v>1000000</v>
       </c>
-      <c r="S2" s="14">
+      <c r="S2" s="19">
         <v>600000</v>
       </c>
-      <c r="T2" s="14">
-        <v>0</v>
-      </c>
-      <c r="U2" s="14">
-        <v>0</v>
-      </c>
-      <c r="V2" s="14">
+      <c r="T2" s="19">
+        <v>0</v>
+      </c>
+      <c r="U2" s="19">
+        <v>0</v>
+      </c>
+      <c r="V2" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="10">
         <v>200</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="7">
         <v>2000000</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="14">
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="19">
         <v>400000</v>
       </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14">
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19">
         <v>1</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="19">
         <v>1000000</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3" s="19">
         <v>600000</v>
       </c>
-      <c r="T3" s="14">
-        <v>0</v>
-      </c>
-      <c r="U3" s="14">
-        <v>0</v>
-      </c>
-      <c r="V3" s="14">
+      <c r="T3" s="19">
+        <v>0</v>
+      </c>
+      <c r="U3" s="19">
+        <v>0</v>
+      </c>
+      <c r="V3" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="10">
         <v>200</v>
       </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="22" t="s">
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="14">
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="19">
         <v>2100000</v>
       </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19">
         <v>1</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="19">
         <v>1000000</v>
       </c>
-      <c r="S4" s="14">
+      <c r="S4" s="19">
         <v>600000</v>
       </c>
-      <c r="T4" s="14">
-        <v>0</v>
-      </c>
-      <c r="U4" s="14">
-        <v>0</v>
-      </c>
-      <c r="V4" s="14">
+      <c r="T4" s="19">
+        <v>0</v>
+      </c>
+      <c r="U4" s="19">
+        <v>0</v>
+      </c>
+      <c r="V4" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="10">
         <v>200</v>
       </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="22" t="s">
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="14">
-        <v>0</v>
-      </c>
-      <c r="P5" s="14" t="s">
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="19">
+        <v>0</v>
+      </c>
+      <c r="P5" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="19">
         <v>1</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="19">
         <v>1000000</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="19">
         <v>600000</v>
       </c>
-      <c r="T5" s="14">
-        <v>0</v>
-      </c>
-      <c r="U5" s="14">
-        <v>0</v>
-      </c>
-      <c r="V5" s="14">
+      <c r="T5" s="19">
+        <v>0</v>
+      </c>
+      <c r="U5" s="19">
+        <v>0</v>
+      </c>
+      <c r="V5" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="10">
         <v>200</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="7">
         <v>2000000</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="14">
-        <v>0</v>
-      </c>
-      <c r="P6" s="14" t="s">
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="19">
+        <v>0</v>
+      </c>
+      <c r="P6" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="19">
         <v>1</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="19">
         <v>1000000</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="19">
         <v>600000</v>
       </c>
-      <c r="T6" s="14">
-        <v>0</v>
-      </c>
-      <c r="U6" s="14">
-        <v>0</v>
-      </c>
-      <c r="V6" s="14">
+      <c r="T6" s="19">
+        <v>0</v>
+      </c>
+      <c r="U6" s="19">
+        <v>0</v>
+      </c>
+      <c r="V6" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="9:13">
-      <c r="I7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="I7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="9:13">
-      <c r="I11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="I11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2423,11 +2643,11 @@
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.9238095238095" style="15" customWidth="1"/>
+    <col min="9" max="9" width="31.9238095238095" style="2" customWidth="1"/>
     <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
     <col min="12" max="12" width="23.6857142857143" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29.2380952380952" style="15" customWidth="1"/>
+    <col min="13" max="13" width="29.2380952380952" style="2" customWidth="1"/>
     <col min="14" max="15" width="29.2380952380952" style="1" customWidth="1"/>
     <col min="16" max="18" width="24.8666666666667" style="1" customWidth="1"/>
     <col min="19" max="19" width="25.7047619047619" style="1" customWidth="1"/>
@@ -2438,344 +2658,344 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:22">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="33" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="10">
         <v>200</v>
       </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="14">
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="19">
         <v>2400000</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19">
         <v>1</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="19">
         <v>1000000</v>
       </c>
-      <c r="S2" s="14">
+      <c r="S2" s="19">
         <v>600000</v>
       </c>
-      <c r="T2" s="14">
-        <v>0</v>
-      </c>
-      <c r="U2" s="14">
-        <v>0</v>
-      </c>
-      <c r="V2" s="14">
+      <c r="T2" s="19">
+        <v>0</v>
+      </c>
+      <c r="U2" s="19">
+        <v>0</v>
+      </c>
+      <c r="V2" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="10">
         <v>200</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="7">
         <v>2000000</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="14">
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="19">
         <v>400000</v>
       </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14">
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19">
         <v>1</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="19">
         <v>1000000</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3" s="19">
         <v>600000</v>
       </c>
-      <c r="T3" s="14">
-        <v>0</v>
-      </c>
-      <c r="U3" s="14">
-        <v>0</v>
-      </c>
-      <c r="V3" s="14">
+      <c r="T3" s="19">
+        <v>0</v>
+      </c>
+      <c r="U3" s="19">
+        <v>0</v>
+      </c>
+      <c r="V3" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="10">
         <v>200</v>
       </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="22" t="s">
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="14">
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="19">
         <v>2100000</v>
       </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19">
         <v>1</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="19">
         <v>1000000</v>
       </c>
-      <c r="S4" s="14">
+      <c r="S4" s="19">
         <v>600000</v>
       </c>
-      <c r="T4" s="14">
-        <v>0</v>
-      </c>
-      <c r="U4" s="14">
-        <v>0</v>
-      </c>
-      <c r="V4" s="14">
+      <c r="T4" s="19">
+        <v>0</v>
+      </c>
+      <c r="U4" s="19">
+        <v>0</v>
+      </c>
+      <c r="V4" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="10">
         <v>200</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="7">
         <v>2000000</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14" t="s">
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="19">
         <v>1</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="19">
         <v>1000000</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="19">
         <v>600000</v>
       </c>
-      <c r="T5" s="14">
-        <v>0</v>
-      </c>
-      <c r="U5" s="14">
-        <v>0</v>
-      </c>
-      <c r="V5" s="14">
+      <c r="T5" s="19">
+        <v>0</v>
+      </c>
+      <c r="U5" s="19">
+        <v>0</v>
+      </c>
+      <c r="V5" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="9:13">
-      <c r="I6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="I6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="9:13">
-      <c r="I10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="I10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2789,7 +3009,7 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -2802,11 +3022,11 @@
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.9238095238095" style="15" customWidth="1"/>
+    <col min="9" max="9" width="31.9238095238095" style="2" customWidth="1"/>
     <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
     <col min="12" max="12" width="23.6857142857143" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29.2380952380952" style="15" customWidth="1"/>
+    <col min="13" max="13" width="29.2380952380952" style="2" customWidth="1"/>
     <col min="14" max="15" width="29.2380952380952" style="1" customWidth="1"/>
     <col min="16" max="18" width="24.8666666666667" style="1" customWidth="1"/>
     <col min="19" max="19" width="25.7047619047619" style="1" customWidth="1"/>
@@ -2817,344 +3037,344 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:22">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="33" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="10">
         <v>200</v>
       </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="14">
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="19">
         <v>2400000</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19">
         <v>1</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="19">
         <v>1000000</v>
       </c>
-      <c r="S2" s="14">
+      <c r="S2" s="19">
         <v>600000</v>
       </c>
-      <c r="T2" s="14">
-        <v>0</v>
-      </c>
-      <c r="U2" s="14">
-        <v>0</v>
-      </c>
-      <c r="V2" s="14">
+      <c r="T2" s="19">
+        <v>0</v>
+      </c>
+      <c r="U2" s="19">
+        <v>0</v>
+      </c>
+      <c r="V2" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="10">
         <v>200</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="7">
         <v>2000000</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="14">
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="19">
         <v>400000</v>
       </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14">
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19">
         <v>1</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="19">
         <v>1000000</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3" s="19">
         <v>600000</v>
       </c>
-      <c r="T3" s="14">
-        <v>0</v>
-      </c>
-      <c r="U3" s="14">
-        <v>0</v>
-      </c>
-      <c r="V3" s="14">
+      <c r="T3" s="19">
+        <v>0</v>
+      </c>
+      <c r="U3" s="19">
+        <v>0</v>
+      </c>
+      <c r="V3" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="10">
         <v>200</v>
       </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="22" t="s">
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="14">
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="19">
         <v>2100000</v>
       </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19">
         <v>1</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="19">
         <v>1000000</v>
       </c>
-      <c r="S4" s="14">
+      <c r="S4" s="19">
         <v>600000</v>
       </c>
-      <c r="T4" s="14">
-        <v>0</v>
-      </c>
-      <c r="U4" s="14">
-        <v>0</v>
-      </c>
-      <c r="V4" s="14">
+      <c r="T4" s="19">
+        <v>0</v>
+      </c>
+      <c r="U4" s="19">
+        <v>0</v>
+      </c>
+      <c r="V4" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="10">
         <v>200</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="7">
         <v>2000000</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14" t="s">
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="19">
         <v>1</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="19">
         <v>1000000</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="19">
         <v>600000</v>
       </c>
-      <c r="T5" s="14">
-        <v>0</v>
-      </c>
-      <c r="U5" s="14">
-        <v>0</v>
-      </c>
-      <c r="V5" s="14">
+      <c r="T5" s="19">
+        <v>0</v>
+      </c>
+      <c r="U5" s="19">
+        <v>0</v>
+      </c>
+      <c r="V5" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="9:13">
-      <c r="I6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="I6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="9:13">
-      <c r="I10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="I10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3168,7 +3388,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
@@ -3191,166 +3411,166 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" ht="166" customHeight="1" spans="1:14">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="27" customFormat="1" ht="166" customHeight="1" spans="1:14">
+      <c r="A2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="5" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="19">
         <v>200</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" ht="166" customHeight="1" spans="1:14">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="27" customFormat="1" ht="166" customHeight="1" spans="1:14">
+      <c r="A3" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="5" t="s">
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="19">
         <v>200</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" ht="166" customHeight="1" spans="1:14">
-      <c r="A4" s="5" t="s">
+    <row r="4" s="27" customFormat="1" ht="166" customHeight="1" spans="1:14">
+      <c r="A4" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="19">
         <v>200</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="19">
         <v>3</v>
       </c>
     </row>
@@ -3363,79 +3583,146 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="13.7142857142857" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.4285714285714" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.2857142857143" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.14285714285714" style="1"/>
-    <col min="10" max="10" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="21.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31" style="1" customWidth="1"/>
+    <col min="8" max="14" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.2857142857143" style="2" customWidth="1"/>
+    <col min="17" max="17" width="20.5714285714286" style="2" customWidth="1"/>
+    <col min="18" max="18" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:19">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="M1" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="O1" s="17" t="s">
         <v>10</v>
       </c>
+      <c r="P1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:19">
+      <c r="A2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="7">
+      <c r="M2" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" s="10">
         <v>200</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="10">
+        <v>3</v>
+      </c>
+      <c r="S2" s="10">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3447,117 +3734,629 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="13.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.8571428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7142857142857" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.4285714285714" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="36.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.952380952381" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1428571428571" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.2857142857143" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.8571428571429" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7142857142857" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.8571428571429" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5714285714286" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.4285714285714" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8380952380952" style="2" customWidth="1"/>
+    <col min="17" max="17" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.8380952380952" style="2" customWidth="1"/>
+    <col min="19" max="19" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.8571428571429" style="1" customWidth="1"/>
+    <col min="21" max="22" width="22.7142857142857" style="1" customWidth="1"/>
+    <col min="23" max="23" width="25" style="1" customWidth="1"/>
+    <col min="24" max="24" width="26.8571428571429" style="2" customWidth="1"/>
+    <col min="25" max="25" width="29.2857142857143" style="1" customWidth="1"/>
+    <col min="26" max="26" width="23.5714285714286" style="2" customWidth="1"/>
+    <col min="27" max="28" width="31.4285714285714" style="2" customWidth="1"/>
+    <col min="29" max="29" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="30" max="30" width="18.9428571428571" style="1" customWidth="1"/>
+    <col min="31" max="31" width="22" style="2" customWidth="1"/>
+    <col min="32" max="32" width="18.9428571428571" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:13">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:32">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF1" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
+      <c r="A2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="15">
+        <v>1600000</v>
+      </c>
+      <c r="T2" s="15">
+        <v>400000</v>
+      </c>
+      <c r="U2" s="15">
+        <v>0</v>
+      </c>
+      <c r="V2" s="15">
+        <v>0</v>
+      </c>
+      <c r="W2" s="15">
+        <v>0</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y2" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD2" s="19">
+        <v>200</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF2" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
+      <c r="A3" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="15">
+        <v>1600000</v>
+      </c>
+      <c r="T3" s="15">
+        <v>400000</v>
+      </c>
+      <c r="U3" s="15">
+        <v>0</v>
+      </c>
+      <c r="V3" s="15">
+        <v>0</v>
+      </c>
+      <c r="W3" s="15">
+        <v>400000</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y3" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD3" s="19">
+        <v>200</v>
+      </c>
+      <c r="AE3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF3" s="19">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>121</v>
-      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
+      <c r="A4" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="D4" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H4" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="K2" s="7">
+      <c r="I4" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="15">
+        <v>1600000</v>
+      </c>
+      <c r="T4" s="15">
+        <v>400000</v>
+      </c>
+      <c r="U4" s="15">
+        <v>200000</v>
+      </c>
+      <c r="V4" s="15">
+        <v>0</v>
+      </c>
+      <c r="W4" s="15">
+        <v>0</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD4" s="19">
         <v>200</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="AE4" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF4" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
+      <c r="A5" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>128</v>
+      <c r="M5" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" s="15">
+        <v>1600000</v>
+      </c>
+      <c r="T5" s="15">
+        <v>400000</v>
+      </c>
+      <c r="U5" s="15">
+        <v>0</v>
+      </c>
+      <c r="V5" s="15">
+        <v>200000</v>
+      </c>
+      <c r="W5" s="15">
+        <v>0</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD5" s="19">
+        <v>200</v>
+      </c>
+      <c r="AE5" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF5" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
+      <c r="A6" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="15">
+        <v>1600000</v>
+      </c>
+      <c r="T6" s="15">
+        <v>400000</v>
+      </c>
+      <c r="U6" s="15">
+        <v>200000</v>
+      </c>
+      <c r="V6" s="15">
+        <v>200000</v>
+      </c>
+      <c r="W6" s="15">
+        <v>400000</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC6" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD6" s="19">
+        <v>200</v>
+      </c>
+      <c r="AE6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF6" s="19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3596,7 +4395,7 @@
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="15" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="2" customWidth="1"/>
     <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.8571428571429" style="1" customWidth="1"/>
@@ -3611,188 +4410,188 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:20">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="10">
         <v>200</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="7">
-        <v>0</v>
-      </c>
-      <c r="O2" s="7" t="s">
+      <c r="N2" s="10">
+        <v>0</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="10">
         <v>1</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="10">
         <v>200</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="10">
         <v>378</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="10">
         <v>1</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="10">
         <v>1</v>
       </c>
     </row>
@@ -3821,7 +4620,7 @@
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="15" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="2" customWidth="1"/>
     <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.8571428571429" style="1" customWidth="1"/>
@@ -3836,188 +4635,188 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:20">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="10">
         <v>200</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="7">
-        <v>0</v>
-      </c>
-      <c r="O2" s="7" t="s">
+      <c r="N2" s="10">
+        <v>0</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="10">
         <v>1</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="10">
         <v>200</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="10">
         <v>378</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="10">
         <v>1</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="10">
         <v>1</v>
       </c>
     </row>
@@ -4046,7 +4845,7 @@
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="15" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="2" customWidth="1"/>
     <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.8571428571429" style="1" customWidth="1"/>
@@ -4061,188 +4860,188 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:20">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="10">
         <v>200</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="7">
-        <v>0</v>
-      </c>
-      <c r="O2" s="7" t="s">
+      <c r="N2" s="10">
+        <v>0</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="10">
         <v>1</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="10">
         <v>200</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="10">
         <v>378</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="10">
         <v>1</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="10">
         <v>1</v>
       </c>
     </row>
@@ -4257,8 +5056,8 @@
   <sheetPr/>
   <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -4271,13 +5070,13 @@
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="15" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="2" customWidth="1"/>
     <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.8571428571429" style="1" customWidth="1"/>
     <col min="13" max="13" width="23.6857142857143" style="1" customWidth="1"/>
     <col min="14" max="14" width="26.047619047619" style="1" customWidth="1"/>
-    <col min="15" max="15" width="29.2380952380952" style="15" customWidth="1"/>
+    <col min="15" max="15" width="29.2380952380952" style="2" customWidth="1"/>
     <col min="16" max="17" width="29.2380952380952" style="1" customWidth="1"/>
     <col min="18" max="18" width="28.0571428571429" style="1" customWidth="1"/>
     <col min="19" max="20" width="24.8666666666667" style="1" customWidth="1"/>
@@ -4298,702 +5097,702 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:38">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Y1" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AA1" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AC1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AD1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="20" t="s">
+      <c r="AE1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AF1" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="20" t="s">
+      <c r="AG1" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AH1" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="20" t="s">
+      <c r="AI1" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="20" t="s">
+      <c r="AJ1" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="20" t="s">
+      <c r="AK1" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="AL1" s="20" t="s">
+      <c r="AL1" s="33" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="10">
         <v>200</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="19">
         <v>2400000</v>
       </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="22" t="s">
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="14">
+      <c r="P2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="19">
         <v>2400000</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14">
+      <c r="R2" s="19"/>
+      <c r="S2" s="19">
         <v>1</v>
       </c>
-      <c r="T2" s="14">
+      <c r="T2" s="19">
         <v>1000000</v>
       </c>
-      <c r="U2" s="14">
+      <c r="U2" s="19">
         <v>600000</v>
       </c>
-      <c r="V2" s="14">
-        <v>0</v>
-      </c>
-      <c r="W2" s="14">
-        <v>0</v>
-      </c>
-      <c r="X2" s="14">
+      <c r="V2" s="19">
+        <v>0</v>
+      </c>
+      <c r="W2" s="19">
+        <v>0</v>
+      </c>
+      <c r="X2" s="19">
         <v>1000000</v>
       </c>
-      <c r="Y2" s="14">
+      <c r="Y2" s="19">
         <v>600000</v>
       </c>
-      <c r="Z2" s="14">
+      <c r="Z2" s="19">
         <v>1600000</v>
       </c>
-      <c r="AA2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="14">
+      <c r="AA2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="19">
         <v>4</v>
       </c>
-      <c r="AC2" s="14">
+      <c r="AC2" s="19">
         <v>800000</v>
       </c>
-      <c r="AD2" s="14">
+      <c r="AD2" s="19">
         <v>1600000</v>
       </c>
-      <c r="AE2" s="14">
+      <c r="AE2" s="19">
         <v>600000</v>
       </c>
-      <c r="AF2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="14">
+      <c r="AF2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="19">
         <v>200000</v>
       </c>
-      <c r="AH2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="14">
+      <c r="AH2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="19">
         <v>2400000</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="10">
         <v>200</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="19">
         <v>2400000</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="7">
         <v>2000000</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="7">
         <v>2000000</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="14">
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19">
         <v>400000</v>
       </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14">
+      <c r="R3" s="19"/>
+      <c r="S3" s="19">
         <v>1</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="19">
         <v>1000000</v>
       </c>
-      <c r="U3" s="14">
+      <c r="U3" s="19">
         <v>600000</v>
       </c>
-      <c r="V3" s="14">
-        <v>0</v>
-      </c>
-      <c r="W3" s="14">
-        <v>0</v>
-      </c>
-      <c r="X3" s="14">
+      <c r="V3" s="19">
+        <v>0</v>
+      </c>
+      <c r="W3" s="19">
+        <v>0</v>
+      </c>
+      <c r="X3" s="19">
         <v>1000000</v>
       </c>
-      <c r="Y3" s="14">
+      <c r="Y3" s="19">
         <v>600000</v>
       </c>
-      <c r="Z3" s="14">
+      <c r="Z3" s="19">
         <v>1600000</v>
       </c>
-      <c r="AA3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="14">
+      <c r="AA3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="19">
         <v>4</v>
       </c>
-      <c r="AC3" s="14">
+      <c r="AC3" s="19">
         <v>800000</v>
       </c>
-      <c r="AD3" s="14">
+      <c r="AD3" s="19">
         <v>1600000</v>
       </c>
-      <c r="AE3" s="14">
+      <c r="AE3" s="19">
         <v>600000</v>
       </c>
-      <c r="AF3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="14">
+      <c r="AF3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="19">
         <v>200000</v>
       </c>
-      <c r="AH3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="14">
+      <c r="AH3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="19">
         <v>2400000</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="10">
         <v>200</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="19">
         <v>2100000</v>
       </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="22" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="14">
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
         <v>2100000</v>
       </c>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14">
+      <c r="R4" s="19"/>
+      <c r="S4" s="19">
         <v>1</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="19">
         <v>1000000</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="19">
         <v>600000</v>
       </c>
-      <c r="V4" s="14">
-        <v>0</v>
-      </c>
-      <c r="W4" s="14">
-        <v>0</v>
-      </c>
-      <c r="X4" s="14">
+      <c r="V4" s="19">
+        <v>0</v>
+      </c>
+      <c r="W4" s="19">
+        <v>0</v>
+      </c>
+      <c r="X4" s="19">
         <v>1000000</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Y4" s="19">
         <v>600000</v>
       </c>
-      <c r="Z4" s="14">
+      <c r="Z4" s="19">
         <v>1600000</v>
       </c>
-      <c r="AA4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="14">
+      <c r="AA4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="19">
         <v>2</v>
       </c>
-      <c r="AC4" s="14">
+      <c r="AC4" s="19">
         <v>500000</v>
       </c>
-      <c r="AD4" s="14">
+      <c r="AD4" s="19">
         <v>1600000</v>
       </c>
-      <c r="AE4" s="14">
+      <c r="AE4" s="19">
         <v>400000</v>
       </c>
-      <c r="AF4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="14">
+      <c r="AF4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="19">
         <v>100000</v>
       </c>
-      <c r="AH4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="14">
+      <c r="AH4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="19">
         <v>2100000</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="10">
         <v>200</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="19">
         <v>4200000</v>
       </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="22" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="14">
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="19">
         <v>4200000</v>
       </c>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14">
+      <c r="R5" s="19"/>
+      <c r="S5" s="19">
         <v>1</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="19">
         <v>1000000</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U5" s="19">
         <v>600000</v>
       </c>
-      <c r="V5" s="14">
-        <v>0</v>
-      </c>
-      <c r="W5" s="14">
-        <v>0</v>
-      </c>
-      <c r="X5" s="14">
+      <c r="V5" s="19">
+        <v>0</v>
+      </c>
+      <c r="W5" s="19">
+        <v>0</v>
+      </c>
+      <c r="X5" s="19">
         <v>2000000</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="Y5" s="19">
         <v>1200000</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="Z5" s="19">
         <v>3200000</v>
       </c>
-      <c r="AA5" s="14">
+      <c r="AA5" s="19">
         <v>1</v>
       </c>
-      <c r="AB5" s="14">
+      <c r="AB5" s="19">
         <v>4</v>
       </c>
-      <c r="AC5" s="14">
+      <c r="AC5" s="19">
         <v>1000000</v>
       </c>
-      <c r="AD5" s="14">
+      <c r="AD5" s="19">
         <v>1600000</v>
       </c>
-      <c r="AE5" s="14">
+      <c r="AE5" s="19">
         <v>400000</v>
       </c>
-      <c r="AF5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="14">
+      <c r="AF5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="19">
         <v>100000</v>
       </c>
-      <c r="AH5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="14">
+      <c r="AH5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="19">
         <v>2100000</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="10">
         <v>200</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="7">
         <v>2000000</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="7">
         <v>2000000</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="7">
         <v>2000000</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14" t="s">
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="19">
         <v>1</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="19">
         <v>1000000</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U6" s="19">
         <v>600000</v>
       </c>
-      <c r="V6" s="14">
-        <v>0</v>
-      </c>
-      <c r="W6" s="14">
-        <v>0</v>
-      </c>
-      <c r="X6" s="14">
+      <c r="V6" s="19">
+        <v>0</v>
+      </c>
+      <c r="W6" s="19">
+        <v>0</v>
+      </c>
+      <c r="X6" s="19">
         <v>1000000</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Y6" s="19">
         <v>600000</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="Z6" s="19">
         <v>1600000</v>
       </c>
-      <c r="AA6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="14">
+      <c r="AA6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="19">
         <v>1</v>
       </c>
-      <c r="AC6" s="14">
+      <c r="AC6" s="19">
         <v>400000</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AD6" s="19">
         <v>1600000</v>
       </c>
-      <c r="AE6" s="14">
+      <c r="AE6" s="19">
         <v>400000</v>
       </c>
-      <c r="AF6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="14">
+      <c r="AF6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="19">
         <v>2000000</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="9:15">
-      <c r="I7" s="15"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="15"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="11" customHeight="1" spans="12:12">
-      <c r="L11" s="24"/>
+      <c r="L11" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5020,13 +5819,13 @@
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="15" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="2" customWidth="1"/>
     <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.8571428571429" style="1" customWidth="1"/>
     <col min="13" max="13" width="23.6857142857143" style="1" customWidth="1"/>
     <col min="14" max="14" width="26.047619047619" style="1" customWidth="1"/>
-    <col min="15" max="15" width="29.2380952380952" style="15" customWidth="1"/>
+    <col min="15" max="15" width="29.2380952380952" style="2" customWidth="1"/>
     <col min="16" max="17" width="29.2380952380952" style="1" customWidth="1"/>
     <col min="18" max="20" width="24.8666666666667" style="1" customWidth="1"/>
     <col min="21" max="21" width="25.7047619047619" style="1" customWidth="1"/>
@@ -5046,701 +5845,701 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:38">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Y1" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AA1" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AC1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AD1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="20" t="s">
+      <c r="AE1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AF1" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="20" t="s">
+      <c r="AG1" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AH1" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="20" t="s">
+      <c r="AI1" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="20" t="s">
+      <c r="AJ1" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="20" t="s">
+      <c r="AK1" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="AL1" s="20" t="s">
+      <c r="AL1" s="33" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:38">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="10">
         <v>200</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="19">
         <v>2400000</v>
       </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="22" t="s">
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="14">
+      <c r="P2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="19">
         <v>2400000</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14">
+      <c r="R2" s="19"/>
+      <c r="S2" s="19">
         <v>1</v>
       </c>
-      <c r="T2" s="14">
+      <c r="T2" s="19">
         <v>1000000</v>
       </c>
-      <c r="U2" s="14">
+      <c r="U2" s="19">
         <v>600000</v>
       </c>
-      <c r="V2" s="14">
-        <v>0</v>
-      </c>
-      <c r="W2" s="14">
-        <v>0</v>
-      </c>
-      <c r="X2" s="14">
+      <c r="V2" s="19">
+        <v>0</v>
+      </c>
+      <c r="W2" s="19">
+        <v>0</v>
+      </c>
+      <c r="X2" s="19">
         <v>1000000</v>
       </c>
-      <c r="Y2" s="14">
+      <c r="Y2" s="19">
         <v>600000</v>
       </c>
-      <c r="Z2" s="14">
+      <c r="Z2" s="19">
         <v>1600000</v>
       </c>
-      <c r="AA2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="14">
+      <c r="AA2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="19">
         <v>4</v>
       </c>
-      <c r="AC2" s="14">
+      <c r="AC2" s="19">
         <v>800000</v>
       </c>
-      <c r="AD2" s="14">
+      <c r="AD2" s="19">
         <v>1600000</v>
       </c>
-      <c r="AE2" s="14">
+      <c r="AE2" s="19">
         <v>600000</v>
       </c>
-      <c r="AF2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="14">
+      <c r="AF2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="19">
         <v>200000</v>
       </c>
-      <c r="AH2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="14">
+      <c r="AH2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="19">
         <v>2400000</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:38">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="10">
         <v>200</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="19">
         <v>2400000</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="7">
         <v>2000000</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="7">
         <v>2000000</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="14">
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19">
         <v>400000</v>
       </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14">
+      <c r="R3" s="19"/>
+      <c r="S3" s="19">
         <v>1</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="19">
         <v>1000000</v>
       </c>
-      <c r="U3" s="14">
+      <c r="U3" s="19">
         <v>600000</v>
       </c>
-      <c r="V3" s="14">
-        <v>0</v>
-      </c>
-      <c r="W3" s="14">
-        <v>0</v>
-      </c>
-      <c r="X3" s="14">
+      <c r="V3" s="19">
+        <v>0</v>
+      </c>
+      <c r="W3" s="19">
+        <v>0</v>
+      </c>
+      <c r="X3" s="19">
         <v>1000000</v>
       </c>
-      <c r="Y3" s="14">
+      <c r="Y3" s="19">
         <v>600000</v>
       </c>
-      <c r="Z3" s="14">
+      <c r="Z3" s="19">
         <v>1600000</v>
       </c>
-      <c r="AA3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="14">
+      <c r="AA3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="19">
         <v>4</v>
       </c>
-      <c r="AC3" s="14">
+      <c r="AC3" s="19">
         <v>800000</v>
       </c>
-      <c r="AD3" s="14">
+      <c r="AD3" s="19">
         <v>1600000</v>
       </c>
-      <c r="AE3" s="14">
+      <c r="AE3" s="19">
         <v>600000</v>
       </c>
-      <c r="AF3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="14">
+      <c r="AF3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="19">
         <v>200000</v>
       </c>
-      <c r="AH3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="14">
+      <c r="AH3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="19">
         <v>2400000</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:38">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="10">
         <v>200</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="19">
         <v>2100000</v>
       </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="22" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="14">
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
         <v>2100000</v>
       </c>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14">
+      <c r="R4" s="19"/>
+      <c r="S4" s="19">
         <v>1</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="19">
         <v>1000000</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="19">
         <v>600000</v>
       </c>
-      <c r="V4" s="14">
-        <v>0</v>
-      </c>
-      <c r="W4" s="14">
-        <v>0</v>
-      </c>
-      <c r="X4" s="14">
+      <c r="V4" s="19">
+        <v>0</v>
+      </c>
+      <c r="W4" s="19">
+        <v>0</v>
+      </c>
+      <c r="X4" s="19">
         <v>1000000</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Y4" s="19">
         <v>600000</v>
       </c>
-      <c r="Z4" s="14">
+      <c r="Z4" s="19">
         <v>1600000</v>
       </c>
-      <c r="AA4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="14">
+      <c r="AA4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="19">
         <v>2</v>
       </c>
-      <c r="AC4" s="14">
+      <c r="AC4" s="19">
         <v>500000</v>
       </c>
-      <c r="AD4" s="14">
+      <c r="AD4" s="19">
         <v>1600000</v>
       </c>
-      <c r="AE4" s="14">
+      <c r="AE4" s="19">
         <v>400000</v>
       </c>
-      <c r="AF4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="14">
+      <c r="AF4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="19">
         <v>100000</v>
       </c>
-      <c r="AH4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="14">
+      <c r="AH4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="19">
         <v>2100000</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:38">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="10">
         <v>200</v>
       </c>
-      <c r="L5" s="14">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="22" t="s">
+      <c r="L5" s="19">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>0</v>
-      </c>
-      <c r="R5" s="14" t="s">
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>0</v>
+      </c>
+      <c r="R5" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="19">
         <v>1</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="19">
         <v>1000000</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U5" s="19">
         <v>600000</v>
       </c>
-      <c r="V5" s="14">
-        <v>0</v>
-      </c>
-      <c r="W5" s="14">
-        <v>0</v>
-      </c>
-      <c r="X5" s="14">
+      <c r="V5" s="19">
+        <v>0</v>
+      </c>
+      <c r="W5" s="19">
+        <v>0</v>
+      </c>
+      <c r="X5" s="19">
         <v>1000000</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="Y5" s="19">
         <v>600000</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="Z5" s="19">
         <v>1600000</v>
       </c>
-      <c r="AA5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="14">
+      <c r="AA5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="19">
         <v>2</v>
       </c>
-      <c r="AC5" s="14">
+      <c r="AC5" s="19">
         <v>500000</v>
       </c>
-      <c r="AD5" s="14">
+      <c r="AD5" s="19">
         <v>1600000</v>
       </c>
-      <c r="AE5" s="14">
+      <c r="AE5" s="19">
         <v>400000</v>
       </c>
-      <c r="AF5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="14">
+      <c r="AF5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="19">
         <v>100000</v>
       </c>
-      <c r="AH5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="14">
+      <c r="AH5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="19">
         <v>2100000</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:38">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="10">
         <v>200</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="7">
         <v>2000000</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="7">
         <v>2000000</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="7">
         <v>2000000</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="14">
-        <v>0</v>
-      </c>
-      <c r="R6" s="14" t="s">
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>0</v>
+      </c>
+      <c r="R6" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="19">
         <v>1</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="19">
         <v>1000000</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U6" s="19">
         <v>600000</v>
       </c>
-      <c r="V6" s="14">
-        <v>0</v>
-      </c>
-      <c r="W6" s="14">
-        <v>0</v>
-      </c>
-      <c r="X6" s="14">
+      <c r="V6" s="19">
+        <v>0</v>
+      </c>
+      <c r="W6" s="19">
+        <v>0</v>
+      </c>
+      <c r="X6" s="19">
         <v>1000000</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Y6" s="19">
         <v>600000</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="Z6" s="19">
         <v>1600000</v>
       </c>
-      <c r="AA6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="14">
+      <c r="AA6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="19">
         <v>1</v>
       </c>
-      <c r="AC6" s="14">
+      <c r="AC6" s="19">
         <v>400000</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AD6" s="19">
         <v>1600000</v>
       </c>
-      <c r="AE6" s="14">
+      <c r="AE6" s="19">
         <v>400000</v>
       </c>
-      <c r="AF6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="14">
+      <c r="AF6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="19">
         <v>2000000</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="9:15">
-      <c r="I7" s="15"/>
-      <c r="O7" s="15"/>
+      <c r="I7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="11" customHeight="1" spans="12:12">
-      <c r="L11" s="24"/>
+      <c r="L11" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5767,13 +6566,13 @@
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="15" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="2" customWidth="1"/>
     <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.8571428571429" style="1" customWidth="1"/>
     <col min="13" max="13" width="23.6857142857143" style="1" customWidth="1"/>
     <col min="14" max="14" width="26.047619047619" style="1" customWidth="1"/>
-    <col min="15" max="15" width="29.2380952380952" style="15" customWidth="1"/>
+    <col min="15" max="15" width="29.2380952380952" style="2" customWidth="1"/>
     <col min="16" max="17" width="29.2380952380952" style="1" customWidth="1"/>
     <col min="18" max="20" width="24.8666666666667" style="1" customWidth="1"/>
     <col min="21" max="21" width="25.7047619047619" style="1" customWidth="1"/>
@@ -5793,579 +6592,579 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:38">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Y1" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AA1" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AC1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AD1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="20" t="s">
+      <c r="AE1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AF1" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="20" t="s">
+      <c r="AG1" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AH1" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="20" t="s">
+      <c r="AI1" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="20" t="s">
+      <c r="AJ1" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="20" t="s">
+      <c r="AK1" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="AL1" s="20" t="s">
+      <c r="AL1" s="33" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:38">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="10">
         <v>200</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="19">
         <v>2400000</v>
       </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="22" t="s">
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="14">
+      <c r="P2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="19">
         <v>2400000</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14">
+      <c r="R2" s="19"/>
+      <c r="S2" s="19">
         <v>1</v>
       </c>
-      <c r="T2" s="14">
+      <c r="T2" s="19">
         <v>1000000</v>
       </c>
-      <c r="U2" s="14">
+      <c r="U2" s="19">
         <v>600000</v>
       </c>
-      <c r="V2" s="14">
-        <v>0</v>
-      </c>
-      <c r="W2" s="14">
-        <v>0</v>
-      </c>
-      <c r="X2" s="14">
+      <c r="V2" s="19">
+        <v>0</v>
+      </c>
+      <c r="W2" s="19">
+        <v>0</v>
+      </c>
+      <c r="X2" s="19">
         <v>1000000</v>
       </c>
-      <c r="Y2" s="14">
+      <c r="Y2" s="19">
         <v>600000</v>
       </c>
-      <c r="Z2" s="14">
+      <c r="Z2" s="19">
         <v>1600000</v>
       </c>
-      <c r="AA2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="14">
+      <c r="AA2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="19">
         <v>4</v>
       </c>
-      <c r="AC2" s="14">
+      <c r="AC2" s="19">
         <v>800000</v>
       </c>
-      <c r="AD2" s="14">
+      <c r="AD2" s="19">
         <v>1600000</v>
       </c>
-      <c r="AE2" s="14">
+      <c r="AE2" s="19">
         <v>600000</v>
       </c>
-      <c r="AF2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="14">
+      <c r="AF2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="19">
         <v>200000</v>
       </c>
-      <c r="AH2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="14">
+      <c r="AH2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="19">
         <v>2400000</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:38">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="10">
         <v>200</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="19">
         <v>2400000</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="7">
         <v>2000000</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="7">
         <v>2000000</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="14">
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19">
         <v>400000</v>
       </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14">
+      <c r="R3" s="19"/>
+      <c r="S3" s="19">
         <v>1</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="19">
         <v>1000000</v>
       </c>
-      <c r="U3" s="14">
+      <c r="U3" s="19">
         <v>600000</v>
       </c>
-      <c r="V3" s="14">
-        <v>0</v>
-      </c>
-      <c r="W3" s="14">
-        <v>0</v>
-      </c>
-      <c r="X3" s="14">
+      <c r="V3" s="19">
+        <v>0</v>
+      </c>
+      <c r="W3" s="19">
+        <v>0</v>
+      </c>
+      <c r="X3" s="19">
         <v>1000000</v>
       </c>
-      <c r="Y3" s="14">
+      <c r="Y3" s="19">
         <v>600000</v>
       </c>
-      <c r="Z3" s="14">
+      <c r="Z3" s="19">
         <v>1600000</v>
       </c>
-      <c r="AA3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="14">
+      <c r="AA3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="19">
         <v>4</v>
       </c>
-      <c r="AC3" s="14">
+      <c r="AC3" s="19">
         <v>800000</v>
       </c>
-      <c r="AD3" s="14">
+      <c r="AD3" s="19">
         <v>1600000</v>
       </c>
-      <c r="AE3" s="14">
+      <c r="AE3" s="19">
         <v>600000</v>
       </c>
-      <c r="AF3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="14">
+      <c r="AF3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="19">
         <v>200000</v>
       </c>
-      <c r="AH3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="14">
+      <c r="AH3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="19">
         <v>2400000</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:38">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="10">
         <v>200</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="19">
         <v>2100000</v>
       </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="22" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="14">
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
         <v>2100000</v>
       </c>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14">
+      <c r="R4" s="19"/>
+      <c r="S4" s="19">
         <v>1</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="19">
         <v>1000000</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="19">
         <v>600000</v>
       </c>
-      <c r="V4" s="14">
-        <v>0</v>
-      </c>
-      <c r="W4" s="14">
-        <v>0</v>
-      </c>
-      <c r="X4" s="14">
+      <c r="V4" s="19">
+        <v>0</v>
+      </c>
+      <c r="W4" s="19">
+        <v>0</v>
+      </c>
+      <c r="X4" s="19">
         <v>1000000</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Y4" s="19">
         <v>600000</v>
       </c>
-      <c r="Z4" s="14">
+      <c r="Z4" s="19">
         <v>1600000</v>
       </c>
-      <c r="AA4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="14">
+      <c r="AA4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="19">
         <v>2</v>
       </c>
-      <c r="AC4" s="14">
+      <c r="AC4" s="19">
         <v>500000</v>
       </c>
-      <c r="AD4" s="14">
+      <c r="AD4" s="19">
         <v>1600000</v>
       </c>
-      <c r="AE4" s="14">
+      <c r="AE4" s="19">
         <v>400000</v>
       </c>
-      <c r="AF4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="14">
+      <c r="AF4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="19">
         <v>100000</v>
       </c>
-      <c r="AH4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="14">
+      <c r="AH4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="19">
         <v>2100000</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:38">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="10">
         <v>200</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="7">
         <v>2000000</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="7">
         <v>2000000</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="7">
         <v>2000000</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14" t="s">
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="19">
         <v>1</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="19">
         <v>1000000</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U5" s="19">
         <v>600000</v>
       </c>
-      <c r="V5" s="14">
-        <v>0</v>
-      </c>
-      <c r="W5" s="14">
-        <v>0</v>
-      </c>
-      <c r="X5" s="14">
+      <c r="V5" s="19">
+        <v>0</v>
+      </c>
+      <c r="W5" s="19">
+        <v>0</v>
+      </c>
+      <c r="X5" s="19">
         <v>1000000</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="Y5" s="19">
         <v>600000</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="Z5" s="19">
         <v>1600000</v>
       </c>
-      <c r="AA5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="14">
+      <c r="AA5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="19">
         <v>1</v>
       </c>
-      <c r="AC5" s="14">
+      <c r="AC5" s="19">
         <v>400000</v>
       </c>
-      <c r="AD5" s="14">
+      <c r="AD5" s="19">
         <v>1600000</v>
       </c>
-      <c r="AE5" s="14">
+      <c r="AE5" s="19">
         <v>400000</v>
       </c>
-      <c r="AF5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="14">
+      <c r="AF5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="19">
         <v>2000000</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="12:12">
-      <c r="L9" s="24"/>
+      <c r="L9" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6392,13 +7191,13 @@
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8380952380952" style="15" customWidth="1"/>
+    <col min="9" max="9" width="17.8380952380952" style="2" customWidth="1"/>
     <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.8571428571429" style="1" customWidth="1"/>
     <col min="13" max="13" width="23.6857142857143" style="1" customWidth="1"/>
     <col min="14" max="14" width="26.047619047619" style="1" customWidth="1"/>
-    <col min="15" max="15" width="29.2380952380952" style="15" customWidth="1"/>
+    <col min="15" max="15" width="29.2380952380952" style="2" customWidth="1"/>
     <col min="16" max="17" width="29.2380952380952" style="1" customWidth="1"/>
     <col min="18" max="20" width="24.8666666666667" style="1" customWidth="1"/>
     <col min="21" max="21" width="25.7047619047619" style="1" customWidth="1"/>
@@ -6418,585 +7217,585 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:38">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Y1" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AA1" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AC1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AD1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="20" t="s">
+      <c r="AE1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AF1" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="20" t="s">
+      <c r="AG1" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AH1" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="20" t="s">
+      <c r="AI1" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="20" t="s">
+      <c r="AJ1" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="20" t="s">
+      <c r="AK1" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="AL1" s="20" t="s">
+      <c r="AL1" s="33" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:38">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="10">
         <v>200</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="19">
         <v>2400000</v>
       </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="22" t="s">
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="14">
+      <c r="P2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="19">
         <v>2400000</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14">
+      <c r="R2" s="19"/>
+      <c r="S2" s="19">
         <v>1</v>
       </c>
-      <c r="T2" s="14">
+      <c r="T2" s="19">
         <v>1000000</v>
       </c>
-      <c r="U2" s="14">
+      <c r="U2" s="19">
         <v>600000</v>
       </c>
-      <c r="V2" s="14">
-        <v>0</v>
-      </c>
-      <c r="W2" s="14">
-        <v>0</v>
-      </c>
-      <c r="X2" s="14">
+      <c r="V2" s="19">
+        <v>0</v>
+      </c>
+      <c r="W2" s="19">
+        <v>0</v>
+      </c>
+      <c r="X2" s="19">
         <v>1000000</v>
       </c>
-      <c r="Y2" s="14">
+      <c r="Y2" s="19">
         <v>600000</v>
       </c>
-      <c r="Z2" s="14">
+      <c r="Z2" s="19">
         <v>1600000</v>
       </c>
-      <c r="AA2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="14">
+      <c r="AA2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="19">
         <v>4</v>
       </c>
-      <c r="AC2" s="14">
+      <c r="AC2" s="19">
         <v>800000</v>
       </c>
-      <c r="AD2" s="14">
+      <c r="AD2" s="19">
         <v>1600000</v>
       </c>
-      <c r="AE2" s="14">
+      <c r="AE2" s="19">
         <v>600000</v>
       </c>
-      <c r="AF2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="14">
+      <c r="AF2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="19">
         <v>200000</v>
       </c>
-      <c r="AH2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="14">
+      <c r="AH2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="19">
         <f>AD2+AE2+AF2+AG2+AH2+AI2+AJ2+AK2</f>
         <v>2400000</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:38">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="10">
         <v>200</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="19">
         <v>2400000</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="7">
         <v>2000000</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="7">
         <v>2000000</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="14">
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19">
         <v>400000</v>
       </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14">
+      <c r="R3" s="19"/>
+      <c r="S3" s="19">
         <v>1</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="19">
         <v>1000000</v>
       </c>
-      <c r="U3" s="14">
+      <c r="U3" s="19">
         <v>600000</v>
       </c>
-      <c r="V3" s="14">
-        <v>0</v>
-      </c>
-      <c r="W3" s="14">
-        <v>0</v>
-      </c>
-      <c r="X3" s="14">
+      <c r="V3" s="19">
+        <v>0</v>
+      </c>
+      <c r="W3" s="19">
+        <v>0</v>
+      </c>
+      <c r="X3" s="19">
         <v>1000000</v>
       </c>
-      <c r="Y3" s="14">
+      <c r="Y3" s="19">
         <v>600000</v>
       </c>
-      <c r="Z3" s="14">
+      <c r="Z3" s="19">
         <v>1600000</v>
       </c>
-      <c r="AA3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="14">
+      <c r="AA3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="19">
         <v>4</v>
       </c>
-      <c r="AC3" s="14">
+      <c r="AC3" s="19">
         <v>800000</v>
       </c>
-      <c r="AD3" s="14">
+      <c r="AD3" s="19">
         <v>1600000</v>
       </c>
-      <c r="AE3" s="14">
+      <c r="AE3" s="19">
         <v>600000</v>
       </c>
-      <c r="AF3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="14">
+      <c r="AF3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="19">
         <v>200000</v>
       </c>
-      <c r="AH3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="14">
+      <c r="AH3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="19">
         <f>AD3+AE3+AF3+AG3+AH3+AI3+AJ3+AK3</f>
         <v>2400000</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:38">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="10">
         <v>200</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="19">
         <v>2100000</v>
       </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="22" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="14">
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
         <v>2100000</v>
       </c>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14">
+      <c r="R4" s="19"/>
+      <c r="S4" s="19">
         <v>1</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="19">
         <v>1000000</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="19">
         <v>600000</v>
       </c>
-      <c r="V4" s="14">
-        <v>0</v>
-      </c>
-      <c r="W4" s="14">
-        <v>0</v>
-      </c>
-      <c r="X4" s="14">
+      <c r="V4" s="19">
+        <v>0</v>
+      </c>
+      <c r="W4" s="19">
+        <v>0</v>
+      </c>
+      <c r="X4" s="19">
         <v>1000000</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Y4" s="19">
         <v>600000</v>
       </c>
-      <c r="Z4" s="14">
+      <c r="Z4" s="19">
         <v>1600000</v>
       </c>
-      <c r="AA4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="14">
+      <c r="AA4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="19">
         <v>2</v>
       </c>
-      <c r="AC4" s="14">
+      <c r="AC4" s="19">
         <v>500000</v>
       </c>
-      <c r="AD4" s="14">
+      <c r="AD4" s="19">
         <v>1600000</v>
       </c>
-      <c r="AE4" s="14">
+      <c r="AE4" s="19">
         <v>400000</v>
       </c>
-      <c r="AF4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="14">
+      <c r="AF4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="19">
         <v>100000</v>
       </c>
-      <c r="AH4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="14">
+      <c r="AH4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="19">
         <v>2100000</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:38">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="10">
         <v>200</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="7">
         <v>2000000</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="7">
         <v>2000000</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="7">
         <v>2000000</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14" t="s">
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="19">
         <v>1</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="19">
         <v>1000000</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U5" s="19">
         <v>600000</v>
       </c>
-      <c r="V5" s="14">
-        <v>0</v>
-      </c>
-      <c r="W5" s="14">
-        <v>0</v>
-      </c>
-      <c r="X5" s="14">
+      <c r="V5" s="19">
+        <v>0</v>
+      </c>
+      <c r="W5" s="19">
+        <v>0</v>
+      </c>
+      <c r="X5" s="19">
         <v>1000000</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="Y5" s="19">
         <v>600000</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="Z5" s="19">
         <v>1600000</v>
       </c>
-      <c r="AA5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="14">
+      <c r="AA5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="19">
         <v>1</v>
       </c>
-      <c r="AC5" s="14">
+      <c r="AC5" s="19">
         <v>400000</v>
       </c>
-      <c r="AD5" s="14">
+      <c r="AD5" s="19">
         <v>1600000</v>
       </c>
-      <c r="AE5" s="14">
+      <c r="AE5" s="19">
         <v>400000</v>
       </c>
-      <c r="AF5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="14">
+      <c r="AF5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="19">
         <v>2000000</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="9:15">
-      <c r="I6" s="15"/>
-      <c r="O6" s="15"/>
+      <c r="I6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="10" customHeight="1" spans="12:12">
-      <c r="L10" s="24"/>
+      <c r="L10" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7023,11 +7822,11 @@
     <col min="6" max="6" width="22.4285714285714" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.3047619047619" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.9238095238095" style="15" customWidth="1"/>
+    <col min="9" max="9" width="31.9238095238095" style="2" customWidth="1"/>
     <col min="10" max="10" width="31.4285714285714" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.2857142857143" style="1" customWidth="1"/>
     <col min="12" max="12" width="23.6857142857143" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29.2380952380952" style="15" customWidth="1"/>
+    <col min="13" max="13" width="29.2380952380952" style="2" customWidth="1"/>
     <col min="14" max="15" width="29.2380952380952" style="1" customWidth="1"/>
     <col min="16" max="18" width="24.8666666666667" style="1" customWidth="1"/>
     <col min="19" max="19" width="25.7047619047619" style="1" customWidth="1"/>
@@ -7038,423 +7837,423 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:23">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="W1" s="33" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="10">
         <v>200</v>
       </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="22" t="s">
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="14">
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="19">
         <v>2400000</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19">
         <v>1</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="19">
         <v>1000000</v>
       </c>
-      <c r="S2" s="14">
+      <c r="S2" s="19">
         <v>600000</v>
       </c>
-      <c r="T2" s="14">
-        <v>0</v>
-      </c>
-      <c r="U2" s="14">
-        <v>0</v>
-      </c>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14">
+      <c r="T2" s="19">
+        <v>0</v>
+      </c>
+      <c r="U2" s="19">
+        <v>0</v>
+      </c>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="10">
         <v>200</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="7">
         <v>2000000</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="14">
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="19">
         <v>400000</v>
       </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14">
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19">
         <v>1</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="19">
         <v>1000000</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3" s="19">
         <v>600000</v>
       </c>
-      <c r="T3" s="14">
-        <v>0</v>
-      </c>
-      <c r="U3" s="14">
-        <v>0</v>
-      </c>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14">
+      <c r="T3" s="19">
+        <v>0</v>
+      </c>
+      <c r="U3" s="19">
+        <v>0</v>
+      </c>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="10">
         <v>200</v>
       </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="22" t="s">
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="14">
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="19">
         <v>2100000</v>
       </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19">
         <v>1</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="19">
         <v>1000000</v>
       </c>
-      <c r="S4" s="14">
+      <c r="S4" s="19">
         <v>600000</v>
       </c>
-      <c r="T4" s="14">
-        <v>0</v>
-      </c>
-      <c r="U4" s="14">
-        <v>0</v>
-      </c>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14">
+      <c r="T4" s="19">
+        <v>0</v>
+      </c>
+      <c r="U4" s="19">
+        <v>0</v>
+      </c>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="10">
         <v>200</v>
       </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="22" t="s">
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="14">
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="19">
         <v>4200000</v>
       </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14">
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19">
         <v>1</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="19">
         <v>1000000</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="19">
         <v>600000</v>
       </c>
-      <c r="T5" s="14">
-        <v>0</v>
-      </c>
-      <c r="U5" s="14">
-        <v>0</v>
-      </c>
-      <c r="V5" s="14">
+      <c r="T5" s="19">
+        <v>0</v>
+      </c>
+      <c r="U5" s="19">
+        <v>0</v>
+      </c>
+      <c r="V5" s="19">
         <v>1</v>
       </c>
-      <c r="W5" s="14">
+      <c r="W5" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="10">
         <v>200</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="7">
         <v>2000000</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14" t="s">
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="19">
         <v>1</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="19">
         <v>1000000</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="19">
         <v>600000</v>
       </c>
-      <c r="T6" s="14">
-        <v>0</v>
-      </c>
-      <c r="U6" s="14">
-        <v>0</v>
-      </c>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14">
+      <c r="T6" s="19">
+        <v>0</v>
+      </c>
+      <c r="U6" s="19">
+        <v>0</v>
+      </c>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="9:13">
-      <c r="I7" s="15"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="15"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="9:13">
-      <c r="I11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="I11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/main/resources/input_excel_file/booking/CICO.xlsx
+++ b/src/main/resources/input_excel_file/booking/CICO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11460" firstSheet="10" activeTab="14"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Booking_By_Bag_Player1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="Add_Sub_Bag" sheetId="6" r:id="rId13"/>
     <sheet name="Detail_Agency_Pay" sheetId="3" r:id="rId14"/>
     <sheet name="Update_Agency_Pay" sheetId="17" r:id="rId15"/>
-    <sheet name="Config fee" sheetId="7" r:id="rId16"/>
+    <sheet name="Input_Payment" sheetId="19" r:id="rId16"/>
+    <sheet name="Config fee" sheetId="7" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
     <author>tranp</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,8 +66,7 @@
             <charset val="0"/>
           </rPr>
           <t xml:space="preserve">
-Lấy trên context
-</t>
+FE fake: Để xác định xoá thằng nào tạo mới nhưng chưa lưu vào db</t>
         </r>
       </text>
     </comment>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="236">
   <si>
     <t>tc_id</t>
   </si>
@@ -539,13 +539,7 @@
     <t>{{CTX:CUSTOMER_NAME_0}}</t>
   </si>
   <si>
-    <t>{{CTX:AGENCY_ID_}}</t>
-  </si>
-  <si>
-    <t>{{CTX:HOLE_}}</t>
-  </si>
-  <si>
-    <t>{{CTX:GUEST_STYLE_NAME_}}</t>
+    <t>{{CTX:GUEST_STYLE_NAME_0}}</t>
   </si>
   <si>
     <t>{{CTX:COURSE_TYPE_0}}</t>
@@ -582,6 +576,213 @@
   </si>
   <si>
     <t>AG_Kiểm tra update agency pay: Pay full player fee</t>
+  </si>
+  <si>
+    <t>date_str</t>
+  </si>
+  <si>
+    <t>check_sum</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>list_item[0].payment_type</t>
+  </si>
+  <si>
+    <t>list_item[0].amount</t>
+  </si>
+  <si>
+    <t>list_item[0].note</t>
+  </si>
+  <si>
+    <t>list_item[0].bank_type</t>
+  </si>
+  <si>
+    <t>list_item[0].payment_provider</t>
+  </si>
+  <si>
+    <t>list_item[0].paid</t>
+  </si>
+  <si>
+    <t>list_item[0].cashiers</t>
+  </si>
+  <si>
+    <t>list_item[0].uid_temp</t>
+  </si>
+  <si>
+    <t>list_item[0].action_type</t>
+  </si>
+  <si>
+    <t>list_item[0].location.service_type</t>
+  </si>
+  <si>
+    <t>list_item[0].location.kiosk_type</t>
+  </si>
+  <si>
+    <t>list_item[0].location.path</t>
+  </si>
+  <si>
+    <t>list_item[0].location.id</t>
+  </si>
+  <si>
+    <t>list_item[0].service_item_ids</t>
+  </si>
+  <si>
+    <t>list_item[0].round_ids</t>
+  </si>
+  <si>
+    <t>list_item[0].is_payment_on_behalf</t>
+  </si>
+  <si>
+    <t>list_item[1].payment_type</t>
+  </si>
+  <si>
+    <t>list_item[1].amount</t>
+  </si>
+  <si>
+    <t>list_item[1].note</t>
+  </si>
+  <si>
+    <t>list_item[1].bank_type</t>
+  </si>
+  <si>
+    <t>list_item[1].payment_provider</t>
+  </si>
+  <si>
+    <t>list_item[1].paid</t>
+  </si>
+  <si>
+    <t>list_item[1].cashiers</t>
+  </si>
+  <si>
+    <t>list_item[1].uid_temp</t>
+  </si>
+  <si>
+    <t>list_item[1].action_type</t>
+  </si>
+  <si>
+    <t>list_item[1].location.service_type</t>
+  </si>
+  <si>
+    <t>list_item[1].location.kiosk_type</t>
+  </si>
+  <si>
+    <t>list_item[1].location.path</t>
+  </si>
+  <si>
+    <t>list_item[1].location.id</t>
+  </si>
+  <si>
+    <t>list_item[1].service_item_ids</t>
+  </si>
+  <si>
+    <t>list_item[1].round_ids</t>
+  </si>
+  <si>
+    <t>list_item[1].is_payment_on_behalf</t>
+  </si>
+  <si>
+    <t>list_auto_invoice</t>
+  </si>
+  <si>
+    <t>list_auto_inv_agency</t>
+  </si>
+  <si>
+    <t>is_negative_amount</t>
+  </si>
+  <si>
+    <t>assert_message</t>
+  </si>
+  <si>
+    <t>INPUT_PAYMENT_PLAYER1</t>
+  </si>
+  <si>
+    <t>Kiểm tra input 1tr6 CASH</t>
+  </si>
+  <si>
+    <t>input_payment_request.json</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_DATE_0}}</t>
+  </si>
+  <si>
+    <t>{{CHECKSUM_SINGLE_PAYMENT_0}}</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>CREATE</t>
+  </si>
+  <si>
+    <t>RECEPTION</t>
+  </si>
+  <si>
+    <t>/new-check-in-out</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>input_payment_expect.json</t>
+  </si>
+  <si>
+    <t>INPUT_PAYMENT_PLAYER2</t>
+  </si>
+  <si>
+    <t>{{CTX:BILL_CODE_1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_DATE_1}}</t>
+  </si>
+  <si>
+    <t>{{CHECKSUM_SINGLE_PAYMENT_1}}</t>
+  </si>
+  <si>
+    <t>INPUT_PAYMENT_PLAYER3</t>
+  </si>
+  <si>
+    <t>{{CTX:BILL_CODE_2}}</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_DATE_2}}</t>
+  </si>
+  <si>
+    <t>{{CHECKSUM_SINGLE_PAYMENT_2}}</t>
+  </si>
+  <si>
+    <t>INPUT_PAYMENT_PLAYER4</t>
+  </si>
+  <si>
+    <t>{{CTX:BILL_CODE_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_DATE_3}}</t>
+  </si>
+  <si>
+    <t>{{CHECKSUM_SINGLE_PAYMENT_3}}</t>
+  </si>
+  <si>
+    <t>INPUT_PAYMENT_001</t>
+  </si>
+  <si>
+    <t>Kiểm tra input mix pay ment</t>
+  </si>
+  <si>
+    <t>input_mix_payment_request.json</t>
+  </si>
+  <si>
+    <t>44b0b0a4da278571f59ca0bd7f147fc6fe3cef5356f3d9dad7302a01413f1e6f</t>
+  </si>
+  <si>
+    <t>TRANSFER</t>
+  </si>
+  <si>
+    <t>VCB</t>
   </si>
 </sst>
 </file>
@@ -594,7 +795,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,6 +823,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -802,12 +1018,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -815,6 +1025,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,137 +1394,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1324,55 +1540,67 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1387,37 +1615,31 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1996,52 +2218,52 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2052,16 +2274,16 @@
       <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -2070,7 +2292,7 @@
       <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -2079,7 +2301,7 @@
       <c r="K2" s="10">
         <v>200</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>30</v>
       </c>
       <c r="M2" s="10" t="s">
@@ -2114,16 +2336,16 @@
       <c r="B3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="10" t="s">
@@ -2132,7 +2354,7 @@
       <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -2141,7 +2363,7 @@
       <c r="K3" s="10">
         <v>200</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>36</v>
       </c>
       <c r="M3" s="10" t="s">
@@ -2221,58 +2443,58 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="V1" s="35" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2283,16 +2505,16 @@
       <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -2301,7 +2523,7 @@
       <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="22" t="s">
         <v>70</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -2313,32 +2535,32 @@
       <c r="L2" s="7">
         <v>0</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="19" t="s">
         <v>70</v>
       </c>
       <c r="N2" s="7">
         <v>0</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="18">
         <v>2400000</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19">
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18">
         <v>1</v>
       </c>
-      <c r="R2" s="19">
+      <c r="R2" s="18">
         <v>1000000</v>
       </c>
-      <c r="S2" s="19">
+      <c r="S2" s="18">
         <v>600000</v>
       </c>
-      <c r="T2" s="19">
-        <v>0</v>
-      </c>
-      <c r="U2" s="19">
-        <v>0</v>
-      </c>
-      <c r="V2" s="19">
+      <c r="T2" s="18">
+        <v>0</v>
+      </c>
+      <c r="U2" s="18">
+        <v>0</v>
+      </c>
+      <c r="V2" s="18">
         <v>4</v>
       </c>
     </row>
@@ -2349,16 +2571,16 @@
       <c r="B3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="10" t="s">
@@ -2367,7 +2589,7 @@
       <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="22" t="s">
         <v>70</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -2379,32 +2601,32 @@
       <c r="L3" s="7">
         <v>2000000</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>70</v>
       </c>
       <c r="N3" s="7">
         <v>0</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="18">
         <v>400000</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19">
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18">
         <v>1</v>
       </c>
-      <c r="R3" s="19">
+      <c r="R3" s="18">
         <v>1000000</v>
       </c>
-      <c r="S3" s="19">
+      <c r="S3" s="18">
         <v>600000</v>
       </c>
-      <c r="T3" s="19">
-        <v>0</v>
-      </c>
-      <c r="U3" s="19">
-        <v>0</v>
-      </c>
-      <c r="V3" s="19">
+      <c r="T3" s="18">
+        <v>0</v>
+      </c>
+      <c r="U3" s="18">
+        <v>0</v>
+      </c>
+      <c r="V3" s="18">
         <v>4</v>
       </c>
     </row>
@@ -2415,16 +2637,16 @@
       <c r="B4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="10" t="s">
@@ -2433,7 +2655,7 @@
       <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="22" t="s">
         <v>70</v>
       </c>
       <c r="J4" s="7" t="s">
@@ -2445,32 +2667,32 @@
       <c r="L4" s="7">
         <v>0</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="19" t="s">
         <v>70</v>
       </c>
       <c r="N4" s="7">
         <v>0</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="18">
         <v>2100000</v>
       </c>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19">
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18">
         <v>1</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="18">
         <v>1000000</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="18">
         <v>600000</v>
       </c>
-      <c r="T4" s="19">
-        <v>0</v>
-      </c>
-      <c r="U4" s="19">
-        <v>0</v>
-      </c>
-      <c r="V4" s="19">
+      <c r="T4" s="18">
+        <v>0</v>
+      </c>
+      <c r="U4" s="18">
+        <v>0</v>
+      </c>
+      <c r="V4" s="18">
         <v>2</v>
       </c>
     </row>
@@ -2481,16 +2703,16 @@
       <c r="B5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -2499,7 +2721,7 @@
       <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="22" t="s">
         <v>70</v>
       </c>
       <c r="J5" s="7" t="s">
@@ -2511,34 +2733,34 @@
       <c r="L5" s="7">
         <v>0</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="19" t="s">
         <v>70</v>
       </c>
       <c r="N5" s="7">
         <v>0</v>
       </c>
-      <c r="O5" s="19">
-        <v>0</v>
-      </c>
-      <c r="P5" s="19" t="s">
+      <c r="O5" s="18">
+        <v>0</v>
+      </c>
+      <c r="P5" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="18">
         <v>1</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="18">
         <v>1000000</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="18">
         <v>600000</v>
       </c>
-      <c r="T5" s="19">
-        <v>0</v>
-      </c>
-      <c r="U5" s="19">
-        <v>0</v>
-      </c>
-      <c r="V5" s="19">
+      <c r="T5" s="18">
+        <v>0</v>
+      </c>
+      <c r="U5" s="18">
+        <v>0</v>
+      </c>
+      <c r="V5" s="18">
         <v>2</v>
       </c>
     </row>
@@ -2549,16 +2771,16 @@
       <c r="B6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="10" t="s">
@@ -2567,7 +2789,7 @@
       <c r="H6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="22" t="s">
         <v>70</v>
       </c>
       <c r="J6" s="7" t="s">
@@ -2579,34 +2801,34 @@
       <c r="L6" s="7">
         <v>2000000</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="19" t="s">
         <v>70</v>
       </c>
       <c r="N6" s="7">
         <v>0</v>
       </c>
-      <c r="O6" s="19">
-        <v>0</v>
-      </c>
-      <c r="P6" s="19" t="s">
+      <c r="O6" s="18">
+        <v>0</v>
+      </c>
+      <c r="P6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="18">
         <v>1</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="18">
         <v>1000000</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="18">
         <v>600000</v>
       </c>
-      <c r="T6" s="19">
-        <v>0</v>
-      </c>
-      <c r="U6" s="19">
-        <v>0</v>
-      </c>
-      <c r="V6" s="19">
+      <c r="T6" s="18">
+        <v>0</v>
+      </c>
+      <c r="U6" s="18">
+        <v>0</v>
+      </c>
+      <c r="V6" s="18">
         <v>1</v>
       </c>
     </row>
@@ -2670,58 +2892,58 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="V1" s="35" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2732,16 +2954,16 @@
       <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -2750,7 +2972,7 @@
       <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="22" t="s">
         <v>70</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -2762,32 +2984,32 @@
       <c r="L2" s="7">
         <v>0</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="19" t="s">
         <v>70</v>
       </c>
       <c r="N2" s="7">
         <v>0</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="18">
         <v>2400000</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19">
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18">
         <v>1</v>
       </c>
-      <c r="R2" s="19">
+      <c r="R2" s="18">
         <v>1000000</v>
       </c>
-      <c r="S2" s="19">
+      <c r="S2" s="18">
         <v>600000</v>
       </c>
-      <c r="T2" s="19">
-        <v>0</v>
-      </c>
-      <c r="U2" s="19">
-        <v>0</v>
-      </c>
-      <c r="V2" s="19">
+      <c r="T2" s="18">
+        <v>0</v>
+      </c>
+      <c r="U2" s="18">
+        <v>0</v>
+      </c>
+      <c r="V2" s="18">
         <v>4</v>
       </c>
     </row>
@@ -2798,16 +3020,16 @@
       <c r="B3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="10" t="s">
@@ -2816,7 +3038,7 @@
       <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="22" t="s">
         <v>70</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -2828,32 +3050,32 @@
       <c r="L3" s="7">
         <v>2000000</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>70</v>
       </c>
       <c r="N3" s="7">
         <v>0</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="18">
         <v>400000</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19">
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18">
         <v>1</v>
       </c>
-      <c r="R3" s="19">
+      <c r="R3" s="18">
         <v>1000000</v>
       </c>
-      <c r="S3" s="19">
+      <c r="S3" s="18">
         <v>600000</v>
       </c>
-      <c r="T3" s="19">
-        <v>0</v>
-      </c>
-      <c r="U3" s="19">
-        <v>0</v>
-      </c>
-      <c r="V3" s="19">
+      <c r="T3" s="18">
+        <v>0</v>
+      </c>
+      <c r="U3" s="18">
+        <v>0</v>
+      </c>
+      <c r="V3" s="18">
         <v>4</v>
       </c>
     </row>
@@ -2864,16 +3086,16 @@
       <c r="B4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="10" t="s">
@@ -2882,7 +3104,7 @@
       <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="22" t="s">
         <v>70</v>
       </c>
       <c r="J4" s="7" t="s">
@@ -2894,32 +3116,32 @@
       <c r="L4" s="7">
         <v>0</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="19" t="s">
         <v>70</v>
       </c>
       <c r="N4" s="7">
         <v>0</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="18">
         <v>2100000</v>
       </c>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19">
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18">
         <v>1</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="18">
         <v>1000000</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="18">
         <v>600000</v>
       </c>
-      <c r="T4" s="19">
-        <v>0</v>
-      </c>
-      <c r="U4" s="19">
-        <v>0</v>
-      </c>
-      <c r="V4" s="19">
+      <c r="T4" s="18">
+        <v>0</v>
+      </c>
+      <c r="U4" s="18">
+        <v>0</v>
+      </c>
+      <c r="V4" s="18">
         <v>2</v>
       </c>
     </row>
@@ -2930,16 +3152,16 @@
       <c r="B5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -2948,7 +3170,7 @@
       <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="22" t="s">
         <v>70</v>
       </c>
       <c r="J5" s="7" t="s">
@@ -2960,32 +3182,32 @@
       <c r="L5" s="7">
         <v>2000000</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="19" t="s">
         <v>70</v>
       </c>
       <c r="N5" s="7">
         <v>0</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19" t="s">
+      <c r="O5" s="18"/>
+      <c r="P5" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="18">
         <v>1</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="18">
         <v>1000000</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="18">
         <v>600000</v>
       </c>
-      <c r="T5" s="19">
-        <v>0</v>
-      </c>
-      <c r="U5" s="19">
-        <v>0</v>
-      </c>
-      <c r="V5" s="19">
+      <c r="T5" s="18">
+        <v>0</v>
+      </c>
+      <c r="U5" s="18">
+        <v>0</v>
+      </c>
+      <c r="V5" s="18">
         <v>1</v>
       </c>
     </row>
@@ -3049,58 +3271,58 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="V1" s="35" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3111,16 +3333,16 @@
       <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -3129,7 +3351,7 @@
       <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="22" t="s">
         <v>70</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -3141,32 +3363,32 @@
       <c r="L2" s="7">
         <v>0</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="19" t="s">
         <v>70</v>
       </c>
       <c r="N2" s="7">
         <v>0</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="18">
         <v>2400000</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19">
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18">
         <v>1</v>
       </c>
-      <c r="R2" s="19">
+      <c r="R2" s="18">
         <v>1000000</v>
       </c>
-      <c r="S2" s="19">
+      <c r="S2" s="18">
         <v>600000</v>
       </c>
-      <c r="T2" s="19">
-        <v>0</v>
-      </c>
-      <c r="U2" s="19">
-        <v>0</v>
-      </c>
-      <c r="V2" s="19">
+      <c r="T2" s="18">
+        <v>0</v>
+      </c>
+      <c r="U2" s="18">
+        <v>0</v>
+      </c>
+      <c r="V2" s="18">
         <v>4</v>
       </c>
     </row>
@@ -3177,16 +3399,16 @@
       <c r="B3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="10" t="s">
@@ -3195,7 +3417,7 @@
       <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="22" t="s">
         <v>70</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -3207,32 +3429,32 @@
       <c r="L3" s="7">
         <v>2000000</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>70</v>
       </c>
       <c r="N3" s="7">
         <v>0</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="18">
         <v>400000</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19">
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18">
         <v>1</v>
       </c>
-      <c r="R3" s="19">
+      <c r="R3" s="18">
         <v>1000000</v>
       </c>
-      <c r="S3" s="19">
+      <c r="S3" s="18">
         <v>600000</v>
       </c>
-      <c r="T3" s="19">
-        <v>0</v>
-      </c>
-      <c r="U3" s="19">
-        <v>0</v>
-      </c>
-      <c r="V3" s="19">
+      <c r="T3" s="18">
+        <v>0</v>
+      </c>
+      <c r="U3" s="18">
+        <v>0</v>
+      </c>
+      <c r="V3" s="18">
         <v>4</v>
       </c>
     </row>
@@ -3243,16 +3465,16 @@
       <c r="B4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="10" t="s">
@@ -3261,7 +3483,7 @@
       <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="22" t="s">
         <v>70</v>
       </c>
       <c r="J4" s="7" t="s">
@@ -3273,32 +3495,32 @@
       <c r="L4" s="7">
         <v>0</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="19" t="s">
         <v>70</v>
       </c>
       <c r="N4" s="7">
         <v>0</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="18">
         <v>2100000</v>
       </c>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19">
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18">
         <v>1</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="18">
         <v>1000000</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="18">
         <v>600000</v>
       </c>
-      <c r="T4" s="19">
-        <v>0</v>
-      </c>
-      <c r="U4" s="19">
-        <v>0</v>
-      </c>
-      <c r="V4" s="19">
+      <c r="T4" s="18">
+        <v>0</v>
+      </c>
+      <c r="U4" s="18">
+        <v>0</v>
+      </c>
+      <c r="V4" s="18">
         <v>2</v>
       </c>
     </row>
@@ -3309,16 +3531,16 @@
       <c r="B5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -3327,7 +3549,7 @@
       <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="22" t="s">
         <v>70</v>
       </c>
       <c r="J5" s="7" t="s">
@@ -3339,32 +3561,32 @@
       <c r="L5" s="7">
         <v>2000000</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="19" t="s">
         <v>70</v>
       </c>
       <c r="N5" s="7">
         <v>0</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19" t="s">
+      <c r="O5" s="18"/>
+      <c r="P5" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="18">
         <v>1</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="18">
         <v>1000000</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="18">
         <v>600000</v>
       </c>
-      <c r="T5" s="19">
-        <v>0</v>
-      </c>
-      <c r="U5" s="19">
-        <v>0</v>
-      </c>
-      <c r="V5" s="19">
+      <c r="T5" s="18">
+        <v>0</v>
+      </c>
+      <c r="U5" s="18">
+        <v>0</v>
+      </c>
+      <c r="V5" s="18">
         <v>1</v>
       </c>
     </row>
@@ -3423,154 +3645,154 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" s="27" customFormat="1" ht="166" customHeight="1" spans="1:14">
+    <row r="2" s="30" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A2" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="19">
+      <c r="M2" s="18">
         <v>200</v>
       </c>
-      <c r="N2" s="19">
+      <c r="N2" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="27" customFormat="1" ht="166" customHeight="1" spans="1:14">
+    <row r="3" s="30" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A3" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="18">
         <v>200</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="27" customFormat="1" ht="166" customHeight="1" spans="1:14">
+    <row r="4" s="30" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A4" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>104</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="18">
         <v>200</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="18">
         <v>3</v>
       </c>
     </row>
@@ -3585,8 +3807,8 @@
   <sheetPr/>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
@@ -3597,7 +3819,7 @@
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.4285714285714" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.7142857142857" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26" style="1" customWidth="1"/>
     <col min="8" max="14" width="31.4285714285714" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.2857142857143" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.2857142857143" style="2" customWidth="1"/>
@@ -3620,49 +3842,49 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="15" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3673,37 +3895,37 @@
       <c r="B2" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="29" t="s">
         <v>128</v>
       </c>
       <c r="N2" s="7" t="s">
@@ -3712,10 +3934,10 @@
       <c r="O2" s="10">
         <v>200</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="22" t="s">
         <v>70</v>
       </c>
       <c r="R2" s="10">
@@ -3736,8 +3958,8 @@
   <sheetPr/>
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
@@ -3788,88 +4010,88 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AA1" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AC1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AD1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AE1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AF1" s="15" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3902,79 +4124,79 @@
         <v>153</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>127</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="10">
+        <v>1600000</v>
+      </c>
+      <c r="T2" s="10">
+        <v>400000</v>
+      </c>
+      <c r="U2" s="10">
+        <v>0</v>
+      </c>
+      <c r="V2" s="10">
+        <v>0</v>
+      </c>
+      <c r="W2" s="10">
+        <v>0</v>
+      </c>
+      <c r="X2" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="Y2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="AD2" s="18">
+        <v>200</v>
+      </c>
+      <c r="AE2" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="S2" s="15">
-        <v>1600000</v>
-      </c>
-      <c r="T2" s="15">
-        <v>400000</v>
-      </c>
-      <c r="U2" s="15">
-        <v>0</v>
-      </c>
-      <c r="V2" s="15">
-        <v>0</v>
-      </c>
-      <c r="W2" s="15">
-        <v>0</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y2" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD2" s="19">
-        <v>200</v>
-      </c>
-      <c r="AE2" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF2" s="19">
+      <c r="AF2" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A3" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>22</v>
@@ -3998,79 +4220,79 @@
         <v>153</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>127</v>
       </c>
       <c r="M3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="P3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="10">
+        <v>1600000</v>
+      </c>
+      <c r="T3" s="10">
+        <v>400000</v>
+      </c>
+      <c r="U3" s="10">
+        <v>0</v>
+      </c>
+      <c r="V3" s="10">
+        <v>0</v>
+      </c>
+      <c r="W3" s="10">
+        <v>400000</v>
+      </c>
+      <c r="X3" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="Y3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC3" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="AD3" s="18">
+        <v>200</v>
+      </c>
+      <c r="AE3" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="S3" s="15">
-        <v>1600000</v>
-      </c>
-      <c r="T3" s="15">
-        <v>400000</v>
-      </c>
-      <c r="U3" s="15">
-        <v>0</v>
-      </c>
-      <c r="V3" s="15">
-        <v>0</v>
-      </c>
-      <c r="W3" s="15">
-        <v>400000</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y3" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD3" s="19">
-        <v>200</v>
-      </c>
-      <c r="AE3" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF3" s="19">
+      <c r="AF3" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A4" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>22</v>
@@ -4094,79 +4316,79 @@
         <v>153</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>127</v>
       </c>
       <c r="M4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="P4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="10">
+        <v>1600000</v>
+      </c>
+      <c r="T4" s="10">
+        <v>400000</v>
+      </c>
+      <c r="U4" s="10">
+        <v>200000</v>
+      </c>
+      <c r="V4" s="10">
+        <v>0</v>
+      </c>
+      <c r="W4" s="10">
+        <v>0</v>
+      </c>
+      <c r="X4" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="Y4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC4" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="AD4" s="18">
+        <v>200</v>
+      </c>
+      <c r="AE4" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="S4" s="15">
-        <v>1600000</v>
-      </c>
-      <c r="T4" s="15">
-        <v>400000</v>
-      </c>
-      <c r="U4" s="15">
-        <v>200000</v>
-      </c>
-      <c r="V4" s="15">
-        <v>0</v>
-      </c>
-      <c r="W4" s="15">
-        <v>0</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y4" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD4" s="19">
-        <v>200</v>
-      </c>
-      <c r="AE4" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF4" s="19">
+      <c r="AF4" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A5" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>22</v>
@@ -4190,79 +4412,79 @@
         <v>153</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>127</v>
       </c>
       <c r="M5" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="P5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" s="10">
+        <v>1600000</v>
+      </c>
+      <c r="T5" s="10">
+        <v>400000</v>
+      </c>
+      <c r="U5" s="10">
+        <v>0</v>
+      </c>
+      <c r="V5" s="10">
+        <v>200000</v>
+      </c>
+      <c r="W5" s="10">
+        <v>0</v>
+      </c>
+      <c r="X5" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="Y5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC5" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="AD5" s="18">
+        <v>200</v>
+      </c>
+      <c r="AE5" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="S5" s="15">
-        <v>1600000</v>
-      </c>
-      <c r="T5" s="15">
-        <v>400000</v>
-      </c>
-      <c r="U5" s="15">
-        <v>0</v>
-      </c>
-      <c r="V5" s="15">
-        <v>200000</v>
-      </c>
-      <c r="W5" s="15">
-        <v>0</v>
-      </c>
-      <c r="X5" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y5" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB5" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD5" s="19">
-        <v>200</v>
-      </c>
-      <c r="AE5" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF5" s="19">
+      <c r="AF5" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A6" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>22</v>
@@ -4286,71 +4508,833 @@
         <v>153</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>127</v>
       </c>
       <c r="M6" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="P6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="10">
+        <v>1600000</v>
+      </c>
+      <c r="T6" s="10">
+        <v>400000</v>
+      </c>
+      <c r="U6" s="10">
+        <v>200000</v>
+      </c>
+      <c r="V6" s="10">
+        <v>200000</v>
+      </c>
+      <c r="W6" s="10">
+        <v>400000</v>
+      </c>
+      <c r="X6" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="Y6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC6" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="AD6" s="18">
+        <v>200</v>
+      </c>
+      <c r="AE6" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="12" t="s">
+      <c r="AF6" s="18">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AU6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AS11" sqref="AS11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="24.1428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.952380952381" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.8571428571429" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.2857142857143" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.8571428571429" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7142857142857" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.8571428571429" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5714285714286" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.4285714285714" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20" style="2" customWidth="1"/>
+    <col min="17" max="17" width="24.2857142857143" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.8380952380952" style="2" customWidth="1"/>
+    <col min="19" max="19" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.8571428571429" style="1" customWidth="1"/>
+    <col min="21" max="22" width="22.7142857142857" style="1" customWidth="1"/>
+    <col min="23" max="23" width="25" style="1" customWidth="1"/>
+    <col min="24" max="24" width="26.8571428571429" style="2" customWidth="1"/>
+    <col min="25" max="25" width="29.2857142857143" style="1" customWidth="1"/>
+    <col min="26" max="26" width="23.5714285714286" style="2" customWidth="1"/>
+    <col min="27" max="28" width="31.4285714285714" style="2" customWidth="1"/>
+    <col min="29" max="29" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="30" max="30" width="18.9428571428571" style="1" customWidth="1"/>
+    <col min="31" max="31" width="22" style="2" customWidth="1"/>
+    <col min="32" max="32" width="18.9428571428571" style="1" customWidth="1"/>
+    <col min="33" max="43" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="44" max="44" width="20.8571428571429" style="2" customWidth="1"/>
+    <col min="45" max="45" width="26.1428571428571" style="1" customWidth="1"/>
+    <col min="46" max="47" width="20.8571428571429" style="1" customWidth="1"/>
+    <col min="48" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:47">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU1" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
+      <c r="A2" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K2" s="11">
+        <v>1600000</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11">
+        <v>1600000</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>0</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="V2" s="11">
+        <v>0</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="S6" s="15">
+      <c r="AS2" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT2" s="18">
+        <v>200</v>
+      </c>
+      <c r="AU2" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
+      <c r="A3" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3" s="11">
         <v>1600000</v>
       </c>
-      <c r="T6" s="15">
-        <v>400000</v>
-      </c>
-      <c r="U6" s="15">
-        <v>200000</v>
-      </c>
-      <c r="V6" s="15">
-        <v>200000</v>
-      </c>
-      <c r="W6" s="15">
-        <v>400000</v>
-      </c>
-      <c r="X6" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y6" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="12" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11">
+        <v>1600000</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>0</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="V3" s="11">
+        <v>0</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN3" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO3" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP3" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ3" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR3" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AB6" s="12" t="s">
+      <c r="AS3" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT3" s="18">
+        <v>200</v>
+      </c>
+      <c r="AU3" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
+      <c r="A4" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1600000</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11">
+        <v>1600000</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="V4" s="11">
+        <v>0</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN4" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO4" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP4" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ4" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AC6" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD6" s="19">
+      <c r="AS4" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT4" s="18">
         <v>200</v>
       </c>
-      <c r="AE6" s="20" t="s">
+      <c r="AU4" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
+      <c r="A5" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1600000</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11">
+        <v>1600000</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="V5" s="11">
+        <v>0</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN5" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO5" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP5" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ5" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR5" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="AF6" s="19">
-        <v>1</v>
+      <c r="AS5" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT5" s="18">
+        <v>200</v>
+      </c>
+      <c r="AU5" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
+      <c r="A6" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="11">
+        <v>100000</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11">
+        <v>100000</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="V6" s="11">
+        <v>0</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>100000</v>
+      </c>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11">
+        <v>100000</v>
+      </c>
+      <c r="AF6" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI6" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ6" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK6" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN6" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO6" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP6" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ6" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR6" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS6" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT6" s="18">
+        <v>200</v>
+      </c>
+      <c r="AU6" s="19" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4360,7 +5344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -4422,52 +5406,52 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4478,16 +5462,16 @@
       <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -4496,7 +5480,7 @@
       <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -4505,7 +5489,7 @@
       <c r="K2" s="10">
         <v>200</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>30</v>
       </c>
       <c r="M2" s="10" t="s">
@@ -4540,16 +5524,16 @@
       <c r="B3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="10" t="s">
@@ -4558,7 +5542,7 @@
       <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -4567,7 +5551,7 @@
       <c r="K3" s="10">
         <v>200</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>36</v>
       </c>
       <c r="M3" s="10" t="s">
@@ -4647,52 +5631,52 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4703,16 +5687,16 @@
       <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -4721,7 +5705,7 @@
       <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -4730,7 +5714,7 @@
       <c r="K2" s="10">
         <v>200</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>30</v>
       </c>
       <c r="M2" s="10" t="s">
@@ -4765,16 +5749,16 @@
       <c r="B3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="10" t="s">
@@ -4783,7 +5767,7 @@
       <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -4792,7 +5776,7 @@
       <c r="K3" s="10">
         <v>200</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>36</v>
       </c>
       <c r="M3" s="10" t="s">
@@ -4872,52 +5856,52 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4928,16 +5912,16 @@
       <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -4946,7 +5930,7 @@
       <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -4955,7 +5939,7 @@
       <c r="K2" s="10">
         <v>200</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>30</v>
       </c>
       <c r="M2" s="10" t="s">
@@ -4990,16 +5974,16 @@
       <c r="B3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="10" t="s">
@@ -5008,7 +5992,7 @@
       <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -5017,7 +6001,7 @@
       <c r="K3" s="10">
         <v>200</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>36</v>
       </c>
       <c r="M3" s="10" t="s">
@@ -5109,106 +6093,106 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="V1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="W1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="X1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="Y1" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="Z1" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AA1" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AB1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AC1" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AD1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AE1" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AF1" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AG1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AH1" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="33" t="s">
+      <c r="AI1" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="33" t="s">
+      <c r="AJ1" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="33" t="s">
+      <c r="AK1" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="AL1" s="33" t="s">
+      <c r="AL1" s="35" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5219,16 +6203,16 @@
       <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -5237,7 +6221,7 @@
       <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -5246,7 +6230,7 @@
       <c r="K2" s="10">
         <v>200</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="18">
         <v>2400000</v>
       </c>
       <c r="M2" s="7">
@@ -5255,74 +6239,74 @@
       <c r="N2" s="7">
         <v>0</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="19" t="s">
         <v>70</v>
       </c>
       <c r="P2" s="7">
         <v>0</v>
       </c>
-      <c r="Q2" s="19">
+      <c r="Q2" s="18">
         <v>2400000</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19">
+      <c r="R2" s="18"/>
+      <c r="S2" s="18">
         <v>1</v>
       </c>
-      <c r="T2" s="19">
+      <c r="T2" s="18">
         <v>1000000</v>
       </c>
-      <c r="U2" s="19">
+      <c r="U2" s="18">
         <v>600000</v>
       </c>
-      <c r="V2" s="19">
-        <v>0</v>
-      </c>
-      <c r="W2" s="19">
-        <v>0</v>
-      </c>
-      <c r="X2" s="19">
+      <c r="V2" s="18">
+        <v>0</v>
+      </c>
+      <c r="W2" s="18">
+        <v>0</v>
+      </c>
+      <c r="X2" s="18">
         <v>1000000</v>
       </c>
-      <c r="Y2" s="19">
+      <c r="Y2" s="18">
         <v>600000</v>
       </c>
-      <c r="Z2" s="19">
+      <c r="Z2" s="18">
         <v>1600000</v>
       </c>
-      <c r="AA2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="19">
+      <c r="AA2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="18">
         <v>4</v>
       </c>
-      <c r="AC2" s="19">
+      <c r="AC2" s="18">
         <v>800000</v>
       </c>
-      <c r="AD2" s="19">
+      <c r="AD2" s="18">
         <v>1600000</v>
       </c>
-      <c r="AE2" s="19">
+      <c r="AE2" s="18">
         <v>600000</v>
       </c>
-      <c r="AF2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="19">
+      <c r="AF2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="18">
         <v>200000</v>
       </c>
-      <c r="AH2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="19">
+      <c r="AH2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="18">
         <v>2400000</v>
       </c>
     </row>
@@ -5333,16 +6317,16 @@
       <c r="B3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="10" t="s">
@@ -5351,7 +6335,7 @@
       <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -5360,7 +6344,7 @@
       <c r="K3" s="10">
         <v>200</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="18">
         <v>2400000</v>
       </c>
       <c r="M3" s="7">
@@ -5369,74 +6353,74 @@
       <c r="N3" s="7">
         <v>2000000</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="19" t="s">
         <v>70</v>
       </c>
       <c r="P3" s="7">
         <v>0</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="18">
         <v>400000</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19">
+      <c r="R3" s="18"/>
+      <c r="S3" s="18">
         <v>1</v>
       </c>
-      <c r="T3" s="19">
+      <c r="T3" s="18">
         <v>1000000</v>
       </c>
-      <c r="U3" s="19">
+      <c r="U3" s="18">
         <v>600000</v>
       </c>
-      <c r="V3" s="19">
-        <v>0</v>
-      </c>
-      <c r="W3" s="19">
-        <v>0</v>
-      </c>
-      <c r="X3" s="19">
+      <c r="V3" s="18">
+        <v>0</v>
+      </c>
+      <c r="W3" s="18">
+        <v>0</v>
+      </c>
+      <c r="X3" s="18">
         <v>1000000</v>
       </c>
-      <c r="Y3" s="19">
+      <c r="Y3" s="18">
         <v>600000</v>
       </c>
-      <c r="Z3" s="19">
+      <c r="Z3" s="18">
         <v>1600000</v>
       </c>
-      <c r="AA3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="19">
+      <c r="AA3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="18">
         <v>4</v>
       </c>
-      <c r="AC3" s="19">
+      <c r="AC3" s="18">
         <v>800000</v>
       </c>
-      <c r="AD3" s="19">
+      <c r="AD3" s="18">
         <v>1600000</v>
       </c>
-      <c r="AE3" s="19">
+      <c r="AE3" s="18">
         <v>600000</v>
       </c>
-      <c r="AF3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="19">
+      <c r="AF3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="18">
         <v>200000</v>
       </c>
-      <c r="AH3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="19">
+      <c r="AH3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="18">
         <v>2400000</v>
       </c>
     </row>
@@ -5447,16 +6431,16 @@
       <c r="B4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="10" t="s">
@@ -5465,7 +6449,7 @@
       <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="7" t="s">
@@ -5474,7 +6458,7 @@
       <c r="K4" s="10">
         <v>200</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="18">
         <v>2100000</v>
       </c>
       <c r="M4" s="7">
@@ -5483,74 +6467,74 @@
       <c r="N4" s="7">
         <v>0</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="19" t="s">
         <v>70</v>
       </c>
       <c r="P4" s="7">
         <v>0</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="18">
         <v>2100000</v>
       </c>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19">
+      <c r="R4" s="18"/>
+      <c r="S4" s="18">
         <v>1</v>
       </c>
-      <c r="T4" s="19">
+      <c r="T4" s="18">
         <v>1000000</v>
       </c>
-      <c r="U4" s="19">
+      <c r="U4" s="18">
         <v>600000</v>
       </c>
-      <c r="V4" s="19">
-        <v>0</v>
-      </c>
-      <c r="W4" s="19">
-        <v>0</v>
-      </c>
-      <c r="X4" s="19">
+      <c r="V4" s="18">
+        <v>0</v>
+      </c>
+      <c r="W4" s="18">
+        <v>0</v>
+      </c>
+      <c r="X4" s="18">
         <v>1000000</v>
       </c>
-      <c r="Y4" s="19">
+      <c r="Y4" s="18">
         <v>600000</v>
       </c>
-      <c r="Z4" s="19">
+      <c r="Z4" s="18">
         <v>1600000</v>
       </c>
-      <c r="AA4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="19">
+      <c r="AA4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="18">
         <v>2</v>
       </c>
-      <c r="AC4" s="19">
+      <c r="AC4" s="18">
         <v>500000</v>
       </c>
-      <c r="AD4" s="19">
+      <c r="AD4" s="18">
         <v>1600000</v>
       </c>
-      <c r="AE4" s="19">
+      <c r="AE4" s="18">
         <v>400000</v>
       </c>
-      <c r="AF4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="19">
+      <c r="AF4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="18">
         <v>100000</v>
       </c>
-      <c r="AH4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="19">
+      <c r="AH4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="18">
         <v>2100000</v>
       </c>
     </row>
@@ -5561,16 +6545,16 @@
       <c r="B5" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -5579,7 +6563,7 @@
       <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="7" t="s">
@@ -5588,7 +6572,7 @@
       <c r="K5" s="10">
         <v>200</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="18">
         <v>4200000</v>
       </c>
       <c r="M5" s="7">
@@ -5597,74 +6581,74 @@
       <c r="N5" s="7">
         <v>0</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="19" t="s">
         <v>70</v>
       </c>
       <c r="P5" s="7">
         <v>0</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="18">
         <v>4200000</v>
       </c>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19">
+      <c r="R5" s="18"/>
+      <c r="S5" s="18">
         <v>1</v>
       </c>
-      <c r="T5" s="19">
+      <c r="T5" s="18">
         <v>1000000</v>
       </c>
-      <c r="U5" s="19">
+      <c r="U5" s="18">
         <v>600000</v>
       </c>
-      <c r="V5" s="19">
-        <v>0</v>
-      </c>
-      <c r="W5" s="19">
-        <v>0</v>
-      </c>
-      <c r="X5" s="19">
+      <c r="V5" s="18">
+        <v>0</v>
+      </c>
+      <c r="W5" s="18">
+        <v>0</v>
+      </c>
+      <c r="X5" s="18">
         <v>2000000</v>
       </c>
-      <c r="Y5" s="19">
+      <c r="Y5" s="18">
         <v>1200000</v>
       </c>
-      <c r="Z5" s="19">
+      <c r="Z5" s="18">
         <v>3200000</v>
       </c>
-      <c r="AA5" s="19">
+      <c r="AA5" s="18">
         <v>1</v>
       </c>
-      <c r="AB5" s="19">
+      <c r="AB5" s="18">
         <v>4</v>
       </c>
-      <c r="AC5" s="19">
+      <c r="AC5" s="18">
         <v>1000000</v>
       </c>
-      <c r="AD5" s="19">
+      <c r="AD5" s="18">
         <v>1600000</v>
       </c>
-      <c r="AE5" s="19">
+      <c r="AE5" s="18">
         <v>400000</v>
       </c>
-      <c r="AF5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="19">
+      <c r="AF5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="18">
         <v>100000</v>
       </c>
-      <c r="AH5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="19">
+      <c r="AH5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="18">
         <v>2100000</v>
       </c>
     </row>
@@ -5675,16 +6659,16 @@
       <c r="B6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="10" t="s">
@@ -5693,7 +6677,7 @@
       <c r="H6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="7" t="s">
@@ -5711,74 +6695,74 @@
       <c r="N6" s="7">
         <v>2000000</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="19" t="s">
         <v>70</v>
       </c>
       <c r="P6" s="7">
         <v>0</v>
       </c>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19" t="s">
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="18">
         <v>1</v>
       </c>
-      <c r="T6" s="19">
+      <c r="T6" s="18">
         <v>1000000</v>
       </c>
-      <c r="U6" s="19">
+      <c r="U6" s="18">
         <v>600000</v>
       </c>
-      <c r="V6" s="19">
-        <v>0</v>
-      </c>
-      <c r="W6" s="19">
-        <v>0</v>
-      </c>
-      <c r="X6" s="19">
+      <c r="V6" s="18">
+        <v>0</v>
+      </c>
+      <c r="W6" s="18">
+        <v>0</v>
+      </c>
+      <c r="X6" s="18">
         <v>1000000</v>
       </c>
-      <c r="Y6" s="19">
+      <c r="Y6" s="18">
         <v>600000</v>
       </c>
-      <c r="Z6" s="19">
+      <c r="Z6" s="18">
         <v>1600000</v>
       </c>
-      <c r="AA6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="19">
+      <c r="AA6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="18">
         <v>1</v>
       </c>
-      <c r="AC6" s="19">
+      <c r="AC6" s="18">
         <v>400000</v>
       </c>
-      <c r="AD6" s="19">
+      <c r="AD6" s="18">
         <v>1600000</v>
       </c>
-      <c r="AE6" s="19">
+      <c r="AE6" s="18">
         <v>400000</v>
       </c>
-      <c r="AF6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="19">
+      <c r="AF6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="18">
         <v>2000000</v>
       </c>
     </row>
@@ -5792,7 +6776,7 @@
       <c r="O7" s="2"/>
     </row>
     <row r="11" customHeight="1" spans="12:12">
-      <c r="L11" s="35"/>
+      <c r="L11" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5857,106 +6841,106 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="V1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="W1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="X1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="Y1" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="Z1" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AA1" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AB1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AC1" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AD1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AE1" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AF1" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AG1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AH1" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="33" t="s">
+      <c r="AI1" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="33" t="s">
+      <c r="AJ1" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="33" t="s">
+      <c r="AK1" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="AL1" s="33" t="s">
+      <c r="AL1" s="35" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5967,16 +6951,16 @@
       <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -5985,7 +6969,7 @@
       <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -5994,7 +6978,7 @@
       <c r="K2" s="10">
         <v>200</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="18">
         <v>2400000</v>
       </c>
       <c r="M2" s="7">
@@ -6003,74 +6987,74 @@
       <c r="N2" s="7">
         <v>0</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="19" t="s">
         <v>70</v>
       </c>
       <c r="P2" s="7">
         <v>0</v>
       </c>
-      <c r="Q2" s="19">
+      <c r="Q2" s="18">
         <v>2400000</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19">
+      <c r="R2" s="18"/>
+      <c r="S2" s="18">
         <v>1</v>
       </c>
-      <c r="T2" s="19">
+      <c r="T2" s="18">
         <v>1000000</v>
       </c>
-      <c r="U2" s="19">
+      <c r="U2" s="18">
         <v>600000</v>
       </c>
-      <c r="V2" s="19">
-        <v>0</v>
-      </c>
-      <c r="W2" s="19">
-        <v>0</v>
-      </c>
-      <c r="X2" s="19">
+      <c r="V2" s="18">
+        <v>0</v>
+      </c>
+      <c r="W2" s="18">
+        <v>0</v>
+      </c>
+      <c r="X2" s="18">
         <v>1000000</v>
       </c>
-      <c r="Y2" s="19">
+      <c r="Y2" s="18">
         <v>600000</v>
       </c>
-      <c r="Z2" s="19">
+      <c r="Z2" s="18">
         <v>1600000</v>
       </c>
-      <c r="AA2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="19">
+      <c r="AA2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="18">
         <v>4</v>
       </c>
-      <c r="AC2" s="19">
+      <c r="AC2" s="18">
         <v>800000</v>
       </c>
-      <c r="AD2" s="19">
+      <c r="AD2" s="18">
         <v>1600000</v>
       </c>
-      <c r="AE2" s="19">
+      <c r="AE2" s="18">
         <v>600000</v>
       </c>
-      <c r="AF2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="19">
+      <c r="AF2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="18">
         <v>200000</v>
       </c>
-      <c r="AH2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="19">
+      <c r="AH2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="18">
         <v>2400000</v>
       </c>
     </row>
@@ -6081,16 +7065,16 @@
       <c r="B3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="10" t="s">
@@ -6099,7 +7083,7 @@
       <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -6108,7 +7092,7 @@
       <c r="K3" s="10">
         <v>200</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="18">
         <v>2400000</v>
       </c>
       <c r="M3" s="7">
@@ -6117,74 +7101,74 @@
       <c r="N3" s="7">
         <v>2000000</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="19" t="s">
         <v>70</v>
       </c>
       <c r="P3" s="7">
         <v>0</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="18">
         <v>400000</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19">
+      <c r="R3" s="18"/>
+      <c r="S3" s="18">
         <v>1</v>
       </c>
-      <c r="T3" s="19">
+      <c r="T3" s="18">
         <v>1000000</v>
       </c>
-      <c r="U3" s="19">
+      <c r="U3" s="18">
         <v>600000</v>
       </c>
-      <c r="V3" s="19">
-        <v>0</v>
-      </c>
-      <c r="W3" s="19">
-        <v>0</v>
-      </c>
-      <c r="X3" s="19">
+      <c r="V3" s="18">
+        <v>0</v>
+      </c>
+      <c r="W3" s="18">
+        <v>0</v>
+      </c>
+      <c r="X3" s="18">
         <v>1000000</v>
       </c>
-      <c r="Y3" s="19">
+      <c r="Y3" s="18">
         <v>600000</v>
       </c>
-      <c r="Z3" s="19">
+      <c r="Z3" s="18">
         <v>1600000</v>
       </c>
-      <c r="AA3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="19">
+      <c r="AA3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="18">
         <v>4</v>
       </c>
-      <c r="AC3" s="19">
+      <c r="AC3" s="18">
         <v>800000</v>
       </c>
-      <c r="AD3" s="19">
+      <c r="AD3" s="18">
         <v>1600000</v>
       </c>
-      <c r="AE3" s="19">
+      <c r="AE3" s="18">
         <v>600000</v>
       </c>
-      <c r="AF3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="19">
+      <c r="AF3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="18">
         <v>200000</v>
       </c>
-      <c r="AH3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="19">
+      <c r="AH3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="18">
         <v>2400000</v>
       </c>
     </row>
@@ -6195,16 +7179,16 @@
       <c r="B4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="10" t="s">
@@ -6213,7 +7197,7 @@
       <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="7" t="s">
@@ -6222,7 +7206,7 @@
       <c r="K4" s="10">
         <v>200</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="18">
         <v>2100000</v>
       </c>
       <c r="M4" s="7">
@@ -6231,74 +7215,74 @@
       <c r="N4" s="7">
         <v>0</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="19" t="s">
         <v>70</v>
       </c>
       <c r="P4" s="7">
         <v>0</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="18">
         <v>2100000</v>
       </c>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19">
+      <c r="R4" s="18"/>
+      <c r="S4" s="18">
         <v>1</v>
       </c>
-      <c r="T4" s="19">
+      <c r="T4" s="18">
         <v>1000000</v>
       </c>
-      <c r="U4" s="19">
+      <c r="U4" s="18">
         <v>600000</v>
       </c>
-      <c r="V4" s="19">
-        <v>0</v>
-      </c>
-      <c r="W4" s="19">
-        <v>0</v>
-      </c>
-      <c r="X4" s="19">
+      <c r="V4" s="18">
+        <v>0</v>
+      </c>
+      <c r="W4" s="18">
+        <v>0</v>
+      </c>
+      <c r="X4" s="18">
         <v>1000000</v>
       </c>
-      <c r="Y4" s="19">
+      <c r="Y4" s="18">
         <v>600000</v>
       </c>
-      <c r="Z4" s="19">
+      <c r="Z4" s="18">
         <v>1600000</v>
       </c>
-      <c r="AA4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="19">
+      <c r="AA4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="18">
         <v>2</v>
       </c>
-      <c r="AC4" s="19">
+      <c r="AC4" s="18">
         <v>500000</v>
       </c>
-      <c r="AD4" s="19">
+      <c r="AD4" s="18">
         <v>1600000</v>
       </c>
-      <c r="AE4" s="19">
+      <c r="AE4" s="18">
         <v>400000</v>
       </c>
-      <c r="AF4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="19">
+      <c r="AF4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="18">
         <v>100000</v>
       </c>
-      <c r="AH4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="19">
+      <c r="AH4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="18">
         <v>2100000</v>
       </c>
     </row>
@@ -6309,16 +7293,16 @@
       <c r="B5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -6327,7 +7311,7 @@
       <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="7" t="s">
@@ -6336,7 +7320,7 @@
       <c r="K5" s="10">
         <v>200</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="18">
         <v>0</v>
       </c>
       <c r="M5" s="7">
@@ -6345,76 +7329,76 @@
       <c r="N5" s="7">
         <v>0</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="19" t="s">
         <v>70</v>
       </c>
       <c r="P5" s="7">
         <v>0</v>
       </c>
-      <c r="Q5" s="19">
-        <v>0</v>
-      </c>
-      <c r="R5" s="19" t="s">
+      <c r="Q5" s="18">
+        <v>0</v>
+      </c>
+      <c r="R5" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="18">
         <v>1</v>
       </c>
-      <c r="T5" s="19">
+      <c r="T5" s="18">
         <v>1000000</v>
       </c>
-      <c r="U5" s="19">
+      <c r="U5" s="18">
         <v>600000</v>
       </c>
-      <c r="V5" s="19">
-        <v>0</v>
-      </c>
-      <c r="W5" s="19">
-        <v>0</v>
-      </c>
-      <c r="X5" s="19">
+      <c r="V5" s="18">
+        <v>0</v>
+      </c>
+      <c r="W5" s="18">
+        <v>0</v>
+      </c>
+      <c r="X5" s="18">
         <v>1000000</v>
       </c>
-      <c r="Y5" s="19">
+      <c r="Y5" s="18">
         <v>600000</v>
       </c>
-      <c r="Z5" s="19">
+      <c r="Z5" s="18">
         <v>1600000</v>
       </c>
-      <c r="AA5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="19">
+      <c r="AA5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="18">
         <v>2</v>
       </c>
-      <c r="AC5" s="19">
+      <c r="AC5" s="18">
         <v>500000</v>
       </c>
-      <c r="AD5" s="19">
+      <c r="AD5" s="18">
         <v>1600000</v>
       </c>
-      <c r="AE5" s="19">
+      <c r="AE5" s="18">
         <v>400000</v>
       </c>
-      <c r="AF5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="19">
+      <c r="AF5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="18">
         <v>100000</v>
       </c>
-      <c r="AH5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="19">
+      <c r="AH5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="18">
         <v>2100000</v>
       </c>
     </row>
@@ -6425,16 +7409,16 @@
       <c r="B6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="10" t="s">
@@ -6443,7 +7427,7 @@
       <c r="H6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="7" t="s">
@@ -6461,76 +7445,76 @@
       <c r="N6" s="7">
         <v>2000000</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="19" t="s">
         <v>70</v>
       </c>
       <c r="P6" s="7">
         <v>0</v>
       </c>
-      <c r="Q6" s="19">
-        <v>0</v>
-      </c>
-      <c r="R6" s="19" t="s">
+      <c r="Q6" s="18">
+        <v>0</v>
+      </c>
+      <c r="R6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="18">
         <v>1</v>
       </c>
-      <c r="T6" s="19">
+      <c r="T6" s="18">
         <v>1000000</v>
       </c>
-      <c r="U6" s="19">
+      <c r="U6" s="18">
         <v>600000</v>
       </c>
-      <c r="V6" s="19">
-        <v>0</v>
-      </c>
-      <c r="W6" s="19">
-        <v>0</v>
-      </c>
-      <c r="X6" s="19">
+      <c r="V6" s="18">
+        <v>0</v>
+      </c>
+      <c r="W6" s="18">
+        <v>0</v>
+      </c>
+      <c r="X6" s="18">
         <v>1000000</v>
       </c>
-      <c r="Y6" s="19">
+      <c r="Y6" s="18">
         <v>600000</v>
       </c>
-      <c r="Z6" s="19">
+      <c r="Z6" s="18">
         <v>1600000</v>
       </c>
-      <c r="AA6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="19">
+      <c r="AA6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="18">
         <v>1</v>
       </c>
-      <c r="AC6" s="19">
+      <c r="AC6" s="18">
         <v>400000</v>
       </c>
-      <c r="AD6" s="19">
+      <c r="AD6" s="18">
         <v>1600000</v>
       </c>
-      <c r="AE6" s="19">
+      <c r="AE6" s="18">
         <v>400000</v>
       </c>
-      <c r="AF6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="19">
+      <c r="AF6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="18">
         <v>2000000</v>
       </c>
     </row>
@@ -6539,7 +7523,7 @@
       <c r="O7" s="2"/>
     </row>
     <row r="11" customHeight="1" spans="12:12">
-      <c r="L11" s="35"/>
+      <c r="L11" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6604,106 +7588,106 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="V1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="W1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="X1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="Y1" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="Z1" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AA1" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AB1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AC1" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AD1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AE1" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AF1" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AG1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AH1" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="33" t="s">
+      <c r="AI1" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="33" t="s">
+      <c r="AJ1" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="33" t="s">
+      <c r="AK1" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="AL1" s="33" t="s">
+      <c r="AL1" s="35" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6714,16 +7698,16 @@
       <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -6732,7 +7716,7 @@
       <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -6741,7 +7725,7 @@
       <c r="K2" s="10">
         <v>200</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="18">
         <v>2400000</v>
       </c>
       <c r="M2" s="7">
@@ -6750,74 +7734,74 @@
       <c r="N2" s="7">
         <v>0</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="19" t="s">
         <v>70</v>
       </c>
       <c r="P2" s="7">
         <v>0</v>
       </c>
-      <c r="Q2" s="19">
+      <c r="Q2" s="18">
         <v>2400000</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19">
+      <c r="R2" s="18"/>
+      <c r="S2" s="18">
         <v>1</v>
       </c>
-      <c r="T2" s="19">
+      <c r="T2" s="18">
         <v>1000000</v>
       </c>
-      <c r="U2" s="19">
+      <c r="U2" s="18">
         <v>600000</v>
       </c>
-      <c r="V2" s="19">
-        <v>0</v>
-      </c>
-      <c r="W2" s="19">
-        <v>0</v>
-      </c>
-      <c r="X2" s="19">
+      <c r="V2" s="18">
+        <v>0</v>
+      </c>
+      <c r="W2" s="18">
+        <v>0</v>
+      </c>
+      <c r="X2" s="18">
         <v>1000000</v>
       </c>
-      <c r="Y2" s="19">
+      <c r="Y2" s="18">
         <v>600000</v>
       </c>
-      <c r="Z2" s="19">
+      <c r="Z2" s="18">
         <v>1600000</v>
       </c>
-      <c r="AA2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="19">
+      <c r="AA2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="18">
         <v>4</v>
       </c>
-      <c r="AC2" s="19">
+      <c r="AC2" s="18">
         <v>800000</v>
       </c>
-      <c r="AD2" s="19">
+      <c r="AD2" s="18">
         <v>1600000</v>
       </c>
-      <c r="AE2" s="19">
+      <c r="AE2" s="18">
         <v>600000</v>
       </c>
-      <c r="AF2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="19">
+      <c r="AF2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="18">
         <v>200000</v>
       </c>
-      <c r="AH2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="19">
+      <c r="AH2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="18">
         <v>2400000</v>
       </c>
     </row>
@@ -6828,16 +7812,16 @@
       <c r="B3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="10" t="s">
@@ -6846,7 +7830,7 @@
       <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -6855,7 +7839,7 @@
       <c r="K3" s="10">
         <v>200</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="18">
         <v>2400000</v>
       </c>
       <c r="M3" s="7">
@@ -6864,74 +7848,74 @@
       <c r="N3" s="7">
         <v>2000000</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="19" t="s">
         <v>70</v>
       </c>
       <c r="P3" s="7">
         <v>0</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="18">
         <v>400000</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19">
+      <c r="R3" s="18"/>
+      <c r="S3" s="18">
         <v>1</v>
       </c>
-      <c r="T3" s="19">
+      <c r="T3" s="18">
         <v>1000000</v>
       </c>
-      <c r="U3" s="19">
+      <c r="U3" s="18">
         <v>600000</v>
       </c>
-      <c r="V3" s="19">
-        <v>0</v>
-      </c>
-      <c r="W3" s="19">
-        <v>0</v>
-      </c>
-      <c r="X3" s="19">
+      <c r="V3" s="18">
+        <v>0</v>
+      </c>
+      <c r="W3" s="18">
+        <v>0</v>
+      </c>
+      <c r="X3" s="18">
         <v>1000000</v>
       </c>
-      <c r="Y3" s="19">
+      <c r="Y3" s="18">
         <v>600000</v>
       </c>
-      <c r="Z3" s="19">
+      <c r="Z3" s="18">
         <v>1600000</v>
       </c>
-      <c r="AA3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="19">
+      <c r="AA3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="18">
         <v>4</v>
       </c>
-      <c r="AC3" s="19">
+      <c r="AC3" s="18">
         <v>800000</v>
       </c>
-      <c r="AD3" s="19">
+      <c r="AD3" s="18">
         <v>1600000</v>
       </c>
-      <c r="AE3" s="19">
+      <c r="AE3" s="18">
         <v>600000</v>
       </c>
-      <c r="AF3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="19">
+      <c r="AF3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="18">
         <v>200000</v>
       </c>
-      <c r="AH3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="19">
+      <c r="AH3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="18">
         <v>2400000</v>
       </c>
     </row>
@@ -6942,16 +7926,16 @@
       <c r="B4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="10" t="s">
@@ -6960,7 +7944,7 @@
       <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="7" t="s">
@@ -6969,7 +7953,7 @@
       <c r="K4" s="10">
         <v>200</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="18">
         <v>2100000</v>
       </c>
       <c r="M4" s="7">
@@ -6978,74 +7962,74 @@
       <c r="N4" s="7">
         <v>0</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="19" t="s">
         <v>70</v>
       </c>
       <c r="P4" s="7">
         <v>0</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="18">
         <v>2100000</v>
       </c>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19">
+      <c r="R4" s="18"/>
+      <c r="S4" s="18">
         <v>1</v>
       </c>
-      <c r="T4" s="19">
+      <c r="T4" s="18">
         <v>1000000</v>
       </c>
-      <c r="U4" s="19">
+      <c r="U4" s="18">
         <v>600000</v>
       </c>
-      <c r="V4" s="19">
-        <v>0</v>
-      </c>
-      <c r="W4" s="19">
-        <v>0</v>
-      </c>
-      <c r="X4" s="19">
+      <c r="V4" s="18">
+        <v>0</v>
+      </c>
+      <c r="W4" s="18">
+        <v>0</v>
+      </c>
+      <c r="X4" s="18">
         <v>1000000</v>
       </c>
-      <c r="Y4" s="19">
+      <c r="Y4" s="18">
         <v>600000</v>
       </c>
-      <c r="Z4" s="19">
+      <c r="Z4" s="18">
         <v>1600000</v>
       </c>
-      <c r="AA4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="19">
+      <c r="AA4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="18">
         <v>2</v>
       </c>
-      <c r="AC4" s="19">
+      <c r="AC4" s="18">
         <v>500000</v>
       </c>
-      <c r="AD4" s="19">
+      <c r="AD4" s="18">
         <v>1600000</v>
       </c>
-      <c r="AE4" s="19">
+      <c r="AE4" s="18">
         <v>400000</v>
       </c>
-      <c r="AF4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="19">
+      <c r="AF4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="18">
         <v>100000</v>
       </c>
-      <c r="AH4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="19">
+      <c r="AH4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="18">
         <v>2100000</v>
       </c>
     </row>
@@ -7056,16 +8040,16 @@
       <c r="B5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -7074,7 +8058,7 @@
       <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="7" t="s">
@@ -7092,79 +8076,79 @@
       <c r="N5" s="7">
         <v>2000000</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="19" t="s">
         <v>70</v>
       </c>
       <c r="P5" s="7">
         <v>0</v>
       </c>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19" t="s">
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="18">
         <v>1</v>
       </c>
-      <c r="T5" s="19">
+      <c r="T5" s="18">
         <v>1000000</v>
       </c>
-      <c r="U5" s="19">
+      <c r="U5" s="18">
         <v>600000</v>
       </c>
-      <c r="V5" s="19">
-        <v>0</v>
-      </c>
-      <c r="W5" s="19">
-        <v>0</v>
-      </c>
-      <c r="X5" s="19">
+      <c r="V5" s="18">
+        <v>0</v>
+      </c>
+      <c r="W5" s="18">
+        <v>0</v>
+      </c>
+      <c r="X5" s="18">
         <v>1000000</v>
       </c>
-      <c r="Y5" s="19">
+      <c r="Y5" s="18">
         <v>600000</v>
       </c>
-      <c r="Z5" s="19">
+      <c r="Z5" s="18">
         <v>1600000</v>
       </c>
-      <c r="AA5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="19">
+      <c r="AA5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="18">
         <v>1</v>
       </c>
-      <c r="AC5" s="19">
+      <c r="AC5" s="18">
         <v>400000</v>
       </c>
-      <c r="AD5" s="19">
+      <c r="AD5" s="18">
         <v>1600000</v>
       </c>
-      <c r="AE5" s="19">
+      <c r="AE5" s="18">
         <v>400000</v>
       </c>
-      <c r="AF5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="19">
+      <c r="AF5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="18">
         <v>2000000</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="12:12">
-      <c r="L9" s="35"/>
+      <c r="L9" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7229,106 +8213,106 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="V1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="W1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="X1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="Y1" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="Z1" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AA1" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AB1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AC1" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AD1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AE1" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AF1" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AG1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AH1" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="33" t="s">
+      <c r="AI1" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="33" t="s">
+      <c r="AJ1" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="33" t="s">
+      <c r="AK1" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="AL1" s="33" t="s">
+      <c r="AL1" s="35" t="s">
         <v>65</v>
       </c>
     </row>
@@ -7339,16 +8323,16 @@
       <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -7357,7 +8341,7 @@
       <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -7366,7 +8350,7 @@
       <c r="K2" s="10">
         <v>200</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="18">
         <v>2400000</v>
       </c>
       <c r="M2" s="7">
@@ -7375,74 +8359,74 @@
       <c r="N2" s="7">
         <v>0</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="19" t="s">
         <v>70</v>
       </c>
       <c r="P2" s="7">
         <v>0</v>
       </c>
-      <c r="Q2" s="19">
+      <c r="Q2" s="18">
         <v>2400000</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19">
+      <c r="R2" s="18"/>
+      <c r="S2" s="18">
         <v>1</v>
       </c>
-      <c r="T2" s="19">
+      <c r="T2" s="18">
         <v>1000000</v>
       </c>
-      <c r="U2" s="19">
+      <c r="U2" s="18">
         <v>600000</v>
       </c>
-      <c r="V2" s="19">
-        <v>0</v>
-      </c>
-      <c r="W2" s="19">
-        <v>0</v>
-      </c>
-      <c r="X2" s="19">
+      <c r="V2" s="18">
+        <v>0</v>
+      </c>
+      <c r="W2" s="18">
+        <v>0</v>
+      </c>
+      <c r="X2" s="18">
         <v>1000000</v>
       </c>
-      <c r="Y2" s="19">
+      <c r="Y2" s="18">
         <v>600000</v>
       </c>
-      <c r="Z2" s="19">
+      <c r="Z2" s="18">
         <v>1600000</v>
       </c>
-      <c r="AA2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="19">
+      <c r="AA2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="18">
         <v>4</v>
       </c>
-      <c r="AC2" s="19">
+      <c r="AC2" s="18">
         <v>800000</v>
       </c>
-      <c r="AD2" s="19">
+      <c r="AD2" s="18">
         <v>1600000</v>
       </c>
-      <c r="AE2" s="19">
+      <c r="AE2" s="18">
         <v>600000</v>
       </c>
-      <c r="AF2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="19">
+      <c r="AF2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="18">
         <v>200000</v>
       </c>
-      <c r="AH2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="19">
+      <c r="AH2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="18">
         <f>AD2+AE2+AF2+AG2+AH2+AI2+AJ2+AK2</f>
         <v>2400000</v>
       </c>
@@ -7454,16 +8438,16 @@
       <c r="B3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="10" t="s">
@@ -7472,7 +8456,7 @@
       <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -7481,7 +8465,7 @@
       <c r="K3" s="10">
         <v>200</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="18">
         <v>2400000</v>
       </c>
       <c r="M3" s="7">
@@ -7490,74 +8474,74 @@
       <c r="N3" s="7">
         <v>2000000</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="19" t="s">
         <v>70</v>
       </c>
       <c r="P3" s="7">
         <v>0</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="18">
         <v>400000</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19">
+      <c r="R3" s="18"/>
+      <c r="S3" s="18">
         <v>1</v>
       </c>
-      <c r="T3" s="19">
+      <c r="T3" s="18">
         <v>1000000</v>
       </c>
-      <c r="U3" s="19">
+      <c r="U3" s="18">
         <v>600000</v>
       </c>
-      <c r="V3" s="19">
-        <v>0</v>
-      </c>
-      <c r="W3" s="19">
-        <v>0</v>
-      </c>
-      <c r="X3" s="19">
+      <c r="V3" s="18">
+        <v>0</v>
+      </c>
+      <c r="W3" s="18">
+        <v>0</v>
+      </c>
+      <c r="X3" s="18">
         <v>1000000</v>
       </c>
-      <c r="Y3" s="19">
+      <c r="Y3" s="18">
         <v>600000</v>
       </c>
-      <c r="Z3" s="19">
+      <c r="Z3" s="18">
         <v>1600000</v>
       </c>
-      <c r="AA3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="19">
+      <c r="AA3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="18">
         <v>4</v>
       </c>
-      <c r="AC3" s="19">
+      <c r="AC3" s="18">
         <v>800000</v>
       </c>
-      <c r="AD3" s="19">
+      <c r="AD3" s="18">
         <v>1600000</v>
       </c>
-      <c r="AE3" s="19">
+      <c r="AE3" s="18">
         <v>600000</v>
       </c>
-      <c r="AF3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="19">
+      <c r="AF3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="18">
         <v>200000</v>
       </c>
-      <c r="AH3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="19">
+      <c r="AH3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="18">
         <f>AD3+AE3+AF3+AG3+AH3+AI3+AJ3+AK3</f>
         <v>2400000</v>
       </c>
@@ -7569,16 +8553,16 @@
       <c r="B4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="10" t="s">
@@ -7587,7 +8571,7 @@
       <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="7" t="s">
@@ -7596,7 +8580,7 @@
       <c r="K4" s="10">
         <v>200</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="18">
         <v>2100000</v>
       </c>
       <c r="M4" s="7">
@@ -7605,74 +8589,74 @@
       <c r="N4" s="7">
         <v>0</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="19" t="s">
         <v>70</v>
       </c>
       <c r="P4" s="7">
         <v>0</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="18">
         <v>2100000</v>
       </c>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19">
+      <c r="R4" s="18"/>
+      <c r="S4" s="18">
         <v>1</v>
       </c>
-      <c r="T4" s="19">
+      <c r="T4" s="18">
         <v>1000000</v>
       </c>
-      <c r="U4" s="19">
+      <c r="U4" s="18">
         <v>600000</v>
       </c>
-      <c r="V4" s="19">
-        <v>0</v>
-      </c>
-      <c r="W4" s="19">
-        <v>0</v>
-      </c>
-      <c r="X4" s="19">
+      <c r="V4" s="18">
+        <v>0</v>
+      </c>
+      <c r="W4" s="18">
+        <v>0</v>
+      </c>
+      <c r="X4" s="18">
         <v>1000000</v>
       </c>
-      <c r="Y4" s="19">
+      <c r="Y4" s="18">
         <v>600000</v>
       </c>
-      <c r="Z4" s="19">
+      <c r="Z4" s="18">
         <v>1600000</v>
       </c>
-      <c r="AA4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="19">
+      <c r="AA4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="18">
         <v>2</v>
       </c>
-      <c r="AC4" s="19">
+      <c r="AC4" s="18">
         <v>500000</v>
       </c>
-      <c r="AD4" s="19">
+      <c r="AD4" s="18">
         <v>1600000</v>
       </c>
-      <c r="AE4" s="19">
+      <c r="AE4" s="18">
         <v>400000</v>
       </c>
-      <c r="AF4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="19">
+      <c r="AF4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="18">
         <v>100000</v>
       </c>
-      <c r="AH4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="19">
+      <c r="AH4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="18">
         <v>2100000</v>
       </c>
     </row>
@@ -7683,16 +8667,16 @@
       <c r="B5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -7701,7 +8685,7 @@
       <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="22" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="7" t="s">
@@ -7719,74 +8703,74 @@
       <c r="N5" s="7">
         <v>2000000</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="19" t="s">
         <v>70</v>
       </c>
       <c r="P5" s="7">
         <v>0</v>
       </c>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19" t="s">
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="18">
         <v>1</v>
       </c>
-      <c r="T5" s="19">
+      <c r="T5" s="18">
         <v>1000000</v>
       </c>
-      <c r="U5" s="19">
+      <c r="U5" s="18">
         <v>600000</v>
       </c>
-      <c r="V5" s="19">
-        <v>0</v>
-      </c>
-      <c r="W5" s="19">
-        <v>0</v>
-      </c>
-      <c r="X5" s="19">
+      <c r="V5" s="18">
+        <v>0</v>
+      </c>
+      <c r="W5" s="18">
+        <v>0</v>
+      </c>
+      <c r="X5" s="18">
         <v>1000000</v>
       </c>
-      <c r="Y5" s="19">
+      <c r="Y5" s="18">
         <v>600000</v>
       </c>
-      <c r="Z5" s="19">
+      <c r="Z5" s="18">
         <v>1600000</v>
       </c>
-      <c r="AA5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="19">
+      <c r="AA5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="18">
         <v>1</v>
       </c>
-      <c r="AC5" s="19">
+      <c r="AC5" s="18">
         <v>400000</v>
       </c>
-      <c r="AD5" s="19">
+      <c r="AD5" s="18">
         <v>1600000</v>
       </c>
-      <c r="AE5" s="19">
+      <c r="AE5" s="18">
         <v>400000</v>
       </c>
-      <c r="AF5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="19">
+      <c r="AF5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="18">
         <v>2000000</v>
       </c>
     </row>
@@ -7795,7 +8779,7 @@
       <c r="O6" s="2"/>
     </row>
     <row r="10" customHeight="1" spans="12:12">
-      <c r="L10" s="35"/>
+      <c r="L10" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7849,61 +8833,61 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="W1" s="35" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7914,16 +8898,16 @@
       <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -7932,7 +8916,7 @@
       <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="22" t="s">
         <v>70</v>
       </c>
       <c r="J2" s="7" t="s">
@@ -7944,33 +8928,33 @@
       <c r="L2" s="7">
         <v>0</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="19" t="s">
         <v>70</v>
       </c>
       <c r="N2" s="7">
         <v>0</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="18">
         <v>2400000</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19">
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18">
         <v>1</v>
       </c>
-      <c r="R2" s="19">
+      <c r="R2" s="18">
         <v>1000000</v>
       </c>
-      <c r="S2" s="19">
+      <c r="S2" s="18">
         <v>600000</v>
       </c>
-      <c r="T2" s="19">
-        <v>0</v>
-      </c>
-      <c r="U2" s="19">
-        <v>0</v>
-      </c>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19">
+      <c r="T2" s="18">
+        <v>0</v>
+      </c>
+      <c r="U2" s="18">
+        <v>0</v>
+      </c>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18">
         <v>4</v>
       </c>
     </row>
@@ -7981,16 +8965,16 @@
       <c r="B3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="10" t="s">
@@ -7999,7 +8983,7 @@
       <c r="H3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="22" t="s">
         <v>70</v>
       </c>
       <c r="J3" s="7" t="s">
@@ -8011,33 +8995,33 @@
       <c r="L3" s="7">
         <v>2000000</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>70</v>
       </c>
       <c r="N3" s="7">
         <v>0</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="18">
         <v>400000</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19">
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18">
         <v>1</v>
       </c>
-      <c r="R3" s="19">
+      <c r="R3" s="18">
         <v>1000000</v>
       </c>
-      <c r="S3" s="19">
+      <c r="S3" s="18">
         <v>600000</v>
       </c>
-      <c r="T3" s="19">
-        <v>0</v>
-      </c>
-      <c r="U3" s="19">
-        <v>0</v>
-      </c>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19">
+      <c r="T3" s="18">
+        <v>0</v>
+      </c>
+      <c r="U3" s="18">
+        <v>0</v>
+      </c>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18">
         <v>4</v>
       </c>
     </row>
@@ -8048,16 +9032,16 @@
       <c r="B4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="10" t="s">
@@ -8066,7 +9050,7 @@
       <c r="H4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="22" t="s">
         <v>70</v>
       </c>
       <c r="J4" s="7" t="s">
@@ -8078,33 +9062,33 @@
       <c r="L4" s="7">
         <v>0</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="19" t="s">
         <v>70</v>
       </c>
       <c r="N4" s="7">
         <v>0</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="18">
         <v>2100000</v>
       </c>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19">
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18">
         <v>1</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="18">
         <v>1000000</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="18">
         <v>600000</v>
       </c>
-      <c r="T4" s="19">
-        <v>0</v>
-      </c>
-      <c r="U4" s="19">
-        <v>0</v>
-      </c>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19">
+      <c r="T4" s="18">
+        <v>0</v>
+      </c>
+      <c r="U4" s="18">
+        <v>0</v>
+      </c>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18">
         <v>2</v>
       </c>
     </row>
@@ -8115,16 +9099,16 @@
       <c r="B5" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -8133,7 +9117,7 @@
       <c r="H5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="22" t="s">
         <v>70</v>
       </c>
       <c r="J5" s="7" t="s">
@@ -8145,35 +9129,35 @@
       <c r="L5" s="7">
         <v>0</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="19" t="s">
         <v>70</v>
       </c>
       <c r="N5" s="7">
         <v>0</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="18">
         <v>4200000</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19">
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18">
         <v>1</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="18">
         <v>1000000</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="18">
         <v>600000</v>
       </c>
-      <c r="T5" s="19">
-        <v>0</v>
-      </c>
-      <c r="U5" s="19">
-        <v>0</v>
-      </c>
-      <c r="V5" s="19">
+      <c r="T5" s="18">
+        <v>0</v>
+      </c>
+      <c r="U5" s="18">
+        <v>0</v>
+      </c>
+      <c r="V5" s="18">
         <v>1</v>
       </c>
-      <c r="W5" s="19">
+      <c r="W5" s="18">
         <v>4</v>
       </c>
     </row>
@@ -8184,16 +9168,16 @@
       <c r="B6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="10" t="s">
@@ -8202,7 +9186,7 @@
       <c r="H6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="22" t="s">
         <v>70</v>
       </c>
       <c r="J6" s="7" t="s">
@@ -8214,33 +9198,33 @@
       <c r="L6" s="7">
         <v>2000000</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="19" t="s">
         <v>70</v>
       </c>
       <c r="N6" s="7">
         <v>0</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19" t="s">
+      <c r="O6" s="18"/>
+      <c r="P6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="18">
         <v>1</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="18">
         <v>1000000</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="18">
         <v>600000</v>
       </c>
-      <c r="T6" s="19">
-        <v>0</v>
-      </c>
-      <c r="U6" s="19">
-        <v>0</v>
-      </c>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19">
+      <c r="T6" s="18">
+        <v>0</v>
+      </c>
+      <c r="U6" s="18">
+        <v>0</v>
+      </c>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18">
         <v>1</v>
       </c>
     </row>

--- a/src/main/resources/input_excel_file/booking/CICO.xlsx
+++ b/src/main/resources/input_excel_file/booking/CICO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="12" activeTab="18"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="16" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Booking_By_Bag_Player1" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,13 @@
     <sheet name="Add_Sub_Bag" sheetId="6" r:id="rId13"/>
     <sheet name="Detail_Agency_Pay" sheetId="3" r:id="rId14"/>
     <sheet name="Update_Agency_Pay_Player1" sheetId="17" r:id="rId15"/>
-    <sheet name="Input_Single_Payment" sheetId="19" r:id="rId16"/>
-    <sheet name="Single_Payment_List" sheetId="21" r:id="rId17"/>
-    <sheet name="Check_Out_Bag" sheetId="22" r:id="rId18"/>
-    <sheet name="Check_Out_Group" sheetId="23" r:id="rId19"/>
-    <sheet name="Config fee" sheetId="7" r:id="rId20"/>
+    <sheet name="Update_Agency_Pay_Player2" sheetId="24" r:id="rId16"/>
+    <sheet name="Update_Agency_Pay_Player3" sheetId="25" r:id="rId17"/>
+    <sheet name="Update_Agency_Pay_Player4" sheetId="26" r:id="rId18"/>
+    <sheet name="Input_Single_Payment" sheetId="19" r:id="rId19"/>
+    <sheet name="Single_Payment_List" sheetId="21" r:id="rId20"/>
+    <sheet name="Check_Out_Bag" sheetId="22" r:id="rId21"/>
+    <sheet name="Check_Out_Group" sheetId="23" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="321">
   <si>
     <t>tc_id</t>
   </si>
@@ -579,6 +581,114 @@
   </si>
   <si>
     <t>AG_Kiểm tra update agency pay: Pay full player fee</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER2_001</t>
+  </si>
+  <si>
+    <t>{{CTX:CUSTOMER_NAME_1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:AGENCY_ID_1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:HOLE_1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:GUEST_STYLE_1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:GUEST_STYLE_NAME_1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:COURSE_TYPE_1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:TEE_TYPE_1}}</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER2_002</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER2_003</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER2_004</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER2_005</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER3_001</t>
+  </si>
+  <si>
+    <t>{{CTX:CUSTOMER_NAME_2}}</t>
+  </si>
+  <si>
+    <t>{{CTX:AGENCY_ID_2}}</t>
+  </si>
+  <si>
+    <t>{{CTX:HOLE_2}}</t>
+  </si>
+  <si>
+    <t>{{CTX:GUEST_STYLE_2}}</t>
+  </si>
+  <si>
+    <t>{{CTX:GUEST_STYLE_NAME_2}}</t>
+  </si>
+  <si>
+    <t>{{CTX:COURSE_TYPE_2}}</t>
+  </si>
+  <si>
+    <t>{{CTX:TEE_TYPE_2}}</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER3_002</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER3_003</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER3_004</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER3_005</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER4_001</t>
+  </si>
+  <si>
+    <t>{{CTX:CUSTOMER_NAME_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:AGENCY_ID_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:HOLE_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:GUEST_STYLE_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:GUEST_STYLE_NAME_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:COURSE_TYPE_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:TEE_TYPE_3}}</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER4_002</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER4_003</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER4_004</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER4_005</t>
   </si>
   <si>
     <t>date_str</t>
@@ -940,10 +1050,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1127,12 +1237,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -1528,16 +1638,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1670,7 +1780,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1722,9 +1832,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1752,14 +1859,8 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -2370,22 +2471,22 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="11" t="s">
@@ -2426,7 +2527,7 @@
       <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -2444,7 +2545,7 @@
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -2488,7 +2589,7 @@
       <c r="B3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -2506,7 +2607,7 @@
       <c r="H3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -2595,58 +2696,58 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="34" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2657,7 +2758,7 @@
       <c r="B2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -2675,7 +2776,7 @@
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>70</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -2723,7 +2824,7 @@
       <c r="B3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -2741,7 +2842,7 @@
       <c r="H3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>70</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -2789,7 +2890,7 @@
       <c r="B4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -2807,7 +2908,7 @@
       <c r="H4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>70</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -2855,7 +2956,7 @@
       <c r="B5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -2873,7 +2974,7 @@
       <c r="H5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>70</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -2923,7 +3024,7 @@
       <c r="B6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -2941,7 +3042,7 @@
       <c r="H6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="24" t="s">
         <v>70</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -3044,58 +3145,58 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="34" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3106,7 +3207,7 @@
       <c r="B2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -3124,7 +3225,7 @@
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>70</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -3172,7 +3273,7 @@
       <c r="B3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -3190,7 +3291,7 @@
       <c r="H3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>70</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -3238,7 +3339,7 @@
       <c r="B4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -3256,7 +3357,7 @@
       <c r="H4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>70</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -3304,7 +3405,7 @@
       <c r="B5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -3322,7 +3423,7 @@
       <c r="H5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>70</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -3423,58 +3524,58 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="37" t="s">
+      <c r="V1" s="34" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3485,7 +3586,7 @@
       <c r="B2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -3503,7 +3604,7 @@
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>70</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -3551,7 +3652,7 @@
       <c r="B3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -3569,7 +3670,7 @@
       <c r="H3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>70</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -3617,7 +3718,7 @@
       <c r="B4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -3635,7 +3736,7 @@
       <c r="H4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>70</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -3683,7 +3784,7 @@
       <c r="B5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -3701,7 +3802,7 @@
       <c r="H5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>70</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -3762,7 +3863,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
@@ -3797,28 +3898,28 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="11" t="s">
@@ -3828,14 +3929,14 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" s="32" customFormat="1" ht="166" customHeight="1" spans="1:14">
+    <row r="2" s="29" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A2" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -3864,14 +3965,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="32" customFormat="1" ht="166" customHeight="1" spans="1:14">
+    <row r="3" s="29" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -3904,14 +4005,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="32" customFormat="1" ht="166" customHeight="1" spans="1:14">
+    <row r="4" s="29" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A4" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -3994,34 +4095,34 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="11" t="s">
@@ -4047,7 +4148,7 @@
       <c r="B2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -4062,7 +4163,7 @@
       <c r="G2" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="17" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="9" t="s">
@@ -4077,7 +4178,7 @@
       <c r="L2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="28" t="s">
         <v>128</v>
       </c>
       <c r="N2" s="6" t="s">
@@ -4086,10 +4187,10 @@
       <c r="O2" s="9">
         <v>200</v>
       </c>
-      <c r="P2" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" s="25" t="s">
+      <c r="P2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="24" t="s">
         <v>70</v>
       </c>
       <c r="R2" s="9">
@@ -4111,7 +4212,7 @@
   <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
@@ -4162,76 +4263,76 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="W1" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="X1" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Y1" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="AA1" s="26" t="s">
+      <c r="AA1" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AB1" s="23" t="s">
         <v>148</v>
       </c>
       <c r="AC1" s="10" t="s">
@@ -4293,11 +4394,11 @@
       <c r="O2" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="24" t="s">
         <v>70</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="24" t="s">
         <v>70</v>
       </c>
       <c r="S2" s="9">
@@ -4315,7 +4416,7 @@
       <c r="W2" s="9">
         <v>0</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="24" t="s">
         <v>157</v>
       </c>
       <c r="Y2" s="9">
@@ -4324,10 +4425,10 @@
       <c r="Z2" s="9">
         <v>0</v>
       </c>
-      <c r="AA2" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB2" s="25" t="s">
+      <c r="AA2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="24" t="s">
         <v>70</v>
       </c>
       <c r="AC2" s="8" t="s">
@@ -4389,11 +4490,11 @@
       <c r="O3" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="24" t="s">
         <v>70</v>
       </c>
       <c r="Q3" s="9"/>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="24" t="s">
         <v>70</v>
       </c>
       <c r="S3" s="9">
@@ -4411,7 +4512,7 @@
       <c r="W3" s="9">
         <v>400000</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="X3" s="24" t="s">
         <v>157</v>
       </c>
       <c r="Y3" s="9">
@@ -4420,10 +4521,10 @@
       <c r="Z3" s="9">
         <v>0</v>
       </c>
-      <c r="AA3" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB3" s="25" t="s">
+      <c r="AA3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB3" s="24" t="s">
         <v>70</v>
       </c>
       <c r="AC3" s="8" t="s">
@@ -4485,11 +4586,11 @@
       <c r="O4" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="24" t="s">
         <v>70</v>
       </c>
       <c r="Q4" s="9"/>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="24" t="s">
         <v>70</v>
       </c>
       <c r="S4" s="9">
@@ -4507,7 +4608,7 @@
       <c r="W4" s="9">
         <v>0</v>
       </c>
-      <c r="X4" s="25" t="s">
+      <c r="X4" s="24" t="s">
         <v>157</v>
       </c>
       <c r="Y4" s="9">
@@ -4516,10 +4617,10 @@
       <c r="Z4" s="9">
         <v>0</v>
       </c>
-      <c r="AA4" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB4" s="25" t="s">
+      <c r="AA4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" s="24" t="s">
         <v>70</v>
       </c>
       <c r="AC4" s="8" t="s">
@@ -4581,11 +4682,11 @@
       <c r="O5" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="P5" s="24" t="s">
         <v>70</v>
       </c>
       <c r="Q5" s="9"/>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="24" t="s">
         <v>70</v>
       </c>
       <c r="S5" s="9">
@@ -4603,7 +4704,7 @@
       <c r="W5" s="9">
         <v>0</v>
       </c>
-      <c r="X5" s="25" t="s">
+      <c r="X5" s="24" t="s">
         <v>157</v>
       </c>
       <c r="Y5" s="9">
@@ -4612,10 +4713,10 @@
       <c r="Z5" s="9">
         <v>0</v>
       </c>
-      <c r="AA5" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB5" s="25" t="s">
+      <c r="AA5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB5" s="24" t="s">
         <v>70</v>
       </c>
       <c r="AC5" s="8" t="s">
@@ -4677,11 +4778,11 @@
       <c r="O6" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="24" t="s">
         <v>70</v>
       </c>
       <c r="Q6" s="9"/>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="24" t="s">
         <v>70</v>
       </c>
       <c r="S6" s="9">
@@ -4699,7 +4800,7 @@
       <c r="W6" s="9">
         <v>400000</v>
       </c>
-      <c r="X6" s="25" t="s">
+      <c r="X6" s="24" t="s">
         <v>157</v>
       </c>
       <c r="Y6" s="9">
@@ -4708,10 +4809,10 @@
       <c r="Z6" s="9">
         <v>0</v>
       </c>
-      <c r="AA6" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB6" s="25" t="s">
+      <c r="AA6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB6" s="24" t="s">
         <v>70</v>
       </c>
       <c r="AC6" s="8" t="s">
@@ -4734,6 +4835,1890 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AF6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="36.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.952380952381" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1428571428571" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.2857142857143" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.8571428571429" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7142857142857" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.8571428571429" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5714285714286" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.4285714285714" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8380952380952" style="16" customWidth="1"/>
+    <col min="17" max="17" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.8380952380952" style="16" customWidth="1"/>
+    <col min="19" max="19" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.8571428571429" style="1" customWidth="1"/>
+    <col min="21" max="22" width="22.7142857142857" style="1" customWidth="1"/>
+    <col min="23" max="23" width="25" style="1" customWidth="1"/>
+    <col min="24" max="24" width="26.8571428571429" style="16" customWidth="1"/>
+    <col min="25" max="25" width="29.2857142857143" style="1" customWidth="1"/>
+    <col min="26" max="26" width="23.5714285714286" style="16" customWidth="1"/>
+    <col min="27" max="28" width="31.4285714285714" style="16" customWidth="1"/>
+    <col min="29" max="29" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="30" max="30" width="18.9428571428571" style="1" customWidth="1"/>
+    <col min="31" max="31" width="22" style="16" customWidth="1"/>
+    <col min="32" max="32" width="18.9428571428571" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:32">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
+      <c r="A2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="9">
+        <v>1600000</v>
+      </c>
+      <c r="T2" s="9">
+        <v>400000</v>
+      </c>
+      <c r="U2" s="9">
+        <v>0</v>
+      </c>
+      <c r="V2" s="9">
+        <v>0</v>
+      </c>
+      <c r="W2" s="9">
+        <v>0</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD2" s="14">
+        <v>200</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF2" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
+      <c r="A3" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="9">
+        <v>1600000</v>
+      </c>
+      <c r="T3" s="9">
+        <v>400000</v>
+      </c>
+      <c r="U3" s="9">
+        <v>0</v>
+      </c>
+      <c r="V3" s="9">
+        <v>0</v>
+      </c>
+      <c r="W3" s="9">
+        <v>400000</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>200</v>
+      </c>
+      <c r="AE3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF3" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
+      <c r="A4" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="9">
+        <v>1600000</v>
+      </c>
+      <c r="T4" s="9">
+        <v>400000</v>
+      </c>
+      <c r="U4" s="9">
+        <v>200000</v>
+      </c>
+      <c r="V4" s="9">
+        <v>0</v>
+      </c>
+      <c r="W4" s="9">
+        <v>0</v>
+      </c>
+      <c r="X4" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>200</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF4" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
+      <c r="A5" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" s="9">
+        <v>1600000</v>
+      </c>
+      <c r="T5" s="9">
+        <v>400000</v>
+      </c>
+      <c r="U5" s="9">
+        <v>0</v>
+      </c>
+      <c r="V5" s="9">
+        <v>200000</v>
+      </c>
+      <c r="W5" s="9">
+        <v>0</v>
+      </c>
+      <c r="X5" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>200</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
+      <c r="A6" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="9">
+        <v>1600000</v>
+      </c>
+      <c r="T6" s="9">
+        <v>400000</v>
+      </c>
+      <c r="U6" s="9">
+        <v>200000</v>
+      </c>
+      <c r="V6" s="9">
+        <v>200000</v>
+      </c>
+      <c r="W6" s="9">
+        <v>400000</v>
+      </c>
+      <c r="X6" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>200</v>
+      </c>
+      <c r="AE6" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AF6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="36.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.952380952381" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1428571428571" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.2857142857143" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.8571428571429" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7142857142857" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.8571428571429" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5714285714286" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.4285714285714" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8380952380952" style="16" customWidth="1"/>
+    <col min="17" max="17" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.8380952380952" style="16" customWidth="1"/>
+    <col min="19" max="19" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.8571428571429" style="1" customWidth="1"/>
+    <col min="21" max="22" width="22.7142857142857" style="1" customWidth="1"/>
+    <col min="23" max="23" width="25" style="1" customWidth="1"/>
+    <col min="24" max="24" width="26.8571428571429" style="16" customWidth="1"/>
+    <col min="25" max="25" width="29.2857142857143" style="1" customWidth="1"/>
+    <col min="26" max="26" width="23.5714285714286" style="16" customWidth="1"/>
+    <col min="27" max="28" width="31.4285714285714" style="16" customWidth="1"/>
+    <col min="29" max="29" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="30" max="30" width="18.9428571428571" style="1" customWidth="1"/>
+    <col min="31" max="31" width="22" style="16" customWidth="1"/>
+    <col min="32" max="32" width="18.9428571428571" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:32">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
+      <c r="A2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="9">
+        <v>1600000</v>
+      </c>
+      <c r="T2" s="9">
+        <v>400000</v>
+      </c>
+      <c r="U2" s="9">
+        <v>0</v>
+      </c>
+      <c r="V2" s="9">
+        <v>0</v>
+      </c>
+      <c r="W2" s="9">
+        <v>0</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD2" s="14">
+        <v>200</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF2" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
+      <c r="A3" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="9">
+        <v>1600000</v>
+      </c>
+      <c r="T3" s="9">
+        <v>400000</v>
+      </c>
+      <c r="U3" s="9">
+        <v>0</v>
+      </c>
+      <c r="V3" s="9">
+        <v>0</v>
+      </c>
+      <c r="W3" s="9">
+        <v>400000</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>200</v>
+      </c>
+      <c r="AE3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF3" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
+      <c r="A4" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="9">
+        <v>1600000</v>
+      </c>
+      <c r="T4" s="9">
+        <v>400000</v>
+      </c>
+      <c r="U4" s="9">
+        <v>200000</v>
+      </c>
+      <c r="V4" s="9">
+        <v>0</v>
+      </c>
+      <c r="W4" s="9">
+        <v>0</v>
+      </c>
+      <c r="X4" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>200</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF4" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
+      <c r="A5" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" s="9">
+        <v>1600000</v>
+      </c>
+      <c r="T5" s="9">
+        <v>400000</v>
+      </c>
+      <c r="U5" s="9">
+        <v>0</v>
+      </c>
+      <c r="V5" s="9">
+        <v>200000</v>
+      </c>
+      <c r="W5" s="9">
+        <v>0</v>
+      </c>
+      <c r="X5" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>200</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
+      <c r="A6" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="9">
+        <v>1600000</v>
+      </c>
+      <c r="T6" s="9">
+        <v>400000</v>
+      </c>
+      <c r="U6" s="9">
+        <v>200000</v>
+      </c>
+      <c r="V6" s="9">
+        <v>200000</v>
+      </c>
+      <c r="W6" s="9">
+        <v>400000</v>
+      </c>
+      <c r="X6" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>200</v>
+      </c>
+      <c r="AE6" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AF6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="36.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5714285714286" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1428571428571" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.2857142857143" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.8571428571429" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7142857142857" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.8571428571429" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5714285714286" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.4285714285714" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8380952380952" style="16" customWidth="1"/>
+    <col min="17" max="17" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.8380952380952" style="16" customWidth="1"/>
+    <col min="19" max="19" width="17.8380952380952" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.8571428571429" style="1" customWidth="1"/>
+    <col min="21" max="22" width="22.7142857142857" style="1" customWidth="1"/>
+    <col min="23" max="23" width="25" style="1" customWidth="1"/>
+    <col min="24" max="24" width="26.8571428571429" style="16" customWidth="1"/>
+    <col min="25" max="25" width="29.2857142857143" style="1" customWidth="1"/>
+    <col min="26" max="26" width="23.5714285714286" style="16" customWidth="1"/>
+    <col min="27" max="28" width="31.4285714285714" style="16" customWidth="1"/>
+    <col min="29" max="29" width="31.4285714285714" style="1" customWidth="1"/>
+    <col min="30" max="30" width="18.9428571428571" style="1" customWidth="1"/>
+    <col min="31" max="31" width="22" style="16" customWidth="1"/>
+    <col min="32" max="32" width="18.9428571428571" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:32">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
+      <c r="A2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="9">
+        <v>1600000</v>
+      </c>
+      <c r="T2" s="9">
+        <v>400000</v>
+      </c>
+      <c r="U2" s="9">
+        <v>0</v>
+      </c>
+      <c r="V2" s="9">
+        <v>0</v>
+      </c>
+      <c r="W2" s="9">
+        <v>0</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD2" s="14">
+        <v>200</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF2" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
+      <c r="A3" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="9">
+        <v>1600000</v>
+      </c>
+      <c r="T3" s="9">
+        <v>400000</v>
+      </c>
+      <c r="U3" s="9">
+        <v>0</v>
+      </c>
+      <c r="V3" s="9">
+        <v>0</v>
+      </c>
+      <c r="W3" s="9">
+        <v>400000</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>200</v>
+      </c>
+      <c r="AE3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF3" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
+      <c r="A4" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="9">
+        <v>1600000</v>
+      </c>
+      <c r="T4" s="9">
+        <v>400000</v>
+      </c>
+      <c r="U4" s="9">
+        <v>200000</v>
+      </c>
+      <c r="V4" s="9">
+        <v>0</v>
+      </c>
+      <c r="W4" s="9">
+        <v>0</v>
+      </c>
+      <c r="X4" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>200</v>
+      </c>
+      <c r="AE4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF4" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
+      <c r="A5" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" s="9">
+        <v>1600000</v>
+      </c>
+      <c r="T5" s="9">
+        <v>400000</v>
+      </c>
+      <c r="U5" s="9">
+        <v>0</v>
+      </c>
+      <c r="V5" s="9">
+        <v>200000</v>
+      </c>
+      <c r="W5" s="9">
+        <v>0</v>
+      </c>
+      <c r="X5" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>200</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
+      <c r="A6" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="9">
+        <v>1600000</v>
+      </c>
+      <c r="T6" s="9">
+        <v>400000</v>
+      </c>
+      <c r="U6" s="9">
+        <v>200000</v>
+      </c>
+      <c r="V6" s="9">
+        <v>200000</v>
+      </c>
+      <c r="W6" s="9">
+        <v>400000</v>
+      </c>
+      <c r="X6" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>200</v>
+      </c>
+      <c r="AE6" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AU6"/>
@@ -4794,125 +6779,125 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="W1" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="X1" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y1" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA1" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB1" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC1" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD1" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE1" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="AF1" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG1" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH1" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI1" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ1" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK1" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL1" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM1" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="AN1" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO1" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="AP1" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="AQ1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="AR1" s="21" t="s">
+      <c r="H1" s="18" t="s">
         <v>204</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG1" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH1" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI1" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ1" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AK1" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL1" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM1" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN1" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="AO1" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="AP1" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="AQ1" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="AR1" s="20" t="s">
+        <v>240</v>
       </c>
       <c r="AS1" s="10" t="s">
         <v>9</v>
@@ -4921,21 +6906,21 @@
         <v>10</v>
       </c>
       <c r="AU1" s="12" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A2" s="5" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>102</v>
@@ -4944,14 +6929,14 @@
         <v>124</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="K2" s="5">
         <v>1600000</v>
@@ -4969,28 +6954,28 @@
         <v>0</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="V2" s="5">
         <v>0</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
@@ -5006,25 +6991,25 @@
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR2" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR2" s="21" t="s">
         <v>70</v>
       </c>
       <c r="AS2" s="8" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="AT2" s="14">
         <v>200</v>
@@ -5035,32 +7020,32 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A3" s="5" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>103</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="K3" s="5">
         <v>1600000</v>
@@ -5078,28 +7063,28 @@
         <v>0</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="V3" s="5">
         <v>0</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
@@ -5115,25 +7100,25 @@
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
       <c r="AM3" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR3" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR3" s="21" t="s">
         <v>70</v>
       </c>
       <c r="AS3" s="8" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="AT3" s="14">
         <v>200</v>
@@ -5144,32 +7129,32 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A4" s="5" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>109</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="K4" s="5">
         <v>1600000</v>
@@ -5187,28 +7172,28 @@
         <v>0</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="V4" s="5">
         <v>0</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
@@ -5224,25 +7209,25 @@
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
       <c r="AM4" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="AN4" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="AO4" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="AP4" s="5" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="AQ4" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR4" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR4" s="21" t="s">
         <v>70</v>
       </c>
       <c r="AS4" s="8" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="AT4" s="14">
         <v>200</v>
@@ -5253,32 +7238,32 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A5" s="5" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>113</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="K5" s="5">
         <v>1600000</v>
@@ -5296,28 +7281,28 @@
         <v>0</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="V5" s="5">
         <v>0</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
@@ -5333,25 +7318,25 @@
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
       <c r="AM5" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="AN5" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="AO5" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="AP5" s="5" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="AQ5" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR5" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR5" s="21" t="s">
         <v>70</v>
       </c>
       <c r="AS5" s="8" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="AT5" s="14">
         <v>200</v>
@@ -5362,16 +7347,16 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A6" s="5" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>102</v>
@@ -5380,14 +7365,14 @@
         <v>124</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="K6" s="5">
         <v>100000</v>
@@ -5405,38 +7390,38 @@
         <v>0</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="V6" s="5">
         <v>0</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="AA6" s="5">
         <v>200000</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5">
@@ -5449,40 +7434,40 @@
         <v>0</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="AI6" s="5" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="AJ6" s="5" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="AK6" s="5" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="AL6" s="5">
         <v>0</v>
       </c>
       <c r="AM6" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="AN6" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="AO6" s="5" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="AQ6" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR6" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR6" s="21" t="s">
         <v>70</v>
       </c>
       <c r="AS6" s="8" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="AT6" s="14">
         <v>200</v>
@@ -5495,652 +7480,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:S6"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
-  <cols>
-    <col min="1" max="1" width="24.1428571428571" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.952380952381" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.8571428571429" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.8571428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.2857142857143" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.8571428571429" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.8571428571429" style="1" customWidth="1"/>
-    <col min="13" max="13" width="27.5714285714286" style="1" customWidth="1"/>
-    <col min="14" max="14" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="15" max="15" width="27.4285714285714" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20" style="16" customWidth="1"/>
-    <col min="17" max="19" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.14285714285714" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:19">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
-      <c r="A2" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="L2" s="14">
-        <v>200</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="5">
-        <v>1600000</v>
-      </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="5"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
-      <c r="A3" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="L3" s="14">
-        <v>200</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="5">
-        <v>1600000</v>
-      </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
-      <c r="A4" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="L4" s="14">
-        <v>200</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="5">
-        <v>1600000</v>
-      </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
-      <c r="A5" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="L5" s="14">
-        <v>200</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="5">
-        <v>1600000</v>
-      </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
-      <c r="A6" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="L6" s="14">
-        <v>200</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="5">
-        <v>100000</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>262</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="4"/>
-  <cols>
-    <col min="1" max="1" width="24.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1428571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.8571428571429" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.4285714285714" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5714285714286" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.4285714285714" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:10">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
-      <c r="A2" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="H2" s="14">
-        <v>200</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
-      <c r="A3" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="H3" s="14">
-        <v>200</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="H4" s="14">
-        <v>200</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="H5" s="14">
-        <v>200</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>270</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="27.4285714285714" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1428571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.8571428571429" style="1" customWidth="1"/>
-    <col min="7" max="9" width="27.4285714285714" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7142857142857" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.5714285714286" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.14285714285714" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:11">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:11">
-      <c r="A2" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="J2" s="14">
-        <v>200</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -6190,22 +7529,22 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="11" t="s">
@@ -6246,7 +7585,7 @@
       <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -6264,7 +7603,7 @@
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -6308,7 +7647,7 @@
       <c r="B3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -6326,7 +7665,7 @@
       <c r="H3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -6372,14 +7711,644 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:S6"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="24.1428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.952380952381" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.8571428571429" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.8571428571429" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.2857142857143" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.8571428571429" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7142857142857" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.8571428571429" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5714285714286" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.4285714285714" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20" style="16" customWidth="1"/>
+    <col min="17" max="19" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:19">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
+      <c r="A2" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="L2" s="14">
+        <v>200</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="O2" s="15"/>
+      <c r="P2" s="5">
+        <v>1600000</v>
+      </c>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
+      <c r="A3" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="L3" s="14">
+        <v>200</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="O3" s="15"/>
+      <c r="P3" s="5">
+        <v>1600000</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
+      <c r="A4" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="L4" s="14">
+        <v>200</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="O4" s="15"/>
+      <c r="P4" s="5">
+        <v>1600000</v>
+      </c>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
+      <c r="A5" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="L5" s="14">
+        <v>200</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="O5" s="15"/>
+      <c r="P5" s="5">
+        <v>1600000</v>
+      </c>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
+      <c r="A6" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="L6" s="14">
+        <v>200</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="O6" s="15"/>
+      <c r="P6" s="5">
+        <v>100000</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="24.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1428571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.4285714285714" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5714285714286" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.4285714285714" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="H2" s="14">
+        <v>200</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="H3" s="14">
+        <v>200</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="H4" s="14">
+        <v>200</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="H5" s="14">
+        <v>200</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="27.4285714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1428571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="9" width="27.4285714285714" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7142857142857" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.5714285714286" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:11">
+      <c r="A2" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="J2" s="14">
+        <v>200</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -6431,22 +8400,22 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="11" t="s">
@@ -6487,7 +8456,7 @@
       <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -6505,7 +8474,7 @@
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -6549,7 +8518,7 @@
       <c r="B3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -6567,7 +8536,7 @@
       <c r="H3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -6656,22 +8625,22 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="11" t="s">
@@ -6712,7 +8681,7 @@
       <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -6730,7 +8699,7 @@
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -6774,7 +8743,7 @@
       <c r="B3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -6792,7 +8761,7 @@
       <c r="H3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -6893,106 +8862,106 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="V1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="W1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="X1" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="Y1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="40" t="s">
+      <c r="AA1" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AB1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AC1" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="37" t="s">
+      <c r="AD1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="37" t="s">
+      <c r="AE1" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="37" t="s">
+      <c r="AF1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="37" t="s">
+      <c r="AG1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="37" t="s">
+      <c r="AH1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="37" t="s">
+      <c r="AI1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="37" t="s">
+      <c r="AJ1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="37" t="s">
+      <c r="AK1" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="AL1" s="37" t="s">
+      <c r="AL1" s="34" t="s">
         <v>65</v>
       </c>
     </row>
@@ -7003,7 +8972,7 @@
       <c r="B2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -7021,7 +8990,7 @@
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -7117,7 +9086,7 @@
       <c r="B3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -7135,7 +9104,7 @@
       <c r="H3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -7231,7 +9200,7 @@
       <c r="B4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -7249,7 +9218,7 @@
       <c r="H4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -7345,7 +9314,7 @@
       <c r="B5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -7363,7 +9332,7 @@
       <c r="H5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -7459,7 +9428,7 @@
       <c r="B6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -7477,7 +9446,7 @@
       <c r="H6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -7576,7 +9545,7 @@
       <c r="O7" s="16"/>
     </row>
     <row r="11" customHeight="1" spans="12:12">
-      <c r="L11" s="39"/>
+      <c r="L11" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7641,106 +9610,106 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="V1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="W1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="X1" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="Y1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="40" t="s">
+      <c r="AA1" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AB1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AC1" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="37" t="s">
+      <c r="AD1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="37" t="s">
+      <c r="AE1" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="37" t="s">
+      <c r="AF1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="37" t="s">
+      <c r="AG1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="37" t="s">
+      <c r="AH1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="37" t="s">
+      <c r="AI1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="37" t="s">
+      <c r="AJ1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="37" t="s">
+      <c r="AK1" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="AL1" s="37" t="s">
+      <c r="AL1" s="34" t="s">
         <v>65</v>
       </c>
     </row>
@@ -7751,7 +9720,7 @@
       <c r="B2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -7769,7 +9738,7 @@
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -7865,7 +9834,7 @@
       <c r="B3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -7883,7 +9852,7 @@
       <c r="H3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -7979,7 +9948,7 @@
       <c r="B4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -7997,7 +9966,7 @@
       <c r="H4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -8093,7 +10062,7 @@
       <c r="B5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -8111,7 +10080,7 @@
       <c r="H5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -8209,7 +10178,7 @@
       <c r="B6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -8227,7 +10196,7 @@
       <c r="H6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -8323,7 +10292,7 @@
       <c r="O7" s="16"/>
     </row>
     <row r="11" customHeight="1" spans="12:12">
-      <c r="L11" s="39"/>
+      <c r="L11" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8388,106 +10357,106 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="V1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="W1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="X1" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="Y1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="40" t="s">
+      <c r="AA1" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AB1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AC1" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="37" t="s">
+      <c r="AD1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="37" t="s">
+      <c r="AE1" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="37" t="s">
+      <c r="AF1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="37" t="s">
+      <c r="AG1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="37" t="s">
+      <c r="AH1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="37" t="s">
+      <c r="AI1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="37" t="s">
+      <c r="AJ1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="37" t="s">
+      <c r="AK1" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="AL1" s="37" t="s">
+      <c r="AL1" s="34" t="s">
         <v>65</v>
       </c>
     </row>
@@ -8498,7 +10467,7 @@
       <c r="B2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -8516,7 +10485,7 @@
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -8612,7 +10581,7 @@
       <c r="B3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -8630,7 +10599,7 @@
       <c r="H3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -8726,7 +10695,7 @@
       <c r="B4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -8744,7 +10713,7 @@
       <c r="H4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -8840,7 +10809,7 @@
       <c r="B5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -8858,7 +10827,7 @@
       <c r="H5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -8948,7 +10917,7 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="12:12">
-      <c r="L9" s="39"/>
+      <c r="L9" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9013,106 +10982,106 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="V1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="W1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="X1" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="37" t="s">
+      <c r="Y1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="37" t="s">
+      <c r="Z1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="40" t="s">
+      <c r="AA1" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AB1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AC1" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="37" t="s">
+      <c r="AD1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="37" t="s">
+      <c r="AE1" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="37" t="s">
+      <c r="AF1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="37" t="s">
+      <c r="AG1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="37" t="s">
+      <c r="AH1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="37" t="s">
+      <c r="AI1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="37" t="s">
+      <c r="AJ1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="37" t="s">
+      <c r="AK1" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="AL1" s="37" t="s">
+      <c r="AL1" s="34" t="s">
         <v>65</v>
       </c>
     </row>
@@ -9123,7 +11092,7 @@
       <c r="B2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -9141,7 +11110,7 @@
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -9238,7 +11207,7 @@
       <c r="B3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -9256,7 +11225,7 @@
       <c r="H3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -9353,7 +11322,7 @@
       <c r="B4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -9371,7 +11340,7 @@
       <c r="H4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -9467,7 +11436,7 @@
       <c r="B5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -9485,7 +11454,7 @@
       <c r="H5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -9579,7 +11548,7 @@
       <c r="O6" s="16"/>
     </row>
     <row r="10" customHeight="1" spans="12:12">
-      <c r="L10" s="39"/>
+      <c r="L10" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9633,61 +11602,61 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="V1" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="W1" s="34" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9698,7 +11667,7 @@
       <c r="B2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -9716,7 +11685,7 @@
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>70</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -9765,7 +11734,7 @@
       <c r="B3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -9783,7 +11752,7 @@
       <c r="H3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>70</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -9832,7 +11801,7 @@
       <c r="B4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -9850,7 +11819,7 @@
       <c r="H4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>70</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -9899,7 +11868,7 @@
       <c r="B5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -9917,7 +11886,7 @@
       <c r="H5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>70</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -9968,7 +11937,7 @@
       <c r="B6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -9986,7 +11955,7 @@
       <c r="H6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="24" t="s">
         <v>70</v>
       </c>
       <c r="J6" s="6" t="s">

--- a/src/main/resources/input_excel_file/booking/CICO.xlsx
+++ b/src/main/resources/input_excel_file/booking/CICO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="16" activeTab="21"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="16" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Booking_By_Bag_Player1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="322">
   <si>
     <t>tc_id</t>
   </si>
@@ -842,6 +842,9 @@
   </si>
   <si>
     <t>input_single_payment_expect.json</t>
+  </si>
+  <si>
+    <t>INPUT_PAYMENT_PLAYER1_001</t>
   </si>
   <si>
     <t>INPUT_PAYMENT_PLAYER2</t>
@@ -6721,13 +6724,13 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AU6"/>
+  <dimension ref="A1:AU7"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AU2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="24.1428571428571" style="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="1" customWidth="1"/>
@@ -7032,23 +7035,23 @@
         <v>244</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>255</v>
+        <v>124</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
         <v>247</v>
       </c>
       <c r="K3" s="5">
-        <v>1600000</v>
+        <v>8800000</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -7129,7 +7132,7 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A4" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>243</v>
@@ -7141,16 +7144,16 @@
         <v>244</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
@@ -7238,7 +7241,7 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A5" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>243</v>
@@ -7250,16 +7253,16 @@
         <v>244</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
@@ -7347,41 +7350,41 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A6" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>124</v>
+        <v>264</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
         <v>247</v>
       </c>
       <c r="K6" s="5">
-        <v>100000</v>
+        <v>1600000</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5">
-        <v>100000</v>
+        <v>1600000</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>152</v>
@@ -7413,41 +7416,19 @@
       <c r="Y6" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="Z6" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>200000</v>
-      </c>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="5" t="s">
-        <v>270</v>
-      </c>
+      <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
-      <c r="AE6" s="5">
-        <v>200000</v>
-      </c>
-      <c r="AF6" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="AI6" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJ6" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="AL6" s="5">
-        <v>0</v>
-      </c>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
       <c r="AM6" s="5" t="s">
         <v>251</v>
       </c>
@@ -7473,6 +7454,137 @@
         <v>200</v>
       </c>
       <c r="AU6" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
+      <c r="A7" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" s="5">
+        <v>100000</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5">
+        <v>100000</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>200000</v>
+      </c>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5">
+        <v>200000</v>
+      </c>
+      <c r="AF7" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI7" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AN7" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AO7" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AP7" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AQ7" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AR7" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS7" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="AT7" s="14">
+        <v>200</v>
+      </c>
+      <c r="AU7" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7768,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>9</v>
@@ -7777,39 +7889,39 @@
         <v>10</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A2" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>26</v>
@@ -7818,7 +7930,7 @@
         <v>124</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>24</v>
@@ -7830,13 +7942,13 @@
         <v>27</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L2" s="14">
         <v>200</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N2" s="15" t="s">
         <v>247</v>
@@ -7851,25 +7963,25 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A3" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>24</v>
@@ -7881,13 +7993,13 @@
         <v>27</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L3" s="14">
         <v>200</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N3" s="15" t="s">
         <v>247</v>
@@ -7902,25 +8014,25 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A4" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>24</v>
@@ -7932,13 +8044,13 @@
         <v>27</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L4" s="14">
         <v>200</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N4" s="15" t="s">
         <v>247</v>
@@ -7953,25 +8065,25 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A5" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>24</v>
@@ -7983,13 +8095,13 @@
         <v>27</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L5" s="14">
         <v>200</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>247</v>
@@ -8004,16 +8116,16 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A6" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>26</v>
@@ -8022,7 +8134,7 @@
         <v>124</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>24</v>
@@ -8034,13 +8146,13 @@
         <v>27</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L6" s="14">
         <v>200</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N6" s="15" t="s">
         <v>247</v>
@@ -8050,13 +8162,13 @@
         <v>100000</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -8070,8 +8182,8 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="4"/>
@@ -8106,7 +8218,7 @@
         <v>91</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>9</v>
@@ -8115,24 +8227,24 @@
         <v>10</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>102</v>
@@ -8141,7 +8253,7 @@
         <v>26</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H2" s="14">
         <v>200</v>
@@ -8150,21 +8262,21 @@
         <v>32</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>103</v>
@@ -8173,7 +8285,7 @@
         <v>38</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H3" s="14">
         <v>200</v>
@@ -8182,21 +8294,21 @@
         <v>32</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>109</v>
@@ -8205,7 +8317,7 @@
         <v>39</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H4" s="14">
         <v>200</v>
@@ -8214,21 +8326,21 @@
         <v>32</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>113</v>
@@ -8237,7 +8349,7 @@
         <v>40</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H5" s="14">
         <v>200</v>
@@ -8246,7 +8358,7 @@
         <v>32</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -8260,7 +8372,7 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -8292,16 +8404,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>9</v>
@@ -8315,16 +8427,16 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>102</v>
@@ -8339,7 +8451,7 @@
         <v>113</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J2" s="14">
         <v>200</v>

--- a/src/main/resources/input_excel_file/booking/CICO.xlsx
+++ b/src/main/resources/input_excel_file/booking/CICO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="16" activeTab="20"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Booking_By_Bag_Player1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="323">
   <si>
     <t>tc_id</t>
   </si>
@@ -94,808 +94,811 @@
     <t>input_placeholders</t>
   </si>
   <si>
+    <t>q_partner_uid</t>
+  </si>
+  <si>
+    <t>q_course_uid</t>
+  </si>
+  <si>
+    <t>q_bag</t>
+  </si>
+  <si>
+    <t>q_booking_date</t>
+  </si>
+  <si>
+    <t>q_version</t>
+  </si>
+  <si>
+    <t>expected_validation_data</t>
+  </si>
+  <si>
+    <t>status_code</t>
+  </si>
+  <si>
+    <t>assert_customer_type</t>
+  </si>
+  <si>
+    <t>assert_guest_style</t>
+  </si>
+  <si>
+    <t>assert_agency_id</t>
+  </si>
+  <si>
+    <t>assert_check_in_time</t>
+  </si>
+  <si>
+    <t>assert_flight_id</t>
+  </si>
+  <si>
+    <t>assert_buggy_id</t>
+  </si>
+  <si>
+    <t>assert_init_type</t>
+  </si>
+  <si>
+    <t>assert_size_rounds</t>
+  </si>
+  <si>
+    <t>assert_size_list_service_items</t>
+  </si>
+  <si>
+    <t>VST_BY_BAG_001</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra thông tin booking của bag</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>{{CTX:PARTNER_UID}}</t>
+  </si>
+  <si>
+    <t>{{CTX:COURSE_UID}}</t>
+  </si>
+  <si>
+    <t>{{CTX:BAG_0}}</t>
+  </si>
+  <si>
+    <t>{{TODAY}}</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>booking_by_bag_expect.json</t>
+  </si>
+  <si>
+    <t>VISITOR</t>
+  </si>
+  <si>
+    <t>4D</t>
+  </si>
+  <si>
+    <t>NOT_NULL</t>
+  </si>
+  <si>
+    <t>BOOKING</t>
+  </si>
+  <si>
+    <t>AG_BY_BAG_001</t>
+  </si>
+  <si>
+    <t>AG_Kiểm tra thông tin booking của bag</t>
+  </si>
+  <si>
+    <t>TRADITIONAL</t>
+  </si>
+  <si>
+    <t>5D</t>
+  </si>
+  <si>
+    <t>{{CTX:BAG_1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:BAG_2}}</t>
+  </si>
+  <si>
+    <t>{{CTX:BAG_3}}</t>
+  </si>
+  <si>
+    <t>assert_total_bill.total</t>
+  </si>
+  <si>
+    <t>assert_agency_paid_all</t>
+  </si>
+  <si>
+    <t>assert_total_bill.agency_pay</t>
+  </si>
+  <si>
+    <t>assert_agency_player_pay</t>
+  </si>
+  <si>
+    <t>assert_agency_paid_discount</t>
+  </si>
+  <si>
+    <t>assert_mush_pay_info.mush_pay</t>
+  </si>
+  <si>
+    <t>assert_mush_pay_info_0_VND</t>
+  </si>
+  <si>
+    <t>assert_rounds[0].green_fee</t>
+  </si>
+  <si>
+    <t>assert_rounds[0].caddie_fee</t>
+  </si>
+  <si>
+    <t>assert_rounds[0].voucher_green_fee_amount</t>
+  </si>
+  <si>
+    <t>assert_rounds[0].voucher_caddie_fee_amount</t>
+  </si>
+  <si>
+    <t>assert_total_golf_fee.green_fee</t>
+  </si>
+  <si>
+    <t>assert_total_golf_fee.caddie_fee</t>
+  </si>
+  <si>
+    <t>assert_total_golf_fee.total</t>
+  </si>
+  <si>
+    <t>assert_size_list_round_of_sub_bag</t>
+  </si>
+  <si>
+    <t>assert_total_item_fee</t>
+  </si>
+  <si>
+    <t>assert_total_service_fee.golf_fee</t>
+  </si>
+  <si>
+    <t>assert_total_service_fee.rental</t>
+  </si>
+  <si>
+    <t>assert_total_service_fee.tee_driving</t>
+  </si>
+  <si>
+    <t>assert_total_service_fee.pro_shop</t>
+  </si>
+  <si>
+    <t>assert_total_service_fee.restaurant</t>
+  </si>
+  <si>
+    <t>assert_total_service_fee.kiosk</t>
+  </si>
+  <si>
+    <t>assert_total_service_fee.mini_bar</t>
+  </si>
+  <si>
+    <t>assert_total_service_fee.other_fee</t>
+  </si>
+  <si>
+    <t>assert_total_service_fee.total</t>
+  </si>
+  <si>
+    <t>VST_FEE_OF_BAG_001</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra thông tin phí của bag khi add 2 item proshop</t>
+  </si>
+  <si>
+    <t>fee_of_bag_expect.json</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>AG_FEE_OF_BAG_001</t>
+  </si>
+  <si>
+    <t>AG_Kiểm tra thông tin phí của bag khi add 2 item proshop</t>
+  </si>
+  <si>
+    <t>VST_FEE_OF_BAG_002</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra thông tin phí của bag khi add 1 item proshop</t>
+  </si>
+  <si>
+    <t>VST_BAG_MAIN_1SUB_001</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra thông tin phí của bag khi add 1 item proshop + add main sub</t>
+  </si>
+  <si>
+    <t>AG_FEE_OF_BAG_002</t>
+  </si>
+  <si>
+    <t>AG_Kiểm tra thông tin phí của bag khi không add thêm item</t>
+  </si>
+  <si>
+    <t>fee_of_bag_mustpay_0_VND_expect.json</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>VST_BAG_SUB_001</t>
+  </si>
+  <si>
+    <t>q_is_calc_detail_tax_and_fee</t>
+  </si>
+  <si>
+    <t>VST_FEE_OF_BAG_BILL_001</t>
+  </si>
+  <si>
+    <t>fee_of_bag_bill_expect.json</t>
+  </si>
+  <si>
+    <t>AG_FEE_OF_BAG_BILL_001</t>
+  </si>
+  <si>
+    <t>VST_FEE_OF_BAG_BILL_002</t>
+  </si>
+  <si>
+    <t>AG_FEE_OF_BAG_BILL_002</t>
+  </si>
+  <si>
+    <t>fee_of_bag_bill_mustpay_0_VND_expect.json</t>
+  </si>
+  <si>
+    <t>{{CTX:BAG_4}}</t>
+  </si>
+  <si>
+    <t>booking_uid</t>
+  </si>
+  <si>
+    <t>sub_bags[0].booking_uid</t>
+  </si>
+  <si>
+    <t>sub_bags[0].transfer_payment</t>
+  </si>
+  <si>
+    <t>sub_bags[1].booking_uid</t>
+  </si>
+  <si>
+    <t>sub_bags[1].transfer_payment</t>
+  </si>
+  <si>
+    <t>sub_bags[2].booking_uid</t>
+  </si>
+  <si>
+    <t>sub_bags[2].transfer_payment</t>
+  </si>
+  <si>
+    <t>assert_size_sub_bags</t>
+  </si>
+  <si>
+    <t>ADD_1SUB_BAG_001</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra add 1 sub</t>
+  </si>
+  <si>
+    <t>add_1sub_bag_request.json</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_UID_0}}</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_UID_1}}</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>add_sub_bag_expect.json</t>
+  </si>
+  <si>
+    <t>ADD_2SUB_BAG_001</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra add 3 sub</t>
+  </si>
+  <si>
+    <t>add_2sub_bag_request.json</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_UID_2}}</t>
+  </si>
+  <si>
+    <t>ADD_3SUB_BAG_001</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra add 2 sub</t>
+  </si>
+  <si>
+    <t>add_3sub_bag_request.json</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_UID_3}}</t>
+  </si>
+  <si>
     <t>partner_uid</t>
   </si>
   <si>
     <t>course_uid</t>
   </si>
   <si>
+    <t>bill_code</t>
+  </si>
+  <si>
+    <t>booking_date</t>
+  </si>
+  <si>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>agency_id</t>
+  </si>
+  <si>
+    <t>guest_style</t>
+  </si>
+  <si>
+    <t>tee_time</t>
+  </si>
+  <si>
+    <t>assert_size_agency_pre_paid</t>
+  </si>
+  <si>
+    <t>assert_size_agency_paid_v2</t>
+  </si>
+  <si>
+    <t>DETAIL_AGENCY_PAY_001</t>
+  </si>
+  <si>
+    <t>AG_Kiểm tra lấy thông tin agency pay</t>
+  </si>
+  <si>
+    <t>detail_agency_pay_request.json</t>
+  </si>
+  <si>
+    <t>{{CTX:BILL_CODE_0}}</t>
+  </si>
+  <si>
+    <t>{{CTX:HOLE_0}}</t>
+  </si>
+  <si>
+    <t>{{CTX:AGENCY_ID_0}}</t>
+  </si>
+  <si>
+    <t>{{CTX:GUEST_STYLE_0}}</t>
+  </si>
+  <si>
+    <t>{{CTX:TEE_TIME_0}}</t>
+  </si>
+  <si>
+    <t>detail_agency_pay_expect.json</t>
+  </si>
+  <si>
+    <t>cms_user</t>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>guest_style_name</t>
+  </si>
+  <si>
+    <t>course_type</t>
+  </si>
+  <si>
+    <t>tee_type</t>
+  </si>
+  <si>
+    <t>agency_paid_all</t>
+  </si>
+  <si>
+    <t>caddie_code</t>
+  </si>
+  <si>
+    <t>agency_player_pay</t>
+  </si>
+  <si>
+    <t>fee_info.golf_fee</t>
+  </si>
+  <si>
+    <t>fee_info.buggy_fee</t>
+  </si>
+  <si>
+    <t>fee_info.odd_car_fee</t>
+  </si>
+  <si>
+    <t>fee_info.caddie_fee</t>
+  </si>
+  <si>
+    <t>fee_info.private_car_fee</t>
+  </si>
+  <si>
+    <t>fee_info.has_price_spread</t>
+  </si>
+  <si>
+    <t>fee_info.package_add_on_fee</t>
+  </si>
+  <si>
+    <t>fee_info.add_on_fee</t>
+  </si>
+  <si>
+    <t>fee_info.has_pay_round_second</t>
+  </si>
+  <si>
+    <t>is_private_buggy</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER1_001</t>
+  </si>
+  <si>
+    <t>AG_Kiểm tra update agency pay: Golf fee + 1/2 Buggy Fee + Phí chênh lệch</t>
+  </si>
+  <si>
+    <t>update_agency_pay_request.json</t>
+  </si>
+  <si>
+    <t>{{CTX:USER_NAME}}</t>
+  </si>
+  <si>
+    <t>{{CTX:CUSTOMER_NAME_0}}</t>
+  </si>
+  <si>
+    <t>{{CTX:GUEST_STYLE_NAME_0}}</t>
+  </si>
+  <si>
+    <t>{{CTX:COURSE_TYPE_0}}</t>
+  </si>
+  <si>
+    <t>{{CTX:TEE_TYPE_0}}</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>update_agency_pay_expect.json</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER1_002</t>
+  </si>
+  <si>
+    <t>AG_Kiểm tra update agency pay: Golf fee + 1/2 Buggy Fee + Phí chênh lệch + Buggy Private Fee</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER1_003</t>
+  </si>
+  <si>
+    <t>AG_Kiểm tra update agency pay: Golf fee + 1/2 Buggy Fee + Phí chênh lệch + Buggy Odd Fee</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER1_004</t>
+  </si>
+  <si>
+    <t>AG_Kiểm tra update agency pay: Golf fee + 1/2 Buggy Fee + Phí chênh lệch + Booking Caddie fee</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER1_005</t>
+  </si>
+  <si>
+    <t>AG_Kiểm tra update agency pay: Pay full player fee</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER2_001</t>
+  </si>
+  <si>
+    <t>{{CTX:CUSTOMER_NAME_1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:AGENCY_ID_1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:HOLE_1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:GUEST_STYLE_1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:GUEST_STYLE_NAME_1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:COURSE_TYPE_1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:TEE_TYPE_1}}</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER2_002</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER2_003</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER2_004</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER2_005</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER3_001</t>
+  </si>
+  <si>
+    <t>{{CTX:CUSTOMER_NAME_2}}</t>
+  </si>
+  <si>
+    <t>{{CTX:AGENCY_ID_2}}</t>
+  </si>
+  <si>
+    <t>{{CTX:HOLE_2}}</t>
+  </si>
+  <si>
+    <t>{{CTX:GUEST_STYLE_2}}</t>
+  </si>
+  <si>
+    <t>{{CTX:GUEST_STYLE_NAME_2}}</t>
+  </si>
+  <si>
+    <t>{{CTX:COURSE_TYPE_2}}</t>
+  </si>
+  <si>
+    <t>{{CTX:TEE_TYPE_2}}</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER3_002</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER3_003</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER3_004</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER3_005</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER4_001</t>
+  </si>
+  <si>
+    <t>{{CTX:CUSTOMER_NAME_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:AGENCY_ID_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:HOLE_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:GUEST_STYLE_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:GUEST_STYLE_NAME_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:COURSE_TYPE_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:TEE_TYPE_3}}</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER4_002</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER4_003</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER4_004</t>
+  </si>
+  <si>
+    <t>UPDATE_AGENCY_PAY_PLAYER4_005</t>
+  </si>
+  <si>
+    <t>date_str</t>
+  </si>
+  <si>
+    <t>check_sum</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>list_item[0].payment_type</t>
+  </si>
+  <si>
+    <t>list_item[0].amount</t>
+  </si>
+  <si>
+    <t>list_item[0].note</t>
+  </si>
+  <si>
+    <t>list_item[0].bank_type</t>
+  </si>
+  <si>
+    <t>list_item[0].payment_provider</t>
+  </si>
+  <si>
+    <t>list_item[0].paid</t>
+  </si>
+  <si>
+    <t>list_item[0].cashiers</t>
+  </si>
+  <si>
+    <t>list_item[0].uid_temp</t>
+  </si>
+  <si>
+    <t>list_item[0].action_type</t>
+  </si>
+  <si>
+    <t>list_item[0].location.service_type</t>
+  </si>
+  <si>
+    <t>list_item[0].location.kiosk_type</t>
+  </si>
+  <si>
+    <t>list_item[0].location.path</t>
+  </si>
+  <si>
+    <t>list_item[0].location.id</t>
+  </si>
+  <si>
+    <t>list_item[0].service_item_ids</t>
+  </si>
+  <si>
+    <t>list_item[0].round_ids</t>
+  </si>
+  <si>
+    <t>list_item[0].is_payment_on_behalf</t>
+  </si>
+  <si>
+    <t>list_item[1].payment_type</t>
+  </si>
+  <si>
+    <t>list_item[1].amount</t>
+  </si>
+  <si>
+    <t>list_item[1].note</t>
+  </si>
+  <si>
+    <t>list_item[1].bank_type</t>
+  </si>
+  <si>
+    <t>list_item[1].payment_provider</t>
+  </si>
+  <si>
+    <t>list_item[1].paid</t>
+  </si>
+  <si>
+    <t>list_item[1].cashiers</t>
+  </si>
+  <si>
+    <t>list_item[1].uid_temp</t>
+  </si>
+  <si>
+    <t>list_item[1].action_type</t>
+  </si>
+  <si>
+    <t>list_item[1].location.service_type</t>
+  </si>
+  <si>
+    <t>list_item[1].location.kiosk_type</t>
+  </si>
+  <si>
+    <t>list_item[1].location.path</t>
+  </si>
+  <si>
+    <t>list_item[1].location.id</t>
+  </si>
+  <si>
+    <t>list_item[1].service_item_ids</t>
+  </si>
+  <si>
+    <t>list_item[1].round_ids</t>
+  </si>
+  <si>
+    <t>list_item[1].is_payment_on_behalf</t>
+  </si>
+  <si>
+    <t>list_auto_invoice</t>
+  </si>
+  <si>
+    <t>list_auto_inv_agency</t>
+  </si>
+  <si>
+    <t>is_negative_amount</t>
+  </si>
+  <si>
+    <t>assert_message</t>
+  </si>
+  <si>
+    <t>INPUT_PAYMENT_PLAYER1</t>
+  </si>
+  <si>
+    <t>Kiểm tra input 1tr6 CASH</t>
+  </si>
+  <si>
+    <t>input_single_payment_request.json</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_DATE_0}}</t>
+  </si>
+  <si>
+    <t>{{CHECKSUM_SINGLE_PAYMENT_0}}</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>CREATE</t>
+  </si>
+  <si>
+    <t>RECEPTION</t>
+  </si>
+  <si>
+    <t>/new-check-in-out</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>input_single_payment_expect.json</t>
+  </si>
+  <si>
+    <t>INPUT_PAYMENT_PLAYER1_001</t>
+  </si>
+  <si>
+    <t>INPUT_PAYMENT_PLAYER2</t>
+  </si>
+  <si>
+    <t>{{CTX:BILL_CODE_1}}</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_DATE_1}}</t>
+  </si>
+  <si>
+    <t>{{CHECKSUM_SINGLE_PAYMENT_1}}</t>
+  </si>
+  <si>
+    <t>INPUT_PAYMENT_PLAYER3</t>
+  </si>
+  <si>
+    <t>{{CTX:BILL_CODE_2}}</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_DATE_2}}</t>
+  </si>
+  <si>
+    <t>{{CHECKSUM_SINGLE_PAYMENT_2}}</t>
+  </si>
+  <si>
+    <t>INPUT_PAYMENT_PLAYER4</t>
+  </si>
+  <si>
+    <t>{{CTX:BILL_CODE_3}}</t>
+  </si>
+  <si>
+    <t>{{CTX:BOOKING_DATE_3}}</t>
+  </si>
+  <si>
+    <t>{{CHECKSUM_SINGLE_PAYMENT_3}}</t>
+  </si>
+  <si>
+    <t>INPUT_MIX_PAYMENT_PLAYER1</t>
+  </si>
+  <si>
+    <t>Kiểm tra input mix pay ment</t>
+  </si>
+  <si>
+    <t>input_mix_single_payment_request.json</t>
+  </si>
+  <si>
+    <t>TRANSFER</t>
+  </si>
+  <si>
+    <t>VCB</t>
+  </si>
+  <si>
     <t>bag</t>
-  </si>
-  <si>
-    <t>booking_date</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>expected_validation_data</t>
-  </si>
-  <si>
-    <t>status_code</t>
-  </si>
-  <si>
-    <t>assert_customer_type</t>
-  </si>
-  <si>
-    <t>assert_guest_style</t>
-  </si>
-  <si>
-    <t>assert_agency_id</t>
-  </si>
-  <si>
-    <t>assert_check_in_time</t>
-  </si>
-  <si>
-    <t>assert_flight_id</t>
-  </si>
-  <si>
-    <t>assert_buggy_id</t>
-  </si>
-  <si>
-    <t>assert_init_type</t>
-  </si>
-  <si>
-    <t>assert_size_rounds</t>
-  </si>
-  <si>
-    <t>assert_size_list_service_items</t>
-  </si>
-  <si>
-    <t>VST_BY_BAG_001</t>
-  </si>
-  <si>
-    <t>VST_Kiểm tra thông tin booking của bag</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>booking_by_bag_request.json</t>
-  </si>
-  <si>
-    <t>{{CTX:PARTNER_UID}}</t>
-  </si>
-  <si>
-    <t>{{CTX:COURSE_UID}}</t>
-  </si>
-  <si>
-    <t>{{CTX:BAG_0}}</t>
-  </si>
-  <si>
-    <t>{{TODAY}}</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>booking_by_bag_expect.json</t>
-  </si>
-  <si>
-    <t>VISITOR</t>
-  </si>
-  <si>
-    <t>4D</t>
-  </si>
-  <si>
-    <t>NOT_NULL</t>
-  </si>
-  <si>
-    <t>BOOKING</t>
-  </si>
-  <si>
-    <t>AG_BY_BAG_001</t>
-  </si>
-  <si>
-    <t>AG_Kiểm tra thông tin booking của bag</t>
-  </si>
-  <si>
-    <t>TRADITIONAL</t>
-  </si>
-  <si>
-    <t>5D</t>
-  </si>
-  <si>
-    <t>{{CTX:BAG_1}}</t>
-  </si>
-  <si>
-    <t>{{CTX:BAG_2}}</t>
-  </si>
-  <si>
-    <t>{{CTX:BAG_3}}</t>
-  </si>
-  <si>
-    <t>assert_total_bill.total</t>
-  </si>
-  <si>
-    <t>assert_agency_paid_all</t>
-  </si>
-  <si>
-    <t>assert_total_bill.agency_pay</t>
-  </si>
-  <si>
-    <t>assert_agency_player_pay</t>
-  </si>
-  <si>
-    <t>assert_agency_paid_discount</t>
-  </si>
-  <si>
-    <t>assert_mush_pay_info.mush_pay</t>
-  </si>
-  <si>
-    <t>assert_mush_pay_info_0_VND</t>
-  </si>
-  <si>
-    <t>assert_rounds[0].green_fee</t>
-  </si>
-  <si>
-    <t>assert_rounds[0].caddie_fee</t>
-  </si>
-  <si>
-    <t>assert_rounds[0].voucher_green_fee_amount</t>
-  </si>
-  <si>
-    <t>assert_rounds[0].voucher_caddie_fee_amount</t>
-  </si>
-  <si>
-    <t>assert_total_golf_fee.green_fee</t>
-  </si>
-  <si>
-    <t>assert_total_golf_fee.caddie_fee</t>
-  </si>
-  <si>
-    <t>assert_total_golf_fee.total</t>
-  </si>
-  <si>
-    <t>assert_size_list_round_of_sub_bag</t>
-  </si>
-  <si>
-    <t>assert_total_item_fee</t>
-  </si>
-  <si>
-    <t>assert_total_service_fee.golf_fee</t>
-  </si>
-  <si>
-    <t>assert_total_service_fee.rental</t>
-  </si>
-  <si>
-    <t>assert_total_service_fee.tee_driving</t>
-  </si>
-  <si>
-    <t>assert_total_service_fee.pro_shop</t>
-  </si>
-  <si>
-    <t>assert_total_service_fee.restaurant</t>
-  </si>
-  <si>
-    <t>assert_total_service_fee.kiosk</t>
-  </si>
-  <si>
-    <t>assert_total_service_fee.mini_bar</t>
-  </si>
-  <si>
-    <t>assert_total_service_fee.other_fee</t>
-  </si>
-  <si>
-    <t>assert_total_service_fee.total</t>
-  </si>
-  <si>
-    <t>VST_FEE_OF_BAG_001</t>
-  </si>
-  <si>
-    <t>VST_Kiểm tra thông tin phí của bag khi add 2 item proshop</t>
-  </si>
-  <si>
-    <t>fee_of_bag_request.json</t>
-  </si>
-  <si>
-    <t>fee_of_bag_expect.json</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>AG_FEE_OF_BAG_001</t>
-  </si>
-  <si>
-    <t>AG_Kiểm tra thông tin phí của bag khi add 2 item proshop</t>
-  </si>
-  <si>
-    <t>VST_FEE_OF_BAG_002</t>
-  </si>
-  <si>
-    <t>VST_Kiểm tra thông tin phí của bag khi add 1 item proshop</t>
-  </si>
-  <si>
-    <t>VST_BAG_MAIN_1SUB_001</t>
-  </si>
-  <si>
-    <t>VST_Kiểm tra thông tin phí của bag khi add 1 item proshop + add main sub</t>
-  </si>
-  <si>
-    <t>AG_FEE_OF_BAG_002</t>
-  </si>
-  <si>
-    <t>AG_Kiểm tra thông tin phí của bag khi không add thêm item</t>
-  </si>
-  <si>
-    <t>fee_of_bag_mustpay_0_VND_expect.json</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>VST_BAG_SUB_001</t>
-  </si>
-  <si>
-    <t>is_calc_detail_tax_and_fee</t>
-  </si>
-  <si>
-    <t>VST_FEE_OF_BAG_BILL_001</t>
-  </si>
-  <si>
-    <t>fee_of_bag_bill_request.json</t>
-  </si>
-  <si>
-    <t>fee_of_bag_bill_expect.json</t>
-  </si>
-  <si>
-    <t>AG_FEE_OF_BAG_BILL_001</t>
-  </si>
-  <si>
-    <t>VST_FEE_OF_BAG_BILL_002</t>
-  </si>
-  <si>
-    <t>AG_FEE_OF_BAG_BILL_002</t>
-  </si>
-  <si>
-    <t>fee_of_bag_bill_mustpay_0_VND_expect.json</t>
-  </si>
-  <si>
-    <t>{{CTX:BAG_4}}</t>
-  </si>
-  <si>
-    <t>booking_uid</t>
-  </si>
-  <si>
-    <t>sub_bags[0].booking_uid</t>
-  </si>
-  <si>
-    <t>sub_bags[0].transfer_payment</t>
-  </si>
-  <si>
-    <t>sub_bags[1].booking_uid</t>
-  </si>
-  <si>
-    <t>sub_bags[1].transfer_payment</t>
-  </si>
-  <si>
-    <t>sub_bags[2].booking_uid</t>
-  </si>
-  <si>
-    <t>sub_bags[2].transfer_payment</t>
-  </si>
-  <si>
-    <t>assert_size_sub_bags</t>
-  </si>
-  <si>
-    <t>ADD_1SUB_BAG_001</t>
-  </si>
-  <si>
-    <t>VST_Kiểm tra add 1 sub</t>
-  </si>
-  <si>
-    <t>add_1sub_bag_request.json</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_UID_0}}</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_UID_1}}</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>add_sub_bag_expect.json</t>
-  </si>
-  <si>
-    <t>ADD_2SUB_BAG_001</t>
-  </si>
-  <si>
-    <t>VST_Kiểm tra add 3 sub</t>
-  </si>
-  <si>
-    <t>add_2sub_bag_request.json</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_UID_2}}</t>
-  </si>
-  <si>
-    <t>ADD_3SUB_BAG_001</t>
-  </si>
-  <si>
-    <t>VST_Kiểm tra add 2 sub</t>
-  </si>
-  <si>
-    <t>add_3sub_bag_request.json</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_UID_3}}</t>
-  </si>
-  <si>
-    <t>bill_code</t>
-  </si>
-  <si>
-    <t>hole</t>
-  </si>
-  <si>
-    <t>agency_id</t>
-  </si>
-  <si>
-    <t>guest_style</t>
-  </si>
-  <si>
-    <t>tee_time</t>
-  </si>
-  <si>
-    <t>assert_size_agency_pre_paid</t>
-  </si>
-  <si>
-    <t>assert_size_agency_paid_v2</t>
-  </si>
-  <si>
-    <t>DETAIL_AGENCY_PAY_001</t>
-  </si>
-  <si>
-    <t>AG_Kiểm tra lấy thông tin agency pay</t>
-  </si>
-  <si>
-    <t>detail_agency_pay_request.json</t>
-  </si>
-  <si>
-    <t>{{CTX:BILL_CODE_0}}</t>
-  </si>
-  <si>
-    <t>{{CTX:HOLE_0}}</t>
-  </si>
-  <si>
-    <t>{{CTX:AGENCY_ID_0}}</t>
-  </si>
-  <si>
-    <t>{{CTX:GUEST_STYLE_0}}</t>
-  </si>
-  <si>
-    <t>{{CTX:TEE_TIME_0}}</t>
-  </si>
-  <si>
-    <t>detail_agency_pay_expect.json</t>
-  </si>
-  <si>
-    <t>cms_user</t>
-  </si>
-  <si>
-    <t>uid</t>
-  </si>
-  <si>
-    <t>customer_name</t>
-  </si>
-  <si>
-    <t>guest_style_name</t>
-  </si>
-  <si>
-    <t>course_type</t>
-  </si>
-  <si>
-    <t>tee_type</t>
-  </si>
-  <si>
-    <t>agency_paid_all</t>
-  </si>
-  <si>
-    <t>caddie_code</t>
-  </si>
-  <si>
-    <t>agency_player_pay</t>
-  </si>
-  <si>
-    <t>fee_info.golf_fee</t>
-  </si>
-  <si>
-    <t>fee_info.buggy_fee</t>
-  </si>
-  <si>
-    <t>fee_info.odd_car_fee</t>
-  </si>
-  <si>
-    <t>fee_info.caddie_fee</t>
-  </si>
-  <si>
-    <t>fee_info.private_car_fee</t>
-  </si>
-  <si>
-    <t>fee_info.has_price_spread</t>
-  </si>
-  <si>
-    <t>fee_info.package_add_on_fee</t>
-  </si>
-  <si>
-    <t>fee_info.add_on_fee</t>
-  </si>
-  <si>
-    <t>fee_info.has_pay_round_second</t>
-  </si>
-  <si>
-    <t>is_private_buggy</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER1_001</t>
-  </si>
-  <si>
-    <t>AG_Kiểm tra update agency pay: Golf fee + 1/2 Buggy Fee + Phí chênh lệch</t>
-  </si>
-  <si>
-    <t>update_agency_pay_request.json</t>
-  </si>
-  <si>
-    <t>{{CTX:USER_NAME}}</t>
-  </si>
-  <si>
-    <t>{{CTX:CUSTOMER_NAME_0}}</t>
-  </si>
-  <si>
-    <t>{{CTX:GUEST_STYLE_NAME_0}}</t>
-  </si>
-  <si>
-    <t>{{CTX:COURSE_TYPE_0}}</t>
-  </si>
-  <si>
-    <t>{{CTX:TEE_TYPE_0}}</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>update_agency_pay_expect.json</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER1_002</t>
-  </si>
-  <si>
-    <t>AG_Kiểm tra update agency pay: Golf fee + 1/2 Buggy Fee + Phí chênh lệch + Buggy Private Fee</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER1_003</t>
-  </si>
-  <si>
-    <t>AG_Kiểm tra update agency pay: Golf fee + 1/2 Buggy Fee + Phí chênh lệch + Buggy Odd Fee</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER1_004</t>
-  </si>
-  <si>
-    <t>AG_Kiểm tra update agency pay: Golf fee + 1/2 Buggy Fee + Phí chênh lệch + Booking Caddie fee</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER1_005</t>
-  </si>
-  <si>
-    <t>AG_Kiểm tra update agency pay: Pay full player fee</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER2_001</t>
-  </si>
-  <si>
-    <t>{{CTX:CUSTOMER_NAME_1}}</t>
-  </si>
-  <si>
-    <t>{{CTX:AGENCY_ID_1}}</t>
-  </si>
-  <si>
-    <t>{{CTX:HOLE_1}}</t>
-  </si>
-  <si>
-    <t>{{CTX:GUEST_STYLE_1}}</t>
-  </si>
-  <si>
-    <t>{{CTX:GUEST_STYLE_NAME_1}}</t>
-  </si>
-  <si>
-    <t>{{CTX:COURSE_TYPE_1}}</t>
-  </si>
-  <si>
-    <t>{{CTX:TEE_TYPE_1}}</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER2_002</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER2_003</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER2_004</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER2_005</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER3_001</t>
-  </si>
-  <si>
-    <t>{{CTX:CUSTOMER_NAME_2}}</t>
-  </si>
-  <si>
-    <t>{{CTX:AGENCY_ID_2}}</t>
-  </si>
-  <si>
-    <t>{{CTX:HOLE_2}}</t>
-  </si>
-  <si>
-    <t>{{CTX:GUEST_STYLE_2}}</t>
-  </si>
-  <si>
-    <t>{{CTX:GUEST_STYLE_NAME_2}}</t>
-  </si>
-  <si>
-    <t>{{CTX:COURSE_TYPE_2}}</t>
-  </si>
-  <si>
-    <t>{{CTX:TEE_TYPE_2}}</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER3_002</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER3_003</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER3_004</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER3_005</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER4_001</t>
-  </si>
-  <si>
-    <t>{{CTX:CUSTOMER_NAME_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:AGENCY_ID_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:HOLE_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:GUEST_STYLE_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:GUEST_STYLE_NAME_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:COURSE_TYPE_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:TEE_TYPE_3}}</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER4_002</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER4_003</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER4_004</t>
-  </si>
-  <si>
-    <t>UPDATE_AGENCY_PAY_PLAYER4_005</t>
-  </si>
-  <si>
-    <t>date_str</t>
-  </si>
-  <si>
-    <t>check_sum</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>list_item[0].payment_type</t>
-  </si>
-  <si>
-    <t>list_item[0].amount</t>
-  </si>
-  <si>
-    <t>list_item[0].note</t>
-  </si>
-  <si>
-    <t>list_item[0].bank_type</t>
-  </si>
-  <si>
-    <t>list_item[0].payment_provider</t>
-  </si>
-  <si>
-    <t>list_item[0].paid</t>
-  </si>
-  <si>
-    <t>list_item[0].cashiers</t>
-  </si>
-  <si>
-    <t>list_item[0].uid_temp</t>
-  </si>
-  <si>
-    <t>list_item[0].action_type</t>
-  </si>
-  <si>
-    <t>list_item[0].location.service_type</t>
-  </si>
-  <si>
-    <t>list_item[0].location.kiosk_type</t>
-  </si>
-  <si>
-    <t>list_item[0].location.path</t>
-  </si>
-  <si>
-    <t>list_item[0].location.id</t>
-  </si>
-  <si>
-    <t>list_item[0].service_item_ids</t>
-  </si>
-  <si>
-    <t>list_item[0].round_ids</t>
-  </si>
-  <si>
-    <t>list_item[0].is_payment_on_behalf</t>
-  </si>
-  <si>
-    <t>list_item[1].payment_type</t>
-  </si>
-  <si>
-    <t>list_item[1].amount</t>
-  </si>
-  <si>
-    <t>list_item[1].note</t>
-  </si>
-  <si>
-    <t>list_item[1].bank_type</t>
-  </si>
-  <si>
-    <t>list_item[1].payment_provider</t>
-  </si>
-  <si>
-    <t>list_item[1].paid</t>
-  </si>
-  <si>
-    <t>list_item[1].cashiers</t>
-  </si>
-  <si>
-    <t>list_item[1].uid_temp</t>
-  </si>
-  <si>
-    <t>list_item[1].action_type</t>
-  </si>
-  <si>
-    <t>list_item[1].location.service_type</t>
-  </si>
-  <si>
-    <t>list_item[1].location.kiosk_type</t>
-  </si>
-  <si>
-    <t>list_item[1].location.path</t>
-  </si>
-  <si>
-    <t>list_item[1].location.id</t>
-  </si>
-  <si>
-    <t>list_item[1].service_item_ids</t>
-  </si>
-  <si>
-    <t>list_item[1].round_ids</t>
-  </si>
-  <si>
-    <t>list_item[1].is_payment_on_behalf</t>
-  </si>
-  <si>
-    <t>list_auto_invoice</t>
-  </si>
-  <si>
-    <t>list_auto_inv_agency</t>
-  </si>
-  <si>
-    <t>is_negative_amount</t>
-  </si>
-  <si>
-    <t>assert_message</t>
-  </si>
-  <si>
-    <t>INPUT_PAYMENT_PLAYER1</t>
-  </si>
-  <si>
-    <t>Kiểm tra input 1tr6 CASH</t>
-  </si>
-  <si>
-    <t>input_single_payment_request.json</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_DATE_0}}</t>
-  </si>
-  <si>
-    <t>{{CHECKSUM_SINGLE_PAYMENT_0}}</t>
-  </si>
-  <si>
-    <t>CASH</t>
-  </si>
-  <si>
-    <t>CREATE</t>
-  </si>
-  <si>
-    <t>RECEPTION</t>
-  </si>
-  <si>
-    <t>/new-check-in-out</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>input_single_payment_expect.json</t>
-  </si>
-  <si>
-    <t>INPUT_PAYMENT_PLAYER1_001</t>
-  </si>
-  <si>
-    <t>INPUT_PAYMENT_PLAYER2</t>
-  </si>
-  <si>
-    <t>{{CTX:BILL_CODE_1}}</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_DATE_1}}</t>
-  </si>
-  <si>
-    <t>{{CHECKSUM_SINGLE_PAYMENT_1}}</t>
-  </si>
-  <si>
-    <t>INPUT_PAYMENT_PLAYER3</t>
-  </si>
-  <si>
-    <t>{{CTX:BILL_CODE_2}}</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_DATE_2}}</t>
-  </si>
-  <si>
-    <t>{{CHECKSUM_SINGLE_PAYMENT_2}}</t>
-  </si>
-  <si>
-    <t>INPUT_PAYMENT_PLAYER4</t>
-  </si>
-  <si>
-    <t>{{CTX:BILL_CODE_3}}</t>
-  </si>
-  <si>
-    <t>{{CTX:BOOKING_DATE_3}}</t>
-  </si>
-  <si>
-    <t>{{CHECKSUM_SINGLE_PAYMENT_3}}</t>
-  </si>
-  <si>
-    <t>INPUT_MIX_PAYMENT_PLAYER1</t>
-  </si>
-  <si>
-    <t>Kiểm tra input mix pay ment</t>
-  </si>
-  <si>
-    <t>input_mix_single_payment_request.json</t>
-  </si>
-  <si>
-    <t>TRANSFER</t>
-  </si>
-  <si>
-    <t>VCB</t>
   </si>
   <si>
     <t>payment_date</t>
@@ -2533,50 +2536,48 @@
       <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
       </c>
       <c r="L2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="9">
-        <v>0</v>
-      </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="S2" s="9">
         <v>1</v>
@@ -2587,58 +2588,56 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="J3" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
       </c>
       <c r="L3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="N3" s="9">
         <v>378</v>
       </c>
       <c r="O3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="S3" s="9">
         <v>1</v>
@@ -2659,7 +2658,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -2712,7 +2711,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -2721,34 +2720,34 @@
         <v>10</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M1" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="O1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="P1" s="34" t="s">
         <v>46</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>47</v>
       </c>
       <c r="Q1" s="35" t="s">
         <v>18</v>
       </c>
       <c r="R1" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="T1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="U1" s="35" t="s">
         <v>50</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>51</v>
       </c>
       <c r="V1" s="34" t="s">
         <v>19</v>
@@ -2756,34 +2755,32 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A2" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -2792,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N2" s="6">
         <v>0</v>
@@ -2822,34 +2819,32 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -2858,7 +2853,7 @@
         <v>2000000</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N3" s="6">
         <v>0</v>
@@ -2888,34 +2883,32 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -2924,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N4" s="6">
         <v>0</v>
@@ -2954,34 +2947,32 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A5" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -2990,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N5" s="6">
         <v>0</v>
@@ -2999,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="14">
         <v>1</v>
@@ -3022,34 +3013,32 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K6" s="9">
         <v>200</v>
@@ -3058,7 +3047,7 @@
         <v>2000000</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N6" s="6">
         <v>0</v>
@@ -3067,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="14">
         <v>1</v>
@@ -3108,7 +3097,7 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -3161,7 +3150,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -3170,34 +3159,34 @@
         <v>10</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M1" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="O1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="P1" s="34" t="s">
         <v>46</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>47</v>
       </c>
       <c r="Q1" s="35" t="s">
         <v>18</v>
       </c>
       <c r="R1" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="T1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="U1" s="35" t="s">
         <v>50</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>51</v>
       </c>
       <c r="V1" s="34" t="s">
         <v>19</v>
@@ -3205,34 +3194,32 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A2" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -3241,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N2" s="6">
         <v>0</v>
@@ -3271,34 +3258,32 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -3307,7 +3292,7 @@
         <v>2000000</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N3" s="6">
         <v>0</v>
@@ -3337,34 +3322,32 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -3373,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N4" s="6">
         <v>0</v>
@@ -3403,34 +3386,32 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A5" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -3439,14 +3420,14 @@
         <v>2000000</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N5" s="6">
         <v>0</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="14">
         <v>1</v>
@@ -3486,8 +3467,8 @@
   <sheetPr/>
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -3540,7 +3521,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -3549,34 +3530,34 @@
         <v>10</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M1" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="O1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="P1" s="34" t="s">
         <v>46</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>47</v>
       </c>
       <c r="Q1" s="35" t="s">
         <v>18</v>
       </c>
       <c r="R1" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="T1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="U1" s="35" t="s">
         <v>50</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>51</v>
       </c>
       <c r="V1" s="34" t="s">
         <v>19</v>
@@ -3584,34 +3565,32 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A2" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -3620,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N2" s="6">
         <v>0</v>
@@ -3650,34 +3629,32 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -3686,7 +3663,7 @@
         <v>2000000</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N3" s="6">
         <v>0</v>
@@ -3716,34 +3693,32 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -3752,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N4" s="6">
         <v>0</v>
@@ -3782,34 +3757,32 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A5" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G5" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -3818,14 +3791,14 @@
         <v>2000000</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N5" s="6">
         <v>0</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="14">
         <v>1</v>
@@ -3902,25 +3875,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="L1" s="27" t="s">
         <v>9</v>
@@ -3929,37 +3902,37 @@
         <v>10</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" s="29" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A2" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M2" s="14">
         <v>200</v>
@@ -3970,36 +3943,36 @@
     </row>
     <row r="3" s="29" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A3" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M3" s="14">
         <v>200</v>
@@ -4010,40 +3983,40 @@
     </row>
     <row r="4" s="29" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A4" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E4" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="M4" s="14">
         <v>200</v>
@@ -4099,16 +4072,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>115</v>
@@ -4120,7 +4093,7 @@
         <v>117</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>118</v>
@@ -4132,10 +4105,10 @@
         <v>10</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R1" s="11" t="s">
         <v>119</v>
@@ -4158,16 +4131,16 @@
         <v>123</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>124</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>125</v>
@@ -4179,7 +4152,7 @@
         <v>127</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M2" s="28" t="s">
         <v>128</v>
@@ -4191,10 +4164,10 @@
         <v>200</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q2" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R2" s="9">
         <v>3</v>
@@ -4270,10 +4243,10 @@
         <v>130</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>131</v>
@@ -4345,7 +4318,7 @@
         <v>10</v>
       </c>
       <c r="AE1" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
         <v>119</v>
@@ -4368,13 +4341,13 @@
         <v>152</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>153</v>
@@ -4398,11 +4371,11 @@
         <v>156</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S2" s="9">
         <v>1600000</v>
@@ -4429,10 +4402,10 @@
         <v>0</v>
       </c>
       <c r="AA2" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB2" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC2" s="8" t="s">
         <v>158</v>
@@ -4441,7 +4414,7 @@
         <v>200</v>
       </c>
       <c r="AE2" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF2" s="14">
         <v>3</v>
@@ -4464,13 +4437,13 @@
         <v>152</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H3" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>153</v>
@@ -4494,11 +4467,11 @@
         <v>156</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S3" s="9">
         <v>1600000</v>
@@ -4525,10 +4498,10 @@
         <v>0</v>
       </c>
       <c r="AA3" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB3" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC3" s="8" t="s">
         <v>158</v>
@@ -4537,7 +4510,7 @@
         <v>200</v>
       </c>
       <c r="AE3" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF3" s="14">
         <v>4</v>
@@ -4560,13 +4533,13 @@
         <v>152</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H4" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>153</v>
@@ -4590,11 +4563,11 @@
         <v>156</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S4" s="9">
         <v>1600000</v>
@@ -4621,10 +4594,10 @@
         <v>0</v>
       </c>
       <c r="AA4" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB4" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC4" s="8" t="s">
         <v>158</v>
@@ -4633,7 +4606,7 @@
         <v>200</v>
       </c>
       <c r="AE4" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF4" s="14">
         <v>4</v>
@@ -4656,13 +4629,13 @@
         <v>152</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>153</v>
@@ -4686,11 +4659,11 @@
         <v>156</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S5" s="9">
         <v>1600000</v>
@@ -4717,10 +4690,10 @@
         <v>0</v>
       </c>
       <c r="AA5" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB5" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC5" s="8" t="s">
         <v>158</v>
@@ -4729,7 +4702,7 @@
         <v>200</v>
       </c>
       <c r="AE5" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF5" s="14">
         <v>4</v>
@@ -4752,13 +4725,13 @@
         <v>152</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H6" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>153</v>
@@ -4782,11 +4755,11 @@
         <v>156</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S6" s="9">
         <v>1600000</v>
@@ -4813,10 +4786,10 @@
         <v>0</v>
       </c>
       <c r="AA6" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB6" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC6" s="8" t="s">
         <v>158</v>
@@ -4825,7 +4798,7 @@
         <v>200</v>
       </c>
       <c r="AE6" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF6" s="14">
         <v>1</v>
@@ -4898,10 +4871,10 @@
         <v>130</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>131</v>
@@ -4973,7 +4946,7 @@
         <v>10</v>
       </c>
       <c r="AE1" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
         <v>119</v>
@@ -4996,13 +4969,13 @@
         <v>152</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>168</v>
@@ -5026,11 +4999,11 @@
         <v>174</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S2" s="9">
         <v>1600000</v>
@@ -5057,10 +5030,10 @@
         <v>0</v>
       </c>
       <c r="AA2" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB2" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC2" s="8" t="s">
         <v>158</v>
@@ -5069,7 +5042,7 @@
         <v>200</v>
       </c>
       <c r="AE2" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF2" s="14">
         <v>3</v>
@@ -5092,13 +5065,13 @@
         <v>152</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H3" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>168</v>
@@ -5122,11 +5095,11 @@
         <v>174</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S3" s="9">
         <v>1600000</v>
@@ -5153,10 +5126,10 @@
         <v>0</v>
       </c>
       <c r="AA3" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB3" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC3" s="8" t="s">
         <v>158</v>
@@ -5165,7 +5138,7 @@
         <v>200</v>
       </c>
       <c r="AE3" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF3" s="14">
         <v>4</v>
@@ -5188,13 +5161,13 @@
         <v>152</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H4" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>168</v>
@@ -5218,11 +5191,11 @@
         <v>174</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S4" s="9">
         <v>1600000</v>
@@ -5249,10 +5222,10 @@
         <v>0</v>
       </c>
       <c r="AA4" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB4" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC4" s="8" t="s">
         <v>158</v>
@@ -5261,7 +5234,7 @@
         <v>200</v>
       </c>
       <c r="AE4" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF4" s="14">
         <v>4</v>
@@ -5284,13 +5257,13 @@
         <v>152</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>168</v>
@@ -5314,11 +5287,11 @@
         <v>174</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S5" s="9">
         <v>1600000</v>
@@ -5345,10 +5318,10 @@
         <v>0</v>
       </c>
       <c r="AA5" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB5" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC5" s="8" t="s">
         <v>158</v>
@@ -5357,7 +5330,7 @@
         <v>200</v>
       </c>
       <c r="AE5" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF5" s="14">
         <v>4</v>
@@ -5380,13 +5353,13 @@
         <v>152</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H6" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>168</v>
@@ -5410,11 +5383,11 @@
         <v>174</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S6" s="9">
         <v>1600000</v>
@@ -5441,10 +5414,10 @@
         <v>0</v>
       </c>
       <c r="AA6" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB6" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC6" s="8" t="s">
         <v>158</v>
@@ -5453,7 +5426,7 @@
         <v>200</v>
       </c>
       <c r="AE6" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF6" s="14">
         <v>1</v>
@@ -5526,10 +5499,10 @@
         <v>130</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>131</v>
@@ -5601,7 +5574,7 @@
         <v>10</v>
       </c>
       <c r="AE1" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
         <v>119</v>
@@ -5624,13 +5597,13 @@
         <v>152</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>180</v>
@@ -5654,11 +5627,11 @@
         <v>186</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S2" s="9">
         <v>1600000</v>
@@ -5685,10 +5658,10 @@
         <v>0</v>
       </c>
       <c r="AA2" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB2" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC2" s="8" t="s">
         <v>158</v>
@@ -5697,7 +5670,7 @@
         <v>200</v>
       </c>
       <c r="AE2" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF2" s="14">
         <v>3</v>
@@ -5720,13 +5693,13 @@
         <v>152</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H3" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>180</v>
@@ -5750,11 +5723,11 @@
         <v>186</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S3" s="9">
         <v>1600000</v>
@@ -5781,10 +5754,10 @@
         <v>0</v>
       </c>
       <c r="AA3" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB3" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC3" s="8" t="s">
         <v>158</v>
@@ -5793,7 +5766,7 @@
         <v>200</v>
       </c>
       <c r="AE3" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF3" s="14">
         <v>4</v>
@@ -5816,13 +5789,13 @@
         <v>152</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H4" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>180</v>
@@ -5846,11 +5819,11 @@
         <v>186</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S4" s="9">
         <v>1600000</v>
@@ -5877,10 +5850,10 @@
         <v>0</v>
       </c>
       <c r="AA4" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB4" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC4" s="8" t="s">
         <v>158</v>
@@ -5889,7 +5862,7 @@
         <v>200</v>
       </c>
       <c r="AE4" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF4" s="14">
         <v>4</v>
@@ -5912,13 +5885,13 @@
         <v>152</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>180</v>
@@ -5942,11 +5915,11 @@
         <v>186</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S5" s="9">
         <v>1600000</v>
@@ -5973,10 +5946,10 @@
         <v>0</v>
       </c>
       <c r="AA5" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB5" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC5" s="8" t="s">
         <v>158</v>
@@ -5985,7 +5958,7 @@
         <v>200</v>
       </c>
       <c r="AE5" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF5" s="14">
         <v>4</v>
@@ -6008,13 +5981,13 @@
         <v>152</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H6" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>180</v>
@@ -6038,11 +6011,11 @@
         <v>186</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S6" s="9">
         <v>1600000</v>
@@ -6069,10 +6042,10 @@
         <v>0</v>
       </c>
       <c r="AA6" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB6" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC6" s="8" t="s">
         <v>158</v>
@@ -6081,7 +6054,7 @@
         <v>200</v>
       </c>
       <c r="AE6" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF6" s="14">
         <v>1</v>
@@ -6154,10 +6127,10 @@
         <v>130</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>131</v>
@@ -6229,7 +6202,7 @@
         <v>10</v>
       </c>
       <c r="AE1" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
         <v>119</v>
@@ -6252,13 +6225,13 @@
         <v>152</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>192</v>
@@ -6282,11 +6255,11 @@
         <v>198</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S2" s="9">
         <v>1600000</v>
@@ -6313,10 +6286,10 @@
         <v>0</v>
       </c>
       <c r="AA2" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB2" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC2" s="8" t="s">
         <v>158</v>
@@ -6325,7 +6298,7 @@
         <v>200</v>
       </c>
       <c r="AE2" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF2" s="14">
         <v>3</v>
@@ -6348,13 +6321,13 @@
         <v>152</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H3" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>192</v>
@@ -6378,11 +6351,11 @@
         <v>198</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S3" s="9">
         <v>1600000</v>
@@ -6409,10 +6382,10 @@
         <v>0</v>
       </c>
       <c r="AA3" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB3" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC3" s="8" t="s">
         <v>158</v>
@@ -6421,7 +6394,7 @@
         <v>200</v>
       </c>
       <c r="AE3" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF3" s="14">
         <v>4</v>
@@ -6444,13 +6417,13 @@
         <v>152</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H4" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>192</v>
@@ -6474,11 +6447,11 @@
         <v>198</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S4" s="9">
         <v>1600000</v>
@@ -6505,10 +6478,10 @@
         <v>0</v>
       </c>
       <c r="AA4" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB4" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC4" s="8" t="s">
         <v>158</v>
@@ -6517,7 +6490,7 @@
         <v>200</v>
       </c>
       <c r="AE4" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF4" s="14">
         <v>4</v>
@@ -6540,13 +6513,13 @@
         <v>152</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>192</v>
@@ -6570,11 +6543,11 @@
         <v>198</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S5" s="9">
         <v>1600000</v>
@@ -6601,10 +6574,10 @@
         <v>0</v>
       </c>
       <c r="AA5" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB5" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC5" s="8" t="s">
         <v>158</v>
@@ -6613,7 +6586,7 @@
         <v>200</v>
       </c>
       <c r="AE5" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF5" s="14">
         <v>4</v>
@@ -6636,13 +6609,13 @@
         <v>152</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H6" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>192</v>
@@ -6666,11 +6639,11 @@
         <v>198</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S6" s="9">
         <v>1600000</v>
@@ -6697,10 +6670,10 @@
         <v>0</v>
       </c>
       <c r="AA6" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB6" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC6" s="8" t="s">
         <v>158</v>
@@ -6709,7 +6682,7 @@
         <v>200</v>
       </c>
       <c r="AE6" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF6" s="14">
         <v>1</v>
@@ -6783,10 +6756,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>203</v>
@@ -6926,7 +6899,7 @@
         <v>244</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>124</v>
@@ -7009,7 +6982,7 @@
         <v>252</v>
       </c>
       <c r="AR2" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AS2" s="8" t="s">
         <v>253</v>
@@ -7035,7 +7008,7 @@
         <v>244</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>124</v>
@@ -7118,7 +7091,7 @@
         <v>252</v>
       </c>
       <c r="AR3" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AS3" s="8" t="s">
         <v>253</v>
@@ -7144,7 +7117,7 @@
         <v>244</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>256</v>
@@ -7227,7 +7200,7 @@
         <v>252</v>
       </c>
       <c r="AR4" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AS4" s="8" t="s">
         <v>253</v>
@@ -7253,7 +7226,7 @@
         <v>244</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>260</v>
@@ -7336,7 +7309,7 @@
         <v>252</v>
       </c>
       <c r="AR5" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AS5" s="8" t="s">
         <v>253</v>
@@ -7362,7 +7335,7 @@
         <v>244</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>264</v>
@@ -7445,7 +7418,7 @@
         <v>252</v>
       </c>
       <c r="AR6" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AS6" s="8" t="s">
         <v>253</v>
@@ -7471,7 +7444,7 @@
         <v>269</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>124</v>
@@ -7576,7 +7549,7 @@
         <v>252</v>
       </c>
       <c r="AR7" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AS7" s="8" t="s">
         <v>253</v>
@@ -7601,7 +7574,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
@@ -7700,50 +7673,48 @@
       <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
       </c>
       <c r="L2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="9">
-        <v>0</v>
-      </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="S2" s="9">
         <v>1</v>
@@ -7754,58 +7725,56 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="J3" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
       </c>
       <c r="L3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="N3" s="9">
         <v>378</v>
       </c>
       <c r="O3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="S3" s="9">
         <v>1</v>
@@ -7865,22 +7834,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>272</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>204</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>9</v>
@@ -7889,66 +7858,66 @@
         <v>10</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A2" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>124</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="J2" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L2" s="14">
         <v>200</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N2" s="15" t="s">
         <v>247</v>
@@ -7963,43 +7932,43 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A3" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>256</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="J3" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L3" s="14">
         <v>200</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N3" s="15" t="s">
         <v>247</v>
@@ -8014,43 +7983,43 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A4" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>260</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="J4" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L4" s="14">
         <v>200</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N4" s="15" t="s">
         <v>247</v>
@@ -8065,43 +8034,43 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A5" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>264</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="J5" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L5" s="14">
         <v>200</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N5" s="15" t="s">
         <v>247</v>
@@ -8116,43 +8085,43 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A6" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>124</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="J6" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L6" s="14">
         <v>200</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N6" s="15" t="s">
         <v>247</v>
@@ -8168,7 +8137,7 @@
         <v>271</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -8182,7 +8151,7 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -8215,10 +8184,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>9</v>
@@ -8227,138 +8196,138 @@
         <v>10</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H2" s="14">
         <v>200</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H3" s="14">
         <v>200</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H4" s="14">
         <v>200</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H5" s="14">
         <v>200</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -8404,16 +8373,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>9</v>
@@ -8427,31 +8396,31 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J2" s="14">
         <v>200</v>
@@ -8472,7 +8441,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
@@ -8571,50 +8540,48 @@
       <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
       </c>
       <c r="L2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="9">
-        <v>0</v>
-      </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="S2" s="9">
         <v>1</v>
@@ -8625,58 +8592,56 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="J3" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
       </c>
       <c r="L3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="N3" s="9">
         <v>378</v>
       </c>
       <c r="O3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="S3" s="9">
         <v>1</v>
@@ -8697,7 +8662,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="2"/>
@@ -8796,50 +8761,48 @@
       <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
       </c>
       <c r="L2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="9">
-        <v>0</v>
-      </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="S2" s="9">
         <v>1</v>
@@ -8850,58 +8813,56 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="J3" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
       </c>
       <c r="L3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="N3" s="9">
         <v>378</v>
       </c>
       <c r="O3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="S3" s="9">
         <v>1</v>
@@ -8922,7 +8883,7 @@
   <dimension ref="A1:AL11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -8996,117 +8957,115 @@
         <v>10</v>
       </c>
       <c r="L1" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="N1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="O1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="P1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="Q1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="R1" s="34" t="s">
         <v>46</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>47</v>
       </c>
       <c r="S1" s="35" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="V1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="W1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="X1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="Y1" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="34" t="s">
+      <c r="Z1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="34" t="s">
+      <c r="AA1" s="37" t="s">
         <v>54</v>
-      </c>
-      <c r="AA1" s="37" t="s">
-        <v>55</v>
       </c>
       <c r="AB1" s="35" t="s">
         <v>19</v>
       </c>
       <c r="AC1" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AE1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="AF1" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="34" t="s">
+      <c r="AG1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="34" t="s">
+      <c r="AH1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="34" t="s">
+      <c r="AI1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="34" t="s">
+      <c r="AJ1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="34" t="s">
+      <c r="AK1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="34" t="s">
+      <c r="AL1" s="34" t="s">
         <v>64</v>
-      </c>
-      <c r="AL1" s="34" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
       <c r="A2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="24" t="s">
-        <v>28</v>
-      </c>
       <c r="J2" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -9121,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P2" s="6">
         <v>0</v>
@@ -9193,34 +9152,32 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
       <c r="A3" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="24" t="s">
-        <v>28</v>
-      </c>
       <c r="J3" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -9235,7 +9192,7 @@
         <v>2000000</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P3" s="6">
         <v>0</v>
@@ -9307,34 +9264,32 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
       <c r="A4" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="24" t="s">
-        <v>28</v>
-      </c>
       <c r="J4" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -9349,7 +9304,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P4" s="6">
         <v>0</v>
@@ -9421,34 +9376,32 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="24" t="s">
-        <v>28</v>
-      </c>
       <c r="J5" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -9463,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P5" s="6">
         <v>0</v>
@@ -9535,34 +9488,32 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
       <c r="A6" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="24" t="s">
-        <v>28</v>
-      </c>
       <c r="J6" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K6" s="9">
         <v>200</v>
@@ -9577,14 +9528,14 @@
         <v>2000000</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P6" s="6">
         <v>0</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="R6" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S6" s="14">
         <v>1</v>
@@ -9670,8 +9621,8 @@
   <sheetPr/>
   <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -9744,117 +9695,115 @@
         <v>10</v>
       </c>
       <c r="L1" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="N1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="O1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="P1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="Q1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="R1" s="34" t="s">
         <v>46</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>47</v>
       </c>
       <c r="S1" s="35" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="V1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="W1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="X1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="Y1" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="34" t="s">
+      <c r="Z1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="34" t="s">
+      <c r="AA1" s="37" t="s">
         <v>54</v>
-      </c>
-      <c r="AA1" s="37" t="s">
-        <v>55</v>
       </c>
       <c r="AB1" s="35" t="s">
         <v>19</v>
       </c>
       <c r="AC1" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AE1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="AF1" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="34" t="s">
+      <c r="AG1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="34" t="s">
+      <c r="AH1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="34" t="s">
+      <c r="AI1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="34" t="s">
+      <c r="AJ1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="34" t="s">
+      <c r="AK1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="34" t="s">
+      <c r="AL1" s="34" t="s">
         <v>64</v>
-      </c>
-      <c r="AL1" s="34" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="24" t="s">
-        <v>28</v>
-      </c>
       <c r="J2" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -9869,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P2" s="6">
         <v>0</v>
@@ -9941,34 +9890,32 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A3" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="24" t="s">
-        <v>28</v>
-      </c>
       <c r="J3" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -9983,7 +9930,7 @@
         <v>2000000</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P3" s="6">
         <v>0</v>
@@ -10055,34 +10002,32 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A4" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="24" t="s">
-        <v>28</v>
-      </c>
       <c r="J4" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -10097,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P4" s="6">
         <v>0</v>
@@ -10169,34 +10114,32 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A5" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="24" t="s">
-        <v>28</v>
-      </c>
       <c r="J5" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -10211,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P5" s="6">
         <v>0</v>
@@ -10220,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S5" s="14">
         <v>1</v>
@@ -10285,34 +10228,32 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A6" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="24" t="s">
-        <v>28</v>
-      </c>
       <c r="J6" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K6" s="9">
         <v>200</v>
@@ -10327,7 +10268,7 @@
         <v>2000000</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P6" s="6">
         <v>0</v>
@@ -10336,7 +10277,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S6" s="14">
         <v>1</v>
@@ -10417,8 +10358,8 @@
   <sheetPr/>
   <dimension ref="A1:AL9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -10491,117 +10432,115 @@
         <v>10</v>
       </c>
       <c r="L1" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="N1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="O1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="P1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="Q1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="R1" s="34" t="s">
         <v>46</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>47</v>
       </c>
       <c r="S1" s="35" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="V1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="W1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="X1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="Y1" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="34" t="s">
+      <c r="Z1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="34" t="s">
+      <c r="AA1" s="37" t="s">
         <v>54</v>
-      </c>
-      <c r="AA1" s="37" t="s">
-        <v>55</v>
       </c>
       <c r="AB1" s="35" t="s">
         <v>19</v>
       </c>
       <c r="AC1" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AE1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="AF1" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="34" t="s">
+      <c r="AG1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="34" t="s">
+      <c r="AH1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="34" t="s">
+      <c r="AI1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="34" t="s">
+      <c r="AJ1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="34" t="s">
+      <c r="AK1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="34" t="s">
+      <c r="AL1" s="34" t="s">
         <v>64</v>
-      </c>
-      <c r="AL1" s="34" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="24" t="s">
-        <v>28</v>
-      </c>
       <c r="J2" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -10616,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P2" s="6">
         <v>0</v>
@@ -10688,34 +10627,32 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A3" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="24" t="s">
-        <v>28</v>
-      </c>
       <c r="J3" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -10730,7 +10667,7 @@
         <v>2000000</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P3" s="6">
         <v>0</v>
@@ -10802,34 +10739,32 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A4" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="24" t="s">
-        <v>28</v>
-      </c>
       <c r="J4" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -10844,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P4" s="6">
         <v>0</v>
@@ -10916,34 +10851,32 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="24" t="s">
-        <v>28</v>
-      </c>
       <c r="J5" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -10958,14 +10891,14 @@
         <v>2000000</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P5" s="6">
         <v>0</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S5" s="14">
         <v>1</v>
@@ -11042,8 +10975,8 @@
   <sheetPr/>
   <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -11116,117 +11049,115 @@
         <v>10</v>
       </c>
       <c r="L1" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="N1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="O1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="P1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="Q1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="R1" s="34" t="s">
         <v>46</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>47</v>
       </c>
       <c r="S1" s="35" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="V1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="W1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="X1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="Y1" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="34" t="s">
+      <c r="Z1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="34" t="s">
+      <c r="AA1" s="37" t="s">
         <v>54</v>
-      </c>
-      <c r="AA1" s="37" t="s">
-        <v>55</v>
       </c>
       <c r="AB1" s="35" t="s">
         <v>19</v>
       </c>
       <c r="AC1" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AE1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="AF1" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="34" t="s">
+      <c r="AG1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="34" t="s">
+      <c r="AH1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="34" t="s">
+      <c r="AI1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="34" t="s">
+      <c r="AJ1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="34" t="s">
+      <c r="AK1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="34" t="s">
+      <c r="AL1" s="34" t="s">
         <v>64</v>
-      </c>
-      <c r="AL1" s="34" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="24" t="s">
-        <v>28</v>
-      </c>
       <c r="J2" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -11241,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P2" s="6">
         <v>0</v>
@@ -11314,34 +11245,32 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A3" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="24" t="s">
-        <v>28</v>
-      </c>
       <c r="J3" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -11356,7 +11285,7 @@
         <v>2000000</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P3" s="6">
         <v>0</v>
@@ -11429,34 +11358,32 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A4" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="24" t="s">
-        <v>28</v>
-      </c>
       <c r="J4" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -11471,7 +11398,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P4" s="6">
         <v>0</v>
@@ -11543,34 +11470,32 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="G5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="24" t="s">
-        <v>28</v>
-      </c>
       <c r="J5" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -11585,14 +11510,14 @@
         <v>2000000</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P5" s="6">
         <v>0</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S5" s="14">
         <v>1</v>
@@ -11674,7 +11599,7 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -11727,7 +11652,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -11736,37 +11661,37 @@
         <v>10</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M1" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="O1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="P1" s="34" t="s">
         <v>46</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>47</v>
       </c>
       <c r="Q1" s="35" t="s">
         <v>18</v>
       </c>
       <c r="R1" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="T1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="U1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="35" t="s">
-        <v>51</v>
-      </c>
       <c r="V1" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W1" s="34" t="s">
         <v>19</v>
@@ -11774,34 +11699,32 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A2" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="I2" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -11810,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N2" s="6">
         <v>0</v>
@@ -11841,34 +11764,32 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A3" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="I3" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -11877,7 +11798,7 @@
         <v>2000000</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N3" s="6">
         <v>0</v>
@@ -11908,34 +11829,32 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="I4" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -11944,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N4" s="6">
         <v>0</v>
@@ -11975,34 +11894,32 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="I5" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -12011,7 +11928,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N5" s="6">
         <v>0</v>
@@ -12044,34 +11961,32 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="I6" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K6" s="9">
         <v>200</v>
@@ -12080,14 +11995,14 @@
         <v>2000000</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N6" s="6">
         <v>0</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="14">
         <v>1</v>

--- a/src/main/resources/input_excel_file/booking/CICO.xlsx
+++ b/src/main/resources/input_excel_file/booking/CICO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="6" activeTab="11"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="16" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Booking_By_Bag_Player1" sheetId="1" r:id="rId1"/>
@@ -3467,8 +3467,8 @@
   <sheetPr/>
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -7795,7 +7795,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
@@ -8152,7 +8152,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="4"/>
@@ -8341,8 +8341,8 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>

--- a/src/main/resources/input_excel_file/booking/CICO.xlsx
+++ b/src/main/resources/input_excel_file/booking/CICO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="16" activeTab="21"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Booking_By_Bag_Player1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="326">
   <si>
     <t>tc_id</t>
   </si>
@@ -317,6 +317,15 @@
   </si>
   <si>
     <t>{}</t>
+  </si>
+  <si>
+    <t>VST_FEE_OF_BAG_APPLY_VOUCHER_001</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra thông tin phí của bag khi apply voucher</t>
+  </si>
+  <si>
+    <t>VST_FEE_OF_BAG_APPLY_VOUCHER_002</t>
   </si>
   <si>
     <t>VST_BAG_SUB_001</t>
@@ -2711,7 +2720,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -2755,7 +2764,7 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A2" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>66</v>
@@ -2780,7 +2789,7 @@
         <v>68</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -2819,7 +2828,7 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>70</v>
@@ -2844,7 +2853,7 @@
         <v>68</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -2883,7 +2892,7 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A4" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>72</v>
@@ -2908,7 +2917,7 @@
         <v>68</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -2947,7 +2956,7 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>72</v>
@@ -2972,7 +2981,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -3013,7 +3022,7 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A6" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>76</v>
@@ -3038,7 +3047,7 @@
         <v>68</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K6" s="9">
         <v>200</v>
@@ -3150,7 +3159,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -3194,7 +3203,7 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A2" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>66</v>
@@ -3219,7 +3228,7 @@
         <v>68</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -3258,7 +3267,7 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>70</v>
@@ -3283,7 +3292,7 @@
         <v>68</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -3322,7 +3331,7 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A4" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>72</v>
@@ -3347,7 +3356,7 @@
         <v>68</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -3386,7 +3395,7 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A5" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>76</v>
@@ -3411,7 +3420,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -3521,7 +3530,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -3565,7 +3574,7 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A2" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>66</v>
@@ -3581,7 +3590,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>26</v>
@@ -3590,7 +3599,7 @@
         <v>68</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -3629,7 +3638,7 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>70</v>
@@ -3645,7 +3654,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>26</v>
@@ -3654,7 +3663,7 @@
         <v>68</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -3693,7 +3702,7 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A4" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>72</v>
@@ -3709,7 +3718,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>26</v>
@@ -3718,7 +3727,7 @@
         <v>68</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -3757,7 +3766,7 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A5" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>76</v>
@@ -3773,7 +3782,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>26</v>
@@ -3782,7 +3791,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -3875,25 +3884,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L1" s="27" t="s">
         <v>9</v>
@@ -3902,37 +3911,37 @@
         <v>10</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" s="29" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A2" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M2" s="14">
         <v>200</v>
@@ -3943,36 +3952,36 @@
     </row>
     <row r="3" s="29" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A3" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M3" s="14">
         <v>200</v>
@@ -3983,40 +3992,40 @@
     </row>
     <row r="4" s="29" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A4" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="I4" s="14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M4" s="14">
         <v>200</v>
@@ -4072,31 +4081,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N1" s="27" t="s">
         <v>9</v>
@@ -4111,24 +4120,24 @@
         <v>43</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:19">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>23</v>
@@ -4137,28 +4146,28 @@
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O2" s="9">
         <v>200</v>
@@ -4240,76 +4249,76 @@
         <v>3</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AB1" s="23" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>9</v>
@@ -4321,24 +4330,24 @@
         <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A2" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -4347,28 +4356,28 @@
         <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>68</v>
@@ -4393,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y2" s="9">
         <v>0</v>
@@ -4408,7 +4417,7 @@
         <v>68</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD2" s="14">
         <v>200</v>
@@ -4422,19 +4431,19 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A3" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -4443,28 +4452,28 @@
         <v>24</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P3" s="24" t="s">
         <v>68</v>
@@ -4489,7 +4498,7 @@
         <v>400000</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y3" s="9">
         <v>0</v>
@@ -4504,7 +4513,7 @@
         <v>68</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD3" s="14">
         <v>200</v>
@@ -4518,19 +4527,19 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A4" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -4539,28 +4548,28 @@
         <v>24</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P4" s="24" t="s">
         <v>68</v>
@@ -4585,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y4" s="9">
         <v>0</v>
@@ -4600,7 +4609,7 @@
         <v>68</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD4" s="14">
         <v>200</v>
@@ -4614,19 +4623,19 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A5" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>23</v>
@@ -4635,28 +4644,28 @@
         <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P5" s="24" t="s">
         <v>68</v>
@@ -4681,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y5" s="9">
         <v>0</v>
@@ -4696,7 +4705,7 @@
         <v>68</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD5" s="14">
         <v>200</v>
@@ -4710,19 +4719,19 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A6" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>23</v>
@@ -4731,28 +4740,28 @@
         <v>24</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P6" s="24" t="s">
         <v>68</v>
@@ -4777,7 +4786,7 @@
         <v>400000</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y6" s="9">
         <v>0</v>
@@ -4792,7 +4801,7 @@
         <v>68</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD6" s="14">
         <v>200</v>
@@ -4868,76 +4877,76 @@
         <v>3</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AB1" s="23" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>9</v>
@@ -4949,24 +4958,24 @@
         <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A2" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -4975,28 +4984,28 @@
         <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>68</v>
@@ -5021,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y2" s="9">
         <v>0</v>
@@ -5036,7 +5045,7 @@
         <v>68</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD2" s="14">
         <v>200</v>
@@ -5050,19 +5059,19 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A3" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -5071,28 +5080,28 @@
         <v>24</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P3" s="24" t="s">
         <v>68</v>
@@ -5117,7 +5126,7 @@
         <v>400000</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y3" s="9">
         <v>0</v>
@@ -5132,7 +5141,7 @@
         <v>68</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD3" s="14">
         <v>200</v>
@@ -5146,19 +5155,19 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A4" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -5167,28 +5176,28 @@
         <v>24</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P4" s="24" t="s">
         <v>68</v>
@@ -5213,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y4" s="9">
         <v>0</v>
@@ -5228,7 +5237,7 @@
         <v>68</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD4" s="14">
         <v>200</v>
@@ -5242,19 +5251,19 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A5" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>23</v>
@@ -5263,28 +5272,28 @@
         <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P5" s="24" t="s">
         <v>68</v>
@@ -5309,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y5" s="9">
         <v>0</v>
@@ -5324,7 +5333,7 @@
         <v>68</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD5" s="14">
         <v>200</v>
@@ -5338,19 +5347,19 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A6" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>23</v>
@@ -5359,28 +5368,28 @@
         <v>24</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P6" s="24" t="s">
         <v>68</v>
@@ -5405,7 +5414,7 @@
         <v>400000</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y6" s="9">
         <v>0</v>
@@ -5420,7 +5429,7 @@
         <v>68</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD6" s="14">
         <v>200</v>
@@ -5496,76 +5505,76 @@
         <v>3</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AB1" s="23" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>9</v>
@@ -5577,24 +5586,24 @@
         <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A2" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -5603,28 +5612,28 @@
         <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>68</v>
@@ -5649,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y2" s="9">
         <v>0</v>
@@ -5664,7 +5673,7 @@
         <v>68</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD2" s="14">
         <v>200</v>
@@ -5678,19 +5687,19 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A3" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -5699,28 +5708,28 @@
         <v>24</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P3" s="24" t="s">
         <v>68</v>
@@ -5745,7 +5754,7 @@
         <v>400000</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y3" s="9">
         <v>0</v>
@@ -5760,7 +5769,7 @@
         <v>68</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD3" s="14">
         <v>200</v>
@@ -5774,19 +5783,19 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A4" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -5795,28 +5804,28 @@
         <v>24</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P4" s="24" t="s">
         <v>68</v>
@@ -5841,7 +5850,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y4" s="9">
         <v>0</v>
@@ -5856,7 +5865,7 @@
         <v>68</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD4" s="14">
         <v>200</v>
@@ -5870,19 +5879,19 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A5" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>23</v>
@@ -5891,28 +5900,28 @@
         <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P5" s="24" t="s">
         <v>68</v>
@@ -5937,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y5" s="9">
         <v>0</v>
@@ -5952,7 +5961,7 @@
         <v>68</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD5" s="14">
         <v>200</v>
@@ -5966,19 +5975,19 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A6" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>23</v>
@@ -5987,28 +5996,28 @@
         <v>24</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P6" s="24" t="s">
         <v>68</v>
@@ -6033,7 +6042,7 @@
         <v>400000</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y6" s="9">
         <v>0</v>
@@ -6048,7 +6057,7 @@
         <v>68</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD6" s="14">
         <v>200</v>
@@ -6124,76 +6133,76 @@
         <v>3</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AB1" s="23" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>9</v>
@@ -6205,24 +6214,24 @@
         <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A2" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -6231,28 +6240,28 @@
         <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>68</v>
@@ -6277,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y2" s="9">
         <v>0</v>
@@ -6292,7 +6301,7 @@
         <v>68</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD2" s="14">
         <v>200</v>
@@ -6306,19 +6315,19 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A3" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -6327,28 +6336,28 @@
         <v>24</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P3" s="24" t="s">
         <v>68</v>
@@ -6373,7 +6382,7 @@
         <v>400000</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y3" s="9">
         <v>0</v>
@@ -6388,7 +6397,7 @@
         <v>68</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD3" s="14">
         <v>200</v>
@@ -6402,19 +6411,19 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A4" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -6423,28 +6432,28 @@
         <v>24</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P4" s="24" t="s">
         <v>68</v>
@@ -6469,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y4" s="9">
         <v>0</v>
@@ -6484,7 +6493,7 @@
         <v>68</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD4" s="14">
         <v>200</v>
@@ -6498,19 +6507,19 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A5" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>23</v>
@@ -6519,28 +6528,28 @@
         <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P5" s="24" t="s">
         <v>68</v>
@@ -6565,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y5" s="9">
         <v>0</v>
@@ -6580,7 +6589,7 @@
         <v>68</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD5" s="14">
         <v>200</v>
@@ -6594,19 +6603,19 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A6" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>23</v>
@@ -6615,28 +6624,28 @@
         <v>24</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P6" s="24" t="s">
         <v>68</v>
@@ -6661,7 +6670,7 @@
         <v>400000</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y6" s="9">
         <v>0</v>
@@ -6676,7 +6685,7 @@
         <v>68</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD6" s="14">
         <v>200</v>
@@ -6756,124 +6765,124 @@
         <v>3</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="U1" s="18" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="W1" s="18" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="X1" s="18" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Y1" s="18" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AA1" s="19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AB1" s="19" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AD1" s="19" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AE1" s="19" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AF1" s="19" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AG1" s="19" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AH1" s="19" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AI1" s="19" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AJ1" s="19" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AK1" s="19" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AL1" s="19" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AM1" s="19" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AN1" s="19" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AO1" s="19" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AP1" s="18" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AQ1" s="18" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AR1" s="20" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AS1" s="10" t="s">
         <v>9</v>
@@ -6882,37 +6891,37 @@
         <v>10</v>
       </c>
       <c r="AU1" s="12" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A2" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K2" s="5">
         <v>1600000</v>
@@ -6924,34 +6933,34 @@
         <v>1600000</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q2" s="5">
         <v>0</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="V2" s="5">
         <v>0</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
@@ -6967,25 +6976,25 @@
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AR2" s="21" t="s">
         <v>68</v>
       </c>
       <c r="AS2" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AT2" s="14">
         <v>200</v>
@@ -6996,32 +7005,32 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A3" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K3" s="5">
         <v>8800000</v>
@@ -7033,34 +7042,34 @@
         <v>1600000</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q3" s="5">
         <v>0</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="V3" s="5">
         <v>0</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
@@ -7076,25 +7085,25 @@
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
       <c r="AM3" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AR3" s="21" t="s">
         <v>68</v>
       </c>
       <c r="AS3" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AT3" s="14">
         <v>200</v>
@@ -7105,32 +7114,32 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A4" s="5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K4" s="5">
         <v>1600000</v>
@@ -7142,34 +7151,34 @@
         <v>1600000</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="5">
         <v>0</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="V4" s="5">
         <v>0</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
@@ -7185,25 +7194,25 @@
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
       <c r="AM4" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AN4" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AO4" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AP4" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AQ4" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AR4" s="21" t="s">
         <v>68</v>
       </c>
       <c r="AS4" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AT4" s="14">
         <v>200</v>
@@ -7214,32 +7223,32 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A5" s="5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K5" s="5">
         <v>1600000</v>
@@ -7251,34 +7260,34 @@
         <v>1600000</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q5" s="5">
         <v>0</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="V5" s="5">
         <v>0</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
@@ -7294,25 +7303,25 @@
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
       <c r="AM5" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AN5" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AO5" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AP5" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AQ5" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AR5" s="21" t="s">
         <v>68</v>
       </c>
       <c r="AS5" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AT5" s="14">
         <v>200</v>
@@ -7323,32 +7332,32 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A6" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K6" s="5">
         <v>1600000</v>
@@ -7360,34 +7369,34 @@
         <v>1600000</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q6" s="5">
         <v>0</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="V6" s="5">
         <v>0</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
@@ -7403,25 +7412,25 @@
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
       <c r="AM6" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AN6" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AO6" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AQ6" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AR6" s="21" t="s">
         <v>68</v>
       </c>
       <c r="AS6" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AT6" s="14">
         <v>200</v>
@@ -7432,32 +7441,32 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A7" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K7" s="5">
         <v>100000</v>
@@ -7469,90 +7478,90 @@
         <v>100000</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="5">
         <v>0</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="V7" s="5">
         <v>0</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AA7" s="5">
         <v>200000</v>
       </c>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5">
         <v>200000</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AG7" s="5">
         <v>0</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AI7" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AJ7" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AL7" s="5">
         <v>0</v>
       </c>
       <c r="AM7" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AN7" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AO7" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AP7" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AQ7" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AR7" s="21" t="s">
         <v>68</v>
       </c>
       <c r="AS7" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AT7" s="14">
         <v>200</v>
@@ -7834,22 +7843,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>9</v>
@@ -7858,48 +7867,48 @@
         <v>10</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A2" s="5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>23</v>
@@ -7911,16 +7920,16 @@
         <v>26</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L2" s="14">
         <v>200</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="O2" s="15"/>
       <c r="P2" s="5">
@@ -7932,25 +7941,25 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A3" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>23</v>
@@ -7962,16 +7971,16 @@
         <v>26</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L3" s="14">
         <v>200</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="5">
@@ -7983,25 +7992,25 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A4" s="5" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>23</v>
@@ -8013,16 +8022,16 @@
         <v>26</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L4" s="14">
         <v>200</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="5">
@@ -8034,25 +8043,25 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A5" s="5" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>23</v>
@@ -8064,16 +8073,16 @@
         <v>26</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L5" s="14">
         <v>200</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="5">
@@ -8085,25 +8094,25 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A6" s="5" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>23</v>
@@ -8115,29 +8124,29 @@
         <v>26</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L6" s="14">
         <v>200</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="5">
         <v>100000</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -8184,10 +8193,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>9</v>
@@ -8196,33 +8205,33 @@
         <v>10</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H2" s="14">
         <v>200</v>
@@ -8231,30 +8240,30 @@
         <v>31</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H3" s="14">
         <v>200</v>
@@ -8263,30 +8272,30 @@
         <v>31</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H4" s="14">
         <v>200</v>
@@ -8295,30 +8304,30 @@
         <v>31</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H5" s="14">
         <v>200</v>
@@ -8327,7 +8336,7 @@
         <v>31</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -8341,7 +8350,7 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -8373,16 +8382,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>9</v>
@@ -8391,36 +8400,36 @@
         <v>10</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J2" s="14">
         <v>200</v>
@@ -8882,8 +8891,8 @@
   <sheetPr/>
   <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -9598,14 +9607,229 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="9:15">
-      <c r="I7" s="16"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="16"/>
+    <row r="7" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
+      <c r="A7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="9">
+        <v>200</v>
+      </c>
+      <c r="L7" s="14">
+        <v>1800000</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>1800000</v>
+      </c>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14">
+        <v>1</v>
+      </c>
+      <c r="T7" s="14">
+        <v>800000</v>
+      </c>
+      <c r="U7" s="14">
+        <v>400000</v>
+      </c>
+      <c r="V7" s="14">
+        <v>200000</v>
+      </c>
+      <c r="W7" s="14">
+        <v>200000</v>
+      </c>
+      <c r="X7" s="14">
+        <v>800000</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>400000</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="14">
+        <v>800000</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="14">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
+      <c r="A8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="9">
+        <v>200</v>
+      </c>
+      <c r="L8" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14">
+        <v>1</v>
+      </c>
+      <c r="T8" s="14">
+        <v>800000</v>
+      </c>
+      <c r="U8" s="14">
+        <v>400000</v>
+      </c>
+      <c r="V8" s="14">
+        <v>200000</v>
+      </c>
+      <c r="W8" s="14">
+        <v>200000</v>
+      </c>
+      <c r="X8" s="14">
+        <v>800000</v>
+      </c>
+      <c r="Y8" s="14">
+        <v>400000</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="14">
+        <v>800000</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="AE8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="14">
+        <v>1200000</v>
+      </c>
     </row>
     <row r="11" customHeight="1" spans="12:12">
       <c r="L11" s="36"/>
@@ -10114,7 +10338,7 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>72</v>
@@ -11652,7 +11876,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -11699,7 +11923,7 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A2" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>66</v>
@@ -11724,7 +11948,7 @@
         <v>68</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -11764,7 +11988,7 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A3" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>70</v>
@@ -11789,7 +12013,7 @@
         <v>68</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -11829,7 +12053,7 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A4" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>72</v>
@@ -11854,7 +12078,7 @@
         <v>68</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -11919,7 +12143,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -11961,7 +12185,7 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A6" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>76</v>
@@ -11986,7 +12210,7 @@
         <v>68</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K6" s="9">
         <v>200</v>

--- a/src/main/resources/input_excel_file/booking/CICO.xlsx
+++ b/src/main/resources/input_excel_file/booking/CICO.xlsx
@@ -8892,7 +8892,7 @@
   <dimension ref="A1:AL11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -9640,7 +9640,7 @@
         <v>200</v>
       </c>
       <c r="L7" s="14">
-        <v>1800000</v>
+        <v>1600000</v>
       </c>
       <c r="M7" s="6">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="14">
-        <v>1800000</v>
+        <v>1600000</v>
       </c>
       <c r="R7" s="14"/>
       <c r="S7" s="14">
@@ -9689,34 +9689,34 @@
         <v>2</v>
       </c>
       <c r="AC7" s="14">
-        <v>800000</v>
+        <v>400000</v>
       </c>
       <c r="AD7" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="14">
         <v>1600000</v>
-      </c>
-      <c r="AE7" s="14">
-        <v>600000</v>
-      </c>
-      <c r="AF7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="14">
-        <v>1800000</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">

--- a/src/main/resources/input_excel_file/booking/CICO.xlsx
+++ b/src/main/resources/input_excel_file/booking/CICO.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="331">
   <si>
     <t>tc_id</t>
   </si>
@@ -277,16 +277,31 @@
     <t>assert_total_service_fee.total</t>
   </si>
   <si>
+    <t>VST_001</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra giá sau khi check in</t>
+  </si>
+  <si>
+    <t>fee_of_bag_expect.json</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Apply voucher giảm 200k green</t>
+  </si>
+  <si>
+    <t>VST_VC_GREEN_001</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra giá sau khi check in có add voucher</t>
+  </si>
+  <si>
     <t>VST_FEE_OF_BAG_001</t>
   </si>
   <si>
     <t>VST_Kiểm tra thông tin phí của bag khi add 2 item proshop</t>
-  </si>
-  <si>
-    <t>fee_of_bag_expect.json</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
   <si>
     <t>AG_FEE_OF_BAG_001</t>
@@ -1263,7 +1278,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1297,6 +1312,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1671,7 +1692,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1695,16 +1716,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1713,89 +1734,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1909,6 +1930,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2720,7 +2762,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -2764,10 +2806,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A2" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -2789,7 +2831,7 @@
         <v>68</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -2828,10 +2870,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -2853,7 +2895,7 @@
         <v>68</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -2892,10 +2934,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -2917,7 +2959,7 @@
         <v>68</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -2956,10 +2998,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A5" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -2981,7 +3023,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -2999,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="14">
         <v>1</v>
@@ -3022,10 +3064,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>22</v>
@@ -3047,7 +3089,7 @@
         <v>68</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K6" s="9">
         <v>200</v>
@@ -3065,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Q6" s="14">
         <v>1</v>
@@ -3159,7 +3201,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -3203,10 +3245,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A2" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -3228,7 +3270,7 @@
         <v>68</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -3267,10 +3309,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -3292,7 +3334,7 @@
         <v>68</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -3331,10 +3373,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -3356,7 +3398,7 @@
         <v>68</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -3395,10 +3437,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A5" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -3420,7 +3462,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -3436,7 +3478,7 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="14">
         <v>1</v>
@@ -3530,7 +3572,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -3574,10 +3616,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A2" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -3590,7 +3632,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>26</v>
@@ -3599,7 +3641,7 @@
         <v>68</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -3638,10 +3680,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -3654,7 +3696,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>26</v>
@@ -3663,7 +3705,7 @@
         <v>68</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -3702,10 +3744,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -3718,7 +3760,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>26</v>
@@ -3727,7 +3769,7 @@
         <v>68</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -3766,10 +3808,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A5" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -3782,7 +3824,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>26</v>
@@ -3791,7 +3833,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -3807,7 +3849,7 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="14">
         <v>1</v>
@@ -3884,25 +3926,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L1" s="27" t="s">
         <v>9</v>
@@ -3911,37 +3953,37 @@
         <v>10</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" s="29" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A2" s="6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M2" s="14">
         <v>200</v>
@@ -3952,36 +3994,36 @@
     </row>
     <row r="3" s="29" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A3" s="6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="G3" s="14" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H3" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M3" s="14">
         <v>200</v>
@@ -3992,40 +4034,40 @@
     </row>
     <row r="4" s="29" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A4" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H4" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>104</v>
-      </c>
       <c r="J4" s="14" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M4" s="14">
         <v>200</v>
@@ -4081,31 +4123,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="N1" s="27" t="s">
         <v>9</v>
@@ -4120,24 +4162,24 @@
         <v>43</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:19">
       <c r="A2" s="5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>23</v>
@@ -4146,28 +4188,28 @@
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="O2" s="9">
         <v>200</v>
@@ -4249,76 +4291,76 @@
         <v>3</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AB1" s="23" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>9</v>
@@ -4330,24 +4372,24 @@
         <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A2" s="5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -4356,28 +4398,28 @@
         <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>68</v>
@@ -4402,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Y2" s="9">
         <v>0</v>
@@ -4417,7 +4459,7 @@
         <v>68</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AD2" s="14">
         <v>200</v>
@@ -4431,19 +4473,19 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A3" s="5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -4452,28 +4494,28 @@
         <v>24</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P3" s="24" t="s">
         <v>68</v>
@@ -4498,7 +4540,7 @@
         <v>400000</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Y3" s="9">
         <v>0</v>
@@ -4513,7 +4555,7 @@
         <v>68</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AD3" s="14">
         <v>200</v>
@@ -4527,19 +4569,19 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A4" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -4548,28 +4590,28 @@
         <v>24</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P4" s="24" t="s">
         <v>68</v>
@@ -4594,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Y4" s="9">
         <v>0</v>
@@ -4609,7 +4651,7 @@
         <v>68</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AD4" s="14">
         <v>200</v>
@@ -4623,19 +4665,19 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A5" s="5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>23</v>
@@ -4644,28 +4686,28 @@
         <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P5" s="24" t="s">
         <v>68</v>
@@ -4690,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Y5" s="9">
         <v>0</v>
@@ -4705,7 +4747,7 @@
         <v>68</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AD5" s="14">
         <v>200</v>
@@ -4719,19 +4761,19 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A6" s="5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>23</v>
@@ -4740,28 +4782,28 @@
         <v>24</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P6" s="24" t="s">
         <v>68</v>
@@ -4786,7 +4828,7 @@
         <v>400000</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Y6" s="9">
         <v>0</v>
@@ -4801,7 +4843,7 @@
         <v>68</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AD6" s="14">
         <v>200</v>
@@ -4877,76 +4919,76 @@
         <v>3</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AB1" s="23" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>9</v>
@@ -4958,24 +5000,24 @@
         <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A2" s="5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -4984,28 +5026,28 @@
         <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>68</v>
@@ -5030,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Y2" s="9">
         <v>0</v>
@@ -5045,7 +5087,7 @@
         <v>68</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AD2" s="14">
         <v>200</v>
@@ -5059,19 +5101,19 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A3" s="5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -5080,28 +5122,28 @@
         <v>24</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P3" s="24" t="s">
         <v>68</v>
@@ -5126,7 +5168,7 @@
         <v>400000</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Y3" s="9">
         <v>0</v>
@@ -5141,7 +5183,7 @@
         <v>68</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AD3" s="14">
         <v>200</v>
@@ -5155,19 +5197,19 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A4" s="5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -5176,28 +5218,28 @@
         <v>24</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P4" s="24" t="s">
         <v>68</v>
@@ -5222,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Y4" s="9">
         <v>0</v>
@@ -5237,7 +5279,7 @@
         <v>68</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AD4" s="14">
         <v>200</v>
@@ -5251,19 +5293,19 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A5" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>23</v>
@@ -5272,28 +5314,28 @@
         <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P5" s="24" t="s">
         <v>68</v>
@@ -5318,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Y5" s="9">
         <v>0</v>
@@ -5333,7 +5375,7 @@
         <v>68</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AD5" s="14">
         <v>200</v>
@@ -5347,19 +5389,19 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A6" s="5" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>23</v>
@@ -5368,28 +5410,28 @@
         <v>24</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P6" s="24" t="s">
         <v>68</v>
@@ -5414,7 +5456,7 @@
         <v>400000</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Y6" s="9">
         <v>0</v>
@@ -5429,7 +5471,7 @@
         <v>68</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AD6" s="14">
         <v>200</v>
@@ -5505,76 +5547,76 @@
         <v>3</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AB1" s="23" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>9</v>
@@ -5586,24 +5628,24 @@
         <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A2" s="5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -5612,28 +5654,28 @@
         <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>68</v>
@@ -5658,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Y2" s="9">
         <v>0</v>
@@ -5673,7 +5715,7 @@
         <v>68</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AD2" s="14">
         <v>200</v>
@@ -5687,19 +5729,19 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A3" s="5" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -5708,28 +5750,28 @@
         <v>24</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P3" s="24" t="s">
         <v>68</v>
@@ -5754,7 +5796,7 @@
         <v>400000</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Y3" s="9">
         <v>0</v>
@@ -5769,7 +5811,7 @@
         <v>68</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AD3" s="14">
         <v>200</v>
@@ -5783,19 +5825,19 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A4" s="5" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -5804,28 +5846,28 @@
         <v>24</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P4" s="24" t="s">
         <v>68</v>
@@ -5850,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Y4" s="9">
         <v>0</v>
@@ -5865,7 +5907,7 @@
         <v>68</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AD4" s="14">
         <v>200</v>
@@ -5879,19 +5921,19 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A5" s="5" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>23</v>
@@ -5900,28 +5942,28 @@
         <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P5" s="24" t="s">
         <v>68</v>
@@ -5946,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Y5" s="9">
         <v>0</v>
@@ -5961,7 +6003,7 @@
         <v>68</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AD5" s="14">
         <v>200</v>
@@ -5975,19 +6017,19 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A6" s="5" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>23</v>
@@ -5996,28 +6038,28 @@
         <v>24</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P6" s="24" t="s">
         <v>68</v>
@@ -6042,7 +6084,7 @@
         <v>400000</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Y6" s="9">
         <v>0</v>
@@ -6057,7 +6099,7 @@
         <v>68</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AD6" s="14">
         <v>200</v>
@@ -6133,76 +6175,76 @@
         <v>3</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AB1" s="23" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>9</v>
@@ -6214,24 +6256,24 @@
         <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A2" s="5" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -6240,28 +6282,28 @@
         <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>68</v>
@@ -6286,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Y2" s="9">
         <v>0</v>
@@ -6301,7 +6343,7 @@
         <v>68</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AD2" s="14">
         <v>200</v>
@@ -6315,19 +6357,19 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A3" s="5" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -6336,28 +6378,28 @@
         <v>24</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P3" s="24" t="s">
         <v>68</v>
@@ -6382,7 +6424,7 @@
         <v>400000</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Y3" s="9">
         <v>0</v>
@@ -6397,7 +6439,7 @@
         <v>68</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AD3" s="14">
         <v>200</v>
@@ -6411,19 +6453,19 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A4" s="5" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -6432,28 +6474,28 @@
         <v>24</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P4" s="24" t="s">
         <v>68</v>
@@ -6478,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Y4" s="9">
         <v>0</v>
@@ -6493,7 +6535,7 @@
         <v>68</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AD4" s="14">
         <v>200</v>
@@ -6507,19 +6549,19 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A5" s="5" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>23</v>
@@ -6528,28 +6570,28 @@
         <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P5" s="24" t="s">
         <v>68</v>
@@ -6574,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Y5" s="9">
         <v>0</v>
@@ -6589,7 +6631,7 @@
         <v>68</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AD5" s="14">
         <v>200</v>
@@ -6603,19 +6645,19 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A6" s="5" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>23</v>
@@ -6624,28 +6666,28 @@
         <v>24</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P6" s="24" t="s">
         <v>68</v>
@@ -6670,7 +6712,7 @@
         <v>400000</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Y6" s="9">
         <v>0</v>
@@ -6685,7 +6727,7 @@
         <v>68</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AD6" s="14">
         <v>200</v>
@@ -6765,124 +6807,124 @@
         <v>3</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="U1" s="18" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="W1" s="18" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="X1" s="18" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Y1" s="18" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AA1" s="19" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="AB1" s="19" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AD1" s="19" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AE1" s="19" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="AF1" s="19" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="AG1" s="19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AH1" s="19" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AI1" s="19" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AJ1" s="19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AK1" s="19" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="AL1" s="19" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AM1" s="19" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AN1" s="19" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AO1" s="19" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AP1" s="18" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AQ1" s="18" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AR1" s="20" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AS1" s="10" t="s">
         <v>9</v>
@@ -6891,37 +6933,37 @@
         <v>10</v>
       </c>
       <c r="AU1" s="12" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A2" s="5" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K2" s="5">
         <v>1600000</v>
@@ -6933,34 +6975,34 @@
         <v>1600000</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q2" s="5">
         <v>0</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="V2" s="5">
         <v>0</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
@@ -6976,25 +7018,25 @@
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AR2" s="21" t="s">
         <v>68</v>
       </c>
       <c r="AS2" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="AT2" s="14">
         <v>200</v>
@@ -7005,32 +7047,32 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A3" s="5" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K3" s="5">
         <v>8800000</v>
@@ -7042,34 +7084,34 @@
         <v>1600000</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q3" s="5">
         <v>0</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="V3" s="5">
         <v>0</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
@@ -7085,25 +7127,25 @@
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
       <c r="AM3" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AR3" s="21" t="s">
         <v>68</v>
       </c>
       <c r="AS3" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="AT3" s="14">
         <v>200</v>
@@ -7114,32 +7156,32 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A4" s="5" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K4" s="5">
         <v>1600000</v>
@@ -7151,34 +7193,34 @@
         <v>1600000</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="5">
         <v>0</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="V4" s="5">
         <v>0</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
@@ -7194,25 +7236,25 @@
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
       <c r="AM4" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AN4" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AO4" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AP4" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AQ4" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AR4" s="21" t="s">
         <v>68</v>
       </c>
       <c r="AS4" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="AT4" s="14">
         <v>200</v>
@@ -7223,32 +7265,32 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A5" s="5" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K5" s="5">
         <v>1600000</v>
@@ -7260,34 +7302,34 @@
         <v>1600000</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="5">
         <v>0</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="V5" s="5">
         <v>0</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
@@ -7303,25 +7345,25 @@
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
       <c r="AM5" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AN5" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AO5" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AP5" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AQ5" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AR5" s="21" t="s">
         <v>68</v>
       </c>
       <c r="AS5" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="AT5" s="14">
         <v>200</v>
@@ -7332,32 +7374,32 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A6" s="5" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K6" s="5">
         <v>1600000</v>
@@ -7369,34 +7411,34 @@
         <v>1600000</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q6" s="5">
         <v>0</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="V6" s="5">
         <v>0</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
@@ -7412,25 +7454,25 @@
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
       <c r="AM6" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AN6" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AO6" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AQ6" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AR6" s="21" t="s">
         <v>68</v>
       </c>
       <c r="AS6" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="AT6" s="14">
         <v>200</v>
@@ -7441,32 +7483,32 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A7" s="5" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K7" s="5">
         <v>100000</v>
@@ -7478,90 +7520,90 @@
         <v>100000</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="5">
         <v>0</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="V7" s="5">
         <v>0</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AA7" s="5">
         <v>200000</v>
       </c>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5">
         <v>200000</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AG7" s="5">
         <v>0</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="AI7" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AJ7" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AL7" s="5">
         <v>0</v>
       </c>
       <c r="AM7" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AN7" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AO7" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AP7" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AQ7" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AR7" s="21" t="s">
         <v>68</v>
       </c>
       <c r="AS7" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="AT7" s="14">
         <v>200</v>
@@ -7843,22 +7885,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>9</v>
@@ -7867,48 +7909,48 @@
         <v>10</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A2" s="5" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>23</v>
@@ -7920,16 +7962,16 @@
         <v>26</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L2" s="14">
         <v>200</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="O2" s="15"/>
       <c r="P2" s="5">
@@ -7941,25 +7983,25 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A3" s="5" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>23</v>
@@ -7971,16 +8013,16 @@
         <v>26</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L3" s="14">
         <v>200</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="5">
@@ -7992,25 +8034,25 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A4" s="5" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>23</v>
@@ -8022,16 +8064,16 @@
         <v>26</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L4" s="14">
         <v>200</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="5">
@@ -8043,25 +8085,25 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A5" s="5" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>23</v>
@@ -8073,16 +8115,16 @@
         <v>26</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L5" s="14">
         <v>200</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="5">
@@ -8094,25 +8136,25 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A6" s="5" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>23</v>
@@ -8124,29 +8166,29 @@
         <v>26</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L6" s="14">
         <v>200</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="5">
         <v>100000</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -8193,10 +8235,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>9</v>
@@ -8205,33 +8247,33 @@
         <v>10</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H2" s="14">
         <v>200</v>
@@ -8240,30 +8282,30 @@
         <v>31</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H3" s="14">
         <v>200</v>
@@ -8272,30 +8314,30 @@
         <v>31</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H4" s="14">
         <v>200</v>
@@ -8304,30 +8346,30 @@
         <v>31</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H5" s="14">
         <v>200</v>
@@ -8336,7 +8378,7 @@
         <v>31</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -8382,16 +8424,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>9</v>
@@ -8400,36 +8442,36 @@
         <v>10</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="J2" s="14">
         <v>200</v>
@@ -8889,10 +8931,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL11"/>
+  <dimension ref="A1:AL15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -9080,7 +9122,7 @@
         <v>200</v>
       </c>
       <c r="L2" s="14">
-        <v>2400000</v>
+        <v>1700000</v>
       </c>
       <c r="M2" s="6">
         <v>0</v>
@@ -9095,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="14">
-        <v>2400000</v>
+        <v>1700000</v>
       </c>
       <c r="R2" s="14"/>
       <c r="S2" s="14">
@@ -9120,34 +9162,35 @@
         <v>600000</v>
       </c>
       <c r="Z2" s="14">
+        <f>X2+Y2</f>
         <v>1600000</v>
       </c>
       <c r="AA2" s="14">
         <v>0</v>
       </c>
       <c r="AB2" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="14">
-        <v>800000</v>
+        <v>100000</v>
       </c>
       <c r="AD2" s="14">
         <v>1600000</v>
       </c>
       <c r="AE2" s="14">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="14">
         <v>0</v>
       </c>
       <c r="AG2" s="14">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="14">
         <v>0</v>
       </c>
       <c r="AI2" s="14">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="AJ2" s="14">
         <v>0</v>
@@ -9156,239 +9199,97 @@
         <v>0</v>
       </c>
       <c r="AL2" s="14">
-        <v>2400000</v>
+        <v>1700000</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="38" customFormat="1" ht="47" customHeight="1" spans="1:38">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+    </row>
+    <row r="4" s="38" customFormat="1" ht="47" customHeight="1" spans="1:38">
+      <c r="A4" s="39"/>
+      <c r="B4" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="9">
-        <v>200</v>
-      </c>
-      <c r="L3" s="14">
-        <v>2400000</v>
-      </c>
-      <c r="M3" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="N3" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="14">
-        <v>400000</v>
-      </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14">
-        <v>1</v>
-      </c>
-      <c r="T3" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="U3" s="14">
-        <v>600000</v>
-      </c>
-      <c r="V3" s="14">
-        <v>0</v>
-      </c>
-      <c r="W3" s="14">
-        <v>0</v>
-      </c>
-      <c r="X3" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="Y3" s="14">
-        <v>600000</v>
-      </c>
-      <c r="Z3" s="14">
-        <v>1600000</v>
-      </c>
-      <c r="AA3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="14">
-        <v>4</v>
-      </c>
-      <c r="AC3" s="14">
-        <v>800000</v>
-      </c>
-      <c r="AD3" s="14">
-        <v>1600000</v>
-      </c>
-      <c r="AE3" s="14">
-        <v>600000</v>
-      </c>
-      <c r="AF3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="14">
-        <v>200000</v>
-      </c>
-      <c r="AH3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="14">
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
-      <c r="A4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="9">
-        <v>200</v>
-      </c>
-      <c r="L4" s="14">
-        <v>2100000</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="14">
-        <v>2100000</v>
-      </c>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14">
-        <v>1</v>
-      </c>
-      <c r="T4" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="U4" s="14">
-        <v>600000</v>
-      </c>
-      <c r="V4" s="14">
-        <v>0</v>
-      </c>
-      <c r="W4" s="14">
-        <v>0</v>
-      </c>
-      <c r="X4" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="Y4" s="14">
-        <v>600000</v>
-      </c>
-      <c r="Z4" s="14">
-        <v>1600000</v>
-      </c>
-      <c r="AA4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="14">
-        <v>500000</v>
-      </c>
-      <c r="AD4" s="14">
-        <v>1600000</v>
-      </c>
-      <c r="AE4" s="14">
-        <v>400000</v>
-      </c>
-      <c r="AF4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="14">
-        <v>100000</v>
-      </c>
-      <c r="AH4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="14">
-        <v>2100000</v>
-      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -9416,7 +9317,7 @@
         <v>200</v>
       </c>
       <c r="L5" s="14">
-        <v>4200000</v>
+        <v>1500000</v>
       </c>
       <c r="M5" s="6">
         <v>0</v>
@@ -9431,60 +9332,61 @@
         <v>0</v>
       </c>
       <c r="Q5" s="14">
-        <v>4200000</v>
+        <v>1500000</v>
       </c>
       <c r="R5" s="14"/>
       <c r="S5" s="14">
         <v>1</v>
       </c>
       <c r="T5" s="14">
-        <v>1000000</v>
+        <v>800000</v>
       </c>
       <c r="U5" s="14">
         <v>600000</v>
       </c>
       <c r="V5" s="14">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="W5" s="14">
         <v>0</v>
       </c>
       <c r="X5" s="14">
-        <v>2000000</v>
+        <v>800000</v>
       </c>
       <c r="Y5" s="14">
-        <v>1200000</v>
+        <v>600000</v>
       </c>
       <c r="Z5" s="14">
-        <v>3200000</v>
+        <f>X5+Y5</f>
+        <v>1400000</v>
       </c>
       <c r="AA5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="14">
         <v>1</v>
       </c>
-      <c r="AB5" s="14">
-        <v>4</v>
-      </c>
       <c r="AC5" s="14">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="AD5" s="14">
-        <v>1600000</v>
+        <v>1400000</v>
       </c>
       <c r="AE5" s="14">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="14">
         <v>0</v>
       </c>
       <c r="AG5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="14">
         <v>100000</v>
       </c>
-      <c r="AH5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="14">
-        <v>0</v>
-      </c>
       <c r="AJ5" s="14">
         <v>0</v>
       </c>
@@ -9492,15 +9394,15 @@
         <v>0</v>
       </c>
       <c r="AL5" s="14">
-        <v>2100000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
       <c r="A6" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>22</v>
@@ -9522,19 +9424,19 @@
         <v>27</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K6" s="9">
         <v>200</v>
       </c>
-      <c r="L6" s="6">
-        <v>2000000</v>
+      <c r="L6" s="14">
+        <v>2400000</v>
       </c>
       <c r="M6" s="6">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="6">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="O6" s="15" t="s">
         <v>68</v>
@@ -9542,10 +9444,10 @@
       <c r="P6" s="6">
         <v>0</v>
       </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14" t="s">
-        <v>78</v>
-      </c>
+      <c r="Q6" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="R6" s="14"/>
       <c r="S6" s="14">
         <v>1</v>
       </c>
@@ -9574,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="AB6" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC6" s="14">
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="AD6" s="14">
         <v>1600000</v>
       </c>
       <c r="AE6" s="14">
-        <v>400000</v>
+        <v>600000</v>
       </c>
       <c r="AF6" s="14">
         <v>0</v>
       </c>
       <c r="AG6" s="14">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AH6" s="14">
         <v>0</v>
@@ -9604,15 +9506,15 @@
         <v>0</v>
       </c>
       <c r="AL6" s="14">
-        <v>2000000</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>22</v>
@@ -9640,13 +9542,13 @@
         <v>200</v>
       </c>
       <c r="L7" s="14">
-        <v>1600000</v>
+        <v>2400000</v>
       </c>
       <c r="M7" s="6">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="N7" s="6">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="O7" s="15" t="s">
         <v>68</v>
@@ -9655,54 +9557,54 @@
         <v>0</v>
       </c>
       <c r="Q7" s="14">
-        <v>1600000</v>
+        <v>400000</v>
       </c>
       <c r="R7" s="14"/>
       <c r="S7" s="14">
         <v>1</v>
       </c>
       <c r="T7" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U7" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V7" s="14">
+        <v>0</v>
+      </c>
+      <c r="W7" s="14">
+        <v>0</v>
+      </c>
+      <c r="X7" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="14">
         <v>800000</v>
       </c>
-      <c r="U7" s="14">
-        <v>400000</v>
-      </c>
-      <c r="V7" s="14">
+      <c r="AD7" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="14">
         <v>200000</v>
       </c>
-      <c r="W7" s="14">
-        <v>200000</v>
-      </c>
-      <c r="X7" s="14">
-        <v>800000</v>
-      </c>
-      <c r="Y7" s="14">
-        <v>400000</v>
-      </c>
-      <c r="Z7" s="14">
-        <v>1200000</v>
-      </c>
-      <c r="AA7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="14">
-        <v>400000</v>
-      </c>
-      <c r="AD7" s="14">
-        <v>1200000</v>
-      </c>
-      <c r="AE7" s="14">
-        <v>400000</v>
-      </c>
-      <c r="AF7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="14">
-        <v>0</v>
-      </c>
       <c r="AH7" s="14">
         <v>0</v>
       </c>
@@ -9716,15 +9618,15 @@
         <v>0</v>
       </c>
       <c r="AL7" s="14">
-        <v>1600000</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
       <c r="A8" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>22</v>
@@ -9752,7 +9654,7 @@
         <v>200</v>
       </c>
       <c r="L8" s="14">
-        <v>1200000</v>
+        <v>2100000</v>
       </c>
       <c r="M8" s="6">
         <v>0</v>
@@ -9767,32 +9669,32 @@
         <v>0</v>
       </c>
       <c r="Q8" s="14">
-        <v>1200000</v>
+        <v>2100000</v>
       </c>
       <c r="R8" s="14"/>
       <c r="S8" s="14">
         <v>1</v>
       </c>
       <c r="T8" s="14">
-        <v>800000</v>
+        <v>1000000</v>
       </c>
       <c r="U8" s="14">
-        <v>400000</v>
+        <v>600000</v>
       </c>
       <c r="V8" s="14">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="W8" s="14">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="X8" s="14">
-        <v>800000</v>
+        <v>1000000</v>
       </c>
       <c r="Y8" s="14">
-        <v>400000</v>
+        <v>600000</v>
       </c>
       <c r="Z8" s="14">
-        <v>1200000</v>
+        <v>1600000</v>
       </c>
       <c r="AA8" s="14">
         <v>0</v>
@@ -9801,40 +9703,491 @@
         <v>2</v>
       </c>
       <c r="AC8" s="14">
+        <v>500000</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AE8" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AH8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="14">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
+      <c r="A9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="9">
+        <v>200</v>
+      </c>
+      <c r="L9" s="14">
+        <v>4200000</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>4200000</v>
+      </c>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14">
+        <v>1</v>
+      </c>
+      <c r="T9" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U9" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V9" s="14">
+        <v>0</v>
+      </c>
+      <c r="W9" s="14">
+        <v>0</v>
+      </c>
+      <c r="X9" s="14">
+        <v>2000000</v>
+      </c>
+      <c r="Y9" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>3200000</v>
+      </c>
+      <c r="AA9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="14">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="AD9" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AE9" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AF9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AH9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="14">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
+      <c r="A10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="9">
+        <v>200</v>
+      </c>
+      <c r="L10" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="M10" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="N10" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="S10" s="14">
+        <v>1</v>
+      </c>
+      <c r="T10" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U10" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V10" s="14">
+        <v>0</v>
+      </c>
+      <c r="W10" s="14">
+        <v>0</v>
+      </c>
+      <c r="X10" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y10" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z10" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AD10" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AE10" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AF10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="14">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
+      <c r="A11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="9">
+        <v>200</v>
+      </c>
+      <c r="L11" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14">
+        <v>1</v>
+      </c>
+      <c r="T11" s="14">
         <v>800000</v>
       </c>
-      <c r="AD8" s="14">
+      <c r="U11" s="14">
+        <v>400000</v>
+      </c>
+      <c r="V11" s="14">
+        <v>200000</v>
+      </c>
+      <c r="W11" s="14">
+        <v>200000</v>
+      </c>
+      <c r="X11" s="14">
+        <v>800000</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>400000</v>
+      </c>
+      <c r="Z11" s="14">
         <v>1200000</v>
       </c>
-      <c r="AE8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="14">
+      <c r="AA11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AD11" s="14">
         <v>1200000</v>
       </c>
+      <c r="AE11" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AF11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="14">
+        <v>1600000</v>
+      </c>
     </row>
-    <row r="11" customHeight="1" spans="12:12">
-      <c r="L11" s="36"/>
+    <row r="12" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
+      <c r="A12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="9">
+        <v>200</v>
+      </c>
+      <c r="L12" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14">
+        <v>1</v>
+      </c>
+      <c r="T12" s="14">
+        <v>800000</v>
+      </c>
+      <c r="U12" s="14">
+        <v>400000</v>
+      </c>
+      <c r="V12" s="14">
+        <v>200000</v>
+      </c>
+      <c r="W12" s="14">
+        <v>200000</v>
+      </c>
+      <c r="X12" s="14">
+        <v>800000</v>
+      </c>
+      <c r="Y12" s="14">
+        <v>400000</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>800000</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="AE12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="14">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="12:12">
+      <c r="L15" s="36"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -10002,10 +10355,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -10114,10 +10467,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A3" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -10226,10 +10579,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -10338,10 +10691,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A5" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -10363,7 +10716,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -10387,7 +10740,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="S5" s="14">
         <v>1</v>
@@ -10452,10 +10805,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A6" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>22</v>
@@ -10477,7 +10830,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" s="9">
         <v>200</v>
@@ -10501,7 +10854,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="S6" s="14">
         <v>1</v>
@@ -10739,10 +11092,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -10851,10 +11204,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A3" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -10963,10 +11316,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -11075,10 +11428,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -11100,7 +11453,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -11122,7 +11475,7 @@
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="S5" s="14">
         <v>1</v>
@@ -11356,10 +11709,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -11469,10 +11822,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A3" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -11582,10 +11935,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -11694,10 +12047,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -11719,7 +12072,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -11741,7 +12094,7 @@
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="S5" s="14">
         <v>1</v>
@@ -11876,7 +12229,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -11923,10 +12276,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A2" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -11948,7 +12301,7 @@
         <v>68</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -11988,10 +12341,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A3" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -12013,7 +12366,7 @@
         <v>68</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -12053,10 +12406,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -12078,7 +12431,7 @@
         <v>68</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -12118,10 +12471,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -12143,7 +12496,7 @@
         <v>68</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -12185,10 +12538,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>22</v>
@@ -12210,7 +12563,7 @@
         <v>68</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K6" s="9">
         <v>200</v>
@@ -12226,7 +12579,7 @@
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Q6" s="14">
         <v>1</v>

--- a/src/main/resources/input_excel_file/booking/CICO.xlsx
+++ b/src/main/resources/input_excel_file/booking/CICO.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="341">
   <si>
     <t>tc_id</t>
   </si>
@@ -244,6 +244,9 @@
     <t>assert_total_golf_fee.total</t>
   </si>
   <si>
+    <t>assert_total_golf_fee_0_VND</t>
+  </si>
+  <si>
     <t>assert_size_list_round_of_sub_bag</t>
   </si>
   <si>
@@ -289,7 +292,7 @@
     <t>false</t>
   </si>
   <si>
-    <t>Apply voucher giảm 200k green</t>
+    <t>Apply voucher giảm giá thông thường: Giảm 200k green fee</t>
   </si>
   <si>
     <t>VST_VC_GREEN_001</t>
@@ -298,6 +301,36 @@
     <t>VST_Kiểm tra giá sau khi check in có add voucher</t>
   </si>
   <si>
+    <t>Apply voucher giảm giá thông thường: Giảm 2tr1 cho green + caddie + 1/2 xe + package</t>
+  </si>
+  <si>
+    <t>VST_VC_4FEE_001</t>
+  </si>
+  <si>
+    <t>fee_of_bag_mustpay_0_VND_apply_voucher_expect.json</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>Apply voucher giảm giá thông thường: Giảm 10% green</t>
+  </si>
+  <si>
+    <t>VST_VC_GREEN_10_001</t>
+  </si>
+  <si>
+    <t>Apply voucher giảm giá thông thường: Giảm 10% all fee</t>
+  </si>
+  <si>
+    <t>VST_VC_ALL_10_001</t>
+  </si>
+  <si>
+    <t>Apply voucher giảm giá cố định: Green + Caddie + 1/2 xe + Package</t>
+  </si>
+  <si>
+    <t>VST_VC_CD4FEE_001</t>
+  </si>
+  <si>
     <t>VST_FEE_OF_BAG_001</t>
   </si>
   <si>
@@ -329,9 +362,6 @@
   </si>
   <si>
     <t>fee_of_bag_mustpay_0_VND_expect.json</t>
-  </si>
-  <si>
-    <t>{}</t>
   </si>
   <si>
     <t>VST_FEE_OF_BAG_APPLY_VOUCHER_001</t>
@@ -1278,7 +1308,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1312,12 +1342,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1508,7 +1532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1566,6 +1590,37 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1692,7 +1747,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1704,119 +1759,119 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1931,13 +1986,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1946,11 +1998,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2762,7 +2826,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -2806,10 +2870,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A2" s="5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -2828,10 +2892,10 @@
         <v>26</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -2840,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N2" s="6">
         <v>0</v>
@@ -2870,10 +2934,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -2892,10 +2956,10 @@
         <v>26</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -2904,7 +2968,7 @@
         <v>2000000</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N3" s="6">
         <v>0</v>
@@ -2934,10 +2998,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A4" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -2956,10 +3020,10 @@
         <v>26</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -2968,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N4" s="6">
         <v>0</v>
@@ -2998,10 +3062,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A5" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -3020,10 +3084,10 @@
         <v>26</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -3032,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N5" s="6">
         <v>0</v>
@@ -3041,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="14">
         <v>1</v>
@@ -3064,10 +3128,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A6" s="5" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>22</v>
@@ -3086,10 +3150,10 @@
         <v>26</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="K6" s="9">
         <v>200</v>
@@ -3098,7 +3162,7 @@
         <v>2000000</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N6" s="6">
         <v>0</v>
@@ -3107,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="14">
         <v>1</v>
@@ -3201,7 +3265,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -3245,10 +3309,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A2" s="5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -3267,10 +3331,10 @@
         <v>26</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -3279,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N2" s="6">
         <v>0</v>
@@ -3309,10 +3373,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -3331,10 +3395,10 @@
         <v>26</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -3343,7 +3407,7 @@
         <v>2000000</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N3" s="6">
         <v>0</v>
@@ -3373,10 +3437,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A4" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -3395,10 +3459,10 @@
         <v>26</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -3407,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N4" s="6">
         <v>0</v>
@@ -3437,10 +3501,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A5" s="5" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -3459,10 +3523,10 @@
         <v>26</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -3471,14 +3535,14 @@
         <v>2000000</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N5" s="6">
         <v>0</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="14">
         <v>1</v>
@@ -3572,7 +3636,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -3616,10 +3680,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A2" s="5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -3632,16 +3696,16 @@
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -3650,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N2" s="6">
         <v>0</v>
@@ -3680,10 +3744,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -3696,16 +3760,16 @@
         <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -3714,7 +3778,7 @@
         <v>2000000</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N3" s="6">
         <v>0</v>
@@ -3744,10 +3808,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A4" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -3760,16 +3824,16 @@
         <v>24</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -3778,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N4" s="6">
         <v>0</v>
@@ -3808,10 +3872,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A5" s="5" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -3824,16 +3888,16 @@
         <v>24</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -3842,14 +3906,14 @@
         <v>2000000</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N5" s="6">
         <v>0</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="14">
         <v>1</v>
@@ -3926,25 +3990,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="L1" s="27" t="s">
         <v>9</v>
@@ -3953,37 +4017,37 @@
         <v>10</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" s="29" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A2" s="6" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="6" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M2" s="14">
         <v>200</v>
@@ -3994,36 +4058,36 @@
     </row>
     <row r="3" s="29" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A3" s="6" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="6" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M3" s="14">
         <v>200</v>
@@ -4034,40 +4098,40 @@
     </row>
     <row r="4" s="29" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A4" s="6" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>107</v>
-      </c>
       <c r="F4" s="14" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M4" s="14">
         <v>200</v>
@@ -4123,31 +4187,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="N1" s="27" t="s">
         <v>9</v>
@@ -4162,24 +4226,24 @@
         <v>43</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:19">
       <c r="A2" s="5" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>23</v>
@@ -4188,37 +4252,37 @@
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="O2" s="9">
         <v>200</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R2" s="9">
         <v>3</v>
@@ -4291,76 +4355,76 @@
         <v>3</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="AB1" s="23" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>9</v>
@@ -4372,24 +4436,24 @@
         <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A2" s="5" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -4398,35 +4462,35 @@
         <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S2" s="9">
         <v>1600000</v>
@@ -4444,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Y2" s="9">
         <v>0</v>
@@ -4453,19 +4517,19 @@
         <v>0</v>
       </c>
       <c r="AA2" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB2" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AD2" s="14">
         <v>200</v>
       </c>
       <c r="AE2" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF2" s="14">
         <v>3</v>
@@ -4473,19 +4537,19 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A3" s="5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -4494,35 +4558,35 @@
         <v>24</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S3" s="9">
         <v>1600000</v>
@@ -4540,7 +4604,7 @@
         <v>400000</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Y3" s="9">
         <v>0</v>
@@ -4549,19 +4613,19 @@
         <v>0</v>
       </c>
       <c r="AA3" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB3" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AD3" s="14">
         <v>200</v>
       </c>
       <c r="AE3" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF3" s="14">
         <v>4</v>
@@ -4569,19 +4633,19 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A4" s="5" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -4590,35 +4654,35 @@
         <v>24</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S4" s="9">
         <v>1600000</v>
@@ -4636,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Y4" s="9">
         <v>0</v>
@@ -4645,19 +4709,19 @@
         <v>0</v>
       </c>
       <c r="AA4" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB4" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AD4" s="14">
         <v>200</v>
       </c>
       <c r="AE4" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF4" s="14">
         <v>4</v>
@@ -4665,19 +4729,19 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A5" s="5" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>23</v>
@@ -4686,35 +4750,35 @@
         <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S5" s="9">
         <v>1600000</v>
@@ -4732,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Y5" s="9">
         <v>0</v>
@@ -4741,19 +4805,19 @@
         <v>0</v>
       </c>
       <c r="AA5" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB5" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AD5" s="14">
         <v>200</v>
       </c>
       <c r="AE5" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF5" s="14">
         <v>4</v>
@@ -4761,19 +4825,19 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A6" s="5" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>23</v>
@@ -4782,35 +4846,35 @@
         <v>24</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S6" s="9">
         <v>1600000</v>
@@ -4828,7 +4892,7 @@
         <v>400000</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Y6" s="9">
         <v>0</v>
@@ -4837,19 +4901,19 @@
         <v>0</v>
       </c>
       <c r="AA6" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB6" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AD6" s="14">
         <v>200</v>
       </c>
       <c r="AE6" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF6" s="14">
         <v>1</v>
@@ -4919,76 +4983,76 @@
         <v>3</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="AB1" s="23" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>9</v>
@@ -5000,24 +5064,24 @@
         <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A2" s="5" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -5026,35 +5090,35 @@
         <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S2" s="9">
         <v>1600000</v>
@@ -5072,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Y2" s="9">
         <v>0</v>
@@ -5081,19 +5145,19 @@
         <v>0</v>
       </c>
       <c r="AA2" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB2" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AD2" s="14">
         <v>200</v>
       </c>
       <c r="AE2" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF2" s="14">
         <v>3</v>
@@ -5101,19 +5165,19 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A3" s="5" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -5122,35 +5186,35 @@
         <v>24</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S3" s="9">
         <v>1600000</v>
@@ -5168,7 +5232,7 @@
         <v>400000</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Y3" s="9">
         <v>0</v>
@@ -5177,19 +5241,19 @@
         <v>0</v>
       </c>
       <c r="AA3" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB3" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AD3" s="14">
         <v>200</v>
       </c>
       <c r="AE3" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF3" s="14">
         <v>4</v>
@@ -5197,19 +5261,19 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A4" s="5" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -5218,35 +5282,35 @@
         <v>24</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S4" s="9">
         <v>1600000</v>
@@ -5264,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Y4" s="9">
         <v>0</v>
@@ -5273,19 +5337,19 @@
         <v>0</v>
       </c>
       <c r="AA4" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB4" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AD4" s="14">
         <v>200</v>
       </c>
       <c r="AE4" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF4" s="14">
         <v>4</v>
@@ -5293,19 +5357,19 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A5" s="5" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>23</v>
@@ -5314,35 +5378,35 @@
         <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S5" s="9">
         <v>1600000</v>
@@ -5360,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Y5" s="9">
         <v>0</v>
@@ -5369,19 +5433,19 @@
         <v>0</v>
       </c>
       <c r="AA5" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB5" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AD5" s="14">
         <v>200</v>
       </c>
       <c r="AE5" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF5" s="14">
         <v>4</v>
@@ -5389,19 +5453,19 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A6" s="5" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>23</v>
@@ -5410,35 +5474,35 @@
         <v>24</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S6" s="9">
         <v>1600000</v>
@@ -5456,7 +5520,7 @@
         <v>400000</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Y6" s="9">
         <v>0</v>
@@ -5465,19 +5529,19 @@
         <v>0</v>
       </c>
       <c r="AA6" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB6" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AD6" s="14">
         <v>200</v>
       </c>
       <c r="AE6" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF6" s="14">
         <v>1</v>
@@ -5547,76 +5611,76 @@
         <v>3</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="AB1" s="23" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>9</v>
@@ -5628,24 +5692,24 @@
         <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A2" s="5" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -5654,35 +5718,35 @@
         <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S2" s="9">
         <v>1600000</v>
@@ -5700,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Y2" s="9">
         <v>0</v>
@@ -5709,19 +5773,19 @@
         <v>0</v>
       </c>
       <c r="AA2" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB2" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AD2" s="14">
         <v>200</v>
       </c>
       <c r="AE2" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF2" s="14">
         <v>3</v>
@@ -5729,19 +5793,19 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A3" s="5" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -5750,35 +5814,35 @@
         <v>24</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S3" s="9">
         <v>1600000</v>
@@ -5796,7 +5860,7 @@
         <v>400000</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Y3" s="9">
         <v>0</v>
@@ -5805,19 +5869,19 @@
         <v>0</v>
       </c>
       <c r="AA3" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB3" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AD3" s="14">
         <v>200</v>
       </c>
       <c r="AE3" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF3" s="14">
         <v>4</v>
@@ -5825,19 +5889,19 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A4" s="5" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -5846,35 +5910,35 @@
         <v>24</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S4" s="9">
         <v>1600000</v>
@@ -5892,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Y4" s="9">
         <v>0</v>
@@ -5901,19 +5965,19 @@
         <v>0</v>
       </c>
       <c r="AA4" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB4" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AD4" s="14">
         <v>200</v>
       </c>
       <c r="AE4" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF4" s="14">
         <v>4</v>
@@ -5921,19 +5985,19 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A5" s="5" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>23</v>
@@ -5942,35 +6006,35 @@
         <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S5" s="9">
         <v>1600000</v>
@@ -5988,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Y5" s="9">
         <v>0</v>
@@ -5997,19 +6061,19 @@
         <v>0</v>
       </c>
       <c r="AA5" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB5" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AD5" s="14">
         <v>200</v>
       </c>
       <c r="AE5" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF5" s="14">
         <v>4</v>
@@ -6017,19 +6081,19 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A6" s="5" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>23</v>
@@ -6038,35 +6102,35 @@
         <v>24</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S6" s="9">
         <v>1600000</v>
@@ -6084,7 +6148,7 @@
         <v>400000</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Y6" s="9">
         <v>0</v>
@@ -6093,19 +6157,19 @@
         <v>0</v>
       </c>
       <c r="AA6" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB6" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AD6" s="14">
         <v>200</v>
       </c>
       <c r="AE6" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF6" s="14">
         <v>1</v>
@@ -6175,76 +6239,76 @@
         <v>3</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="AB1" s="23" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>9</v>
@@ -6256,24 +6320,24 @@
         <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A2" s="5" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -6282,35 +6346,35 @@
         <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S2" s="9">
         <v>1600000</v>
@@ -6328,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Y2" s="9">
         <v>0</v>
@@ -6337,19 +6401,19 @@
         <v>0</v>
       </c>
       <c r="AA2" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB2" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AD2" s="14">
         <v>200</v>
       </c>
       <c r="AE2" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF2" s="14">
         <v>3</v>
@@ -6357,19 +6421,19 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A3" s="5" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -6378,35 +6442,35 @@
         <v>24</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S3" s="9">
         <v>1600000</v>
@@ -6424,7 +6488,7 @@
         <v>400000</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Y3" s="9">
         <v>0</v>
@@ -6433,19 +6497,19 @@
         <v>0</v>
       </c>
       <c r="AA3" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB3" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AD3" s="14">
         <v>200</v>
       </c>
       <c r="AE3" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF3" s="14">
         <v>4</v>
@@ -6453,19 +6517,19 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A4" s="5" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -6474,35 +6538,35 @@
         <v>24</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S4" s="9">
         <v>1600000</v>
@@ -6520,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Y4" s="9">
         <v>0</v>
@@ -6529,19 +6593,19 @@
         <v>0</v>
       </c>
       <c r="AA4" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB4" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AD4" s="14">
         <v>200</v>
       </c>
       <c r="AE4" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF4" s="14">
         <v>4</v>
@@ -6549,19 +6613,19 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A5" s="5" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>23</v>
@@ -6570,35 +6634,35 @@
         <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S5" s="9">
         <v>1600000</v>
@@ -6616,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Y5" s="9">
         <v>0</v>
@@ -6625,19 +6689,19 @@
         <v>0</v>
       </c>
       <c r="AA5" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB5" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AD5" s="14">
         <v>200</v>
       </c>
       <c r="AE5" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF5" s="14">
         <v>4</v>
@@ -6645,19 +6709,19 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A6" s="5" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>23</v>
@@ -6666,35 +6730,35 @@
         <v>24</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S6" s="9">
         <v>1600000</v>
@@ -6712,7 +6776,7 @@
         <v>400000</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Y6" s="9">
         <v>0</v>
@@ -6721,19 +6785,19 @@
         <v>0</v>
       </c>
       <c r="AA6" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB6" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AD6" s="14">
         <v>200</v>
       </c>
       <c r="AE6" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF6" s="14">
         <v>1</v>
@@ -6807,124 +6871,124 @@
         <v>3</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="U1" s="18" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="W1" s="18" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="X1" s="18" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="Y1" s="18" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AA1" s="19" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="AB1" s="19" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="AD1" s="19" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="AE1" s="19" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="AF1" s="19" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="AG1" s="19" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="AH1" s="19" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="AI1" s="19" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="AJ1" s="19" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AK1" s="19" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="AL1" s="19" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="AM1" s="19" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="AN1" s="19" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="AO1" s="19" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="AP1" s="18" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="AQ1" s="18" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="AR1" s="20" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AS1" s="10" t="s">
         <v>9</v>
@@ -6933,37 +6997,37 @@
         <v>10</v>
       </c>
       <c r="AU1" s="12" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A2" s="5" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="K2" s="5">
         <v>1600000</v>
@@ -6975,34 +7039,34 @@
         <v>1600000</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q2" s="5">
         <v>0</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="V2" s="5">
         <v>0</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
@@ -7018,25 +7082,25 @@
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AR2" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AS2" s="8" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="AT2" s="14">
         <v>200</v>
@@ -7047,32 +7111,32 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A3" s="5" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="K3" s="5">
         <v>8800000</v>
@@ -7084,34 +7148,34 @@
         <v>1600000</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q3" s="5">
         <v>0</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="V3" s="5">
         <v>0</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
@@ -7127,25 +7191,25 @@
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
       <c r="AM3" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AR3" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AS3" s="8" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="AT3" s="14">
         <v>200</v>
@@ -7156,32 +7220,32 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A4" s="5" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="K4" s="5">
         <v>1600000</v>
@@ -7193,34 +7257,34 @@
         <v>1600000</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="5">
         <v>0</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="V4" s="5">
         <v>0</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
@@ -7236,25 +7300,25 @@
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
       <c r="AM4" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AN4" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AO4" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AP4" s="5" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AQ4" s="5" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AR4" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AS4" s="8" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="AT4" s="14">
         <v>200</v>
@@ -7265,32 +7329,32 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A5" s="5" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="K5" s="5">
         <v>1600000</v>
@@ -7302,34 +7366,34 @@
         <v>1600000</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="5">
         <v>0</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="V5" s="5">
         <v>0</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
@@ -7345,25 +7409,25 @@
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
       <c r="AM5" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AN5" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AO5" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AP5" s="5" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AQ5" s="5" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AR5" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AS5" s="8" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="AT5" s="14">
         <v>200</v>
@@ -7374,32 +7438,32 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A6" s="5" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="K6" s="5">
         <v>1600000</v>
@@ -7411,34 +7475,34 @@
         <v>1600000</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q6" s="5">
         <v>0</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="V6" s="5">
         <v>0</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
@@ -7454,25 +7518,25 @@
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
       <c r="AM6" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AN6" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AO6" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AQ6" s="5" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AR6" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AS6" s="8" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="AT6" s="14">
         <v>200</v>
@@ -7483,32 +7547,32 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A7" s="5" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="K7" s="5">
         <v>100000</v>
@@ -7520,90 +7584,90 @@
         <v>100000</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="5">
         <v>0</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="V7" s="5">
         <v>0</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="AA7" s="5">
         <v>200000</v>
       </c>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5">
         <v>200000</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AG7" s="5">
         <v>0</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="AI7" s="5" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="AJ7" s="5" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="AL7" s="5">
         <v>0</v>
       </c>
       <c r="AM7" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AN7" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AO7" s="5" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AP7" s="5" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AQ7" s="5" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AR7" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AS7" s="8" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="AT7" s="14">
         <v>200</v>
@@ -7885,22 +7949,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>9</v>
@@ -7909,48 +7973,48 @@
         <v>10</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A2" s="5" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>23</v>
@@ -7962,16 +8026,16 @@
         <v>26</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="L2" s="14">
         <v>200</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="O2" s="15"/>
       <c r="P2" s="5">
@@ -7983,25 +8047,25 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A3" s="5" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>23</v>
@@ -8013,16 +8077,16 @@
         <v>26</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="L3" s="14">
         <v>200</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="5">
@@ -8034,25 +8098,25 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A4" s="5" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>23</v>
@@ -8064,16 +8128,16 @@
         <v>26</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="L4" s="14">
         <v>200</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="5">
@@ -8085,25 +8149,25 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A5" s="5" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>23</v>
@@ -8115,16 +8179,16 @@
         <v>26</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="L5" s="14">
         <v>200</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="5">
@@ -8136,25 +8200,25 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A6" s="5" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>23</v>
@@ -8166,29 +8230,29 @@
         <v>26</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="L6" s="14">
         <v>200</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="5">
         <v>100000</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -8235,10 +8299,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>9</v>
@@ -8247,33 +8311,33 @@
         <v>10</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="H2" s="14">
         <v>200</v>
@@ -8282,30 +8346,30 @@
         <v>31</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="H3" s="14">
         <v>200</v>
@@ -8314,30 +8378,30 @@
         <v>31</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="H4" s="14">
         <v>200</v>
@@ -8346,30 +8410,30 @@
         <v>31</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="H5" s="14">
         <v>200</v>
@@ -8378,7 +8442,7 @@
         <v>31</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -8424,16 +8488,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>9</v>
@@ -8442,36 +8506,36 @@
         <v>10</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="J2" s="14">
         <v>200</v>
@@ -8931,10 +8995,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -8963,17 +9029,17 @@
     <col min="24" max="24" width="30.5809523809524" style="1" customWidth="1"/>
     <col min="25" max="25" width="30.4190476190476" style="1" customWidth="1"/>
     <col min="26" max="26" width="25.3714285714286" style="1" customWidth="1"/>
-    <col min="27" max="29" width="32.4285714285714" style="1" customWidth="1"/>
-    <col min="30" max="30" width="31.2571428571429" style="1" customWidth="1"/>
-    <col min="31" max="32" width="28.2380952380952" style="1" customWidth="1"/>
-    <col min="33" max="33" width="32.0952380952381" style="1" customWidth="1"/>
-    <col min="34" max="34" width="28.2380952380952" style="1" customWidth="1"/>
-    <col min="35" max="37" width="27.047619047619" style="1" customWidth="1"/>
-    <col min="38" max="38" width="23.352380952381" style="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.14285714285714" style="1"/>
+    <col min="27" max="30" width="32.4285714285714" style="1" customWidth="1"/>
+    <col min="31" max="31" width="31.2571428571429" style="1" customWidth="1"/>
+    <col min="32" max="33" width="28.2380952380952" style="1" customWidth="1"/>
+    <col min="34" max="34" width="32.0952380952381" style="1" customWidth="1"/>
+    <col min="35" max="35" width="28.2380952380952" style="1" customWidth="1"/>
+    <col min="36" max="38" width="27.047619047619" style="1" customWidth="1"/>
+    <col min="39" max="39" width="23.352380952381" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:38">
+    <row r="1" s="1" customFormat="1" ht="47" customHeight="1" spans="1:39">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9025,7 +9091,7 @@
       <c r="Q1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="32" t="s">
         <v>46</v>
       </c>
       <c r="S1" s="35" t="s">
@@ -9052,16 +9118,16 @@
       <c r="Z1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" s="37" t="s">
+      <c r="AA1" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="35" t="s">
+      <c r="AB1" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AD1" s="35" t="s">
         <v>56</v>
       </c>
       <c r="AE1" s="34" t="s">
@@ -9088,13 +9154,16 @@
       <c r="AL1" s="34" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
+      <c r="AM1" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -9116,7 +9185,7 @@
         <v>27</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -9131,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P2" s="6">
         <v>0</v>
@@ -9165,21 +9234,19 @@
         <f>X2+Y2</f>
         <v>1600000</v>
       </c>
-      <c r="AA2" s="14">
-        <v>0</v>
-      </c>
+      <c r="AA2" s="14"/>
       <c r="AB2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="14">
         <v>1</v>
       </c>
-      <c r="AC2" s="14">
+      <c r="AD2" s="14">
         <v>100000</v>
       </c>
-      <c r="AD2" s="14">
+      <c r="AE2" s="14">
         <v>1600000</v>
       </c>
-      <c r="AE2" s="14">
-        <v>0</v>
-      </c>
       <c r="AF2" s="14">
         <v>0</v>
       </c>
@@ -9190,29 +9257,33 @@
         <v>0</v>
       </c>
       <c r="AI2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="14">
         <v>100000</v>
       </c>
-      <c r="AJ2" s="14">
-        <v>0</v>
-      </c>
       <c r="AK2" s="14">
         <v>0</v>
       </c>
       <c r="AL2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="47">
+        <f>SUM(AE2:AL2)</f>
         <v>1700000</v>
       </c>
     </row>
-    <row r="3" s="38" customFormat="1" ht="47" customHeight="1" spans="1:38">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44"/>
+    <row r="3" s="29" customFormat="1" ht="47" customHeight="1" spans="1:39">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
       <c r="M3" s="32"/>
@@ -9230,7 +9301,7 @@
       <c r="Y3" s="34"/>
       <c r="Z3" s="34"/>
       <c r="AA3" s="32"/>
-      <c r="AB3" s="34"/>
+      <c r="AB3" s="32"/>
       <c r="AC3" s="34"/>
       <c r="AD3" s="34"/>
       <c r="AE3" s="34"/>
@@ -9241,20 +9312,21 @@
       <c r="AJ3" s="34"/>
       <c r="AK3" s="34"/>
       <c r="AL3" s="34"/>
-    </row>
-    <row r="4" s="38" customFormat="1" ht="47" customHeight="1" spans="1:38">
-      <c r="A4" s="39"/>
-      <c r="B4" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="44"/>
+      <c r="AM3" s="34"/>
+    </row>
+    <row r="4" s="29" customFormat="1" ht="47" customHeight="1" spans="1:39">
+      <c r="A4" s="38"/>
+      <c r="B4" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="46"/>
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
       <c r="M4" s="32"/>
@@ -9272,7 +9344,7 @@
       <c r="Y4" s="34"/>
       <c r="Z4" s="34"/>
       <c r="AA4" s="32"/>
-      <c r="AB4" s="34"/>
+      <c r="AB4" s="32"/>
       <c r="AC4" s="34"/>
       <c r="AD4" s="34"/>
       <c r="AE4" s="34"/>
@@ -9283,13 +9355,14 @@
       <c r="AJ4" s="34"/>
       <c r="AK4" s="34"/>
       <c r="AL4" s="34"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
+      <c r="AM4" s="34"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A5" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -9311,7 +9384,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -9326,7 +9399,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P5" s="6">
         <v>0</v>
@@ -9360,21 +9433,19 @@
         <f>X5+Y5</f>
         <v>1400000</v>
       </c>
-      <c r="AA5" s="14">
-        <v>0</v>
-      </c>
+      <c r="AA5" s="14"/>
       <c r="AB5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="14">
         <v>1</v>
       </c>
-      <c r="AC5" s="14">
+      <c r="AD5" s="14">
         <v>100000</v>
       </c>
-      <c r="AD5" s="14">
+      <c r="AE5" s="14">
         <v>1400000</v>
       </c>
-      <c r="AE5" s="14">
-        <v>0</v>
-      </c>
       <c r="AF5" s="14">
         <v>0</v>
       </c>
@@ -9385,136 +9456,71 @@
         <v>0</v>
       </c>
       <c r="AI5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="14">
         <v>100000</v>
       </c>
-      <c r="AJ5" s="14">
-        <v>0</v>
-      </c>
       <c r="AK5" s="14">
         <v>0</v>
       </c>
       <c r="AL5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="47">
+        <f>SUM(AE5:AL5)</f>
         <v>1500000</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
-      <c r="A6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="6" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A6" s="5"/>
+      <c r="B6" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="9">
-        <v>200</v>
-      </c>
-      <c r="L6" s="14">
-        <v>2400000</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="14">
-        <v>2400000</v>
-      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
-      <c r="S6" s="14">
-        <v>1</v>
-      </c>
-      <c r="T6" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="U6" s="14">
-        <v>600000</v>
-      </c>
-      <c r="V6" s="14">
-        <v>0</v>
-      </c>
-      <c r="W6" s="14">
-        <v>0</v>
-      </c>
-      <c r="X6" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="Y6" s="14">
-        <v>600000</v>
-      </c>
-      <c r="Z6" s="14">
-        <v>1600000</v>
-      </c>
-      <c r="AA6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="14">
-        <v>4</v>
-      </c>
-      <c r="AC6" s="14">
-        <v>800000</v>
-      </c>
-      <c r="AD6" s="14">
-        <v>1600000</v>
-      </c>
-      <c r="AE6" s="14">
-        <v>600000</v>
-      </c>
-      <c r="AF6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="14">
-        <v>200000</v>
-      </c>
-      <c r="AH6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="14">
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A7" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>22</v>
@@ -9536,74 +9542,70 @@
         <v>27</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K7" s="9">
         <v>200</v>
       </c>
       <c r="L7" s="14">
-        <v>2400000</v>
+        <v>0</v>
       </c>
       <c r="M7" s="6">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="6">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P7" s="6">
         <v>0</v>
       </c>
       <c r="Q7" s="14">
-        <v>400000</v>
-      </c>
-      <c r="R7" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="S7" s="14">
         <v>1</v>
       </c>
       <c r="T7" s="14">
+        <v>0</v>
+      </c>
+      <c r="U7" s="14">
+        <v>0</v>
+      </c>
+      <c r="V7" s="14">
         <v>1000000</v>
       </c>
-      <c r="U7" s="14">
+      <c r="W7" s="14">
         <v>600000</v>
       </c>
-      <c r="V7" s="14">
-        <v>0</v>
-      </c>
-      <c r="W7" s="14">
-        <v>0</v>
-      </c>
-      <c r="X7" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="Y7" s="14">
-        <v>600000</v>
-      </c>
-      <c r="Z7" s="14">
-        <v>1600000</v>
-      </c>
-      <c r="AA7" s="14">
-        <v>0</v>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="AB7" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="14">
-        <v>800000</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="14">
-        <v>1600000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="14">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="14">
         <v>0</v>
       </c>
       <c r="AG7" s="14">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="14">
         <v>0</v>
@@ -9618,127 +9620,62 @@
         <v>0</v>
       </c>
       <c r="AL7" s="14">
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
-      <c r="A8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="47">
+        <f t="shared" ref="AM7:AM11" si="0">SUM(AE7:AL7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A8" s="5"/>
+      <c r="B8" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="9">
-        <v>200</v>
-      </c>
-      <c r="L8" s="14">
-        <v>2100000</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>2100000</v>
-      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
-      <c r="S8" s="14">
-        <v>1</v>
-      </c>
-      <c r="T8" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="U8" s="14">
-        <v>600000</v>
-      </c>
-      <c r="V8" s="14">
-        <v>0</v>
-      </c>
-      <c r="W8" s="14">
-        <v>0</v>
-      </c>
-      <c r="X8" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="Y8" s="14">
-        <v>600000</v>
-      </c>
-      <c r="Z8" s="14">
-        <v>1600000</v>
-      </c>
-      <c r="AA8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="14">
-        <v>2</v>
-      </c>
-      <c r="AC8" s="14">
-        <v>500000</v>
-      </c>
-      <c r="AD8" s="14">
-        <v>1600000</v>
-      </c>
-      <c r="AE8" s="14">
-        <v>400000</v>
-      </c>
-      <c r="AF8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="14">
-        <v>100000</v>
-      </c>
-      <c r="AH8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="14">
-        <v>2100000</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>22</v>
@@ -9760,13 +9697,13 @@
         <v>27</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K9" s="9">
         <v>200</v>
       </c>
       <c r="L9" s="14">
-        <v>4200000</v>
+        <v>1600000</v>
       </c>
       <c r="M9" s="6">
         <v>0</v>
@@ -9775,194 +9712,130 @@
         <v>0</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P9" s="6">
         <v>0</v>
       </c>
       <c r="Q9" s="14">
-        <v>4200000</v>
-      </c>
-      <c r="R9" s="14"/>
+        <v>1600000</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="S9" s="14">
         <v>1</v>
       </c>
       <c r="T9" s="14">
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="U9" s="14">
         <v>600000</v>
       </c>
       <c r="V9" s="14">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="W9" s="14">
         <v>0</v>
       </c>
       <c r="X9" s="14">
-        <v>2000000</v>
+        <v>900000</v>
       </c>
       <c r="Y9" s="14">
-        <v>1200000</v>
+        <v>600000</v>
       </c>
       <c r="Z9" s="14">
-        <v>3200000</v>
-      </c>
-      <c r="AA9" s="14">
+        <f t="shared" ref="Z9:Z13" si="1">X9+Y9</f>
+        <v>1500000</v>
+      </c>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="14">
         <v>1</v>
       </c>
-      <c r="AB9" s="14">
-        <v>4</v>
-      </c>
-      <c r="AC9" s="14">
-        <v>1000000</v>
-      </c>
       <c r="AD9" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AE9" s="14">
+        <v>1500000</v>
+      </c>
+      <c r="AF9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AK9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="47">
+        <f t="shared" si="0"/>
         <v>1600000</v>
       </c>
-      <c r="AE9" s="14">
-        <v>400000</v>
-      </c>
-      <c r="AF9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="14">
-        <v>100000</v>
-      </c>
-      <c r="AH9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="14">
-        <v>2100000</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="10" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A10" s="5"/>
+      <c r="B10" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="9">
-        <v>200</v>
-      </c>
-      <c r="L10" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="M10" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="N10" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="S10" s="14">
-        <v>1</v>
-      </c>
-      <c r="T10" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="U10" s="14">
-        <v>600000</v>
-      </c>
-      <c r="V10" s="14">
-        <v>0</v>
-      </c>
-      <c r="W10" s="14">
-        <v>0</v>
-      </c>
-      <c r="X10" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="Y10" s="14">
-        <v>600000</v>
-      </c>
-      <c r="Z10" s="14">
-        <v>1600000</v>
-      </c>
-      <c r="AA10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="14">
-        <v>400000</v>
-      </c>
-      <c r="AD10" s="14">
-        <v>1600000</v>
-      </c>
-      <c r="AE10" s="14">
-        <v>400000</v>
-      </c>
-      <c r="AF10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="14">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
-      <c r="A11" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="B11" s="6" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>22</v>
@@ -9984,13 +9857,13 @@
         <v>27</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="9">
         <v>200</v>
       </c>
       <c r="L11" s="14">
-        <v>1600000</v>
+        <v>1530000</v>
       </c>
       <c r="M11" s="6">
         <v>0</v>
@@ -9999,194 +9872,1083 @@
         <v>0</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P11" s="6">
         <v>0</v>
       </c>
       <c r="Q11" s="14">
-        <v>1600000</v>
-      </c>
-      <c r="R11" s="14"/>
+        <v>1530000</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="S11" s="14">
         <v>1</v>
       </c>
       <c r="T11" s="14">
+        <v>900000</v>
+      </c>
+      <c r="U11" s="14">
+        <v>540000</v>
+      </c>
+      <c r="V11" s="14">
+        <v>100000</v>
+      </c>
+      <c r="W11" s="14">
+        <v>60000</v>
+      </c>
+      <c r="X11" s="14">
+        <v>900000</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>540000</v>
+      </c>
+      <c r="Z11" s="14">
+        <f t="shared" si="1"/>
+        <v>1440000</v>
+      </c>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>90000</v>
+      </c>
+      <c r="AE11" s="14">
+        <v>1440000</v>
+      </c>
+      <c r="AF11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="14">
+        <v>90000</v>
+      </c>
+      <c r="AK11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="47">
+        <f t="shared" si="0"/>
+        <v>1530000</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A12" s="5"/>
+      <c r="B12" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="9">
+        <v>200</v>
+      </c>
+      <c r="L13" s="14">
+        <v>250000</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>250000</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S13" s="14">
+        <v>1</v>
+      </c>
+      <c r="T13" s="14">
+        <v>100000</v>
+      </c>
+      <c r="U13" s="14">
+        <v>100000</v>
+      </c>
+      <c r="V13" s="14">
+        <v>0</v>
+      </c>
+      <c r="W13" s="14">
+        <v>0</v>
+      </c>
+      <c r="X13" s="14">
+        <v>100000</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>100000</v>
+      </c>
+      <c r="Z13" s="14">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AE13" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AF13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AK13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="47">
+        <f>SUM(AE13:AL13)</f>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="9">
+        <v>200</v>
+      </c>
+      <c r="L15" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14">
+        <v>1</v>
+      </c>
+      <c r="T15" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U15" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V15" s="14">
+        <v>0</v>
+      </c>
+      <c r="W15" s="14">
+        <v>0</v>
+      </c>
+      <c r="X15" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y15" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z15" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="14">
+        <v>4</v>
+      </c>
+      <c r="AD15" s="14">
         <v>800000</v>
       </c>
-      <c r="U11" s="14">
+      <c r="AE15" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AF15" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AG15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AI15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="14">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="9">
+        <v>200</v>
+      </c>
+      <c r="L16" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="M16" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="N16" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="14">
         <v>400000</v>
       </c>
-      <c r="V11" s="14">
+      <c r="R16" s="14"/>
+      <c r="S16" s="14">
+        <v>1</v>
+      </c>
+      <c r="T16" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U16" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V16" s="14">
+        <v>0</v>
+      </c>
+      <c r="W16" s="14">
+        <v>0</v>
+      </c>
+      <c r="X16" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z16" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="14">
+        <v>4</v>
+      </c>
+      <c r="AD16" s="14">
+        <v>800000</v>
+      </c>
+      <c r="AE16" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AF16" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AG16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="14">
         <v>200000</v>
       </c>
-      <c r="W11" s="14">
+      <c r="AI16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="14">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="9">
+        <v>200</v>
+      </c>
+      <c r="L17" s="14">
+        <v>2100000</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>2100000</v>
+      </c>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14">
+        <v>1</v>
+      </c>
+      <c r="T17" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U17" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V17" s="14">
+        <v>0</v>
+      </c>
+      <c r="W17" s="14">
+        <v>0</v>
+      </c>
+      <c r="X17" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z17" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="14">
+        <v>500000</v>
+      </c>
+      <c r="AE17" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AF17" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AG17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AI17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="14">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="9">
+        <v>200</v>
+      </c>
+      <c r="L18" s="14">
+        <v>4200000</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>4200000</v>
+      </c>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14">
+        <v>1</v>
+      </c>
+      <c r="T18" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U18" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V18" s="14">
+        <v>0</v>
+      </c>
+      <c r="W18" s="14">
+        <v>0</v>
+      </c>
+      <c r="X18" s="14">
+        <v>2000000</v>
+      </c>
+      <c r="Y18" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="Z18" s="14">
+        <v>3200000</v>
+      </c>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="14">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="AE18" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AF18" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AG18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AI18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="14">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="9">
+        <v>200</v>
+      </c>
+      <c r="L19" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="M19" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="N19" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S19" s="14">
+        <v>1</v>
+      </c>
+      <c r="T19" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U19" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V19" s="14">
+        <v>0</v>
+      </c>
+      <c r="W19" s="14">
+        <v>0</v>
+      </c>
+      <c r="X19" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y19" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z19" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AE19" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AF19" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AG19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="14">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="9">
+        <v>200</v>
+      </c>
+      <c r="L20" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14">
+        <v>1</v>
+      </c>
+      <c r="T20" s="14">
+        <v>800000</v>
+      </c>
+      <c r="U20" s="14">
+        <v>400000</v>
+      </c>
+      <c r="V20" s="14">
         <v>200000</v>
       </c>
-      <c r="X11" s="14">
+      <c r="W20" s="14">
+        <v>200000</v>
+      </c>
+      <c r="X20" s="14">
         <v>800000</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="Y20" s="14">
         <v>400000</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="Z20" s="14">
         <v>1200000</v>
       </c>
-      <c r="AA11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="14">
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="14">
         <v>2</v>
       </c>
-      <c r="AC11" s="14">
+      <c r="AD20" s="14">
         <v>400000</v>
       </c>
-      <c r="AD11" s="14">
+      <c r="AE20" s="14">
         <v>1200000</v>
       </c>
-      <c r="AE11" s="14">
+      <c r="AF20" s="14">
         <v>400000</v>
       </c>
-      <c r="AF11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="14">
+      <c r="AG20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="14">
         <v>1600000</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="52" customHeight="1" spans="1:38">
-      <c r="A12" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="26" t="s">
+    <row r="21" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="14" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I21" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="9">
+      <c r="J21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="9">
         <v>200</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L21" s="14">
         <v>1200000</v>
       </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="P12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="14">
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="14">
         <v>1200000</v>
       </c>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14">
+      <c r="R21" s="14"/>
+      <c r="S21" s="14">
         <v>1</v>
       </c>
-      <c r="T12" s="14">
+      <c r="T21" s="14">
         <v>800000</v>
       </c>
-      <c r="U12" s="14">
+      <c r="U21" s="14">
         <v>400000</v>
       </c>
-      <c r="V12" s="14">
+      <c r="V21" s="14">
         <v>200000</v>
       </c>
-      <c r="W12" s="14">
+      <c r="W21" s="14">
         <v>200000</v>
       </c>
-      <c r="X12" s="14">
+      <c r="X21" s="14">
         <v>800000</v>
       </c>
-      <c r="Y12" s="14">
+      <c r="Y21" s="14">
         <v>400000</v>
       </c>
-      <c r="Z12" s="14">
+      <c r="Z21" s="14">
         <v>1200000</v>
       </c>
-      <c r="AA12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="14">
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="14">
         <v>2</v>
       </c>
-      <c r="AC12" s="14">
+      <c r="AD21" s="14">
         <v>800000</v>
       </c>
-      <c r="AD12" s="14">
+      <c r="AE21" s="14">
         <v>1200000</v>
       </c>
-      <c r="AE12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="14">
+      <c r="AF21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="14">
         <v>1200000</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="12:12">
-      <c r="L15" s="36"/>
+    <row r="24" customHeight="1" spans="12:12">
+      <c r="L24" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B12:F12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -10317,48 +11079,48 @@
         <v>53</v>
       </c>
       <c r="AA1" s="37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB1" s="35" t="s">
         <v>19</v>
       </c>
       <c r="AC1" s="35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD1" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE1" s="34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF1" s="34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG1" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AH1" s="34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI1" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ1" s="34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK1" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AL1" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -10380,7 +11142,7 @@
         <v>27</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -10395,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P2" s="6">
         <v>0</v>
@@ -10467,10 +11229,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A3" s="5" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -10492,7 +11254,7 @@
         <v>27</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -10507,7 +11269,7 @@
         <v>2000000</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P3" s="6">
         <v>0</v>
@@ -10579,10 +11341,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A4" s="5" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -10604,7 +11366,7 @@
         <v>27</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -10619,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P4" s="6">
         <v>0</v>
@@ -10691,10 +11453,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A5" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -10716,7 +11478,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -10731,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P5" s="6">
         <v>0</v>
@@ -10740,7 +11502,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="S5" s="14">
         <v>1</v>
@@ -10805,10 +11567,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A6" s="5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>22</v>
@@ -10830,7 +11592,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K6" s="9">
         <v>200</v>
@@ -10845,7 +11607,7 @@
         <v>2000000</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P6" s="6">
         <v>0</v>
@@ -10854,7 +11616,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="S6" s="14">
         <v>1</v>
@@ -11054,48 +11816,48 @@
         <v>53</v>
       </c>
       <c r="AA1" s="37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB1" s="35" t="s">
         <v>19</v>
       </c>
       <c r="AC1" s="35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD1" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE1" s="34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF1" s="34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG1" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AH1" s="34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI1" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ1" s="34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK1" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AL1" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -11117,7 +11879,7 @@
         <v>27</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -11132,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P2" s="6">
         <v>0</v>
@@ -11204,10 +11966,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A3" s="5" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -11229,7 +11991,7 @@
         <v>27</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -11244,7 +12006,7 @@
         <v>2000000</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P3" s="6">
         <v>0</v>
@@ -11316,10 +12078,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A4" s="5" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -11341,7 +12103,7 @@
         <v>27</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -11356,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P4" s="6">
         <v>0</v>
@@ -11428,10 +12190,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A5" s="5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -11453,7 +12215,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -11468,14 +12230,14 @@
         <v>2000000</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P5" s="6">
         <v>0</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="S5" s="14">
         <v>1</v>
@@ -11671,48 +12433,48 @@
         <v>53</v>
       </c>
       <c r="AA1" s="37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB1" s="35" t="s">
         <v>19</v>
       </c>
       <c r="AC1" s="35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD1" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE1" s="34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF1" s="34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG1" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AH1" s="34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI1" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AJ1" s="34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK1" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AL1" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -11734,7 +12496,7 @@
         <v>27</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -11749,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P2" s="6">
         <v>0</v>
@@ -11822,10 +12584,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A3" s="5" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -11847,7 +12609,7 @@
         <v>27</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -11862,7 +12624,7 @@
         <v>2000000</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P3" s="6">
         <v>0</v>
@@ -11935,10 +12697,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A4" s="5" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -11960,7 +12722,7 @@
         <v>27</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -11975,7 +12737,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P4" s="6">
         <v>0</v>
@@ -12047,10 +12809,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A5" s="5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -12072,7 +12834,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -12087,14 +12849,14 @@
         <v>2000000</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P5" s="6">
         <v>0</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="S5" s="14">
         <v>1</v>
@@ -12229,7 +12991,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -12268,7 +13030,7 @@
         <v>50</v>
       </c>
       <c r="V1" s="32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W1" s="34" t="s">
         <v>19</v>
@@ -12276,10 +13038,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A2" s="5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -12298,10 +13060,10 @@
         <v>26</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -12310,7 +13072,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N2" s="6">
         <v>0</v>
@@ -12341,10 +13103,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A3" s="5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -12363,10 +13125,10 @@
         <v>26</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -12375,7 +13137,7 @@
         <v>2000000</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N3" s="6">
         <v>0</v>
@@ -12406,10 +13168,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A4" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -12428,10 +13190,10 @@
         <v>26</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -12440,7 +13202,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N4" s="6">
         <v>0</v>
@@ -12471,10 +13233,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A5" s="5" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -12493,10 +13255,10 @@
         <v>26</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -12505,7 +13267,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N5" s="6">
         <v>0</v>
@@ -12538,10 +13300,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A6" s="5" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>22</v>
@@ -12560,10 +13322,10 @@
         <v>26</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="K6" s="9">
         <v>200</v>
@@ -12572,14 +13334,14 @@
         <v>2000000</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N6" s="6">
         <v>0</v>
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="14">
         <v>1</v>

--- a/src/main/resources/input_excel_file/booking/CICO.xlsx
+++ b/src/main/resources/input_excel_file/booking/CICO.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="353">
   <si>
     <t>tc_id</t>
   </si>
@@ -292,6 +292,12 @@
     <t>false</t>
   </si>
   <si>
+    <t>VST_002</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra giá sau khi ghép xe</t>
+  </si>
+  <si>
     <t>Apply voucher giảm giá thông thường: Giảm 200k green fee</t>
   </si>
   <si>
@@ -301,34 +307,64 @@
     <t>VST_Kiểm tra giá sau khi check in có add voucher</t>
   </si>
   <si>
+    <t>VST_VC_GREEN_002</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra giá sau khi ghép xe có add voucher</t>
+  </si>
+  <si>
     <t>Apply voucher giảm giá thông thường: Giảm 2tr1 cho green + caddie + 1/2 xe + package</t>
   </si>
   <si>
     <t>VST_VC_4FEE_001</t>
   </si>
   <si>
-    <t>fee_of_bag_mustpay_0_VND_apply_voucher_expect.json</t>
+    <t>fee_of_bag_0_VND_mustpay_and_0_VND_golf_fee_expect.json</t>
   </si>
   <si>
     <t>{}</t>
   </si>
   <si>
+    <t>VST_VC_4FEE_002</t>
+  </si>
+  <si>
+    <t>fee_of_bag_0_VND_golf_fee_expect.json</t>
+  </si>
+  <si>
     <t>Apply voucher giảm giá thông thường: Giảm 10% green</t>
   </si>
   <si>
     <t>VST_VC_GREEN_10_001</t>
   </si>
   <si>
+    <t>VST_VC_GREEN_10_002</t>
+  </si>
+  <si>
     <t>Apply voucher giảm giá thông thường: Giảm 10% all fee</t>
   </si>
   <si>
     <t>VST_VC_ALL_10_001</t>
   </si>
   <si>
+    <t>VST_VC_ALL_10_002</t>
+  </si>
+  <si>
     <t>Apply voucher giảm giá cố định: Green + Caddie + 1/2 xe + Package</t>
   </si>
   <si>
     <t>VST_VC_CD4FEE_001</t>
+  </si>
+  <si>
+    <t>VST_VC_CD4FEE_002</t>
+  </si>
+  <si>
+    <t>Apply voucher trả trước: Green + Caddie + 1/2 xe + Package</t>
+  </si>
+  <si>
+    <t>VST_VC_TT4FEE_001</t>
+  </si>
+  <si>
+    <t>VST_VC_TT4FEE_002</t>
   </si>
   <si>
     <t>VST_FEE_OF_BAG_001</t>
@@ -1989,14 +2025,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2826,7 +2862,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -2870,10 +2906,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A2" s="5" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -2895,7 +2931,7 @@
         <v>69</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -2934,10 +2970,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="5" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -2959,7 +2995,7 @@
         <v>69</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -2998,10 +3034,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A4" s="5" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -3023,7 +3059,7 @@
         <v>69</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -3062,10 +3098,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -3087,7 +3123,7 @@
         <v>69</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -3105,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="14">
         <v>1</v>
@@ -3128,10 +3164,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A6" s="5" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>22</v>
@@ -3153,7 +3189,7 @@
         <v>69</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="K6" s="9">
         <v>200</v>
@@ -3171,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="14">
         <v>1</v>
@@ -3265,7 +3301,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -3309,10 +3345,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A2" s="5" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -3334,7 +3370,7 @@
         <v>69</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -3373,10 +3409,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="5" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -3398,7 +3434,7 @@
         <v>69</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -3437,10 +3473,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A4" s="5" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -3462,7 +3498,7 @@
         <v>69</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -3501,10 +3537,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A5" s="5" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -3526,7 +3562,7 @@
         <v>69</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -3542,7 +3578,7 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="14">
         <v>1</v>
@@ -3636,7 +3672,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -3680,10 +3716,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A2" s="5" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -3696,7 +3732,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>26</v>
@@ -3705,7 +3741,7 @@
         <v>69</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -3744,10 +3780,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="5" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -3760,7 +3796,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>26</v>
@@ -3769,7 +3805,7 @@
         <v>69</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -3808,10 +3844,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A4" s="5" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -3824,7 +3860,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>26</v>
@@ -3833,7 +3869,7 @@
         <v>69</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -3872,10 +3908,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A5" s="5" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -3888,7 +3924,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>26</v>
@@ -3897,7 +3933,7 @@
         <v>69</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -3913,7 +3949,7 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="14">
         <v>1</v>
@@ -3990,25 +4026,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="L1" s="27" t="s">
         <v>9</v>
@@ -4017,37 +4053,37 @@
         <v>10</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" s="29" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A2" s="6" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="6" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="M2" s="14">
         <v>200</v>
@@ -4058,36 +4094,36 @@
     </row>
     <row r="3" s="29" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A3" s="6" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="6" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="M3" s="14">
         <v>200</v>
@@ -4098,40 +4134,40 @@
     </row>
     <row r="4" s="29" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A4" s="6" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="M4" s="14">
         <v>200</v>
@@ -4187,31 +4223,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="N1" s="27" t="s">
         <v>9</v>
@@ -4226,24 +4262,24 @@
         <v>43</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:19">
       <c r="A2" s="5" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>23</v>
@@ -4252,28 +4288,28 @@
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="O2" s="9">
         <v>200</v>
@@ -4355,76 +4391,76 @@
         <v>3</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AB1" s="23" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>9</v>
@@ -4436,24 +4472,24 @@
         <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A2" s="5" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -4462,28 +4498,28 @@
         <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>69</v>
@@ -4508,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Y2" s="9">
         <v>0</v>
@@ -4523,7 +4559,7 @@
         <v>69</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AD2" s="14">
         <v>200</v>
@@ -4537,19 +4573,19 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A3" s="5" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -4558,28 +4594,28 @@
         <v>24</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="P3" s="24" t="s">
         <v>69</v>
@@ -4604,7 +4640,7 @@
         <v>400000</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Y3" s="9">
         <v>0</v>
@@ -4619,7 +4655,7 @@
         <v>69</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AD3" s="14">
         <v>200</v>
@@ -4633,19 +4669,19 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A4" s="5" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -4654,28 +4690,28 @@
         <v>24</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="P4" s="24" t="s">
         <v>69</v>
@@ -4700,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Y4" s="9">
         <v>0</v>
@@ -4715,7 +4751,7 @@
         <v>69</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AD4" s="14">
         <v>200</v>
@@ -4729,19 +4765,19 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A5" s="5" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>23</v>
@@ -4750,28 +4786,28 @@
         <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="P5" s="24" t="s">
         <v>69</v>
@@ -4796,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Y5" s="9">
         <v>0</v>
@@ -4811,7 +4847,7 @@
         <v>69</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AD5" s="14">
         <v>200</v>
@@ -4825,19 +4861,19 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A6" s="5" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>23</v>
@@ -4846,28 +4882,28 @@
         <v>24</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="P6" s="24" t="s">
         <v>69</v>
@@ -4892,7 +4928,7 @@
         <v>400000</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Y6" s="9">
         <v>0</v>
@@ -4907,7 +4943,7 @@
         <v>69</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AD6" s="14">
         <v>200</v>
@@ -4983,76 +5019,76 @@
         <v>3</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AB1" s="23" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>9</v>
@@ -5064,24 +5100,24 @@
         <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A2" s="5" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -5090,28 +5126,28 @@
         <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>69</v>
@@ -5136,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Y2" s="9">
         <v>0</v>
@@ -5151,7 +5187,7 @@
         <v>69</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AD2" s="14">
         <v>200</v>
@@ -5165,19 +5201,19 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A3" s="5" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -5186,28 +5222,28 @@
         <v>24</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="P3" s="24" t="s">
         <v>69</v>
@@ -5232,7 +5268,7 @@
         <v>400000</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Y3" s="9">
         <v>0</v>
@@ -5247,7 +5283,7 @@
         <v>69</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AD3" s="14">
         <v>200</v>
@@ -5261,19 +5297,19 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A4" s="5" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -5282,28 +5318,28 @@
         <v>24</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="P4" s="24" t="s">
         <v>69</v>
@@ -5328,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Y4" s="9">
         <v>0</v>
@@ -5343,7 +5379,7 @@
         <v>69</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AD4" s="14">
         <v>200</v>
@@ -5357,19 +5393,19 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A5" s="5" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>23</v>
@@ -5378,28 +5414,28 @@
         <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="P5" s="24" t="s">
         <v>69</v>
@@ -5424,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Y5" s="9">
         <v>0</v>
@@ -5439,7 +5475,7 @@
         <v>69</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AD5" s="14">
         <v>200</v>
@@ -5453,19 +5489,19 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A6" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>23</v>
@@ -5474,28 +5510,28 @@
         <v>24</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="P6" s="24" t="s">
         <v>69</v>
@@ -5520,7 +5556,7 @@
         <v>400000</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Y6" s="9">
         <v>0</v>
@@ -5535,7 +5571,7 @@
         <v>69</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AD6" s="14">
         <v>200</v>
@@ -5611,76 +5647,76 @@
         <v>3</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AB1" s="23" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>9</v>
@@ -5692,24 +5728,24 @@
         <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A2" s="5" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -5718,28 +5754,28 @@
         <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>69</v>
@@ -5764,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Y2" s="9">
         <v>0</v>
@@ -5779,7 +5815,7 @@
         <v>69</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AD2" s="14">
         <v>200</v>
@@ -5793,19 +5829,19 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A3" s="5" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -5814,28 +5850,28 @@
         <v>24</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="P3" s="24" t="s">
         <v>69</v>
@@ -5860,7 +5896,7 @@
         <v>400000</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Y3" s="9">
         <v>0</v>
@@ -5875,7 +5911,7 @@
         <v>69</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AD3" s="14">
         <v>200</v>
@@ -5889,19 +5925,19 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A4" s="5" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -5910,28 +5946,28 @@
         <v>24</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="P4" s="24" t="s">
         <v>69</v>
@@ -5956,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Y4" s="9">
         <v>0</v>
@@ -5971,7 +6007,7 @@
         <v>69</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AD4" s="14">
         <v>200</v>
@@ -5985,19 +6021,19 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A5" s="5" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>23</v>
@@ -6006,28 +6042,28 @@
         <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="P5" s="24" t="s">
         <v>69</v>
@@ -6052,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Y5" s="9">
         <v>0</v>
@@ -6067,7 +6103,7 @@
         <v>69</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AD5" s="14">
         <v>200</v>
@@ -6081,19 +6117,19 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A6" s="5" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>23</v>
@@ -6102,28 +6138,28 @@
         <v>24</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="P6" s="24" t="s">
         <v>69</v>
@@ -6148,7 +6184,7 @@
         <v>400000</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Y6" s="9">
         <v>0</v>
@@ -6163,7 +6199,7 @@
         <v>69</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AD6" s="14">
         <v>200</v>
@@ -6239,76 +6275,76 @@
         <v>3</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AB1" s="23" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>9</v>
@@ -6320,24 +6356,24 @@
         <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A2" s="5" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -6346,28 +6382,28 @@
         <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>69</v>
@@ -6392,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Y2" s="9">
         <v>0</v>
@@ -6407,7 +6443,7 @@
         <v>69</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AD2" s="14">
         <v>200</v>
@@ -6421,19 +6457,19 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A3" s="5" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -6442,28 +6478,28 @@
         <v>24</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="P3" s="24" t="s">
         <v>69</v>
@@ -6488,7 +6524,7 @@
         <v>400000</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Y3" s="9">
         <v>0</v>
@@ -6503,7 +6539,7 @@
         <v>69</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AD3" s="14">
         <v>200</v>
@@ -6517,19 +6553,19 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A4" s="5" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -6538,28 +6574,28 @@
         <v>24</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="P4" s="24" t="s">
         <v>69</v>
@@ -6584,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Y4" s="9">
         <v>0</v>
@@ -6599,7 +6635,7 @@
         <v>69</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AD4" s="14">
         <v>200</v>
@@ -6613,19 +6649,19 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A5" s="5" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>23</v>
@@ -6634,28 +6670,28 @@
         <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="P5" s="24" t="s">
         <v>69</v>
@@ -6680,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Y5" s="9">
         <v>0</v>
@@ -6695,7 +6731,7 @@
         <v>69</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AD5" s="14">
         <v>200</v>
@@ -6709,19 +6745,19 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A6" s="5" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>23</v>
@@ -6730,28 +6766,28 @@
         <v>24</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="P6" s="24" t="s">
         <v>69</v>
@@ -6776,7 +6812,7 @@
         <v>400000</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Y6" s="9">
         <v>0</v>
@@ -6791,7 +6827,7 @@
         <v>69</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AD6" s="14">
         <v>200</v>
@@ -6871,124 +6907,124 @@
         <v>3</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="U1" s="18" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="W1" s="18" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="X1" s="18" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="Y1" s="18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="AA1" s="19" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="AB1" s="19" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="AD1" s="19" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AE1" s="19" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AF1" s="19" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="AG1" s="19" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="AH1" s="19" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="AI1" s="19" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AJ1" s="19" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AK1" s="19" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AL1" s="19" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="AM1" s="19" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="AN1" s="19" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="AO1" s="19" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="AP1" s="18" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="AQ1" s="18" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="AR1" s="20" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="AS1" s="10" t="s">
         <v>9</v>
@@ -6997,37 +7033,37 @@
         <v>10</v>
       </c>
       <c r="AU1" s="12" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A2" s="5" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="K2" s="5">
         <v>1600000</v>
@@ -7039,34 +7075,34 @@
         <v>1600000</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="Q2" s="5">
         <v>0</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="V2" s="5">
         <v>0</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
@@ -7082,25 +7118,25 @@
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AR2" s="21" t="s">
         <v>69</v>
       </c>
       <c r="AS2" s="8" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AT2" s="14">
         <v>200</v>
@@ -7111,32 +7147,32 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A3" s="5" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="K3" s="5">
         <v>8800000</v>
@@ -7148,34 +7184,34 @@
         <v>1600000</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="Q3" s="5">
         <v>0</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="V3" s="5">
         <v>0</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
@@ -7191,25 +7227,25 @@
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
       <c r="AM3" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AR3" s="21" t="s">
         <v>69</v>
       </c>
       <c r="AS3" s="8" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AT3" s="14">
         <v>200</v>
@@ -7220,32 +7256,32 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A4" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="K4" s="5">
         <v>1600000</v>
@@ -7257,34 +7293,34 @@
         <v>1600000</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="5">
         <v>0</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="V4" s="5">
         <v>0</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
@@ -7300,25 +7336,25 @@
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
       <c r="AM4" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AN4" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AO4" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AP4" s="5" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AQ4" s="5" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AR4" s="21" t="s">
         <v>69</v>
       </c>
       <c r="AS4" s="8" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AT4" s="14">
         <v>200</v>
@@ -7329,32 +7365,32 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A5" s="5" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="K5" s="5">
         <v>1600000</v>
@@ -7366,34 +7402,34 @@
         <v>1600000</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="5">
         <v>0</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="V5" s="5">
         <v>0</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
@@ -7409,25 +7445,25 @@
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
       <c r="AM5" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AN5" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AO5" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AP5" s="5" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AQ5" s="5" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AR5" s="21" t="s">
         <v>69</v>
       </c>
       <c r="AS5" s="8" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AT5" s="14">
         <v>200</v>
@@ -7438,32 +7474,32 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A6" s="5" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="K6" s="5">
         <v>1600000</v>
@@ -7475,34 +7511,34 @@
         <v>1600000</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="5">
         <v>0</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="V6" s="5">
         <v>0</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
@@ -7518,25 +7554,25 @@
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
       <c r="AM6" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AN6" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AO6" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AQ6" s="5" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AR6" s="21" t="s">
         <v>69</v>
       </c>
       <c r="AS6" s="8" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AT6" s="14">
         <v>200</v>
@@ -7547,32 +7583,32 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A7" s="5" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="K7" s="5">
         <v>100000</v>
@@ -7584,90 +7620,90 @@
         <v>100000</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="5">
         <v>0</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="V7" s="5">
         <v>0</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="AA7" s="5">
         <v>200000</v>
       </c>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5">
         <v>200000</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AG7" s="5">
         <v>0</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="AI7" s="5" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="AJ7" s="5" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AL7" s="5">
         <v>0</v>
       </c>
       <c r="AM7" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AN7" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AO7" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AP7" s="5" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AQ7" s="5" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AR7" s="21" t="s">
         <v>69</v>
       </c>
       <c r="AS7" s="8" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AT7" s="14">
         <v>200</v>
@@ -7949,22 +7985,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>9</v>
@@ -7973,48 +8009,48 @@
         <v>10</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A2" s="5" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>23</v>
@@ -8026,16 +8062,16 @@
         <v>26</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="L2" s="14">
         <v>200</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="O2" s="15"/>
       <c r="P2" s="5">
@@ -8047,25 +8083,25 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A3" s="5" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>23</v>
@@ -8077,16 +8113,16 @@
         <v>26</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="L3" s="14">
         <v>200</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="5">
@@ -8098,25 +8134,25 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A4" s="5" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>23</v>
@@ -8128,16 +8164,16 @@
         <v>26</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="L4" s="14">
         <v>200</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="5">
@@ -8149,25 +8185,25 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A5" s="5" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>23</v>
@@ -8179,16 +8215,16 @@
         <v>26</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="L5" s="14">
         <v>200</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="5">
@@ -8200,25 +8236,25 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A6" s="5" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>23</v>
@@ -8230,29 +8266,29 @@
         <v>26</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="L6" s="14">
         <v>200</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="5">
         <v>100000</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -8299,10 +8335,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>9</v>
@@ -8311,33 +8347,33 @@
         <v>10</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="H2" s="14">
         <v>200</v>
@@ -8346,30 +8382,30 @@
         <v>31</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="H3" s="14">
         <v>200</v>
@@ -8378,30 +8414,30 @@
         <v>31</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="H4" s="14">
         <v>200</v>
@@ -8410,30 +8446,30 @@
         <v>31</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="H5" s="14">
         <v>200</v>
@@ -8442,7 +8478,7 @@
         <v>31</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -8488,16 +8524,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>9</v>
@@ -8506,36 +8542,36 @@
         <v>10</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="J2" s="14">
         <v>200</v>
@@ -8995,12 +9031,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -9231,7 +9267,7 @@
         <v>600000</v>
       </c>
       <c r="Z2" s="14">
-        <f>X2+Y2</f>
+        <f t="shared" ref="Z2:Z6" si="0">X2+Y2</f>
         <v>1600000</v>
       </c>
       <c r="AA2" s="14"/>
@@ -9269,62 +9305,136 @@
         <v>0</v>
       </c>
       <c r="AM2" s="47">
-        <f>SUM(AE2:AL2)</f>
+        <f t="shared" ref="AM2:AM6" si="1">SUM(AE2:AL2)</f>
         <v>1700000</v>
       </c>
     </row>
-    <row r="3" s="29" customFormat="1" ht="47" customHeight="1" spans="1:39">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
+    <row r="3" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="9">
+        <v>200</v>
+      </c>
+      <c r="L3" s="14">
+        <v>2300000</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>2300000</v>
+      </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14">
+        <v>1</v>
+      </c>
+      <c r="T3" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U3" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V3" s="14">
+        <v>0</v>
+      </c>
+      <c r="W3" s="14">
+        <v>0</v>
+      </c>
+      <c r="X3" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z3" s="14">
+        <f t="shared" si="0"/>
+        <v>1600000</v>
+      </c>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>700000</v>
+      </c>
+      <c r="AE3" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AF3" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AG3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AK3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="47">
+        <f t="shared" si="1"/>
+        <v>2300000</v>
+      </c>
     </row>
     <row r="4" s="29" customFormat="1" ht="47" customHeight="1" spans="1:39">
       <c r="A4" s="38"/>
-      <c r="B4" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="B4" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="45"/>
       <c r="J4" s="46"/>
       <c r="K4" s="34"/>
@@ -9359,10 +9469,10 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -9430,7 +9540,7 @@
         <v>600000</v>
       </c>
       <c r="Z5" s="14">
-        <f>X5+Y5</f>
+        <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
       <c r="AA5" s="14"/>
@@ -9468,214 +9578,286 @@
         <v>0</v>
       </c>
       <c r="AM5" s="47">
-        <f>SUM(AE5:AL5)</f>
+        <f t="shared" si="1"/>
         <v>1500000</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
-      <c r="A6" s="5"/>
-      <c r="B6" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="14"/>
+      <c r="A6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="9">
+        <v>200</v>
+      </c>
+      <c r="L6" s="14">
+        <v>2100000</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>2100000</v>
+      </c>
       <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
+      <c r="S6" s="14">
+        <v>1</v>
+      </c>
+      <c r="T6" s="14">
+        <v>800000</v>
+      </c>
+      <c r="U6" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V6" s="14">
+        <v>200000</v>
+      </c>
+      <c r="W6" s="14">
+        <v>0</v>
+      </c>
+      <c r="X6" s="14">
+        <v>800000</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z6" s="14">
+        <f t="shared" si="0"/>
+        <v>1400000</v>
+      </c>
       <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="14"/>
-      <c r="AM6" s="14"/>
+      <c r="AB6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>700000</v>
+      </c>
+      <c r="AE6" s="14">
+        <v>1400000</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AG6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AK6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="47">
+        <f t="shared" si="1"/>
+        <v>2100000</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
-      <c r="A7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="9">
-        <v>200</v>
-      </c>
-      <c r="L7" s="14">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>0</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="S7" s="14">
-        <v>1</v>
-      </c>
-      <c r="T7" s="14">
-        <v>0</v>
-      </c>
-      <c r="U7" s="14">
-        <v>0</v>
-      </c>
-      <c r="V7" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="W7" s="14">
-        <v>600000</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
       <c r="X7" s="14"/>
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
-      <c r="AA7" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="47">
-        <f t="shared" ref="AM7:AM11" si="0">SUM(AE7:AL7)</f>
-        <v>0</v>
-      </c>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
-      <c r="A8" s="5"/>
-      <c r="B8" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
+      <c r="A8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="9">
+        <v>200</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>0</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" s="14">
+        <v>1</v>
+      </c>
+      <c r="T8" s="14">
+        <v>0</v>
+      </c>
+      <c r="U8" s="14">
+        <v>0</v>
+      </c>
+      <c r="V8" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="W8" s="14">
+        <v>600000</v>
+      </c>
       <c r="X8" s="14"/>
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="14"/>
+      <c r="AA8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="47">
+        <f t="shared" ref="AM8:AM12" si="2">SUM(AE8:AL8)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A9" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>22</v>
@@ -9697,13 +9879,13 @@
         <v>27</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="K9" s="9">
         <v>200</v>
       </c>
       <c r="L9" s="14">
-        <v>1600000</v>
+        <v>200000</v>
       </c>
       <c r="M9" s="6">
         <v>0</v>
@@ -9718,51 +9900,44 @@
         <v>0</v>
       </c>
       <c r="Q9" s="14">
-        <v>1600000</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>76</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="R9" s="14"/>
       <c r="S9" s="14">
         <v>1</v>
       </c>
       <c r="T9" s="14">
-        <v>900000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="14">
+        <v>0</v>
+      </c>
+      <c r="V9" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="W9" s="14">
         <v>600000</v>
       </c>
-      <c r="V9" s="14">
-        <v>100000</v>
-      </c>
-      <c r="W9" s="14">
-        <v>0</v>
-      </c>
-      <c r="X9" s="14">
-        <v>900000</v>
-      </c>
-      <c r="Y9" s="14">
-        <v>600000</v>
-      </c>
-      <c r="Z9" s="14">
-        <f t="shared" ref="Z9:Z13" si="1">X9+Y9</f>
-        <v>1500000</v>
-      </c>
-      <c r="AA9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="AB9" s="14">
         <v>0</v>
       </c>
       <c r="AC9" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD9" s="14">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="AE9" s="14">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="14">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AG9" s="14">
         <v>0</v>
@@ -9774,7 +9949,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="14">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="14">
         <v>0</v>
@@ -9783,14 +9958,14 @@
         <v>0</v>
       </c>
       <c r="AM9" s="47">
-        <f t="shared" si="0"/>
-        <v>1600000</v>
+        <f t="shared" si="2"/>
+        <v>200000</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A10" s="5"/>
       <c r="B10" s="42" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
@@ -9832,10 +10007,10 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A11" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>22</v>
@@ -9863,7 +10038,7 @@
         <v>200</v>
       </c>
       <c r="L11" s="14">
-        <v>1530000</v>
+        <v>1600000</v>
       </c>
       <c r="M11" s="6">
         <v>0</v>
@@ -9878,11 +10053,9 @@
         <v>0</v>
       </c>
       <c r="Q11" s="14">
-        <v>1530000</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>76</v>
-      </c>
+        <v>1600000</v>
+      </c>
+      <c r="R11" s="14"/>
       <c r="S11" s="14">
         <v>1</v>
       </c>
@@ -9890,23 +10063,23 @@
         <v>900000</v>
       </c>
       <c r="U11" s="14">
-        <v>540000</v>
+        <v>600000</v>
       </c>
       <c r="V11" s="14">
         <v>100000</v>
       </c>
       <c r="W11" s="14">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="X11" s="14">
         <v>900000</v>
       </c>
       <c r="Y11" s="14">
-        <v>540000</v>
+        <v>600000</v>
       </c>
       <c r="Z11" s="14">
-        <f t="shared" si="1"/>
-        <v>1440000</v>
+        <f t="shared" ref="Z11:Z15" si="3">X11+Y11</f>
+        <v>1500000</v>
       </c>
       <c r="AA11" s="14"/>
       <c r="AB11" s="14">
@@ -9916,10 +10089,10 @@
         <v>1</v>
       </c>
       <c r="AD11" s="14">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="AE11" s="14">
-        <v>1440000</v>
+        <v>1500000</v>
       </c>
       <c r="AF11" s="14">
         <v>0</v>
@@ -9934,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="14">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="AK11" s="14">
         <v>0</v>
@@ -9943,217 +10116,289 @@
         <v>0</v>
       </c>
       <c r="AM11" s="47">
-        <f t="shared" si="0"/>
-        <v>1530000</v>
+        <f t="shared" si="2"/>
+        <v>1600000</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
-      <c r="A12" s="5"/>
-      <c r="B12" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="14"/>
+      <c r="A12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="9">
+        <v>200</v>
+      </c>
+      <c r="L12" s="14">
+        <v>2200000</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>2200000</v>
+      </c>
       <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
+      <c r="S12" s="14">
+        <v>1</v>
+      </c>
+      <c r="T12" s="14">
+        <v>900000</v>
+      </c>
+      <c r="U12" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V12" s="14">
+        <v>100000</v>
+      </c>
+      <c r="W12" s="14">
+        <v>0</v>
+      </c>
+      <c r="X12" s="14">
+        <v>900000</v>
+      </c>
+      <c r="Y12" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z12" s="14">
+        <f t="shared" si="3"/>
+        <v>1500000</v>
+      </c>
       <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="14"/>
-      <c r="AM12" s="14"/>
+      <c r="AB12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>700000</v>
+      </c>
+      <c r="AE12" s="14">
+        <v>1500000</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AG12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AK12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="47">
+        <f t="shared" si="2"/>
+        <v>2200000</v>
+      </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
-      <c r="A13" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="9">
-        <v>200</v>
-      </c>
-      <c r="L13" s="14">
-        <v>250000</v>
-      </c>
-      <c r="M13" s="6">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="P13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>250000</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="S13" s="14">
-        <v>1</v>
-      </c>
-      <c r="T13" s="14">
-        <v>100000</v>
-      </c>
-      <c r="U13" s="14">
-        <v>100000</v>
-      </c>
-      <c r="V13" s="14">
-        <v>0</v>
-      </c>
-      <c r="W13" s="14">
-        <v>0</v>
-      </c>
-      <c r="X13" s="14">
-        <v>100000</v>
-      </c>
-      <c r="Y13" s="14">
-        <v>100000</v>
-      </c>
-      <c r="Z13" s="14">
-        <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
-      <c r="AB13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="14">
-        <v>50000</v>
-      </c>
-      <c r="AE13" s="14">
-        <v>200000</v>
-      </c>
-      <c r="AF13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="14">
-        <v>50000</v>
-      </c>
-      <c r="AK13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="47">
-        <f>SUM(AE13:AL13)</f>
-        <v>250000</v>
-      </c>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="26"/>
+      <c r="A14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="14"/>
+      <c r="E14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="9">
+        <v>200</v>
+      </c>
+      <c r="L14" s="14">
+        <v>1530000</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>1530000</v>
+      </c>
       <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
+      <c r="S14" s="14">
+        <v>1</v>
+      </c>
+      <c r="T14" s="14">
+        <v>900000</v>
+      </c>
+      <c r="U14" s="14">
+        <v>540000</v>
+      </c>
+      <c r="V14" s="14">
+        <v>100000</v>
+      </c>
+      <c r="W14" s="14">
+        <v>60000</v>
+      </c>
+      <c r="X14" s="14">
+        <v>900000</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>540000</v>
+      </c>
+      <c r="Z14" s="14">
+        <f t="shared" si="3"/>
+        <v>1440000</v>
+      </c>
       <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="14"/>
-      <c r="AI14" s="14"/>
-      <c r="AJ14" s="14"/>
-      <c r="AK14" s="14"/>
-      <c r="AL14" s="14"/>
-      <c r="AM14" s="14"/>
+      <c r="AB14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>90000</v>
+      </c>
+      <c r="AE14" s="14">
+        <v>1440000</v>
+      </c>
+      <c r="AF14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="14">
+        <v>90000</v>
+      </c>
+      <c r="AK14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="47">
+        <f t="shared" ref="AM14:AM18" si="4">SUM(AE14:AL14)</f>
+        <v>1530000</v>
+      </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A15" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>22</v>
@@ -10181,7 +10426,7 @@
         <v>200</v>
       </c>
       <c r="L15" s="14">
-        <v>2400000</v>
+        <v>2070000</v>
       </c>
       <c r="M15" s="6">
         <v>0</v>
@@ -10196,60 +10441,61 @@
         <v>0</v>
       </c>
       <c r="Q15" s="14">
-        <v>2400000</v>
+        <v>2070000</v>
       </c>
       <c r="R15" s="14"/>
       <c r="S15" s="14">
         <v>1</v>
       </c>
       <c r="T15" s="14">
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="U15" s="14">
-        <v>600000</v>
+        <v>540000</v>
       </c>
       <c r="V15" s="14">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="W15" s="14">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="X15" s="14">
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="Y15" s="14">
-        <v>600000</v>
+        <v>540000</v>
       </c>
       <c r="Z15" s="14">
-        <v>1600000</v>
+        <f t="shared" si="3"/>
+        <v>1440000</v>
       </c>
       <c r="AA15" s="14"/>
       <c r="AB15" s="14">
         <v>0</v>
       </c>
       <c r="AC15" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD15" s="14">
-        <v>800000</v>
+        <v>630000</v>
       </c>
       <c r="AE15" s="14">
-        <v>1600000</v>
+        <v>1440000</v>
       </c>
       <c r="AF15" s="14">
-        <v>600000</v>
+        <v>540000</v>
       </c>
       <c r="AG15" s="14">
         <v>0</v>
       </c>
       <c r="AH15" s="14">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="14">
         <v>0</v>
       </c>
       <c r="AJ15" s="14">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="AK15" s="14">
         <v>0</v>
@@ -10257,129 +10503,60 @@
       <c r="AL15" s="14">
         <v>0</v>
       </c>
-      <c r="AM15" s="14">
-        <v>2400000</v>
+      <c r="AM15" s="47">
+        <f t="shared" si="4"/>
+        <v>2070000</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
-      <c r="A16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" s="9">
-        <v>200</v>
-      </c>
-      <c r="L16" s="14">
-        <v>2400000</v>
-      </c>
-      <c r="M16" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="N16" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="O16" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="P16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>400000</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
-      <c r="S16" s="14">
-        <v>1</v>
-      </c>
-      <c r="T16" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="U16" s="14">
-        <v>600000</v>
-      </c>
-      <c r="V16" s="14">
-        <v>0</v>
-      </c>
-      <c r="W16" s="14">
-        <v>0</v>
-      </c>
-      <c r="X16" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="Y16" s="14">
-        <v>600000</v>
-      </c>
-      <c r="Z16" s="14">
-        <v>1600000</v>
-      </c>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
-      <c r="AB16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="14">
-        <v>4</v>
-      </c>
-      <c r="AD16" s="14">
-        <v>800000</v>
-      </c>
-      <c r="AE16" s="14">
-        <v>1600000</v>
-      </c>
-      <c r="AF16" s="14">
-        <v>600000</v>
-      </c>
-      <c r="AG16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="14">
-        <v>200000</v>
-      </c>
-      <c r="AI16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="14">
-        <v>2400000</v>
-      </c>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A17" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>22</v>
@@ -10407,7 +10584,7 @@
         <v>200</v>
       </c>
       <c r="L17" s="14">
-        <v>2100000</v>
+        <v>250000</v>
       </c>
       <c r="M17" s="6">
         <v>0</v>
@@ -10422,17 +10599,19 @@
         <v>0</v>
       </c>
       <c r="Q17" s="14">
-        <v>2100000</v>
-      </c>
-      <c r="R17" s="14"/>
+        <v>250000</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="S17" s="14">
         <v>1</v>
       </c>
       <c r="T17" s="14">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="U17" s="14">
-        <v>600000</v>
+        <v>100000</v>
       </c>
       <c r="V17" s="14">
         <v>0</v>
@@ -10441,41 +10620,42 @@
         <v>0</v>
       </c>
       <c r="X17" s="14">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="Y17" s="14">
-        <v>600000</v>
+        <v>100000</v>
       </c>
       <c r="Z17" s="14">
-        <v>1600000</v>
+        <f t="shared" ref="Z17:Z21" si="5">X17+Y17</f>
+        <v>200000</v>
       </c>
       <c r="AA17" s="14"/>
       <c r="AB17" s="14">
         <v>0</v>
       </c>
       <c r="AC17" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="14">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="AE17" s="14">
-        <v>1600000</v>
+        <v>200000</v>
       </c>
       <c r="AF17" s="14">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="14">
         <v>0</v>
       </c>
       <c r="AH17" s="14">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="14">
         <v>0</v>
       </c>
       <c r="AJ17" s="14">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="AK17" s="14">
         <v>0</v>
@@ -10483,16 +10663,17 @@
       <c r="AL17" s="14">
         <v>0</v>
       </c>
-      <c r="AM17" s="14">
-        <v>2100000</v>
+      <c r="AM17" s="47">
+        <f t="shared" si="4"/>
+        <v>250000</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A18" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>22</v>
@@ -10520,7 +10701,7 @@
         <v>200</v>
       </c>
       <c r="L18" s="14">
-        <v>4200000</v>
+        <v>550000</v>
       </c>
       <c r="M18" s="6">
         <v>0</v>
@@ -10535,17 +10716,19 @@
         <v>0</v>
       </c>
       <c r="Q18" s="14">
-        <v>4200000</v>
-      </c>
-      <c r="R18" s="14"/>
+        <v>550000</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="S18" s="14">
         <v>1</v>
       </c>
       <c r="T18" s="14">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="U18" s="14">
-        <v>600000</v>
+        <v>100000</v>
       </c>
       <c r="V18" s="14">
         <v>0</v>
@@ -10554,41 +10737,42 @@
         <v>0</v>
       </c>
       <c r="X18" s="14">
-        <v>2000000</v>
+        <v>100000</v>
       </c>
       <c r="Y18" s="14">
-        <v>1200000</v>
+        <v>100000</v>
       </c>
       <c r="Z18" s="14">
-        <v>3200000</v>
+        <f t="shared" si="5"/>
+        <v>200000</v>
       </c>
       <c r="AA18" s="14"/>
       <c r="AB18" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD18" s="14">
-        <v>1000000</v>
+        <v>350000</v>
       </c>
       <c r="AE18" s="14">
-        <v>1600000</v>
+        <v>200000</v>
       </c>
       <c r="AF18" s="14">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="AG18" s="14">
         <v>0</v>
       </c>
       <c r="AH18" s="14">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="14">
         <v>0</v>
       </c>
       <c r="AJ18" s="14">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="AK18" s="14">
         <v>0</v>
@@ -10596,129 +10780,60 @@
       <c r="AL18" s="14">
         <v>0</v>
       </c>
-      <c r="AM18" s="14">
-        <v>2100000</v>
+      <c r="AM18" s="47">
+        <f t="shared" si="4"/>
+        <v>550000</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
-      <c r="A19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K19" s="9">
-        <v>200</v>
-      </c>
-      <c r="L19" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="M19" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="N19" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="O19" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="P19" s="6">
-        <v>0</v>
-      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="6"/>
       <c r="Q19" s="14"/>
-      <c r="R19" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="S19" s="14">
-        <v>1</v>
-      </c>
-      <c r="T19" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="U19" s="14">
-        <v>600000</v>
-      </c>
-      <c r="V19" s="14">
-        <v>0</v>
-      </c>
-      <c r="W19" s="14">
-        <v>0</v>
-      </c>
-      <c r="X19" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="Y19" s="14">
-        <v>600000</v>
-      </c>
-      <c r="Z19" s="14">
-        <v>1600000</v>
-      </c>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
-      <c r="AB19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="14">
-        <v>400000</v>
-      </c>
-      <c r="AE19" s="14">
-        <v>1600000</v>
-      </c>
-      <c r="AF19" s="14">
-        <v>400000</v>
-      </c>
-      <c r="AG19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="14">
-        <v>2000000</v>
-      </c>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A20" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>22</v>
@@ -10746,7 +10861,7 @@
         <v>200</v>
       </c>
       <c r="L20" s="14">
-        <v>1600000</v>
+        <v>250000</v>
       </c>
       <c r="M20" s="6">
         <v>0</v>
@@ -10761,48 +10876,51 @@
         <v>0</v>
       </c>
       <c r="Q20" s="14">
-        <v>1600000</v>
-      </c>
-      <c r="R20" s="14"/>
+        <v>250000</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="S20" s="14">
         <v>1</v>
       </c>
       <c r="T20" s="14">
-        <v>800000</v>
+        <v>100000</v>
       </c>
       <c r="U20" s="14">
-        <v>400000</v>
+        <v>100000</v>
       </c>
       <c r="V20" s="14">
+        <v>0</v>
+      </c>
+      <c r="W20" s="14">
+        <v>0</v>
+      </c>
+      <c r="X20" s="14">
+        <v>100000</v>
+      </c>
+      <c r="Y20" s="14">
+        <v>100000</v>
+      </c>
+      <c r="Z20" s="14">
+        <f t="shared" si="5"/>
         <v>200000</v>
-      </c>
-      <c r="W20" s="14">
-        <v>200000</v>
-      </c>
-      <c r="X20" s="14">
-        <v>800000</v>
-      </c>
-      <c r="Y20" s="14">
-        <v>400000</v>
-      </c>
-      <c r="Z20" s="14">
-        <v>1200000</v>
       </c>
       <c r="AA20" s="14"/>
       <c r="AB20" s="14">
         <v>0</v>
       </c>
       <c r="AC20" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD20" s="14">
-        <v>400000</v>
+        <v>50000</v>
       </c>
       <c r="AE20" s="14">
-        <v>1200000</v>
+        <v>200000</v>
       </c>
       <c r="AF20" s="14">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="14">
         <v>0</v>
@@ -10814,7 +10932,7 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="14">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="AK20" s="14">
         <v>0</v>
@@ -10822,16 +10940,17 @@
       <c r="AL20" s="14">
         <v>0</v>
       </c>
-      <c r="AM20" s="14">
-        <v>1600000</v>
+      <c r="AM20" s="47">
+        <f>SUM(AE20:AL20)</f>
+        <v>250000</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A21" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>22</v>
@@ -10859,7 +10978,7 @@
         <v>200</v>
       </c>
       <c r="L21" s="14">
-        <v>1200000</v>
+        <v>550000</v>
       </c>
       <c r="M21" s="6">
         <v>0</v>
@@ -10874,81 +10993,918 @@
         <v>0</v>
       </c>
       <c r="Q21" s="14">
-        <v>1200000</v>
-      </c>
-      <c r="R21" s="14"/>
+        <v>550000</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="S21" s="14">
         <v>1</v>
       </c>
       <c r="T21" s="14">
-        <v>800000</v>
+        <v>100000</v>
       </c>
       <c r="U21" s="14">
-        <v>400000</v>
+        <v>100000</v>
       </c>
       <c r="V21" s="14">
+        <v>0</v>
+      </c>
+      <c r="W21" s="14">
+        <v>0</v>
+      </c>
+      <c r="X21" s="14">
+        <v>100000</v>
+      </c>
+      <c r="Y21" s="14">
+        <v>100000</v>
+      </c>
+      <c r="Z21" s="14">
+        <f t="shared" si="5"/>
         <v>200000</v>
-      </c>
-      <c r="W21" s="14">
-        <v>200000</v>
-      </c>
-      <c r="X21" s="14">
-        <v>800000</v>
-      </c>
-      <c r="Y21" s="14">
-        <v>400000</v>
-      </c>
-      <c r="Z21" s="14">
-        <v>1200000</v>
       </c>
       <c r="AA21" s="14"/>
       <c r="AB21" s="14">
         <v>0</v>
       </c>
       <c r="AC21" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="14">
+        <v>350000</v>
+      </c>
+      <c r="AE21" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AF21" s="14">
+        <v>300000</v>
+      </c>
+      <c r="AG21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AK21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="47">
+        <f>SUM(AE21:AL21)</f>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="14"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="9">
+        <v>200</v>
+      </c>
+      <c r="L23" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14">
+        <v>1</v>
+      </c>
+      <c r="T23" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U23" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V23" s="14">
+        <v>0</v>
+      </c>
+      <c r="W23" s="14">
+        <v>0</v>
+      </c>
+      <c r="X23" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y23" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z23" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="14">
+        <v>4</v>
+      </c>
+      <c r="AD23" s="14">
+        <v>800000</v>
+      </c>
+      <c r="AE23" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AF23" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AG23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AI23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="14">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" s="9">
+        <v>200</v>
+      </c>
+      <c r="L24" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="M24" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="N24" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>400000</v>
+      </c>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14">
+        <v>1</v>
+      </c>
+      <c r="T24" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U24" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V24" s="14">
+        <v>0</v>
+      </c>
+      <c r="W24" s="14">
+        <v>0</v>
+      </c>
+      <c r="X24" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y24" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z24" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="14">
+        <v>4</v>
+      </c>
+      <c r="AD24" s="14">
+        <v>800000</v>
+      </c>
+      <c r="AE24" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AF24" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AG24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AI24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="14">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" s="9">
+        <v>200</v>
+      </c>
+      <c r="L25" s="14">
+        <v>2100000</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>2100000</v>
+      </c>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14">
+        <v>1</v>
+      </c>
+      <c r="T25" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U25" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V25" s="14">
+        <v>0</v>
+      </c>
+      <c r="W25" s="14">
+        <v>0</v>
+      </c>
+      <c r="X25" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y25" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z25" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="14">
         <v>2</v>
       </c>
-      <c r="AD21" s="14">
+      <c r="AD25" s="14">
+        <v>500000</v>
+      </c>
+      <c r="AE25" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AF25" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AG25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AI25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="14">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A26" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="9">
+        <v>200</v>
+      </c>
+      <c r="L26" s="14">
+        <v>4200000</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>4200000</v>
+      </c>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14">
+        <v>1</v>
+      </c>
+      <c r="T26" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U26" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V26" s="14">
+        <v>0</v>
+      </c>
+      <c r="W26" s="14">
+        <v>0</v>
+      </c>
+      <c r="X26" s="14">
+        <v>2000000</v>
+      </c>
+      <c r="Y26" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="Z26" s="14">
+        <v>3200000</v>
+      </c>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="14">
+        <v>4</v>
+      </c>
+      <c r="AD26" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="AE26" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AF26" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AG26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AI26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="14">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A27" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K27" s="9">
+        <v>200</v>
+      </c>
+      <c r="L27" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="M27" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="N27" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="S27" s="14">
+        <v>1</v>
+      </c>
+      <c r="T27" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U27" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V27" s="14">
+        <v>0</v>
+      </c>
+      <c r="W27" s="14">
+        <v>0</v>
+      </c>
+      <c r="X27" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y27" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z27" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AE27" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AF27" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AG27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="14">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A28" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K28" s="9">
+        <v>200</v>
+      </c>
+      <c r="L28" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14">
+        <v>1</v>
+      </c>
+      <c r="T28" s="14">
         <v>800000</v>
       </c>
-      <c r="AE21" s="14">
+      <c r="U28" s="14">
+        <v>400000</v>
+      </c>
+      <c r="V28" s="14">
+        <v>200000</v>
+      </c>
+      <c r="W28" s="14">
+        <v>200000</v>
+      </c>
+      <c r="X28" s="14">
+        <v>800000</v>
+      </c>
+      <c r="Y28" s="14">
+        <v>400000</v>
+      </c>
+      <c r="Z28" s="14">
         <v>1200000</v>
       </c>
-      <c r="AF21" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="14">
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD28" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AE28" s="14">
         <v>1200000</v>
       </c>
+      <c r="AF28" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AG28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="14">
+        <v>1600000</v>
+      </c>
     </row>
-    <row r="24" customHeight="1" spans="12:12">
-      <c r="L24" s="36"/>
+    <row r="29" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" s="9">
+        <v>200</v>
+      </c>
+      <c r="L29" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14">
+        <v>1</v>
+      </c>
+      <c r="T29" s="14">
+        <v>800000</v>
+      </c>
+      <c r="U29" s="14">
+        <v>400000</v>
+      </c>
+      <c r="V29" s="14">
+        <v>200000</v>
+      </c>
+      <c r="W29" s="14">
+        <v>200000</v>
+      </c>
+      <c r="X29" s="14">
+        <v>800000</v>
+      </c>
+      <c r="Y29" s="14">
+        <v>400000</v>
+      </c>
+      <c r="Z29" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD29" s="14">
+        <v>800000</v>
+      </c>
+      <c r="AE29" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="AF29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="14">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="12:12">
+      <c r="L32" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B7:F7"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -11117,10 +12073,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -11229,10 +12185,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A3" s="5" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -11341,10 +12297,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -11453,10 +12409,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -11478,7 +12434,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -11502,7 +12458,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S5" s="14">
         <v>1</v>
@@ -11567,10 +12523,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A6" s="5" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>22</v>
@@ -11592,7 +12548,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="K6" s="9">
         <v>200</v>
@@ -11616,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S6" s="14">
         <v>1</v>
@@ -11854,10 +12810,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -11966,10 +12922,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A3" s="5" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -12078,10 +13034,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -12190,10 +13146,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A5" s="5" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -12215,7 +13171,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -12237,7 +13193,7 @@
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S5" s="14">
         <v>1</v>
@@ -12471,10 +13427,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -12584,10 +13540,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A3" s="5" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -12697,10 +13653,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -12809,10 +13765,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A5" s="5" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -12834,7 +13790,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -12856,7 +13812,7 @@
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S5" s="14">
         <v>1</v>
@@ -12991,7 +13947,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -13038,10 +13994,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A2" s="5" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -13063,7 +14019,7 @@
         <v>69</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -13103,10 +14059,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A3" s="5" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -13128,7 +14084,7 @@
         <v>69</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -13168,10 +14124,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A4" s="5" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -13193,7 +14149,7 @@
         <v>69</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -13233,10 +14189,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A5" s="5" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -13258,7 +14214,7 @@
         <v>69</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -13300,10 +14256,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A6" s="5" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>22</v>
@@ -13325,7 +14281,7 @@
         <v>69</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="K6" s="9">
         <v>200</v>
@@ -13341,7 +14297,7 @@
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="14">
         <v>1</v>

--- a/src/main/resources/input_excel_file/booking/CICO.xlsx
+++ b/src/main/resources/input_excel_file/booking/CICO.xlsx
@@ -9036,7 +9036,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>

--- a/src/main/resources/input_excel_file/booking/CICO.xlsx
+++ b/src/main/resources/input_excel_file/booking/CICO.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="382">
   <si>
     <t>tc_id</t>
   </si>
@@ -298,6 +298,42 @@
     <t>VST_Kiểm tra giá sau khi ghép xe</t>
   </si>
   <si>
+    <t>VST_003</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra giá sau khi ghép xe + add restaurant</t>
+  </si>
+  <si>
+    <t>VST_004</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra giá sau khi ghép xe + add restaurant + kiosk</t>
+  </si>
+  <si>
+    <t>VST_005</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra giá sau khi ghép xe + add restaurant + kiosk + mini bar</t>
+  </si>
+  <si>
+    <t>VST_006</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra giá sau khi ghép xe + add restaurant + kiosk + mini bar + driving</t>
+  </si>
+  <si>
+    <t>VST_007</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra giá sau khi ghép xe + add restaurant + kiosk + mini bar + driving + rental</t>
+  </si>
+  <si>
+    <t>VST_008</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra giá sau khi ghép xe + add restaurant + kiosk + mini bar + driving + rental + proshop</t>
+  </si>
+  <si>
     <t>Apply voucher giảm giá thông thường: Giảm 200k green fee</t>
   </si>
   <si>
@@ -313,6 +349,12 @@
     <t>VST_Kiểm tra giá sau khi ghép xe có add voucher</t>
   </si>
   <si>
+    <t>VST_VC_GREEN_003</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra giá sau khi ghép xe + add restaurant có add voucher</t>
+  </si>
+  <si>
     <t>Apply voucher giảm giá thông thường: Giảm 2tr1 cho green + caddie + 1/2 xe + package</t>
   </si>
   <si>
@@ -331,6 +373,9 @@
     <t>fee_of_bag_0_VND_golf_fee_expect.json</t>
   </si>
   <si>
+    <t>VST_VC_4FEE_003</t>
+  </si>
+  <si>
     <t>Apply voucher giảm giá thông thường: Giảm 10% green</t>
   </si>
   <si>
@@ -340,6 +385,9 @@
     <t>VST_VC_GREEN_10_002</t>
   </si>
   <si>
+    <t>VST_VC_GREEN_10_003</t>
+  </si>
+  <si>
     <t>Apply voucher giảm giá thông thường: Giảm 10% all fee</t>
   </si>
   <si>
@@ -349,6 +397,39 @@
     <t>VST_VC_ALL_10_002</t>
   </si>
   <si>
+    <t>VST_VC_ALL_10_003</t>
+  </si>
+  <si>
+    <t>VST_VC_ALL_10_004</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra giá sau khi ghép xe + add restaurant + kiosk có add voucher</t>
+  </si>
+  <si>
+    <t>VST_VC_ALL_10_005</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra giá sau khi ghép xe + add restaurant + kiosk + mini bar có add voucher</t>
+  </si>
+  <si>
+    <t>VST_VC_ALL_10_006</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra giá sau khi ghép xe + add restaurant + kiosk + mini bar +  driving có add voucher</t>
+  </si>
+  <si>
+    <t>VST_VC_ALL_10_007</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra giá sau khi ghép xe + add restaurant + kiosk + mini bar +  driving + rental có add voucher</t>
+  </si>
+  <si>
+    <t>VST_VC_ALL_10_008</t>
+  </si>
+  <si>
+    <t>VST_Kiểm tra giá sau khi ghép xe + add restaurant + kiosk + mini bar +  driving + rental + proshop có add voucher</t>
+  </si>
+  <si>
     <t>Apply voucher giảm giá cố định: Green + Caddie + 1/2 xe + Package</t>
   </si>
   <si>
@@ -358,6 +439,9 @@
     <t>VST_VC_CD4FEE_002</t>
   </si>
   <si>
+    <t>VST_VC_CD4FEE_003</t>
+  </si>
+  <si>
     <t>Apply voucher trả trước: Green + Caddie + 1/2 xe + Package</t>
   </si>
   <si>
@@ -365,6 +449,9 @@
   </si>
   <si>
     <t>VST_VC_TT4FEE_002</t>
+  </si>
+  <si>
+    <t>VST_VC_TT4FEE_003</t>
   </si>
   <si>
     <t>VST_FEE_OF_BAG_001</t>
@@ -1907,7 +1994,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2043,11 +2130,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2862,7 +2961,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -2906,10 +3005,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A2" s="5" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -2931,7 +3030,7 @@
         <v>69</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -2970,10 +3069,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="5" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -2995,7 +3094,7 @@
         <v>69</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -3034,10 +3133,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A4" s="5" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -3059,7 +3158,7 @@
         <v>69</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -3098,10 +3197,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A5" s="5" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -3123,7 +3222,7 @@
         <v>69</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -3141,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="Q5" s="14">
         <v>1</v>
@@ -3164,10 +3263,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A6" s="5" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>22</v>
@@ -3189,7 +3288,7 @@
         <v>69</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K6" s="9">
         <v>200</v>
@@ -3207,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="Q6" s="14">
         <v>1</v>
@@ -3301,7 +3400,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -3345,10 +3444,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A2" s="5" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -3370,7 +3469,7 @@
         <v>69</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -3409,10 +3508,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="5" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -3434,7 +3533,7 @@
         <v>69</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -3473,10 +3572,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A4" s="5" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -3498,7 +3597,7 @@
         <v>69</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -3537,10 +3636,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A5" s="5" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -3562,7 +3661,7 @@
         <v>69</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -3578,7 +3677,7 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="Q5" s="14">
         <v>1</v>
@@ -3672,7 +3771,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -3716,10 +3815,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A2" s="5" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -3732,7 +3831,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>26</v>
@@ -3741,7 +3840,7 @@
         <v>69</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -3780,10 +3879,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A3" s="5" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -3796,7 +3895,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>26</v>
@@ -3805,7 +3904,7 @@
         <v>69</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -3844,10 +3943,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A4" s="5" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -3860,7 +3959,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>26</v>
@@ -3869,7 +3968,7 @@
         <v>69</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -3908,10 +4007,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:22">
       <c r="A5" s="5" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -3924,7 +4023,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>26</v>
@@ -3933,7 +4032,7 @@
         <v>69</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -3949,7 +4048,7 @@
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="14" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="Q5" s="14">
         <v>1</v>
@@ -4026,25 +4125,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="L1" s="27" t="s">
         <v>9</v>
@@ -4053,37 +4152,37 @@
         <v>10</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" s="29" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A2" s="6" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="6" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="M2" s="14">
         <v>200</v>
@@ -4094,36 +4193,36 @@
     </row>
     <row r="3" s="29" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A3" s="6" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="6" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="M3" s="14">
         <v>200</v>
@@ -4134,40 +4233,40 @@
     </row>
     <row r="4" s="29" customFormat="1" ht="166" customHeight="1" spans="1:14">
       <c r="A4" s="6" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="M4" s="14">
         <v>200</v>
@@ -4223,31 +4322,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="N1" s="27" t="s">
         <v>9</v>
@@ -4262,24 +4361,24 @@
         <v>43</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:19">
       <c r="A2" s="5" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>23</v>
@@ -4288,28 +4387,28 @@
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="O2" s="9">
         <v>200</v>
@@ -4391,76 +4490,76 @@
         <v>3</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="AB1" s="23" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>9</v>
@@ -4472,24 +4571,24 @@
         <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A2" s="5" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -4498,28 +4597,28 @@
         <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>69</v>
@@ -4544,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="Y2" s="9">
         <v>0</v>
@@ -4559,7 +4658,7 @@
         <v>69</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="AD2" s="14">
         <v>200</v>
@@ -4573,19 +4672,19 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A3" s="5" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -4594,28 +4693,28 @@
         <v>24</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="P3" s="24" t="s">
         <v>69</v>
@@ -4640,7 +4739,7 @@
         <v>400000</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="Y3" s="9">
         <v>0</v>
@@ -4655,7 +4754,7 @@
         <v>69</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="AD3" s="14">
         <v>200</v>
@@ -4669,19 +4768,19 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A4" s="5" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -4690,28 +4789,28 @@
         <v>24</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="P4" s="24" t="s">
         <v>69</v>
@@ -4736,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="Y4" s="9">
         <v>0</v>
@@ -4751,7 +4850,7 @@
         <v>69</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="AD4" s="14">
         <v>200</v>
@@ -4765,19 +4864,19 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A5" s="5" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>23</v>
@@ -4786,28 +4885,28 @@
         <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="P5" s="24" t="s">
         <v>69</v>
@@ -4832,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="Y5" s="9">
         <v>0</v>
@@ -4847,7 +4946,7 @@
         <v>69</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="AD5" s="14">
         <v>200</v>
@@ -4861,19 +4960,19 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A6" s="5" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>23</v>
@@ -4882,28 +4981,28 @@
         <v>24</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="P6" s="24" t="s">
         <v>69</v>
@@ -4928,7 +5027,7 @@
         <v>400000</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="Y6" s="9">
         <v>0</v>
@@ -4943,7 +5042,7 @@
         <v>69</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="AD6" s="14">
         <v>200</v>
@@ -5019,76 +5118,76 @@
         <v>3</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="AB1" s="23" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>9</v>
@@ -5100,24 +5199,24 @@
         <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A2" s="5" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -5126,28 +5225,28 @@
         <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>69</v>
@@ -5172,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="Y2" s="9">
         <v>0</v>
@@ -5187,7 +5286,7 @@
         <v>69</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="AD2" s="14">
         <v>200</v>
@@ -5201,19 +5300,19 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A3" s="5" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -5222,28 +5321,28 @@
         <v>24</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="P3" s="24" t="s">
         <v>69</v>
@@ -5268,7 +5367,7 @@
         <v>400000</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="Y3" s="9">
         <v>0</v>
@@ -5283,7 +5382,7 @@
         <v>69</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="AD3" s="14">
         <v>200</v>
@@ -5297,19 +5396,19 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A4" s="5" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -5318,28 +5417,28 @@
         <v>24</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="P4" s="24" t="s">
         <v>69</v>
@@ -5364,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="Y4" s="9">
         <v>0</v>
@@ -5379,7 +5478,7 @@
         <v>69</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="AD4" s="14">
         <v>200</v>
@@ -5393,19 +5492,19 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A5" s="5" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>23</v>
@@ -5414,28 +5513,28 @@
         <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="P5" s="24" t="s">
         <v>69</v>
@@ -5460,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="Y5" s="9">
         <v>0</v>
@@ -5475,7 +5574,7 @@
         <v>69</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="AD5" s="14">
         <v>200</v>
@@ -5489,19 +5588,19 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A6" s="5" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>23</v>
@@ -5510,28 +5609,28 @@
         <v>24</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="P6" s="24" t="s">
         <v>69</v>
@@ -5556,7 +5655,7 @@
         <v>400000</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="Y6" s="9">
         <v>0</v>
@@ -5571,7 +5670,7 @@
         <v>69</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="AD6" s="14">
         <v>200</v>
@@ -5647,76 +5746,76 @@
         <v>3</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="AB1" s="23" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>9</v>
@@ -5728,24 +5827,24 @@
         <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A2" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -5754,28 +5853,28 @@
         <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>69</v>
@@ -5800,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="Y2" s="9">
         <v>0</v>
@@ -5815,7 +5914,7 @@
         <v>69</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="AD2" s="14">
         <v>200</v>
@@ -5829,19 +5928,19 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A3" s="5" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -5850,28 +5949,28 @@
         <v>24</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="P3" s="24" t="s">
         <v>69</v>
@@ -5896,7 +5995,7 @@
         <v>400000</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="Y3" s="9">
         <v>0</v>
@@ -5911,7 +6010,7 @@
         <v>69</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="AD3" s="14">
         <v>200</v>
@@ -5925,19 +6024,19 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A4" s="5" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -5946,28 +6045,28 @@
         <v>24</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="P4" s="24" t="s">
         <v>69</v>
@@ -5992,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="Y4" s="9">
         <v>0</v>
@@ -6007,7 +6106,7 @@
         <v>69</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="AD4" s="14">
         <v>200</v>
@@ -6021,19 +6120,19 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A5" s="5" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>23</v>
@@ -6042,28 +6141,28 @@
         <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="P5" s="24" t="s">
         <v>69</v>
@@ -6088,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="Y5" s="9">
         <v>0</v>
@@ -6103,7 +6202,7 @@
         <v>69</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="AD5" s="14">
         <v>200</v>
@@ -6117,19 +6216,19 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A6" s="5" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>23</v>
@@ -6138,28 +6237,28 @@
         <v>24</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="P6" s="24" t="s">
         <v>69</v>
@@ -6184,7 +6283,7 @@
         <v>400000</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="Y6" s="9">
         <v>0</v>
@@ -6199,7 +6298,7 @@
         <v>69</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="AD6" s="14">
         <v>200</v>
@@ -6275,76 +6374,76 @@
         <v>3</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="Y1" s="19" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="AB1" s="23" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>9</v>
@@ -6356,24 +6455,24 @@
         <v>41</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A2" s="5" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>23</v>
@@ -6382,28 +6481,28 @@
         <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>69</v>
@@ -6428,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="Y2" s="9">
         <v>0</v>
@@ -6443,7 +6542,7 @@
         <v>69</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="AD2" s="14">
         <v>200</v>
@@ -6457,19 +6556,19 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A3" s="5" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>23</v>
@@ -6478,28 +6577,28 @@
         <v>24</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="P3" s="24" t="s">
         <v>69</v>
@@ -6524,7 +6623,7 @@
         <v>400000</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="Y3" s="9">
         <v>0</v>
@@ -6539,7 +6638,7 @@
         <v>69</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="AD3" s="14">
         <v>200</v>
@@ -6553,19 +6652,19 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A4" s="5" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>23</v>
@@ -6574,28 +6673,28 @@
         <v>24</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="P4" s="24" t="s">
         <v>69</v>
@@ -6620,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="24" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="Y4" s="9">
         <v>0</v>
@@ -6635,7 +6734,7 @@
         <v>69</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="AD4" s="14">
         <v>200</v>
@@ -6649,19 +6748,19 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A5" s="5" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>23</v>
@@ -6670,28 +6769,28 @@
         <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="P5" s="24" t="s">
         <v>69</v>
@@ -6716,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="24" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="Y5" s="9">
         <v>0</v>
@@ -6731,7 +6830,7 @@
         <v>69</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="AD5" s="14">
         <v>200</v>
@@ -6745,19 +6844,19 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:32">
       <c r="A6" s="5" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>23</v>
@@ -6766,28 +6865,28 @@
         <v>24</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="P6" s="24" t="s">
         <v>69</v>
@@ -6812,7 +6911,7 @@
         <v>400000</v>
       </c>
       <c r="X6" s="24" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="Y6" s="9">
         <v>0</v>
@@ -6827,7 +6926,7 @@
         <v>69</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="AD6" s="14">
         <v>200</v>
@@ -6907,124 +7006,124 @@
         <v>3</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="U1" s="18" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="W1" s="18" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="X1" s="18" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="Y1" s="18" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="AA1" s="19" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="AB1" s="19" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="AC1" s="19" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="AD1" s="19" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="AE1" s="19" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="AF1" s="19" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="AG1" s="19" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="AH1" s="19" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="AI1" s="19" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="AJ1" s="19" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="AK1" s="19" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="AL1" s="19" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="AM1" s="19" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="AN1" s="19" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="AO1" s="19" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="AP1" s="18" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="AQ1" s="18" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="AR1" s="20" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="AS1" s="10" t="s">
         <v>9</v>
@@ -7033,37 +7132,37 @@
         <v>10</v>
       </c>
       <c r="AU1" s="12" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A2" s="5" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="K2" s="5">
         <v>1600000</v>
@@ -7075,34 +7174,34 @@
         <v>1600000</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="Q2" s="5">
         <v>0</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="V2" s="5">
         <v>0</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
@@ -7118,25 +7217,25 @@
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="AR2" s="21" t="s">
         <v>69</v>
       </c>
       <c r="AS2" s="8" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="AT2" s="14">
         <v>200</v>
@@ -7147,32 +7246,32 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A3" s="5" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="K3" s="5">
         <v>8800000</v>
@@ -7184,34 +7283,34 @@
         <v>1600000</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="Q3" s="5">
         <v>0</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="V3" s="5">
         <v>0</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
@@ -7227,25 +7326,25 @@
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
       <c r="AM3" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="AR3" s="21" t="s">
         <v>69</v>
       </c>
       <c r="AS3" s="8" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="AT3" s="14">
         <v>200</v>
@@ -7256,32 +7355,32 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A4" s="5" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="K4" s="5">
         <v>1600000</v>
@@ -7293,34 +7392,34 @@
         <v>1600000</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="Q4" s="5">
         <v>0</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="V4" s="5">
         <v>0</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
@@ -7336,25 +7435,25 @@
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
       <c r="AM4" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="AN4" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="AO4" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="AP4" s="5" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="AQ4" s="5" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="AR4" s="21" t="s">
         <v>69</v>
       </c>
       <c r="AS4" s="8" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="AT4" s="14">
         <v>200</v>
@@ -7365,32 +7464,32 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A5" s="5" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="K5" s="5">
         <v>1600000</v>
@@ -7402,34 +7501,34 @@
         <v>1600000</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="5">
         <v>0</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="V5" s="5">
         <v>0</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
@@ -7445,25 +7544,25 @@
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
       <c r="AM5" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="AN5" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="AO5" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="AP5" s="5" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="AQ5" s="5" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="AR5" s="21" t="s">
         <v>69</v>
       </c>
       <c r="AS5" s="8" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="AT5" s="14">
         <v>200</v>
@@ -7474,32 +7573,32 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A6" s="5" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="K6" s="5">
         <v>1600000</v>
@@ -7511,34 +7610,34 @@
         <v>1600000</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="Q6" s="5">
         <v>0</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="V6" s="5">
         <v>0</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
@@ -7554,25 +7653,25 @@
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
       <c r="AM6" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="AN6" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="AO6" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="AQ6" s="5" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="AR6" s="21" t="s">
         <v>69</v>
       </c>
       <c r="AS6" s="8" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="AT6" s="14">
         <v>200</v>
@@ -7583,32 +7682,32 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="69" customHeight="1" spans="1:47">
       <c r="A7" s="5" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="K7" s="5">
         <v>100000</v>
@@ -7620,90 +7719,90 @@
         <v>100000</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="Q7" s="5">
         <v>0</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="V7" s="5">
         <v>0</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="AA7" s="5">
         <v>200000</v>
       </c>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5">
         <v>200000</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="AG7" s="5">
         <v>0</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="AI7" s="5" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="AJ7" s="5" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="AL7" s="5">
         <v>0</v>
       </c>
       <c r="AM7" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="AN7" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="AO7" s="5" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="AP7" s="5" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="AQ7" s="5" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="AR7" s="21" t="s">
         <v>69</v>
       </c>
       <c r="AS7" s="8" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="AT7" s="14">
         <v>200</v>
@@ -7985,22 +8084,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>9</v>
@@ -8009,48 +8108,48 @@
         <v>10</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A2" s="5" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>23</v>
@@ -8062,16 +8161,16 @@
         <v>26</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="L2" s="14">
         <v>200</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="O2" s="15"/>
       <c r="P2" s="5">
@@ -8083,25 +8182,25 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A3" s="5" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>23</v>
@@ -8113,16 +8212,16 @@
         <v>26</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="L3" s="14">
         <v>200</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="5">
@@ -8134,25 +8233,25 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A4" s="5" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>23</v>
@@ -8164,16 +8263,16 @@
         <v>26</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="L4" s="14">
         <v>200</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="5">
@@ -8185,25 +8284,25 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A5" s="5" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>23</v>
@@ -8215,16 +8314,16 @@
         <v>26</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="L5" s="14">
         <v>200</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="5">
@@ -8236,25 +8335,25 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="69" customHeight="1" spans="1:19">
       <c r="A6" s="5" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>23</v>
@@ -8266,29 +8365,29 @@
         <v>26</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="L6" s="14">
         <v>200</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="5">
         <v>100000</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -8335,10 +8434,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>9</v>
@@ -8347,33 +8446,33 @@
         <v>10</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="H2" s="14">
         <v>200</v>
@@ -8382,30 +8481,30 @@
         <v>31</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="H3" s="14">
         <v>200</v>
@@ -8414,30 +8513,30 @@
         <v>31</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="H4" s="14">
         <v>200</v>
@@ -8446,30 +8545,30 @@
         <v>31</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="69" customHeight="1" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="H5" s="14">
         <v>200</v>
@@ -8478,7 +8577,7 @@
         <v>31</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -8524,16 +8623,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>9</v>
@@ -8542,36 +8641,36 @@
         <v>10</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="69" customHeight="1" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="J2" s="14">
         <v>200</v>
@@ -9031,12 +9130,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AM32"/>
+  <dimension ref="A1:AM50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -9267,7 +9366,7 @@
         <v>600000</v>
       </c>
       <c r="Z2" s="14">
-        <f t="shared" ref="Z2:Z6" si="0">X2+Y2</f>
+        <f t="shared" ref="Z2:Z9" si="0">X2+Y2</f>
         <v>1600000</v>
       </c>
       <c r="AA2" s="14"/>
@@ -9304,8 +9403,8 @@
       <c r="AL2" s="14">
         <v>0</v>
       </c>
-      <c r="AM2" s="47">
-        <f t="shared" ref="AM2:AM6" si="1">SUM(AE2:AL2)</f>
+      <c r="AM2" s="51">
+        <f t="shared" ref="AM2:AM9" si="1">SUM(AE2:AL2)</f>
         <v>1700000</v>
       </c>
     </row>
@@ -9419,60 +9518,132 @@
       <c r="AL3" s="14">
         <v>0</v>
       </c>
-      <c r="AM3" s="47">
+      <c r="AM3" s="51">
         <f t="shared" si="1"/>
         <v>2300000</v>
       </c>
     </row>
-    <row r="4" s="29" customFormat="1" ht="47" customHeight="1" spans="1:39">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39" t="s">
+    <row r="4" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
+      <c r="B4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="9">
+        <v>200</v>
+      </c>
+      <c r="L4" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14">
+        <v>1</v>
+      </c>
+      <c r="T4" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U4" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V4" s="14">
+        <v>0</v>
+      </c>
+      <c r="W4" s="14">
+        <v>0</v>
+      </c>
+      <c r="X4" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z4" s="14">
+        <f t="shared" si="0"/>
+        <v>1600000</v>
+      </c>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="14">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>800000</v>
+      </c>
+      <c r="AE4" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AF4" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AG4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AJ4" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AK4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="51">
+        <f t="shared" si="1"/>
+        <v>2400000</v>
+      </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -9500,7 +9671,7 @@
         <v>200</v>
       </c>
       <c r="L5" s="14">
-        <v>1500000</v>
+        <v>2500000</v>
       </c>
       <c r="M5" s="6">
         <v>0</v>
@@ -9515,61 +9686,61 @@
         <v>0</v>
       </c>
       <c r="Q5" s="14">
-        <v>1500000</v>
+        <v>2500000</v>
       </c>
       <c r="R5" s="14"/>
       <c r="S5" s="14">
         <v>1</v>
       </c>
       <c r="T5" s="14">
-        <v>800000</v>
+        <v>1000000</v>
       </c>
       <c r="U5" s="14">
         <v>600000</v>
       </c>
       <c r="V5" s="14">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="W5" s="14">
         <v>0</v>
       </c>
       <c r="X5" s="14">
-        <v>800000</v>
+        <v>1000000</v>
       </c>
       <c r="Y5" s="14">
         <v>600000</v>
       </c>
       <c r="Z5" s="14">
         <f t="shared" si="0"/>
-        <v>1400000</v>
+        <v>1600000</v>
       </c>
       <c r="AA5" s="14"/>
       <c r="AB5" s="14">
         <v>0</v>
       </c>
       <c r="AC5" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD5" s="14">
+        <v>900000</v>
+      </c>
+      <c r="AE5" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AG5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="14">
         <v>100000</v>
       </c>
-      <c r="AE5" s="14">
-        <v>1400000</v>
-      </c>
-      <c r="AF5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="14">
-        <v>0</v>
-      </c>
       <c r="AJ5" s="14">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="AK5" s="14">
         <v>0</v>
@@ -9577,17 +9748,17 @@
       <c r="AL5" s="14">
         <v>0</v>
       </c>
-      <c r="AM5" s="47">
+      <c r="AM5" s="51">
         <f t="shared" si="1"/>
-        <v>1500000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A6" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>22</v>
@@ -9615,7 +9786,7 @@
         <v>200</v>
       </c>
       <c r="L6" s="14">
-        <v>2100000</v>
+        <v>2600000</v>
       </c>
       <c r="M6" s="6">
         <v>0</v>
@@ -9630,46 +9801,46 @@
         <v>0</v>
       </c>
       <c r="Q6" s="14">
-        <v>2100000</v>
+        <v>2600000</v>
       </c>
       <c r="R6" s="14"/>
       <c r="S6" s="14">
         <v>1</v>
       </c>
       <c r="T6" s="14">
-        <v>800000</v>
+        <v>1000000</v>
       </c>
       <c r="U6" s="14">
         <v>600000</v>
       </c>
       <c r="V6" s="14">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="W6" s="14">
         <v>0</v>
       </c>
       <c r="X6" s="14">
-        <v>800000</v>
+        <v>1000000</v>
       </c>
       <c r="Y6" s="14">
         <v>600000</v>
       </c>
       <c r="Z6" s="14">
         <f t="shared" si="0"/>
-        <v>1400000</v>
+        <v>1600000</v>
       </c>
       <c r="AA6" s="14"/>
       <c r="AB6" s="14">
         <v>0</v>
       </c>
       <c r="AC6" s="14">
-        <v>3</v>
-      </c>
-      <c r="AD6" s="14">
-        <v>700000</v>
+        <v>6</v>
+      </c>
+      <c r="AD6" s="50">
+        <v>1000000</v>
       </c>
       <c r="AE6" s="14">
-        <v>1400000</v>
+        <v>1600000</v>
       </c>
       <c r="AF6" s="14">
         <v>600000</v>
@@ -9681,71 +9852,143 @@
         <v>0</v>
       </c>
       <c r="AI6" s="14">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="AJ6" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AK6" s="14">
         <v>100000</v>
       </c>
-      <c r="AK6" s="14">
-        <v>0</v>
-      </c>
       <c r="AL6" s="14">
         <v>0</v>
       </c>
-      <c r="AM6" s="47">
+      <c r="AM6" s="51">
         <f t="shared" si="1"/>
-        <v>2100000</v>
+        <v>2600000</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
-      <c r="A7" s="5"/>
-      <c r="B7" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="14"/>
+    <row r="7" s="29" customFormat="1" ht="47" customHeight="1" spans="1:39">
+      <c r="A7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="9">
+        <v>200</v>
+      </c>
+      <c r="L7" s="6">
+        <v>2700000</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>2700000</v>
+      </c>
       <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
+      <c r="S7" s="14">
+        <v>1</v>
+      </c>
+      <c r="T7" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U7" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V7" s="14">
+        <v>0</v>
+      </c>
+      <c r="W7" s="14">
+        <v>0</v>
+      </c>
+      <c r="X7" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z7" s="14">
+        <f t="shared" si="0"/>
+        <v>1600000</v>
+      </c>
       <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="14"/>
+      <c r="AB7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="14">
+        <v>7</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>1100000</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AG7" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AH7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AJ7" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AK7" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AL7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="51">
+        <f t="shared" si="1"/>
+        <v>2700000</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+    <row r="8" s="29" customFormat="1" ht="47" customHeight="1" spans="1:39">
       <c r="A8" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>22</v>
@@ -9767,13 +10010,13 @@
         <v>27</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K8" s="9">
         <v>200</v>
       </c>
-      <c r="L8" s="14">
-        <v>0</v>
+      <c r="L8" s="6">
+        <v>2800000</v>
       </c>
       <c r="M8" s="6">
         <v>0</v>
@@ -9787,77 +10030,80 @@
       <c r="P8" s="6">
         <v>0</v>
       </c>
-      <c r="Q8" s="14">
-        <v>0</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>80</v>
-      </c>
+      <c r="Q8" s="6">
+        <v>2800000</v>
+      </c>
+      <c r="R8" s="14"/>
       <c r="S8" s="14">
         <v>1</v>
       </c>
       <c r="T8" s="14">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="U8" s="14">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="V8" s="14">
+        <v>0</v>
+      </c>
+      <c r="W8" s="14">
+        <v>0</v>
+      </c>
+      <c r="X8" s="14">
         <v>1000000</v>
       </c>
-      <c r="W8" s="14">
+      <c r="Y8" s="14">
         <v>600000</v>
       </c>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14" t="s">
-        <v>80</v>
-      </c>
+      <c r="Z8" s="14">
+        <f t="shared" si="0"/>
+        <v>1600000</v>
+      </c>
+      <c r="AA8" s="14"/>
       <c r="AB8" s="14">
         <v>0</v>
       </c>
       <c r="AC8" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="14">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>1200000</v>
       </c>
       <c r="AE8" s="14">
-        <v>0</v>
+        <v>1600000</v>
       </c>
       <c r="AF8" s="14">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="AG8" s="14">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="AH8" s="14">
         <v>0</v>
       </c>
       <c r="AI8" s="14">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="AJ8" s="14">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="AK8" s="14">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="AL8" s="14">
         <v>0</v>
       </c>
-      <c r="AM8" s="47">
-        <f t="shared" ref="AM8:AM12" si="2">SUM(AE8:AL8)</f>
-        <v>0</v>
+      <c r="AM8" s="51">
+        <f t="shared" si="1"/>
+        <v>2800000</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+    <row r="9" s="29" customFormat="1" ht="47" customHeight="1" spans="1:39">
       <c r="A9" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>22</v>
@@ -9879,13 +10125,13 @@
         <v>27</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="K9" s="9">
         <v>200</v>
       </c>
-      <c r="L9" s="14">
-        <v>200000</v>
+      <c r="L9" s="6">
+        <v>2900000</v>
       </c>
       <c r="M9" s="6">
         <v>0</v>
@@ -9899,118 +10145,123 @@
       <c r="P9" s="6">
         <v>0</v>
       </c>
-      <c r="Q9" s="14">
-        <v>200000</v>
+      <c r="Q9" s="6">
+        <v>2900000</v>
       </c>
       <c r="R9" s="14"/>
       <c r="S9" s="14">
         <v>1</v>
       </c>
       <c r="T9" s="14">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="U9" s="14">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="V9" s="14">
+        <v>0</v>
+      </c>
+      <c r="W9" s="14">
+        <v>0</v>
+      </c>
+      <c r="X9" s="14">
         <v>1000000</v>
       </c>
-      <c r="W9" s="14">
+      <c r="Y9" s="14">
         <v>600000</v>
       </c>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14" t="s">
-        <v>80</v>
-      </c>
+      <c r="Z9" s="14">
+        <f t="shared" si="0"/>
+        <v>1600000</v>
+      </c>
+      <c r="AA9" s="14"/>
       <c r="AB9" s="14">
         <v>0</v>
       </c>
       <c r="AC9" s="14">
-        <v>3</v>
-      </c>
-      <c r="AD9" s="14">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>1300000</v>
+      </c>
+      <c r="AE9" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AF9" s="14">
+        <v>700000</v>
+      </c>
+      <c r="AG9" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AH9" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AI9" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AJ9" s="14">
         <v>200000</v>
       </c>
-      <c r="AE9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="14">
-        <v>200000</v>
-      </c>
-      <c r="AG9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="14">
-        <v>0</v>
-      </c>
       <c r="AK9" s="14">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="AL9" s="14">
         <v>0</v>
       </c>
-      <c r="AM9" s="47">
-        <f t="shared" si="2"/>
-        <v>200000</v>
+      <c r="AM9" s="51">
+        <f t="shared" si="1"/>
+        <v>2900000</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
-      <c r="A10" s="5"/>
-      <c r="B10" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
-      <c r="AM10" s="14"/>
+    <row r="10" s="29" customFormat="1" ht="47" customHeight="1" spans="1:39">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A11" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>22</v>
@@ -10038,7 +10289,7 @@
         <v>200</v>
       </c>
       <c r="L11" s="14">
-        <v>1600000</v>
+        <v>1500000</v>
       </c>
       <c r="M11" s="6">
         <v>0</v>
@@ -10053,33 +10304,33 @@
         <v>0</v>
       </c>
       <c r="Q11" s="14">
-        <v>1600000</v>
+        <v>1500000</v>
       </c>
       <c r="R11" s="14"/>
       <c r="S11" s="14">
         <v>1</v>
       </c>
       <c r="T11" s="14">
-        <v>900000</v>
+        <v>800000</v>
       </c>
       <c r="U11" s="14">
         <v>600000</v>
       </c>
       <c r="V11" s="14">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="W11" s="14">
         <v>0</v>
       </c>
       <c r="X11" s="14">
-        <v>900000</v>
+        <v>800000</v>
       </c>
       <c r="Y11" s="14">
         <v>600000</v>
       </c>
       <c r="Z11" s="14">
-        <f t="shared" ref="Z11:Z15" si="3">X11+Y11</f>
-        <v>1500000</v>
+        <f>X11+Y11</f>
+        <v>1400000</v>
       </c>
       <c r="AA11" s="14"/>
       <c r="AB11" s="14">
@@ -10088,11 +10339,11 @@
       <c r="AC11" s="14">
         <v>1</v>
       </c>
-      <c r="AD11" s="14">
+      <c r="AD11" s="50">
         <v>100000</v>
       </c>
       <c r="AE11" s="14">
-        <v>1500000</v>
+        <v>1400000</v>
       </c>
       <c r="AF11" s="14">
         <v>0</v>
@@ -10115,17 +10366,17 @@
       <c r="AL11" s="14">
         <v>0</v>
       </c>
-      <c r="AM11" s="47">
-        <f t="shared" si="2"/>
-        <v>1600000</v>
+      <c r="AM11" s="51">
+        <f>SUM(AE11:AL11)</f>
+        <v>1500000</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A12" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>22</v>
@@ -10153,7 +10404,7 @@
         <v>200</v>
       </c>
       <c r="L12" s="14">
-        <v>2200000</v>
+        <v>2100000</v>
       </c>
       <c r="M12" s="6">
         <v>0</v>
@@ -10168,33 +10419,33 @@
         <v>0</v>
       </c>
       <c r="Q12" s="14">
-        <v>2200000</v>
+        <v>2100000</v>
       </c>
       <c r="R12" s="14"/>
       <c r="S12" s="14">
         <v>1</v>
       </c>
       <c r="T12" s="14">
-        <v>900000</v>
+        <v>800000</v>
       </c>
       <c r="U12" s="14">
         <v>600000</v>
       </c>
       <c r="V12" s="14">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="W12" s="14">
         <v>0</v>
       </c>
       <c r="X12" s="14">
-        <v>900000</v>
+        <v>800000</v>
       </c>
       <c r="Y12" s="14">
         <v>600000</v>
       </c>
       <c r="Z12" s="14">
-        <f t="shared" si="3"/>
-        <v>1500000</v>
+        <f>X12+Y12</f>
+        <v>1400000</v>
       </c>
       <c r="AA12" s="14"/>
       <c r="AB12" s="14">
@@ -10207,7 +10458,7 @@
         <v>700000</v>
       </c>
       <c r="AE12" s="14">
-        <v>1500000</v>
+        <v>1400000</v>
       </c>
       <c r="AF12" s="14">
         <v>600000</v>
@@ -10230,175 +10481,175 @@
       <c r="AL12" s="14">
         <v>0</v>
       </c>
-      <c r="AM12" s="47">
+      <c r="AM12" s="51">
+        <f t="shared" ref="AM12:AM17" si="2">SUM(AE12:AL12)</f>
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="9">
+        <v>200</v>
+      </c>
+      <c r="L13" s="14">
+        <v>2200000</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>2200000</v>
+      </c>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14">
+        <v>1</v>
+      </c>
+      <c r="T13" s="14">
+        <v>800000</v>
+      </c>
+      <c r="U13" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V13" s="14">
+        <v>200000</v>
+      </c>
+      <c r="W13" s="14">
+        <v>0</v>
+      </c>
+      <c r="X13" s="14">
+        <v>800000</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z13" s="14">
+        <f>X13+Y13</f>
+        <v>1400000</v>
+      </c>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>800000</v>
+      </c>
+      <c r="AE13" s="14">
+        <v>1400000</v>
+      </c>
+      <c r="AF13" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AG13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AJ13" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AK13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="51">
         <f t="shared" si="2"/>
         <v>2200000</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
-      <c r="A13" s="5"/>
-      <c r="B13" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="14"/>
-      <c r="AL13" s="14"/>
-      <c r="AM13" s="14"/>
-    </row>
     <row r="14" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
-      <c r="A14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" s="9">
-        <v>200</v>
-      </c>
-      <c r="L14" s="14">
-        <v>1530000</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="P14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>1530000</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
-      <c r="S14" s="14">
-        <v>1</v>
-      </c>
-      <c r="T14" s="14">
-        <v>900000</v>
-      </c>
-      <c r="U14" s="14">
-        <v>540000</v>
-      </c>
-      <c r="V14" s="14">
-        <v>100000</v>
-      </c>
-      <c r="W14" s="14">
-        <v>60000</v>
-      </c>
-      <c r="X14" s="14">
-        <v>900000</v>
-      </c>
-      <c r="Y14" s="14">
-        <v>540000</v>
-      </c>
-      <c r="Z14" s="14">
-        <f t="shared" si="3"/>
-        <v>1440000</v>
-      </c>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
       <c r="AA14" s="14"/>
-      <c r="AB14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="14">
-        <v>90000</v>
-      </c>
-      <c r="AE14" s="14">
-        <v>1440000</v>
-      </c>
-      <c r="AF14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="14">
-        <v>90000</v>
-      </c>
-      <c r="AK14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="47">
-        <f t="shared" ref="AM14:AM18" si="4">SUM(AE14:AL14)</f>
-        <v>1530000</v>
-      </c>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A15" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>22</v>
@@ -10420,13 +10671,13 @@
         <v>27</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="K15" s="9">
         <v>200</v>
       </c>
       <c r="L15" s="14">
-        <v>2070000</v>
+        <v>0</v>
       </c>
       <c r="M15" s="6">
         <v>0</v>
@@ -10441,49 +10692,46 @@
         <v>0</v>
       </c>
       <c r="Q15" s="14">
-        <v>2070000</v>
-      </c>
-      <c r="R15" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="S15" s="14">
         <v>1</v>
       </c>
       <c r="T15" s="14">
-        <v>900000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="14">
-        <v>540000</v>
+        <v>0</v>
       </c>
       <c r="V15" s="14">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="W15" s="14">
-        <v>60000</v>
-      </c>
-      <c r="X15" s="14">
-        <v>900000</v>
-      </c>
-      <c r="Y15" s="14">
-        <v>540000</v>
-      </c>
-      <c r="Z15" s="14">
-        <f t="shared" si="3"/>
-        <v>1440000</v>
-      </c>
-      <c r="AA15" s="14"/>
+        <v>600000</v>
+      </c>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="AB15" s="14">
         <v>0</v>
       </c>
       <c r="AC15" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="14">
-        <v>630000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="14">
-        <v>1440000</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="14">
-        <v>540000</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="14">
         <v>0</v>
@@ -10495,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="14">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="14">
         <v>0</v>
@@ -10503,60 +10751,127 @@
       <c r="AL15" s="14">
         <v>0</v>
       </c>
-      <c r="AM15" s="47">
-        <f t="shared" si="4"/>
-        <v>2070000</v>
+      <c r="AM15" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
-      <c r="A16" s="5"/>
-      <c r="B16" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="14"/>
+      <c r="A16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="9">
+        <v>200</v>
+      </c>
+      <c r="L16" s="14">
+        <v>200000</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>200000</v>
+      </c>
       <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
+      <c r="S16" s="14">
+        <v>1</v>
+      </c>
+      <c r="T16" s="14">
+        <v>0</v>
+      </c>
+      <c r="U16" s="14">
+        <v>0</v>
+      </c>
+      <c r="V16" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="W16" s="14">
+        <v>600000</v>
+      </c>
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="14"/>
+      <c r="AA16" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD16" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AE16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AG16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="51">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>22</v>
@@ -10578,13 +10893,13 @@
         <v>27</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="K17" s="9">
         <v>200</v>
       </c>
       <c r="L17" s="14">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="M17" s="6">
         <v>0</v>
@@ -10599,63 +10914,56 @@
         <v>0</v>
       </c>
       <c r="Q17" s="14">
-        <v>250000</v>
-      </c>
-      <c r="R17" s="14" t="s">
-        <v>80</v>
-      </c>
+        <v>300000</v>
+      </c>
+      <c r="R17" s="14"/>
       <c r="S17" s="14">
         <v>1</v>
       </c>
       <c r="T17" s="14">
+        <v>0</v>
+      </c>
+      <c r="U17" s="14">
+        <v>0</v>
+      </c>
+      <c r="V17" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="W17" s="14">
+        <v>600000</v>
+      </c>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="14">
+        <v>4</v>
+      </c>
+      <c r="AD17" s="14">
+        <v>300000</v>
+      </c>
+      <c r="AE17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AG17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="14">
         <v>100000</v>
       </c>
-      <c r="U17" s="14">
-        <v>100000</v>
-      </c>
-      <c r="V17" s="14">
-        <v>0</v>
-      </c>
-      <c r="W17" s="14">
-        <v>0</v>
-      </c>
-      <c r="X17" s="14">
-        <v>100000</v>
-      </c>
-      <c r="Y17" s="14">
-        <v>100000</v>
-      </c>
-      <c r="Z17" s="14">
-        <f t="shared" ref="Z17:Z21" si="5">X17+Y17</f>
-        <v>200000</v>
-      </c>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="14">
-        <v>50000</v>
-      </c>
-      <c r="AE17" s="14">
-        <v>200000</v>
-      </c>
-      <c r="AF17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="14">
-        <v>0</v>
-      </c>
       <c r="AJ17" s="14">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="AK17" s="14">
         <v>0</v>
@@ -10663,177 +10971,175 @@
       <c r="AL17" s="14">
         <v>0</v>
       </c>
-      <c r="AM17" s="47">
-        <f t="shared" si="4"/>
-        <v>250000</v>
+      <c r="AM17" s="51">
+        <f t="shared" si="2"/>
+        <v>300000</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
-      <c r="A18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K18" s="9">
-        <v>200</v>
-      </c>
-      <c r="L18" s="14">
-        <v>550000</v>
-      </c>
-      <c r="M18" s="6">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="P18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="14">
-        <v>550000</v>
-      </c>
-      <c r="R18" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="S18" s="14">
-        <v>1</v>
-      </c>
-      <c r="T18" s="14">
-        <v>100000</v>
-      </c>
-      <c r="U18" s="14">
-        <v>100000</v>
-      </c>
-      <c r="V18" s="14">
-        <v>0</v>
-      </c>
-      <c r="W18" s="14">
-        <v>0</v>
-      </c>
-      <c r="X18" s="14">
-        <v>100000</v>
-      </c>
-      <c r="Y18" s="14">
-        <v>100000</v>
-      </c>
-      <c r="Z18" s="14">
-        <f t="shared" si="5"/>
-        <v>200000</v>
-      </c>
+      <c r="A18" s="5"/>
+      <c r="B18" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
       <c r="AA18" s="14"/>
-      <c r="AB18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="14">
-        <v>3</v>
-      </c>
-      <c r="AD18" s="14">
-        <v>350000</v>
-      </c>
-      <c r="AE18" s="14">
-        <v>200000</v>
-      </c>
-      <c r="AF18" s="14">
-        <v>300000</v>
-      </c>
-      <c r="AG18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="14">
-        <v>50000</v>
-      </c>
-      <c r="AK18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="47">
-        <f t="shared" si="4"/>
-        <v>550000</v>
-      </c>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
-      <c r="A19" s="5"/>
-      <c r="B19" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="14"/>
+      <c r="A19" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" s="9">
+        <v>200</v>
+      </c>
+      <c r="L19" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>1600000</v>
+      </c>
       <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
+      <c r="S19" s="14">
+        <v>1</v>
+      </c>
+      <c r="T19" s="14">
+        <v>900000</v>
+      </c>
+      <c r="U19" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V19" s="14">
+        <v>100000</v>
+      </c>
+      <c r="W19" s="14">
+        <v>0</v>
+      </c>
+      <c r="X19" s="14">
+        <v>900000</v>
+      </c>
+      <c r="Y19" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z19" s="14">
+        <f t="shared" ref="Z19:Z21" si="3">X19+Y19</f>
+        <v>1500000</v>
+      </c>
       <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="14"/>
-      <c r="AM19" s="14"/>
+      <c r="AB19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AE19" s="14">
+        <v>1500000</v>
+      </c>
+      <c r="AF19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AK19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="51">
+        <f t="shared" ref="AM19:AM21" si="4">SUM(AE19:AL19)</f>
+        <v>1600000</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A20" s="5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>22</v>
@@ -10861,7 +11167,7 @@
         <v>200</v>
       </c>
       <c r="L20" s="14">
-        <v>250000</v>
+        <v>2200000</v>
       </c>
       <c r="M20" s="6">
         <v>0</v>
@@ -10876,51 +11182,49 @@
         <v>0</v>
       </c>
       <c r="Q20" s="14">
-        <v>250000</v>
-      </c>
-      <c r="R20" s="14" t="s">
-        <v>80</v>
-      </c>
+        <v>2200000</v>
+      </c>
+      <c r="R20" s="14"/>
       <c r="S20" s="14">
         <v>1</v>
       </c>
       <c r="T20" s="14">
+        <v>900000</v>
+      </c>
+      <c r="U20" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V20" s="14">
         <v>100000</v>
       </c>
-      <c r="U20" s="14">
-        <v>100000</v>
-      </c>
-      <c r="V20" s="14">
-        <v>0</v>
-      </c>
       <c r="W20" s="14">
         <v>0</v>
       </c>
       <c r="X20" s="14">
-        <v>100000</v>
+        <v>900000</v>
       </c>
       <c r="Y20" s="14">
-        <v>100000</v>
+        <v>600000</v>
       </c>
       <c r="Z20" s="14">
-        <f t="shared" si="5"/>
-        <v>200000</v>
+        <f t="shared" si="3"/>
+        <v>1500000</v>
       </c>
       <c r="AA20" s="14"/>
       <c r="AB20" s="14">
         <v>0</v>
       </c>
       <c r="AC20" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD20" s="14">
-        <v>50000</v>
+        <v>700000</v>
       </c>
       <c r="AE20" s="14">
-        <v>200000</v>
+        <v>1500000</v>
       </c>
       <c r="AF20" s="14">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="AG20" s="14">
         <v>0</v>
@@ -10932,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="14">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="AK20" s="14">
         <v>0</v>
@@ -10940,17 +11244,17 @@
       <c r="AL20" s="14">
         <v>0</v>
       </c>
-      <c r="AM20" s="47">
-        <f>SUM(AE20:AL20)</f>
-        <v>250000</v>
+      <c r="AM20" s="51">
+        <f t="shared" si="4"/>
+        <v>2200000</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A21" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>22</v>
@@ -10978,7 +11282,7 @@
         <v>200</v>
       </c>
       <c r="L21" s="14">
-        <v>550000</v>
+        <v>2300000</v>
       </c>
       <c r="M21" s="6">
         <v>0</v>
@@ -10993,51 +11297,49 @@
         <v>0</v>
       </c>
       <c r="Q21" s="14">
-        <v>550000</v>
-      </c>
-      <c r="R21" s="14" t="s">
-        <v>80</v>
-      </c>
+        <v>2300000</v>
+      </c>
+      <c r="R21" s="14"/>
       <c r="S21" s="14">
         <v>1</v>
       </c>
       <c r="T21" s="14">
+        <v>900000</v>
+      </c>
+      <c r="U21" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V21" s="14">
         <v>100000</v>
       </c>
-      <c r="U21" s="14">
-        <v>100000</v>
-      </c>
-      <c r="V21" s="14">
-        <v>0</v>
-      </c>
       <c r="W21" s="14">
         <v>0</v>
       </c>
       <c r="X21" s="14">
-        <v>100000</v>
+        <v>900000</v>
       </c>
       <c r="Y21" s="14">
-        <v>100000</v>
+        <v>600000</v>
       </c>
       <c r="Z21" s="14">
-        <f t="shared" si="5"/>
-        <v>200000</v>
+        <f t="shared" si="3"/>
+        <v>1500000</v>
       </c>
       <c r="AA21" s="14"/>
       <c r="AB21" s="14">
         <v>0</v>
       </c>
       <c r="AC21" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD21" s="14">
-        <v>350000</v>
+        <v>800000</v>
       </c>
       <c r="AE21" s="14">
-        <v>200000</v>
+        <v>1500000</v>
       </c>
       <c r="AF21" s="14">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="AG21" s="14">
         <v>0</v>
@@ -11046,10 +11348,10 @@
         <v>0</v>
       </c>
       <c r="AI21" s="14">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="AJ21" s="14">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="AK21" s="14">
         <v>0</v>
@@ -11057,18 +11359,20 @@
       <c r="AL21" s="14">
         <v>0</v>
       </c>
-      <c r="AM21" s="47">
-        <f>SUM(AE21:AL21)</f>
-        <v>550000</v>
+      <c r="AM21" s="51">
+        <f t="shared" si="4"/>
+        <v>2300000</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="B22" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="24"/>
@@ -11105,10 +11409,10 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A23" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>22</v>
@@ -11136,7 +11440,7 @@
         <v>200</v>
       </c>
       <c r="L23" s="14">
-        <v>2400000</v>
+        <v>1530000</v>
       </c>
       <c r="M23" s="6">
         <v>0</v>
@@ -11151,60 +11455,61 @@
         <v>0</v>
       </c>
       <c r="Q23" s="14">
-        <v>2400000</v>
+        <v>1530000</v>
       </c>
       <c r="R23" s="14"/>
       <c r="S23" s="14">
         <v>1</v>
       </c>
       <c r="T23" s="14">
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="U23" s="14">
-        <v>600000</v>
+        <v>540000</v>
       </c>
       <c r="V23" s="14">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="W23" s="14">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="X23" s="14">
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="Y23" s="14">
-        <v>600000</v>
+        <v>540000</v>
       </c>
       <c r="Z23" s="14">
-        <v>1600000</v>
+        <f t="shared" ref="Z23:Z30" si="5">X23+Y23</f>
+        <v>1440000</v>
       </c>
       <c r="AA23" s="14"/>
       <c r="AB23" s="14">
         <v>0</v>
       </c>
       <c r="AC23" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD23" s="14">
-        <v>800000</v>
+        <v>90000</v>
       </c>
       <c r="AE23" s="14">
-        <v>1600000</v>
+        <v>1440000</v>
       </c>
       <c r="AF23" s="14">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="14">
         <v>0</v>
       </c>
       <c r="AH23" s="14">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="14">
         <v>0</v>
       </c>
       <c r="AJ23" s="14">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="AK23" s="14">
         <v>0</v>
@@ -11212,16 +11517,17 @@
       <c r="AL23" s="14">
         <v>0</v>
       </c>
-      <c r="AM23" s="14">
-        <v>2400000</v>
+      <c r="AM23" s="51">
+        <f t="shared" ref="AM23:AM30" si="6">SUM(AE23:AL23)</f>
+        <v>1530000</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A24" s="5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>22</v>
@@ -11249,13 +11555,13 @@
         <v>200</v>
       </c>
       <c r="L24" s="14">
-        <v>2400000</v>
+        <v>2070000</v>
       </c>
       <c r="M24" s="6">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="N24" s="6">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="O24" s="15" t="s">
         <v>69</v>
@@ -11264,60 +11570,61 @@
         <v>0</v>
       </c>
       <c r="Q24" s="14">
-        <v>400000</v>
+        <v>2070000</v>
       </c>
       <c r="R24" s="14"/>
       <c r="S24" s="14">
         <v>1</v>
       </c>
       <c r="T24" s="14">
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="U24" s="14">
-        <v>600000</v>
+        <v>540000</v>
       </c>
       <c r="V24" s="14">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="W24" s="14">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="X24" s="14">
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="Y24" s="14">
-        <v>600000</v>
+        <v>540000</v>
       </c>
       <c r="Z24" s="14">
-        <v>1600000</v>
+        <f t="shared" si="5"/>
+        <v>1440000</v>
       </c>
       <c r="AA24" s="14"/>
       <c r="AB24" s="14">
         <v>0</v>
       </c>
       <c r="AC24" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD24" s="14">
-        <v>800000</v>
+        <v>630000</v>
       </c>
       <c r="AE24" s="14">
-        <v>1600000</v>
+        <v>1440000</v>
       </c>
       <c r="AF24" s="14">
-        <v>600000</v>
+        <v>540000</v>
       </c>
       <c r="AG24" s="14">
         <v>0</v>
       </c>
       <c r="AH24" s="14">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="AI24" s="14">
         <v>0</v>
       </c>
       <c r="AJ24" s="14">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="AK24" s="14">
         <v>0</v>
@@ -11325,16 +11632,17 @@
       <c r="AL24" s="14">
         <v>0</v>
       </c>
-      <c r="AM24" s="14">
-        <v>2400000</v>
+      <c r="AM24" s="51">
+        <f t="shared" si="6"/>
+        <v>2070000</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A25" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>22</v>
@@ -11362,7 +11670,7 @@
         <v>200</v>
       </c>
       <c r="L25" s="14">
-        <v>2100000</v>
+        <v>2160000</v>
       </c>
       <c r="M25" s="6">
         <v>0</v>
@@ -11377,60 +11685,61 @@
         <v>0</v>
       </c>
       <c r="Q25" s="14">
-        <v>2100000</v>
+        <v>2160000</v>
       </c>
       <c r="R25" s="14"/>
       <c r="S25" s="14">
         <v>1</v>
       </c>
       <c r="T25" s="14">
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="U25" s="14">
-        <v>600000</v>
+        <v>540000</v>
       </c>
       <c r="V25" s="14">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="W25" s="14">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="X25" s="14">
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="Y25" s="14">
-        <v>600000</v>
+        <v>540000</v>
       </c>
       <c r="Z25" s="14">
-        <v>1600000</v>
+        <f t="shared" si="5"/>
+        <v>1440000</v>
       </c>
       <c r="AA25" s="14"/>
       <c r="AB25" s="14">
         <v>0</v>
       </c>
       <c r="AC25" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD25" s="14">
-        <v>500000</v>
+        <v>720000</v>
       </c>
       <c r="AE25" s="14">
-        <v>1600000</v>
+        <v>1440000</v>
       </c>
       <c r="AF25" s="14">
-        <v>400000</v>
+        <v>540000</v>
       </c>
       <c r="AG25" s="14">
         <v>0</v>
       </c>
       <c r="AH25" s="14">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="14">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="AJ25" s="14">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="AK25" s="14">
         <v>0</v>
@@ -11438,16 +11747,17 @@
       <c r="AL25" s="14">
         <v>0</v>
       </c>
-      <c r="AM25" s="14">
-        <v>2100000</v>
+      <c r="AM25" s="51">
+        <f t="shared" si="6"/>
+        <v>2160000</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A26" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>22</v>
@@ -11475,7 +11785,7 @@
         <v>200</v>
       </c>
       <c r="L26" s="14">
-        <v>4200000</v>
+        <v>2250000</v>
       </c>
       <c r="M26" s="6">
         <v>0</v>
@@ -11490,60 +11800,61 @@
         <v>0</v>
       </c>
       <c r="Q26" s="14">
-        <v>4200000</v>
+        <v>2250000</v>
       </c>
       <c r="R26" s="14"/>
       <c r="S26" s="14">
         <v>1</v>
       </c>
       <c r="T26" s="14">
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="U26" s="14">
-        <v>600000</v>
+        <v>540000</v>
       </c>
       <c r="V26" s="14">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="W26" s="14">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="X26" s="14">
-        <v>2000000</v>
+        <v>900000</v>
       </c>
       <c r="Y26" s="14">
-        <v>1200000</v>
+        <v>540000</v>
       </c>
       <c r="Z26" s="14">
-        <v>3200000</v>
+        <f t="shared" si="5"/>
+        <v>1440000</v>
       </c>
       <c r="AA26" s="14"/>
       <c r="AB26" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD26" s="14">
-        <v>1000000</v>
+        <v>810000</v>
       </c>
       <c r="AE26" s="14">
-        <v>1600000</v>
+        <v>1440000</v>
       </c>
       <c r="AF26" s="14">
-        <v>400000</v>
+        <v>540000</v>
       </c>
       <c r="AG26" s="14">
         <v>0</v>
       </c>
       <c r="AH26" s="14">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="14">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="AJ26" s="14">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="AK26" s="14">
         <v>0</v>
@@ -11551,16 +11862,17 @@
       <c r="AL26" s="14">
         <v>0</v>
       </c>
-      <c r="AM26" s="14">
-        <v>2100000</v>
+      <c r="AM26" s="51">
+        <f t="shared" si="6"/>
+        <v>2250000</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A27" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>22</v>
@@ -11582,19 +11894,19 @@
         <v>27</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="K27" s="9">
         <v>200</v>
       </c>
-      <c r="L27" s="6">
-        <v>2000000</v>
+      <c r="L27" s="14">
+        <v>2340000</v>
       </c>
       <c r="M27" s="6">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="N27" s="6">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="O27" s="15" t="s">
         <v>69</v>
@@ -11602,49 +11914,50 @@
       <c r="P27" s="6">
         <v>0</v>
       </c>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14" t="s">
-        <v>80</v>
-      </c>
+      <c r="Q27" s="14">
+        <v>2340000</v>
+      </c>
+      <c r="R27" s="14"/>
       <c r="S27" s="14">
         <v>1</v>
       </c>
       <c r="T27" s="14">
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="U27" s="14">
-        <v>600000</v>
+        <v>540000</v>
       </c>
       <c r="V27" s="14">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="W27" s="14">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="X27" s="14">
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="Y27" s="14">
-        <v>600000</v>
+        <v>540000</v>
       </c>
       <c r="Z27" s="14">
-        <v>1600000</v>
+        <f t="shared" si="5"/>
+        <v>1440000</v>
       </c>
       <c r="AA27" s="14"/>
       <c r="AB27" s="14">
         <v>0</v>
       </c>
       <c r="AC27" s="14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD27" s="14">
-        <v>400000</v>
+        <v>900000</v>
       </c>
       <c r="AE27" s="14">
-        <v>1600000</v>
+        <v>1440000</v>
       </c>
       <c r="AF27" s="14">
-        <v>400000</v>
+        <v>540000</v>
       </c>
       <c r="AG27" s="14">
         <v>0</v>
@@ -11653,27 +11966,28 @@
         <v>0</v>
       </c>
       <c r="AI27" s="14">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="AJ27" s="14">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="AK27" s="14">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="AL27" s="14">
         <v>0</v>
       </c>
-      <c r="AM27" s="14">
-        <v>2000000</v>
+      <c r="AM27" s="51">
+        <f t="shared" si="6"/>
+        <v>2340000</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A28" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>22</v>
@@ -11701,7 +12015,7 @@
         <v>200</v>
       </c>
       <c r="L28" s="14">
-        <v>1600000</v>
+        <v>2430000</v>
       </c>
       <c r="M28" s="6">
         <v>0</v>
@@ -11716,77 +12030,79 @@
         <v>0</v>
       </c>
       <c r="Q28" s="14">
-        <v>1600000</v>
+        <v>2430000</v>
       </c>
       <c r="R28" s="14"/>
       <c r="S28" s="14">
         <v>1</v>
       </c>
       <c r="T28" s="14">
-        <v>800000</v>
+        <v>900000</v>
       </c>
       <c r="U28" s="14">
-        <v>400000</v>
+        <v>540000</v>
       </c>
       <c r="V28" s="14">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="W28" s="14">
-        <v>200000</v>
+        <v>60000</v>
       </c>
       <c r="X28" s="14">
-        <v>800000</v>
+        <v>900000</v>
       </c>
       <c r="Y28" s="14">
-        <v>400000</v>
+        <v>540000</v>
       </c>
       <c r="Z28" s="14">
-        <v>1200000</v>
+        <f t="shared" si="5"/>
+        <v>1440000</v>
       </c>
       <c r="AA28" s="14"/>
       <c r="AB28" s="14">
         <v>0</v>
       </c>
       <c r="AC28" s="14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AD28" s="14">
-        <v>400000</v>
+        <v>990000</v>
       </c>
       <c r="AE28" s="14">
-        <v>1200000</v>
+        <v>1440000</v>
       </c>
       <c r="AF28" s="14">
-        <v>400000</v>
+        <v>540000</v>
       </c>
       <c r="AG28" s="14">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="AH28" s="14">
         <v>0</v>
       </c>
       <c r="AI28" s="14">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="AJ28" s="14">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="AK28" s="14">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="AL28" s="14">
         <v>0</v>
       </c>
-      <c r="AM28" s="14">
-        <v>1600000</v>
+      <c r="AM28" s="51">
+        <f t="shared" si="6"/>
+        <v>2430000</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
       <c r="A29" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>22</v>
@@ -11814,7 +12130,7 @@
         <v>200</v>
       </c>
       <c r="L29" s="14">
-        <v>1200000</v>
+        <v>2520000</v>
       </c>
       <c r="M29" s="6">
         <v>0</v>
@@ -11829,82 +12145,1860 @@
         <v>0</v>
       </c>
       <c r="Q29" s="14">
-        <v>1200000</v>
+        <v>2520000</v>
       </c>
       <c r="R29" s="14"/>
       <c r="S29" s="14">
         <v>1</v>
       </c>
       <c r="T29" s="14">
-        <v>800000</v>
+        <v>900000</v>
       </c>
       <c r="U29" s="14">
-        <v>400000</v>
+        <v>540000</v>
       </c>
       <c r="V29" s="14">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="W29" s="14">
-        <v>200000</v>
+        <v>60000</v>
       </c>
       <c r="X29" s="14">
-        <v>800000</v>
+        <v>900000</v>
       </c>
       <c r="Y29" s="14">
-        <v>400000</v>
+        <v>540000</v>
       </c>
       <c r="Z29" s="14">
-        <v>1200000</v>
+        <f t="shared" si="5"/>
+        <v>1440000</v>
       </c>
       <c r="AA29" s="14"/>
       <c r="AB29" s="14">
         <v>0</v>
       </c>
       <c r="AC29" s="14">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="14">
+        <v>1080000</v>
+      </c>
+      <c r="AE29" s="14">
+        <v>1440000</v>
+      </c>
+      <c r="AF29" s="14">
+        <v>630000</v>
+      </c>
+      <c r="AG29" s="14">
+        <v>90000</v>
+      </c>
+      <c r="AH29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="14">
+        <v>90000</v>
+      </c>
+      <c r="AJ29" s="14">
+        <v>180000</v>
+      </c>
+      <c r="AK29" s="14">
+        <v>90000</v>
+      </c>
+      <c r="AL29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="51">
+        <f t="shared" si="6"/>
+        <v>2520000</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="73" customHeight="1" spans="1:39">
+      <c r="A30" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" s="9">
+        <v>200</v>
+      </c>
+      <c r="L30" s="14">
+        <v>2610000</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>2610000</v>
+      </c>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14">
+        <v>1</v>
+      </c>
+      <c r="T30" s="14">
+        <v>900000</v>
+      </c>
+      <c r="U30" s="14">
+        <v>540000</v>
+      </c>
+      <c r="V30" s="14">
+        <v>100000</v>
+      </c>
+      <c r="W30" s="14">
+        <v>60000</v>
+      </c>
+      <c r="X30" s="14">
+        <v>900000</v>
+      </c>
+      <c r="Y30" s="14">
+        <v>540000</v>
+      </c>
+      <c r="Z30" s="14">
+        <f t="shared" si="5"/>
+        <v>1440000</v>
+      </c>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="14">
+        <v>9</v>
+      </c>
+      <c r="AD30" s="14">
+        <v>1170000</v>
+      </c>
+      <c r="AE30" s="14">
+        <v>1440000</v>
+      </c>
+      <c r="AF30" s="14">
+        <v>630000</v>
+      </c>
+      <c r="AG30" s="14">
+        <v>90000</v>
+      </c>
+      <c r="AH30" s="14">
+        <v>90000</v>
+      </c>
+      <c r="AI30" s="14">
+        <v>90000</v>
+      </c>
+      <c r="AJ30" s="14">
+        <v>180000</v>
+      </c>
+      <c r="AK30" s="14">
+        <v>90000</v>
+      </c>
+      <c r="AL30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="51">
+        <f t="shared" si="6"/>
+        <v>2610000</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A31" s="5"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="14"/>
+      <c r="AK31" s="14"/>
+      <c r="AL31" s="14"/>
+      <c r="AM31" s="14"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A32" s="5"/>
+      <c r="B32" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="14"/>
+      <c r="AL32" s="14"/>
+      <c r="AM32" s="14"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A33" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" s="9">
+        <v>200</v>
+      </c>
+      <c r="L33" s="14">
+        <v>250000</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>250000</v>
+      </c>
+      <c r="R33" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="S33" s="14">
+        <v>1</v>
+      </c>
+      <c r="T33" s="14">
+        <v>100000</v>
+      </c>
+      <c r="U33" s="14">
+        <v>100000</v>
+      </c>
+      <c r="V33" s="14">
+        <v>0</v>
+      </c>
+      <c r="W33" s="14">
+        <v>0</v>
+      </c>
+      <c r="X33" s="14">
+        <v>100000</v>
+      </c>
+      <c r="Y33" s="14">
+        <v>100000</v>
+      </c>
+      <c r="Z33" s="14">
+        <f t="shared" ref="Z33:Z35" si="7">X33+Y33</f>
+        <v>200000</v>
+      </c>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AE33" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AF33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AK33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="51">
+        <f t="shared" ref="AM33:AM35" si="8">SUM(AE33:AL33)</f>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A34" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34" s="9">
+        <v>200</v>
+      </c>
+      <c r="L34" s="14">
+        <v>550000</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0</v>
+      </c>
+      <c r="O34" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P34" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="14">
+        <v>550000</v>
+      </c>
+      <c r="R34" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="S34" s="14">
+        <v>1</v>
+      </c>
+      <c r="T34" s="14">
+        <v>100000</v>
+      </c>
+      <c r="U34" s="14">
+        <v>100000</v>
+      </c>
+      <c r="V34" s="14">
+        <v>0</v>
+      </c>
+      <c r="W34" s="14">
+        <v>0</v>
+      </c>
+      <c r="X34" s="14">
+        <v>100000</v>
+      </c>
+      <c r="Y34" s="14">
+        <v>100000</v>
+      </c>
+      <c r="Z34" s="14">
+        <f t="shared" si="7"/>
+        <v>200000</v>
+      </c>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD34" s="14">
+        <v>350000</v>
+      </c>
+      <c r="AE34" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AF34" s="14">
+        <v>300000</v>
+      </c>
+      <c r="AG34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AK34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="51">
+        <f t="shared" si="8"/>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35" s="9">
+        <v>200</v>
+      </c>
+      <c r="L35" s="14">
+        <v>650000</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6">
+        <v>0</v>
+      </c>
+      <c r="O35" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="14">
+        <v>650000</v>
+      </c>
+      <c r="R35" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="S35" s="14">
+        <v>1</v>
+      </c>
+      <c r="T35" s="14">
+        <v>100000</v>
+      </c>
+      <c r="U35" s="14">
+        <v>100000</v>
+      </c>
+      <c r="V35" s="14">
+        <v>0</v>
+      </c>
+      <c r="W35" s="14">
+        <v>0</v>
+      </c>
+      <c r="X35" s="14">
+        <v>100000</v>
+      </c>
+      <c r="Y35" s="14">
+        <v>100000</v>
+      </c>
+      <c r="Z35" s="14">
+        <f t="shared" si="7"/>
+        <v>200000</v>
+      </c>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="14">
+        <v>4</v>
+      </c>
+      <c r="AD35" s="14">
+        <v>450000</v>
+      </c>
+      <c r="AE35" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AF35" s="14">
+        <v>300000</v>
+      </c>
+      <c r="AG35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AJ35" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AK35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="51">
+        <f t="shared" si="8"/>
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A36" s="5"/>
+      <c r="B36" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="14"/>
+      <c r="AK36" s="14"/>
+      <c r="AL36" s="14"/>
+      <c r="AM36" s="14"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A37" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K37" s="9">
+        <v>200</v>
+      </c>
+      <c r="L37" s="14">
+        <v>250000</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6">
+        <v>0</v>
+      </c>
+      <c r="O37" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P37" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="14">
+        <v>250000</v>
+      </c>
+      <c r="R37" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="S37" s="14">
+        <v>1</v>
+      </c>
+      <c r="T37" s="14">
+        <v>100000</v>
+      </c>
+      <c r="U37" s="14">
+        <v>100000</v>
+      </c>
+      <c r="V37" s="14">
+        <v>0</v>
+      </c>
+      <c r="W37" s="14">
+        <v>0</v>
+      </c>
+      <c r="X37" s="14">
+        <v>100000</v>
+      </c>
+      <c r="Y37" s="14">
+        <v>100000</v>
+      </c>
+      <c r="Z37" s="14">
+        <f t="shared" ref="Z37:Z39" si="9">X37+Y37</f>
+        <v>200000</v>
+      </c>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AE37" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AF37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AK37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="51">
+        <f t="shared" ref="AM37:AM39" si="10">SUM(AE37:AL37)</f>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A38" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K38" s="9">
+        <v>200</v>
+      </c>
+      <c r="L38" s="14">
+        <v>550000</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6">
+        <v>0</v>
+      </c>
+      <c r="O38" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P38" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="14">
+        <v>550000</v>
+      </c>
+      <c r="R38" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="S38" s="14">
+        <v>1</v>
+      </c>
+      <c r="T38" s="14">
+        <v>100000</v>
+      </c>
+      <c r="U38" s="14">
+        <v>100000</v>
+      </c>
+      <c r="V38" s="14">
+        <v>0</v>
+      </c>
+      <c r="W38" s="14">
+        <v>0</v>
+      </c>
+      <c r="X38" s="14">
+        <v>100000</v>
+      </c>
+      <c r="Y38" s="14">
+        <v>100000</v>
+      </c>
+      <c r="Z38" s="14">
+        <f t="shared" si="9"/>
+        <v>200000</v>
+      </c>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD38" s="14">
+        <v>350000</v>
+      </c>
+      <c r="AE38" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AF38" s="14">
+        <v>300000</v>
+      </c>
+      <c r="AG38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AK38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="51">
+        <f t="shared" si="10"/>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A39" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39" s="9">
+        <v>200</v>
+      </c>
+      <c r="L39" s="14">
+        <v>650000</v>
+      </c>
+      <c r="M39" s="6">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6">
+        <v>0</v>
+      </c>
+      <c r="O39" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P39" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="14">
+        <v>650000</v>
+      </c>
+      <c r="R39" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="S39" s="14">
+        <v>1</v>
+      </c>
+      <c r="T39" s="14">
+        <v>100000</v>
+      </c>
+      <c r="U39" s="14">
+        <v>100000</v>
+      </c>
+      <c r="V39" s="14">
+        <v>0</v>
+      </c>
+      <c r="W39" s="14">
+        <v>0</v>
+      </c>
+      <c r="X39" s="14">
+        <v>100000</v>
+      </c>
+      <c r="Y39" s="14">
+        <v>100000</v>
+      </c>
+      <c r="Z39" s="14">
+        <f t="shared" si="9"/>
+        <v>200000</v>
+      </c>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="14">
+        <v>4</v>
+      </c>
+      <c r="AD39" s="14">
+        <v>450000</v>
+      </c>
+      <c r="AE39" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AF39" s="14">
+        <v>300000</v>
+      </c>
+      <c r="AG39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AJ39" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AK39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="51">
+        <f t="shared" si="10"/>
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="14"/>
+      <c r="AI40" s="14"/>
+      <c r="AJ40" s="14"/>
+      <c r="AK40" s="14"/>
+      <c r="AL40" s="14"/>
+      <c r="AM40" s="14"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A41" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K41" s="9">
+        <v>200</v>
+      </c>
+      <c r="L41" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="M41" s="6">
+        <v>0</v>
+      </c>
+      <c r="N41" s="6">
+        <v>0</v>
+      </c>
+      <c r="O41" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P41" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14">
+        <v>1</v>
+      </c>
+      <c r="T41" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U41" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V41" s="14">
+        <v>0</v>
+      </c>
+      <c r="W41" s="14">
+        <v>0</v>
+      </c>
+      <c r="X41" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y41" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z41" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="14">
+        <v>4</v>
+      </c>
+      <c r="AD41" s="14">
+        <v>800000</v>
+      </c>
+      <c r="AE41" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AF41" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AG41" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AI41" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="14">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A42" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K42" s="9">
+        <v>200</v>
+      </c>
+      <c r="L42" s="14">
+        <v>2400000</v>
+      </c>
+      <c r="M42" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="N42" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="O42" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P42" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="14">
+        <v>400000</v>
+      </c>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14">
+        <v>1</v>
+      </c>
+      <c r="T42" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U42" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V42" s="14">
+        <v>0</v>
+      </c>
+      <c r="W42" s="14">
+        <v>0</v>
+      </c>
+      <c r="X42" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y42" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z42" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="14">
+        <v>4</v>
+      </c>
+      <c r="AD42" s="14">
+        <v>800000</v>
+      </c>
+      <c r="AE42" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AF42" s="14">
+        <v>600000</v>
+      </c>
+      <c r="AG42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="14">
+        <v>200000</v>
+      </c>
+      <c r="AI42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="14">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A43" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K43" s="9">
+        <v>200</v>
+      </c>
+      <c r="L43" s="14">
+        <v>2100000</v>
+      </c>
+      <c r="M43" s="6">
+        <v>0</v>
+      </c>
+      <c r="N43" s="6">
+        <v>0</v>
+      </c>
+      <c r="O43" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P43" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="14">
+        <v>2100000</v>
+      </c>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14">
+        <v>1</v>
+      </c>
+      <c r="T43" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U43" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V43" s="14">
+        <v>0</v>
+      </c>
+      <c r="W43" s="14">
+        <v>0</v>
+      </c>
+      <c r="X43" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y43" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z43" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="14">
         <v>2</v>
       </c>
-      <c r="AD29" s="14">
+      <c r="AD43" s="14">
+        <v>500000</v>
+      </c>
+      <c r="AE43" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AF43" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AG43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AI43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="14">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A44" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K44" s="9">
+        <v>200</v>
+      </c>
+      <c r="L44" s="14">
+        <v>4200000</v>
+      </c>
+      <c r="M44" s="6">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6">
+        <v>0</v>
+      </c>
+      <c r="O44" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P44" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="14">
+        <v>4200000</v>
+      </c>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14">
+        <v>1</v>
+      </c>
+      <c r="T44" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U44" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V44" s="14">
+        <v>0</v>
+      </c>
+      <c r="W44" s="14">
+        <v>0</v>
+      </c>
+      <c r="X44" s="14">
+        <v>2000000</v>
+      </c>
+      <c r="Y44" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="Z44" s="14">
+        <v>3200000</v>
+      </c>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="14">
+        <v>4</v>
+      </c>
+      <c r="AD44" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="AE44" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AF44" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AG44" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="14">
+        <v>100000</v>
+      </c>
+      <c r="AI44" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="14">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A45" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K45" s="9">
+        <v>200</v>
+      </c>
+      <c r="L45" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="M45" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="N45" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="O45" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P45" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="S45" s="14">
+        <v>1</v>
+      </c>
+      <c r="T45" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="U45" s="14">
+        <v>600000</v>
+      </c>
+      <c r="V45" s="14">
+        <v>0</v>
+      </c>
+      <c r="W45" s="14">
+        <v>0</v>
+      </c>
+      <c r="X45" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="Y45" s="14">
+        <v>600000</v>
+      </c>
+      <c r="Z45" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AE45" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="AF45" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AG45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="14">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A46" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K46" s="9">
+        <v>200</v>
+      </c>
+      <c r="L46" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="M46" s="6">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6">
+        <v>0</v>
+      </c>
+      <c r="O46" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P46" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="14">
+        <v>1600000</v>
+      </c>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14">
+        <v>1</v>
+      </c>
+      <c r="T46" s="14">
         <v>800000</v>
       </c>
-      <c r="AE29" s="14">
+      <c r="U46" s="14">
+        <v>400000</v>
+      </c>
+      <c r="V46" s="14">
+        <v>200000</v>
+      </c>
+      <c r="W46" s="14">
+        <v>200000</v>
+      </c>
+      <c r="X46" s="14">
+        <v>800000</v>
+      </c>
+      <c r="Y46" s="14">
+        <v>400000</v>
+      </c>
+      <c r="Z46" s="14">
         <v>1200000</v>
       </c>
-      <c r="AF29" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM29" s="14">
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD46" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AE46" s="14">
         <v>1200000</v>
       </c>
+      <c r="AF46" s="14">
+        <v>400000</v>
+      </c>
+      <c r="AG46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="14">
+        <v>1600000</v>
+      </c>
     </row>
-    <row r="32" customHeight="1" spans="12:12">
-      <c r="L32" s="36"/>
+    <row r="47" s="1" customFormat="1" ht="52" customHeight="1" spans="1:39">
+      <c r="A47" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K47" s="9">
+        <v>200</v>
+      </c>
+      <c r="L47" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="M47" s="6">
+        <v>0</v>
+      </c>
+      <c r="N47" s="6">
+        <v>0</v>
+      </c>
+      <c r="O47" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P47" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14">
+        <v>1</v>
+      </c>
+      <c r="T47" s="14">
+        <v>800000</v>
+      </c>
+      <c r="U47" s="14">
+        <v>400000</v>
+      </c>
+      <c r="V47" s="14">
+        <v>200000</v>
+      </c>
+      <c r="W47" s="14">
+        <v>200000</v>
+      </c>
+      <c r="X47" s="14">
+        <v>800000</v>
+      </c>
+      <c r="Y47" s="14">
+        <v>400000</v>
+      </c>
+      <c r="Z47" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD47" s="14">
+        <v>800000</v>
+      </c>
+      <c r="AE47" s="14">
+        <v>1200000</v>
+      </c>
+      <c r="AF47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="14">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="12:12">
+      <c r="L50" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B36:F36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -12073,10 +14167,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -12185,10 +14279,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A3" s="5" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -12297,10 +14391,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A4" s="5" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -12409,10 +14503,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A5" s="5" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -12434,7 +14528,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -12458,7 +14552,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="S5" s="14">
         <v>1</v>
@@ -12523,10 +14617,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A6" s="5" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>22</v>
@@ -12548,7 +14642,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="K6" s="9">
         <v>200</v>
@@ -12572,7 +14666,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="S6" s="14">
         <v>1</v>
@@ -12810,10 +14904,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -12922,10 +15016,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A3" s="5" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -13034,10 +15128,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A4" s="5" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -13146,10 +15240,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A5" s="5" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -13171,7 +15265,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -13193,7 +15287,7 @@
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="14" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="S5" s="14">
         <v>1</v>
@@ -13427,10 +15521,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -13540,10 +15634,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A3" s="5" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -13653,10 +15747,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A4" s="5" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -13765,10 +15859,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:38">
       <c r="A5" s="5" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -13790,7 +15884,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -13812,7 +15906,7 @@
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="14" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="S5" s="14">
         <v>1</v>
@@ -13947,7 +16041,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>9</v>
@@ -13994,10 +16088,10 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A2" s="5" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>22</v>
@@ -14019,7 +16113,7 @@
         <v>69</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="K2" s="9">
         <v>200</v>
@@ -14059,10 +16153,10 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A3" s="5" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -14084,7 +16178,7 @@
         <v>69</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="K3" s="9">
         <v>200</v>
@@ -14124,10 +16218,10 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A4" s="5" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>22</v>
@@ -14149,7 +16243,7 @@
         <v>69</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="K4" s="9">
         <v>200</v>
@@ -14189,10 +16283,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A5" s="5" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>22</v>
@@ -14214,7 +16308,7 @@
         <v>69</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="K5" s="9">
         <v>200</v>
@@ -14256,10 +16350,10 @@
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:23">
       <c r="A6" s="5" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>22</v>
@@ -14281,7 +16375,7 @@
         <v>69</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K6" s="9">
         <v>200</v>
@@ -14297,7 +16391,7 @@
       </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="Q6" s="14">
         <v>1</v>

--- a/src/main/resources/input_excel_file/booking/CICO.xlsx
+++ b/src/main/resources/input_excel_file/booking/CICO.xlsx
@@ -1720,12 +1720,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -9481,10 +9481,10 @@
   <sheetPr/>
   <dimension ref="A1:BD130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="AI1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AS13" sqref="AS13"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
